--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3625800</v>
+        <v>4699700</v>
       </c>
       <c r="E8" s="3">
-        <v>3506800</v>
+        <v>3705600</v>
       </c>
       <c r="F8" s="3">
-        <v>3188600</v>
+        <v>3584000</v>
       </c>
       <c r="G8" s="3">
-        <v>4546500</v>
+        <v>3258700</v>
       </c>
       <c r="H8" s="3">
-        <v>3694900</v>
+        <v>4646500</v>
       </c>
       <c r="I8" s="3">
-        <v>3129900</v>
+        <v>3776200</v>
       </c>
       <c r="J8" s="3">
+        <v>3198800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3125000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4356100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3459100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3384500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3031400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4220200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3066800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2948600</v>
+        <v>3871400</v>
       </c>
       <c r="E9" s="3">
-        <v>2984100</v>
+        <v>3013500</v>
       </c>
       <c r="F9" s="3">
-        <v>2740000</v>
+        <v>3049700</v>
       </c>
       <c r="G9" s="3">
-        <v>3786500</v>
+        <v>2800200</v>
       </c>
       <c r="H9" s="3">
-        <v>2982800</v>
+        <v>3869800</v>
       </c>
       <c r="I9" s="3">
-        <v>2671800</v>
+        <v>3048400</v>
       </c>
       <c r="J9" s="3">
+        <v>2730600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2618400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3755500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2755000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2851000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2568800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3558100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2505800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>677200</v>
+        <v>828400</v>
       </c>
       <c r="E10" s="3">
-        <v>522700</v>
+        <v>692100</v>
       </c>
       <c r="F10" s="3">
-        <v>448600</v>
+        <v>534200</v>
       </c>
       <c r="G10" s="3">
-        <v>760000</v>
+        <v>458500</v>
       </c>
       <c r="H10" s="3">
-        <v>712100</v>
+        <v>776700</v>
       </c>
       <c r="I10" s="3">
-        <v>458100</v>
+        <v>727700</v>
       </c>
       <c r="J10" s="3">
+        <v>468200</v>
+      </c>
+      <c r="K10" s="3">
         <v>506600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>704100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>533500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>462600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>662000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>561100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>114800</v>
+        <v>150800</v>
       </c>
       <c r="E12" s="3">
-        <v>114700</v>
+        <v>117400</v>
       </c>
       <c r="F12" s="3">
-        <v>101100</v>
+        <v>117200</v>
       </c>
       <c r="G12" s="3">
-        <v>139100</v>
+        <v>103300</v>
       </c>
       <c r="H12" s="3">
-        <v>110800</v>
+        <v>142200</v>
       </c>
       <c r="I12" s="3">
-        <v>99200</v>
+        <v>113200</v>
       </c>
       <c r="J12" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K12" s="3">
         <v>93800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>129900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>94100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>101300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>85500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>113200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>90400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>21700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>22100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1014,14 +1034,14 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>116000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3444700</v>
+        <v>4411000</v>
       </c>
       <c r="E17" s="3">
-        <v>3437800</v>
+        <v>3520500</v>
       </c>
       <c r="F17" s="3">
-        <v>3178700</v>
+        <v>3513500</v>
       </c>
       <c r="G17" s="3">
-        <v>4299400</v>
+        <v>3248600</v>
       </c>
       <c r="H17" s="3">
-        <v>3436800</v>
+        <v>4394000</v>
       </c>
       <c r="I17" s="3">
-        <v>3117600</v>
+        <v>3512400</v>
       </c>
       <c r="J17" s="3">
+        <v>3186200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3060400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4254200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3317200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3283200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2987000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4015400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2939200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>181100</v>
+        <v>288700</v>
       </c>
       <c r="E18" s="3">
-        <v>69000</v>
+        <v>185100</v>
       </c>
       <c r="F18" s="3">
-        <v>9900</v>
+        <v>70500</v>
       </c>
       <c r="G18" s="3">
-        <v>247000</v>
+        <v>10100</v>
       </c>
       <c r="H18" s="3">
-        <v>258100</v>
+        <v>252400</v>
       </c>
       <c r="I18" s="3">
-        <v>12300</v>
+        <v>263800</v>
       </c>
       <c r="J18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K18" s="3">
         <v>64600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>102000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>141900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>101300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>204800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>127600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-62100</v>
+        <v>-48300</v>
       </c>
       <c r="E20" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-41500</v>
-      </c>
       <c r="G20" s="3">
-        <v>-75000</v>
+        <v>-42400</v>
       </c>
       <c r="H20" s="3">
-        <v>-70700</v>
+        <v>-76700</v>
       </c>
       <c r="I20" s="3">
-        <v>-80900</v>
+        <v>-72300</v>
       </c>
       <c r="J20" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-77600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>98500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>258100</v>
+        <v>387700</v>
       </c>
       <c r="E21" s="3">
-        <v>207500</v>
+        <v>263800</v>
       </c>
       <c r="F21" s="3">
-        <v>102500</v>
+        <v>212100</v>
       </c>
       <c r="G21" s="3">
-        <v>308000</v>
+        <v>104700</v>
       </c>
       <c r="H21" s="3">
-        <v>321200</v>
+        <v>314700</v>
       </c>
       <c r="I21" s="3">
-        <v>64500</v>
+        <v>328300</v>
       </c>
       <c r="J21" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K21" s="3">
         <v>218200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>190700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>243500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>218900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>177900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>246600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>341100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8400</v>
+        <v>7700</v>
       </c>
       <c r="E22" s="3">
         <v>8600</v>
       </c>
       <c r="F22" s="3">
-        <v>8300</v>
+        <v>8800</v>
       </c>
       <c r="G22" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="H22" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="I22" s="3">
-        <v>7200</v>
+        <v>8900</v>
       </c>
       <c r="J22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>6100</v>
       </c>
       <c r="M22" s="3">
         <v>6100</v>
       </c>
       <c r="N22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="O22" s="3">
         <v>6000</v>
       </c>
       <c r="P22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>6700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>110600</v>
+        <v>232700</v>
       </c>
       <c r="E23" s="3">
-        <v>59100</v>
+        <v>113000</v>
       </c>
       <c r="F23" s="3">
-        <v>-39900</v>
+        <v>60400</v>
       </c>
       <c r="G23" s="3">
-        <v>163600</v>
+        <v>-40800</v>
       </c>
       <c r="H23" s="3">
-        <v>178700</v>
+        <v>167200</v>
       </c>
       <c r="I23" s="3">
-        <v>-75800</v>
+        <v>182600</v>
       </c>
       <c r="J23" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="K23" s="3">
         <v>77700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>108900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>121200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>219400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29900</v>
+        <v>98800</v>
       </c>
       <c r="E24" s="3">
-        <v>14000</v>
+        <v>30600</v>
       </c>
       <c r="F24" s="3">
-        <v>32500</v>
+        <v>14300</v>
       </c>
       <c r="G24" s="3">
-        <v>11800</v>
+        <v>33200</v>
       </c>
       <c r="H24" s="3">
-        <v>34400</v>
+        <v>12100</v>
       </c>
       <c r="I24" s="3">
-        <v>-24500</v>
+        <v>35100</v>
       </c>
       <c r="J24" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K24" s="3">
         <v>51200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-83100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>80600</v>
+        <v>134000</v>
       </c>
       <c r="E26" s="3">
-        <v>45000</v>
+        <v>82400</v>
       </c>
       <c r="F26" s="3">
-        <v>-72400</v>
+        <v>46000</v>
       </c>
       <c r="G26" s="3">
-        <v>151800</v>
+        <v>-74000</v>
       </c>
       <c r="H26" s="3">
-        <v>144300</v>
+        <v>155100</v>
       </c>
       <c r="I26" s="3">
-        <v>-51300</v>
+        <v>147500</v>
       </c>
       <c r="J26" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="K26" s="3">
         <v>26500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>74000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>165300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>77200</v>
+        <v>129100</v>
       </c>
       <c r="E27" s="3">
-        <v>41100</v>
+        <v>78900</v>
       </c>
       <c r="F27" s="3">
-        <v>-75000</v>
+        <v>42000</v>
       </c>
       <c r="G27" s="3">
-        <v>146100</v>
+        <v>-76600</v>
       </c>
       <c r="H27" s="3">
-        <v>136100</v>
+        <v>149300</v>
       </c>
       <c r="I27" s="3">
-        <v>-55900</v>
+        <v>139100</v>
       </c>
       <c r="J27" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K27" s="3">
         <v>23300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>130100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>73000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>161600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>62100</v>
+        <v>48300</v>
       </c>
       <c r="E32" s="3">
+        <v>63400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
-        <v>41500</v>
-      </c>
       <c r="G32" s="3">
-        <v>75000</v>
+        <v>42400</v>
       </c>
       <c r="H32" s="3">
-        <v>70700</v>
+        <v>76700</v>
       </c>
       <c r="I32" s="3">
-        <v>80900</v>
+        <v>72300</v>
       </c>
       <c r="J32" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>77600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-98500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>77200</v>
+        <v>129100</v>
       </c>
       <c r="E33" s="3">
-        <v>41100</v>
+        <v>78900</v>
       </c>
       <c r="F33" s="3">
-        <v>-75000</v>
+        <v>42000</v>
       </c>
       <c r="G33" s="3">
-        <v>146100</v>
+        <v>-76600</v>
       </c>
       <c r="H33" s="3">
-        <v>136100</v>
+        <v>149300</v>
       </c>
       <c r="I33" s="3">
-        <v>-55900</v>
+        <v>139100</v>
       </c>
       <c r="J33" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K33" s="3">
         <v>23300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>130100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>33100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>73000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>161600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>77200</v>
+        <v>129100</v>
       </c>
       <c r="E35" s="3">
-        <v>41100</v>
+        <v>78900</v>
       </c>
       <c r="F35" s="3">
-        <v>-75000</v>
+        <v>42000</v>
       </c>
       <c r="G35" s="3">
-        <v>146100</v>
+        <v>-76600</v>
       </c>
       <c r="H35" s="3">
-        <v>136100</v>
+        <v>149300</v>
       </c>
       <c r="I35" s="3">
-        <v>-55900</v>
+        <v>139100</v>
       </c>
       <c r="J35" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K35" s="3">
         <v>23300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>130100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>33100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>73000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>161600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>676400</v>
+        <v>985700</v>
       </c>
       <c r="E41" s="3">
-        <v>379400</v>
+        <v>691300</v>
       </c>
       <c r="F41" s="3">
-        <v>403900</v>
+        <v>387700</v>
       </c>
       <c r="G41" s="3">
-        <v>675500</v>
+        <v>412800</v>
       </c>
       <c r="H41" s="3">
-        <v>456000</v>
+        <v>690300</v>
       </c>
       <c r="I41" s="3">
-        <v>521900</v>
+        <v>466000</v>
       </c>
       <c r="J41" s="3">
+        <v>533400</v>
+      </c>
+      <c r="K41" s="3">
         <v>527700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>638500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>455700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>410800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>436300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>491300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>474100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4946400</v>
+        <v>4364800</v>
       </c>
       <c r="E43" s="3">
-        <v>4698000</v>
+        <v>5055300</v>
       </c>
       <c r="F43" s="3">
-        <v>4217900</v>
+        <v>4801400</v>
       </c>
       <c r="G43" s="3">
-        <v>3853000</v>
+        <v>4310700</v>
       </c>
       <c r="H43" s="3">
-        <v>5087900</v>
+        <v>3937800</v>
       </c>
       <c r="I43" s="3">
-        <v>4432200</v>
+        <v>5199800</v>
       </c>
       <c r="J43" s="3">
+        <v>4529800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4362500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4229500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4971000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4402000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4006900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3920900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4383800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6061200</v>
+        <v>5868100</v>
       </c>
       <c r="E44" s="3">
-        <v>5697100</v>
+        <v>6194600</v>
       </c>
       <c r="F44" s="3">
-        <v>5743200</v>
+        <v>5822400</v>
       </c>
       <c r="G44" s="3">
-        <v>5388700</v>
+        <v>5869600</v>
       </c>
       <c r="H44" s="3">
-        <v>5808800</v>
+        <v>5507300</v>
       </c>
       <c r="I44" s="3">
-        <v>5513800</v>
+        <v>5936700</v>
       </c>
       <c r="J44" s="3">
+        <v>5635200</v>
+      </c>
+      <c r="K44" s="3">
         <v>5097500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4562800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5051200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4687700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4559700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4300700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4782900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>602900</v>
+        <v>475500</v>
       </c>
       <c r="E45" s="3">
-        <v>555700</v>
+        <v>616100</v>
       </c>
       <c r="F45" s="3">
-        <v>587600</v>
+        <v>567900</v>
       </c>
       <c r="G45" s="3">
-        <v>412100</v>
+        <v>600500</v>
       </c>
       <c r="H45" s="3">
-        <v>785800</v>
+        <v>421200</v>
       </c>
       <c r="I45" s="3">
-        <v>744900</v>
+        <v>803100</v>
       </c>
       <c r="J45" s="3">
+        <v>761300</v>
+      </c>
+      <c r="K45" s="3">
         <v>773600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>655800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1006500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1066100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1114300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>847500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>969300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12286900</v>
+        <v>11694100</v>
       </c>
       <c r="E46" s="3">
-        <v>11330200</v>
+        <v>12557300</v>
       </c>
       <c r="F46" s="3">
-        <v>10952600</v>
+        <v>11579500</v>
       </c>
       <c r="G46" s="3">
-        <v>10329300</v>
+        <v>11193600</v>
       </c>
       <c r="H46" s="3">
-        <v>12138500</v>
+        <v>10556600</v>
       </c>
       <c r="I46" s="3">
-        <v>11212900</v>
+        <v>12405600</v>
       </c>
       <c r="J46" s="3">
+        <v>11459600</v>
+      </c>
+      <c r="K46" s="3">
         <v>10761400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10086600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11484400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10566600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10117200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9560400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10610100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4406600</v>
+        <v>4483100</v>
       </c>
       <c r="E48" s="3">
-        <v>4416600</v>
+        <v>4503600</v>
       </c>
       <c r="F48" s="3">
-        <v>4423100</v>
+        <v>4513800</v>
       </c>
       <c r="G48" s="3">
-        <v>4414700</v>
+        <v>4520400</v>
       </c>
       <c r="H48" s="3">
-        <v>4393800</v>
+        <v>4511900</v>
       </c>
       <c r="I48" s="3">
-        <v>4393800</v>
+        <v>4490500</v>
       </c>
       <c r="J48" s="3">
+        <v>4490400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4389800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4337400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4329700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4294800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4198900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4096900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3997600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>172500</v>
+        <v>198400</v>
       </c>
       <c r="E49" s="3">
-        <v>170300</v>
+        <v>176300</v>
       </c>
       <c r="F49" s="3">
-        <v>162200</v>
+        <v>174100</v>
       </c>
       <c r="G49" s="3">
-        <v>152700</v>
+        <v>165800</v>
       </c>
       <c r="H49" s="3">
-        <v>147600</v>
+        <v>156000</v>
       </c>
       <c r="I49" s="3">
-        <v>146600</v>
+        <v>150900</v>
       </c>
       <c r="J49" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K49" s="3">
         <v>147200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>146200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>139900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>140700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>135000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>135600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>129900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1812600</v>
+        <v>1829900</v>
       </c>
       <c r="E52" s="3">
-        <v>1819200</v>
+        <v>1852500</v>
       </c>
       <c r="F52" s="3">
-        <v>1850700</v>
+        <v>1859200</v>
       </c>
       <c r="G52" s="3">
-        <v>1831400</v>
+        <v>1891500</v>
       </c>
       <c r="H52" s="3">
-        <v>1543700</v>
+        <v>1871700</v>
       </c>
       <c r="I52" s="3">
-        <v>1554700</v>
+        <v>1577700</v>
       </c>
       <c r="J52" s="3">
+        <v>1588900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1530100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1599800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1276700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1362600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1339200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1304700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1350000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18666700</v>
+        <v>18188400</v>
       </c>
       <c r="E54" s="3">
-        <v>17723500</v>
+        <v>19077400</v>
       </c>
       <c r="F54" s="3">
-        <v>17375900</v>
+        <v>18113500</v>
       </c>
       <c r="G54" s="3">
-        <v>16715200</v>
+        <v>17758200</v>
       </c>
       <c r="H54" s="3">
-        <v>18192200</v>
+        <v>17083000</v>
       </c>
       <c r="I54" s="3">
-        <v>17275900</v>
+        <v>18592500</v>
       </c>
       <c r="J54" s="3">
+        <v>17656100</v>
+      </c>
+      <c r="K54" s="3">
         <v>16797100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16136700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17206800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16230400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15657000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14966900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15952000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3076300</v>
+        <v>3453000</v>
       </c>
       <c r="E57" s="3">
-        <v>2910400</v>
+        <v>3144000</v>
       </c>
       <c r="F57" s="3">
-        <v>3071600</v>
+        <v>2974400</v>
       </c>
       <c r="G57" s="3">
-        <v>3365800</v>
+        <v>3139200</v>
       </c>
       <c r="H57" s="3">
-        <v>3137900</v>
+        <v>3439800</v>
       </c>
       <c r="I57" s="3">
-        <v>3049300</v>
+        <v>3206900</v>
       </c>
       <c r="J57" s="3">
+        <v>3116400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3052900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3283100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3120100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2995600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2794300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3033700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2805600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2576300</v>
+        <v>1744000</v>
       </c>
       <c r="E58" s="3">
-        <v>1702500</v>
+        <v>2633000</v>
       </c>
       <c r="F58" s="3">
-        <v>1277400</v>
+        <v>1740000</v>
       </c>
       <c r="G58" s="3">
-        <v>1003000</v>
+        <v>1305500</v>
       </c>
       <c r="H58" s="3">
-        <v>2115900</v>
+        <v>1025100</v>
       </c>
       <c r="I58" s="3">
-        <v>1237100</v>
+        <v>2162500</v>
       </c>
       <c r="J58" s="3">
+        <v>1264300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1106800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2153700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1639000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>976200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1162300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1079000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1467300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4240200</v>
+        <v>3607400</v>
       </c>
       <c r="E59" s="3">
-        <v>4352700</v>
+        <v>4333500</v>
       </c>
       <c r="F59" s="3">
-        <v>4355600</v>
+        <v>4448500</v>
       </c>
       <c r="G59" s="3">
-        <v>3487500</v>
+        <v>4451400</v>
       </c>
       <c r="H59" s="3">
-        <v>4367800</v>
+        <v>3564200</v>
       </c>
       <c r="I59" s="3">
-        <v>4582700</v>
+        <v>4463900</v>
       </c>
       <c r="J59" s="3">
+        <v>4683500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4229300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3591100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4206100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3979900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4074200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3368600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4169500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9892800</v>
+        <v>8804400</v>
       </c>
       <c r="E60" s="3">
-        <v>8965600</v>
+        <v>10110500</v>
       </c>
       <c r="F60" s="3">
-        <v>8704600</v>
+        <v>9162800</v>
       </c>
       <c r="G60" s="3">
-        <v>7856300</v>
+        <v>8896100</v>
       </c>
       <c r="H60" s="3">
-        <v>9621600</v>
+        <v>8029200</v>
       </c>
       <c r="I60" s="3">
-        <v>8869100</v>
+        <v>9833300</v>
       </c>
       <c r="J60" s="3">
+        <v>9064200</v>
+      </c>
+      <c r="K60" s="3">
         <v>8389000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7859400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8965300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7951700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8030800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7481300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8442400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3017300</v>
+        <v>3249000</v>
       </c>
       <c r="E61" s="3">
-        <v>3053900</v>
+        <v>3083700</v>
       </c>
       <c r="F61" s="3">
-        <v>2973200</v>
+        <v>3121100</v>
       </c>
       <c r="G61" s="3">
-        <v>2991300</v>
+        <v>3038600</v>
       </c>
       <c r="H61" s="3">
-        <v>2884400</v>
+        <v>3057200</v>
       </c>
       <c r="I61" s="3">
-        <v>2779800</v>
+        <v>2947800</v>
       </c>
       <c r="J61" s="3">
+        <v>2840900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2830800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2853800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2937100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3077200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2508500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2475100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2627400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1438700</v>
+        <v>1754200</v>
       </c>
       <c r="E62" s="3">
-        <v>1402900</v>
+        <v>1470300</v>
       </c>
       <c r="F62" s="3">
-        <v>1383000</v>
+        <v>1433700</v>
       </c>
       <c r="G62" s="3">
-        <v>1392900</v>
+        <v>1413400</v>
       </c>
       <c r="H62" s="3">
-        <v>1311600</v>
+        <v>1423500</v>
       </c>
       <c r="I62" s="3">
-        <v>1331400</v>
+        <v>1340500</v>
       </c>
       <c r="J62" s="3">
+        <v>1360700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1236500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1071800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1087100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1076900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1043000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1007200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1102900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14493800</v>
+        <v>13955600</v>
       </c>
       <c r="E66" s="3">
-        <v>13564500</v>
+        <v>14812700</v>
       </c>
       <c r="F66" s="3">
-        <v>13202300</v>
+        <v>13863000</v>
       </c>
       <c r="G66" s="3">
-        <v>12384800</v>
+        <v>13492800</v>
       </c>
       <c r="H66" s="3">
-        <v>13968900</v>
+        <v>12657300</v>
       </c>
       <c r="I66" s="3">
-        <v>13122600</v>
+        <v>14276200</v>
       </c>
       <c r="J66" s="3">
+        <v>13411300</v>
+      </c>
+      <c r="K66" s="3">
         <v>12591200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11923500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13128900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12237000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11710700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11088500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12292600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2842700</v>
+        <v>3034400</v>
       </c>
       <c r="E72" s="3">
-        <v>2818600</v>
+        <v>2905200</v>
       </c>
       <c r="F72" s="3">
+        <v>2880600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2838700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3015600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2866300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2781500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2777500</v>
       </c>
-      <c r="G72" s="3">
-        <v>2950700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2804600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>2721600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>2777500</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2784400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2654300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2621100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2598000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2549700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2476700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4172900</v>
+        <v>4232800</v>
       </c>
       <c r="E76" s="3">
-        <v>4159000</v>
+        <v>4264700</v>
       </c>
       <c r="F76" s="3">
-        <v>4173600</v>
+        <v>4250500</v>
       </c>
       <c r="G76" s="3">
-        <v>4330400</v>
+        <v>4265400</v>
       </c>
       <c r="H76" s="3">
-        <v>4223400</v>
+        <v>4425600</v>
       </c>
       <c r="I76" s="3">
-        <v>4153300</v>
+        <v>4316300</v>
       </c>
       <c r="J76" s="3">
+        <v>4244700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4205900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4213200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4078000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3993400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3946300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3878400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3659400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>77200</v>
+        <v>129100</v>
       </c>
       <c r="E81" s="3">
-        <v>41100</v>
+        <v>78900</v>
       </c>
       <c r="F81" s="3">
-        <v>-75000</v>
+        <v>42000</v>
       </c>
       <c r="G81" s="3">
-        <v>146100</v>
+        <v>-76600</v>
       </c>
       <c r="H81" s="3">
-        <v>136100</v>
+        <v>149300</v>
       </c>
       <c r="I81" s="3">
-        <v>-55900</v>
+        <v>139100</v>
       </c>
       <c r="J81" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K81" s="3">
         <v>23300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>130100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>33100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>73000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>161600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>139100</v>
+        <v>147200</v>
       </c>
       <c r="E83" s="3">
-        <v>139800</v>
+        <v>142100</v>
       </c>
       <c r="F83" s="3">
-        <v>134100</v>
+        <v>142900</v>
       </c>
       <c r="G83" s="3">
+        <v>137000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>139000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>136700</v>
+      </c>
+      <c r="J83" s="3">
         <v>136000</v>
       </c>
-      <c r="H83" s="3">
-        <v>133800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>133100</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>133600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>130900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>128500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>125300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>122800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>119500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>115100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4699700</v>
+        <v>2837700</v>
       </c>
       <c r="E8" s="3">
-        <v>3705600</v>
+        <v>4775600</v>
       </c>
       <c r="F8" s="3">
-        <v>3584000</v>
+        <v>3765400</v>
       </c>
       <c r="G8" s="3">
-        <v>3258700</v>
+        <v>3641800</v>
       </c>
       <c r="H8" s="3">
-        <v>4646500</v>
+        <v>3311300</v>
       </c>
       <c r="I8" s="3">
-        <v>3776200</v>
+        <v>4721500</v>
       </c>
       <c r="J8" s="3">
+        <v>3837100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3198800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3125000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4356100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3459100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3384500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3031400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4220200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3066800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3871400</v>
+        <v>2627700</v>
       </c>
       <c r="E9" s="3">
-        <v>3013500</v>
+        <v>3933900</v>
       </c>
       <c r="F9" s="3">
-        <v>3049700</v>
+        <v>3062100</v>
       </c>
       <c r="G9" s="3">
-        <v>2800200</v>
+        <v>3099000</v>
       </c>
       <c r="H9" s="3">
-        <v>3869800</v>
+        <v>2845500</v>
       </c>
       <c r="I9" s="3">
-        <v>3048400</v>
+        <v>3932300</v>
       </c>
       <c r="J9" s="3">
+        <v>3097700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2730600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2618400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3755500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2755000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2851000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2568800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3558100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2505800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>828400</v>
+        <v>210000</v>
       </c>
       <c r="E10" s="3">
-        <v>692100</v>
+        <v>841700</v>
       </c>
       <c r="F10" s="3">
-        <v>534200</v>
+        <v>703300</v>
       </c>
       <c r="G10" s="3">
-        <v>458500</v>
+        <v>542900</v>
       </c>
       <c r="H10" s="3">
-        <v>776700</v>
+        <v>465900</v>
       </c>
       <c r="I10" s="3">
-        <v>727700</v>
+        <v>789200</v>
       </c>
       <c r="J10" s="3">
+        <v>739500</v>
+      </c>
+      <c r="K10" s="3">
         <v>468200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>506600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>704100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>533500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>462600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>662000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>561100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>150800</v>
+        <v>76900</v>
       </c>
       <c r="E12" s="3">
-        <v>117400</v>
+        <v>153300</v>
       </c>
       <c r="F12" s="3">
-        <v>117200</v>
+        <v>119200</v>
       </c>
       <c r="G12" s="3">
-        <v>103300</v>
+        <v>119100</v>
       </c>
       <c r="H12" s="3">
-        <v>142200</v>
+        <v>105000</v>
       </c>
       <c r="I12" s="3">
+        <v>144500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>101400</v>
+      </c>
+      <c r="L12" s="3">
+        <v>93800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>129900</v>
+      </c>
+      <c r="N12" s="3">
+        <v>94100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>101300</v>
+      </c>
+      <c r="P12" s="3">
+        <v>85500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>113200</v>
       </c>
-      <c r="J12" s="3">
-        <v>101400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>93800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>129900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>94100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>101300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>85500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>113200</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>90400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>22100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>22500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1037,14 +1057,14 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>116000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4411000</v>
+        <v>3032700</v>
       </c>
       <c r="E17" s="3">
-        <v>3520500</v>
+        <v>4482200</v>
       </c>
       <c r="F17" s="3">
-        <v>3513500</v>
+        <v>3577400</v>
       </c>
       <c r="G17" s="3">
-        <v>3248600</v>
+        <v>3570200</v>
       </c>
       <c r="H17" s="3">
-        <v>4394000</v>
+        <v>3301100</v>
       </c>
       <c r="I17" s="3">
-        <v>3512400</v>
+        <v>4465000</v>
       </c>
       <c r="J17" s="3">
+        <v>3569100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3186200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3060400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4254200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3317200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3283200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2987000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4015400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2939200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>288700</v>
+        <v>-195000</v>
       </c>
       <c r="E18" s="3">
-        <v>185100</v>
+        <v>293400</v>
       </c>
       <c r="F18" s="3">
-        <v>70500</v>
+        <v>188100</v>
       </c>
       <c r="G18" s="3">
-        <v>10100</v>
+        <v>71600</v>
       </c>
       <c r="H18" s="3">
-        <v>252400</v>
+        <v>10300</v>
       </c>
       <c r="I18" s="3">
-        <v>263800</v>
+        <v>256500</v>
       </c>
       <c r="J18" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K18" s="3">
         <v>12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>102000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>141900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>101300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>204800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>127600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-48300</v>
+        <v>71500</v>
       </c>
       <c r="E20" s="3">
-        <v>-63400</v>
+        <v>-49100</v>
       </c>
       <c r="F20" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-42400</v>
-      </c>
       <c r="H20" s="3">
-        <v>-76700</v>
+        <v>-43100</v>
       </c>
       <c r="I20" s="3">
-        <v>-72300</v>
+        <v>-77900</v>
       </c>
       <c r="J20" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-82700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-77600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>98500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>387700</v>
+        <v>18500</v>
       </c>
       <c r="E21" s="3">
-        <v>263800</v>
+        <v>393900</v>
       </c>
       <c r="F21" s="3">
-        <v>212100</v>
+        <v>268000</v>
       </c>
       <c r="G21" s="3">
-        <v>104700</v>
+        <v>215500</v>
       </c>
       <c r="H21" s="3">
-        <v>314700</v>
+        <v>106400</v>
       </c>
       <c r="I21" s="3">
-        <v>328300</v>
+        <v>319800</v>
       </c>
       <c r="J21" s="3">
+        <v>333600</v>
+      </c>
+      <c r="K21" s="3">
         <v>65900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>218200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>190700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>243500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>218900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>177900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>246600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>341100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>9700</v>
       </c>
       <c r="E22" s="3">
-        <v>8600</v>
+        <v>7800</v>
       </c>
       <c r="F22" s="3">
         <v>8800</v>
       </c>
       <c r="G22" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="H22" s="3">
         <v>8600</v>
       </c>
       <c r="I22" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="J22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6100</v>
       </c>
       <c r="N22" s="3">
         <v>6100</v>
       </c>
       <c r="O22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="P22" s="3">
         <v>6000</v>
       </c>
       <c r="Q22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R22" s="3">
         <v>6700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>232700</v>
+        <v>-133200</v>
       </c>
       <c r="E23" s="3">
-        <v>113000</v>
+        <v>236500</v>
       </c>
       <c r="F23" s="3">
-        <v>60400</v>
+        <v>114800</v>
       </c>
       <c r="G23" s="3">
-        <v>-40800</v>
+        <v>61300</v>
       </c>
       <c r="H23" s="3">
-        <v>167200</v>
+        <v>-41500</v>
       </c>
       <c r="I23" s="3">
-        <v>182600</v>
+        <v>169900</v>
       </c>
       <c r="J23" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-77500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>108900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>87500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>121200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>219400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98800</v>
+        <v>-22300</v>
       </c>
       <c r="E24" s="3">
-        <v>30600</v>
+        <v>100300</v>
       </c>
       <c r="F24" s="3">
-        <v>14300</v>
+        <v>31100</v>
       </c>
       <c r="G24" s="3">
-        <v>33200</v>
+        <v>14600</v>
       </c>
       <c r="H24" s="3">
-        <v>12100</v>
+        <v>33800</v>
       </c>
       <c r="I24" s="3">
-        <v>35100</v>
+        <v>12300</v>
       </c>
       <c r="J24" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-83100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>54100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>134000</v>
+        <v>-110900</v>
       </c>
       <c r="E26" s="3">
-        <v>82400</v>
+        <v>136100</v>
       </c>
       <c r="F26" s="3">
-        <v>46000</v>
+        <v>83800</v>
       </c>
       <c r="G26" s="3">
-        <v>-74000</v>
+        <v>46800</v>
       </c>
       <c r="H26" s="3">
-        <v>155100</v>
+        <v>-75200</v>
       </c>
       <c r="I26" s="3">
-        <v>147500</v>
+        <v>157600</v>
       </c>
       <c r="J26" s="3">
+        <v>149900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-52500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>135900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>74000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>33300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>78000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>165300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>129100</v>
+        <v>-111100</v>
       </c>
       <c r="E27" s="3">
-        <v>78900</v>
+        <v>131200</v>
       </c>
       <c r="F27" s="3">
-        <v>42000</v>
+        <v>80200</v>
       </c>
       <c r="G27" s="3">
-        <v>-76600</v>
+        <v>42600</v>
       </c>
       <c r="H27" s="3">
-        <v>149300</v>
+        <v>-77900</v>
       </c>
       <c r="I27" s="3">
-        <v>139100</v>
+        <v>151700</v>
       </c>
       <c r="J27" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-57200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>130100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>33100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>29600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>73000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>161600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>48300</v>
+        <v>-71500</v>
       </c>
       <c r="E32" s="3">
-        <v>63400</v>
+        <v>49100</v>
       </c>
       <c r="F32" s="3">
+        <v>64500</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>42400</v>
-      </c>
       <c r="H32" s="3">
-        <v>76700</v>
+        <v>43100</v>
       </c>
       <c r="I32" s="3">
-        <v>72300</v>
+        <v>77900</v>
       </c>
       <c r="J32" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K32" s="3">
         <v>82700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>77600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-98500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>129100</v>
+        <v>-111100</v>
       </c>
       <c r="E33" s="3">
-        <v>78900</v>
+        <v>131200</v>
       </c>
       <c r="F33" s="3">
-        <v>42000</v>
+        <v>80200</v>
       </c>
       <c r="G33" s="3">
-        <v>-76600</v>
+        <v>42600</v>
       </c>
       <c r="H33" s="3">
-        <v>149300</v>
+        <v>-77900</v>
       </c>
       <c r="I33" s="3">
-        <v>139100</v>
+        <v>151700</v>
       </c>
       <c r="J33" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-57200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>130100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>33100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>73000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>161600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>129100</v>
+        <v>-111100</v>
       </c>
       <c r="E35" s="3">
-        <v>78900</v>
+        <v>131200</v>
       </c>
       <c r="F35" s="3">
-        <v>42000</v>
+        <v>80200</v>
       </c>
       <c r="G35" s="3">
-        <v>-76600</v>
+        <v>42600</v>
       </c>
       <c r="H35" s="3">
-        <v>149300</v>
+        <v>-77900</v>
       </c>
       <c r="I35" s="3">
-        <v>139100</v>
+        <v>151700</v>
       </c>
       <c r="J35" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-57200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>130100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>33100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>73000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>161600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>985700</v>
+        <v>1620700</v>
       </c>
       <c r="E41" s="3">
-        <v>691300</v>
+        <v>1001700</v>
       </c>
       <c r="F41" s="3">
-        <v>387700</v>
+        <v>702400</v>
       </c>
       <c r="G41" s="3">
-        <v>412800</v>
+        <v>394000</v>
       </c>
       <c r="H41" s="3">
-        <v>690300</v>
+        <v>419400</v>
       </c>
       <c r="I41" s="3">
-        <v>466000</v>
+        <v>701500</v>
       </c>
       <c r="J41" s="3">
+        <v>473500</v>
+      </c>
+      <c r="K41" s="3">
         <v>533400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>527700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>638500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>455700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>410800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>436300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>491300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>474100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4364800</v>
+        <v>4029400</v>
       </c>
       <c r="E43" s="3">
-        <v>5055300</v>
+        <v>4435300</v>
       </c>
       <c r="F43" s="3">
-        <v>4801400</v>
+        <v>5136900</v>
       </c>
       <c r="G43" s="3">
-        <v>4310700</v>
+        <v>4878900</v>
       </c>
       <c r="H43" s="3">
-        <v>3937800</v>
+        <v>4380300</v>
       </c>
       <c r="I43" s="3">
-        <v>5199800</v>
+        <v>4001400</v>
       </c>
       <c r="J43" s="3">
+        <v>5283800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4529800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4362500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4229500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4971000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4402000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4006900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3920900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4383800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5868100</v>
+        <v>6215100</v>
       </c>
       <c r="E44" s="3">
-        <v>6194600</v>
+        <v>5962800</v>
       </c>
       <c r="F44" s="3">
-        <v>5822400</v>
+        <v>6294600</v>
       </c>
       <c r="G44" s="3">
-        <v>5869600</v>
+        <v>5916500</v>
       </c>
       <c r="H44" s="3">
-        <v>5507300</v>
+        <v>5964400</v>
       </c>
       <c r="I44" s="3">
-        <v>5936700</v>
+        <v>5596200</v>
       </c>
       <c r="J44" s="3">
+        <v>6032500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5635200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5097500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4562800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5051200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4687700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4559700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4300700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4782900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>475500</v>
+        <v>585000</v>
       </c>
       <c r="E45" s="3">
-        <v>616100</v>
+        <v>483100</v>
       </c>
       <c r="F45" s="3">
-        <v>567900</v>
+        <v>626100</v>
       </c>
       <c r="G45" s="3">
-        <v>600500</v>
+        <v>577100</v>
       </c>
       <c r="H45" s="3">
-        <v>421200</v>
+        <v>610200</v>
       </c>
       <c r="I45" s="3">
-        <v>803100</v>
+        <v>428000</v>
       </c>
       <c r="J45" s="3">
+        <v>816100</v>
+      </c>
+      <c r="K45" s="3">
         <v>761300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>773600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>655800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1006500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1066100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1114300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>847500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>969300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11694100</v>
+        <v>12450200</v>
       </c>
       <c r="E46" s="3">
-        <v>12557300</v>
+        <v>11882900</v>
       </c>
       <c r="F46" s="3">
-        <v>11579500</v>
+        <v>12760000</v>
       </c>
       <c r="G46" s="3">
-        <v>11193600</v>
+        <v>11766500</v>
       </c>
       <c r="H46" s="3">
-        <v>10556600</v>
+        <v>11374300</v>
       </c>
       <c r="I46" s="3">
-        <v>12405600</v>
+        <v>10727000</v>
       </c>
       <c r="J46" s="3">
+        <v>12605900</v>
+      </c>
+      <c r="K46" s="3">
         <v>11459600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10761400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10086600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11484400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10566600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10117200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9560400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10610100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4483100</v>
+        <v>4454400</v>
       </c>
       <c r="E48" s="3">
-        <v>4503600</v>
+        <v>4555500</v>
       </c>
       <c r="F48" s="3">
-        <v>4513800</v>
+        <v>4576300</v>
       </c>
       <c r="G48" s="3">
-        <v>4520400</v>
+        <v>4586700</v>
       </c>
       <c r="H48" s="3">
-        <v>4511900</v>
+        <v>4593400</v>
       </c>
       <c r="I48" s="3">
-        <v>4490500</v>
+        <v>4584700</v>
       </c>
       <c r="J48" s="3">
+        <v>4563000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4490400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4389800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4337400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4329700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4294800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4198900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4096900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3997600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>198400</v>
+        <v>207600</v>
       </c>
       <c r="E49" s="3">
-        <v>176300</v>
+        <v>201600</v>
       </c>
       <c r="F49" s="3">
-        <v>174100</v>
+        <v>179100</v>
       </c>
       <c r="G49" s="3">
-        <v>165800</v>
+        <v>176900</v>
       </c>
       <c r="H49" s="3">
-        <v>156000</v>
+        <v>168500</v>
       </c>
       <c r="I49" s="3">
-        <v>150900</v>
+        <v>158600</v>
       </c>
       <c r="J49" s="3">
+        <v>153300</v>
+      </c>
+      <c r="K49" s="3">
         <v>149800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>147200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>146200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>139900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>140700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>135000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>135600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>129900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1829900</v>
+        <v>1910400</v>
       </c>
       <c r="E52" s="3">
-        <v>1852500</v>
+        <v>1859400</v>
       </c>
       <c r="F52" s="3">
-        <v>1859200</v>
+        <v>1882400</v>
       </c>
       <c r="G52" s="3">
-        <v>1891500</v>
+        <v>1889200</v>
       </c>
       <c r="H52" s="3">
-        <v>1871700</v>
+        <v>1922000</v>
       </c>
       <c r="I52" s="3">
-        <v>1577700</v>
+        <v>1901900</v>
       </c>
       <c r="J52" s="3">
+        <v>1603200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1588900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1530100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1599800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1276700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1362600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1339200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1304700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1350000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18188400</v>
+        <v>19005300</v>
       </c>
       <c r="E54" s="3">
-        <v>19077400</v>
+        <v>18482100</v>
       </c>
       <c r="F54" s="3">
-        <v>18113500</v>
+        <v>19385400</v>
       </c>
       <c r="G54" s="3">
-        <v>17758200</v>
+        <v>18406000</v>
       </c>
       <c r="H54" s="3">
-        <v>17083000</v>
+        <v>18045000</v>
       </c>
       <c r="I54" s="3">
-        <v>18592500</v>
+        <v>17358800</v>
       </c>
       <c r="J54" s="3">
+        <v>18892700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17656100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16797100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16136700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17206800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16230400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15657000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14966900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15952000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3453000</v>
+        <v>2901600</v>
       </c>
       <c r="E57" s="3">
-        <v>3144000</v>
+        <v>3508700</v>
       </c>
       <c r="F57" s="3">
-        <v>2974400</v>
+        <v>3194700</v>
       </c>
       <c r="G57" s="3">
-        <v>3139200</v>
+        <v>3022500</v>
       </c>
       <c r="H57" s="3">
-        <v>3439800</v>
+        <v>3189900</v>
       </c>
       <c r="I57" s="3">
-        <v>3206900</v>
+        <v>3495400</v>
       </c>
       <c r="J57" s="3">
+        <v>3258700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3116400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3052900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3283100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3120100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2995600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2794300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3033700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2805600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1744000</v>
+        <v>1809300</v>
       </c>
       <c r="E58" s="3">
-        <v>2633000</v>
+        <v>1772200</v>
       </c>
       <c r="F58" s="3">
-        <v>1740000</v>
+        <v>2675500</v>
       </c>
       <c r="G58" s="3">
-        <v>1305500</v>
+        <v>1768100</v>
       </c>
       <c r="H58" s="3">
-        <v>1025100</v>
+        <v>1326600</v>
       </c>
       <c r="I58" s="3">
-        <v>2162500</v>
+        <v>1041600</v>
       </c>
       <c r="J58" s="3">
+        <v>2197400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1264300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1106800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2153700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1639000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>976200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1162300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1079000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1467300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3607400</v>
+        <v>4126800</v>
       </c>
       <c r="E59" s="3">
-        <v>4333500</v>
+        <v>3665700</v>
       </c>
       <c r="F59" s="3">
-        <v>4448500</v>
+        <v>4403500</v>
       </c>
       <c r="G59" s="3">
-        <v>4451400</v>
+        <v>4520300</v>
       </c>
       <c r="H59" s="3">
-        <v>3564200</v>
+        <v>4523300</v>
       </c>
       <c r="I59" s="3">
-        <v>4463900</v>
+        <v>3621800</v>
       </c>
       <c r="J59" s="3">
+        <v>4536000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4683500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4229300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3591100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4206100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3979900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4074200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3368600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4169500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8804400</v>
+        <v>8837700</v>
       </c>
       <c r="E60" s="3">
-        <v>10110500</v>
+        <v>8946500</v>
       </c>
       <c r="F60" s="3">
-        <v>9162800</v>
+        <v>10273700</v>
       </c>
       <c r="G60" s="3">
-        <v>8896100</v>
+        <v>9310800</v>
       </c>
       <c r="H60" s="3">
-        <v>8029200</v>
+        <v>9039800</v>
       </c>
       <c r="I60" s="3">
-        <v>9833300</v>
+        <v>8158800</v>
       </c>
       <c r="J60" s="3">
+        <v>9992100</v>
+      </c>
+      <c r="K60" s="3">
         <v>9064200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8389000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7859400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8965300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7951700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8030800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7481300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8442400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3249000</v>
+        <v>3954000</v>
       </c>
       <c r="E61" s="3">
-        <v>3083700</v>
+        <v>3301500</v>
       </c>
       <c r="F61" s="3">
-        <v>3121100</v>
+        <v>3133500</v>
       </c>
       <c r="G61" s="3">
-        <v>3038600</v>
+        <v>3171500</v>
       </c>
       <c r="H61" s="3">
-        <v>3057200</v>
+        <v>3087700</v>
       </c>
       <c r="I61" s="3">
-        <v>2947800</v>
+        <v>3106500</v>
       </c>
       <c r="J61" s="3">
+        <v>2995400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2840900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2830800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2853800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2937100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3077200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2508500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2475100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2627400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1754200</v>
+        <v>1894200</v>
       </c>
       <c r="E62" s="3">
-        <v>1470300</v>
+        <v>1782500</v>
       </c>
       <c r="F62" s="3">
-        <v>1433700</v>
+        <v>1494100</v>
       </c>
       <c r="G62" s="3">
-        <v>1413400</v>
+        <v>1456900</v>
       </c>
       <c r="H62" s="3">
-        <v>1423500</v>
+        <v>1436200</v>
       </c>
       <c r="I62" s="3">
-        <v>1340500</v>
+        <v>1446500</v>
       </c>
       <c r="J62" s="3">
+        <v>1362100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1360700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1236500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1071800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1087100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1076900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1043000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1007200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1102900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13955600</v>
+        <v>14831200</v>
       </c>
       <c r="E66" s="3">
-        <v>14812700</v>
+        <v>14180900</v>
       </c>
       <c r="F66" s="3">
-        <v>13863000</v>
+        <v>15051900</v>
       </c>
       <c r="G66" s="3">
-        <v>13492800</v>
+        <v>14086800</v>
       </c>
       <c r="H66" s="3">
-        <v>12657300</v>
+        <v>13710700</v>
       </c>
       <c r="I66" s="3">
-        <v>14276200</v>
+        <v>12861700</v>
       </c>
       <c r="J66" s="3">
+        <v>14506700</v>
+      </c>
+      <c r="K66" s="3">
         <v>13411300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12591200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11923500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13128900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12237000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11710700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11088500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12292600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3034400</v>
+        <v>2972200</v>
       </c>
       <c r="E72" s="3">
-        <v>2905200</v>
+        <v>3083300</v>
       </c>
       <c r="F72" s="3">
-        <v>2880600</v>
+        <v>2952100</v>
       </c>
       <c r="G72" s="3">
-        <v>2838700</v>
+        <v>2927100</v>
       </c>
       <c r="H72" s="3">
-        <v>3015600</v>
+        <v>2884500</v>
       </c>
       <c r="I72" s="3">
-        <v>2866300</v>
+        <v>3064300</v>
       </c>
       <c r="J72" s="3">
+        <v>2912600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2781500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2777500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2784400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2654300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2621100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2598000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2549700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2476700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4232800</v>
+        <v>4174100</v>
       </c>
       <c r="E76" s="3">
-        <v>4264700</v>
+        <v>4301100</v>
       </c>
       <c r="F76" s="3">
-        <v>4250500</v>
+        <v>4333600</v>
       </c>
       <c r="G76" s="3">
-        <v>4265400</v>
+        <v>4319100</v>
       </c>
       <c r="H76" s="3">
-        <v>4425600</v>
+        <v>4334300</v>
       </c>
       <c r="I76" s="3">
-        <v>4316300</v>
+        <v>4497100</v>
       </c>
       <c r="J76" s="3">
+        <v>4386000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4244700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4205900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4213200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4078000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3993400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3946300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3878400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3659400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>129100</v>
+        <v>-111100</v>
       </c>
       <c r="E81" s="3">
-        <v>78900</v>
+        <v>131200</v>
       </c>
       <c r="F81" s="3">
-        <v>42000</v>
+        <v>80200</v>
       </c>
       <c r="G81" s="3">
-        <v>-76600</v>
+        <v>42600</v>
       </c>
       <c r="H81" s="3">
-        <v>149300</v>
+        <v>-77900</v>
       </c>
       <c r="I81" s="3">
-        <v>139100</v>
+        <v>151700</v>
       </c>
       <c r="J81" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-57200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>130100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>33100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>73000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>161600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>147200</v>
+        <v>142000</v>
       </c>
       <c r="E83" s="3">
-        <v>142100</v>
+        <v>149600</v>
       </c>
       <c r="F83" s="3">
-        <v>142900</v>
+        <v>144400</v>
       </c>
       <c r="G83" s="3">
-        <v>137000</v>
+        <v>145200</v>
       </c>
       <c r="H83" s="3">
+        <v>139200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>141200</v>
+      </c>
+      <c r="J83" s="3">
         <v>139000</v>
       </c>
-      <c r="I83" s="3">
-        <v>136700</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>136000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>133600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>130900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>125300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>122800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>119500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>115100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2837700</v>
+        <v>3428100</v>
       </c>
       <c r="E8" s="3">
-        <v>4775600</v>
+        <v>2888800</v>
       </c>
       <c r="F8" s="3">
-        <v>3765400</v>
+        <v>4861600</v>
       </c>
       <c r="G8" s="3">
-        <v>3641800</v>
+        <v>3833200</v>
       </c>
       <c r="H8" s="3">
-        <v>3311300</v>
+        <v>3707400</v>
       </c>
       <c r="I8" s="3">
-        <v>4721500</v>
+        <v>3371000</v>
       </c>
       <c r="J8" s="3">
+        <v>4806500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3837100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3198800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3125000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4356100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3459100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3384500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3031400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4220200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3066800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2627700</v>
+        <v>2984900</v>
       </c>
       <c r="E9" s="3">
-        <v>3933900</v>
+        <v>2675000</v>
       </c>
       <c r="F9" s="3">
-        <v>3062100</v>
+        <v>4004700</v>
       </c>
       <c r="G9" s="3">
-        <v>3099000</v>
+        <v>3117300</v>
       </c>
       <c r="H9" s="3">
-        <v>2845500</v>
+        <v>3154800</v>
       </c>
       <c r="I9" s="3">
-        <v>3932300</v>
+        <v>2896700</v>
       </c>
       <c r="J9" s="3">
+        <v>4003100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3097700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2730600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2618400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3755500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2755000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2851000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2568800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3558100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2505800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>210000</v>
+        <v>443200</v>
       </c>
       <c r="E10" s="3">
-        <v>841700</v>
+        <v>213800</v>
       </c>
       <c r="F10" s="3">
-        <v>703300</v>
+        <v>856900</v>
       </c>
       <c r="G10" s="3">
-        <v>542900</v>
+        <v>716000</v>
       </c>
       <c r="H10" s="3">
-        <v>465900</v>
+        <v>552600</v>
       </c>
       <c r="I10" s="3">
-        <v>789200</v>
+        <v>474300</v>
       </c>
       <c r="J10" s="3">
+        <v>803400</v>
+      </c>
+      <c r="K10" s="3">
         <v>739500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>468200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>506600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>704100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>533500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>462600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>662000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>561100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>76900</v>
+        <v>104700</v>
       </c>
       <c r="E12" s="3">
-        <v>153300</v>
+        <v>78300</v>
       </c>
       <c r="F12" s="3">
-        <v>119200</v>
+        <v>156000</v>
       </c>
       <c r="G12" s="3">
-        <v>119100</v>
+        <v>121400</v>
       </c>
       <c r="H12" s="3">
-        <v>105000</v>
+        <v>121300</v>
       </c>
       <c r="I12" s="3">
-        <v>144500</v>
+        <v>106800</v>
       </c>
       <c r="J12" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K12" s="3">
         <v>115000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>101400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>93800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>129900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>94100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>101300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>85500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>113200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>90400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,22 +1045,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>22500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>22900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1060,14 +1080,14 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>116000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3032700</v>
+        <v>3477500</v>
       </c>
       <c r="E17" s="3">
-        <v>4482200</v>
+        <v>3087300</v>
       </c>
       <c r="F17" s="3">
-        <v>3577400</v>
+        <v>4562900</v>
       </c>
       <c r="G17" s="3">
-        <v>3570200</v>
+        <v>3641800</v>
       </c>
       <c r="H17" s="3">
-        <v>3301100</v>
+        <v>3634500</v>
       </c>
       <c r="I17" s="3">
-        <v>4465000</v>
+        <v>3360500</v>
       </c>
       <c r="J17" s="3">
+        <v>4545400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3569100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3186200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3060400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4254200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3317200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3283200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2987000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4015400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2939200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-195000</v>
+        <v>-49400</v>
       </c>
       <c r="E18" s="3">
-        <v>293400</v>
+        <v>-198600</v>
       </c>
       <c r="F18" s="3">
-        <v>188100</v>
+        <v>298700</v>
       </c>
       <c r="G18" s="3">
-        <v>71600</v>
+        <v>191500</v>
       </c>
       <c r="H18" s="3">
-        <v>10300</v>
+        <v>72900</v>
       </c>
       <c r="I18" s="3">
-        <v>256500</v>
+        <v>10500</v>
       </c>
       <c r="J18" s="3">
+        <v>261100</v>
+      </c>
+      <c r="K18" s="3">
         <v>268000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>102000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>141900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>101300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>44400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>204800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>127600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71500</v>
+        <v>26800</v>
       </c>
       <c r="E20" s="3">
-        <v>-49100</v>
+        <v>72800</v>
       </c>
       <c r="F20" s="3">
-        <v>-64500</v>
+        <v>-50000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1300</v>
+        <v>-65600</v>
       </c>
       <c r="H20" s="3">
-        <v>-43100</v>
+        <v>-1400</v>
       </c>
       <c r="I20" s="3">
-        <v>-77900</v>
+        <v>-43900</v>
       </c>
       <c r="J20" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-73400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-82700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-42200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-77600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>98500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18500</v>
+        <v>123300</v>
       </c>
       <c r="E21" s="3">
-        <v>393900</v>
+        <v>18900</v>
       </c>
       <c r="F21" s="3">
-        <v>268000</v>
+        <v>401000</v>
       </c>
       <c r="G21" s="3">
-        <v>215500</v>
+        <v>272900</v>
       </c>
       <c r="H21" s="3">
-        <v>106400</v>
+        <v>219400</v>
       </c>
       <c r="I21" s="3">
-        <v>319800</v>
+        <v>108300</v>
       </c>
       <c r="J21" s="3">
+        <v>325600</v>
+      </c>
+      <c r="K21" s="3">
         <v>333600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>65900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>218200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>190700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>243500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>218900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>177900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>246600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>341100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9700</v>
+        <v>8900</v>
       </c>
       <c r="E22" s="3">
-        <v>7800</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I22" s="3">
         <v>8800</v>
       </c>
-      <c r="G22" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8700</v>
-      </c>
       <c r="J22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K22" s="3">
         <v>9100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6100</v>
       </c>
       <c r="O22" s="3">
         <v>6100</v>
       </c>
       <c r="P22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="Q22" s="3">
         <v>6000</v>
       </c>
       <c r="R22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-133200</v>
+        <v>-31400</v>
       </c>
       <c r="E23" s="3">
-        <v>236500</v>
+        <v>-135600</v>
       </c>
       <c r="F23" s="3">
-        <v>114800</v>
+        <v>240700</v>
       </c>
       <c r="G23" s="3">
-        <v>61300</v>
+        <v>116900</v>
       </c>
       <c r="H23" s="3">
-        <v>-41500</v>
+        <v>62400</v>
       </c>
       <c r="I23" s="3">
-        <v>169900</v>
+        <v>-42200</v>
       </c>
       <c r="J23" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K23" s="3">
         <v>185600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-77500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>108900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>87500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>121200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>219400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-22300</v>
+        <v>113600</v>
       </c>
       <c r="E24" s="3">
-        <v>100300</v>
+        <v>-22700</v>
       </c>
       <c r="F24" s="3">
-        <v>31100</v>
+        <v>102200</v>
       </c>
       <c r="G24" s="3">
-        <v>14600</v>
+        <v>31700</v>
       </c>
       <c r="H24" s="3">
-        <v>33800</v>
+        <v>14800</v>
       </c>
       <c r="I24" s="3">
-        <v>12300</v>
+        <v>34400</v>
       </c>
       <c r="J24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K24" s="3">
         <v>35700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-83100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-110900</v>
+        <v>-145000</v>
       </c>
       <c r="E26" s="3">
-        <v>136100</v>
+        <v>-112900</v>
       </c>
       <c r="F26" s="3">
-        <v>83800</v>
+        <v>138600</v>
       </c>
       <c r="G26" s="3">
-        <v>46800</v>
+        <v>85300</v>
       </c>
       <c r="H26" s="3">
-        <v>-75200</v>
+        <v>47600</v>
       </c>
       <c r="I26" s="3">
-        <v>157600</v>
+        <v>-76600</v>
       </c>
       <c r="J26" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K26" s="3">
         <v>149900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>135900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>74000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>78000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>165300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-111100</v>
+        <v>-148900</v>
       </c>
       <c r="E27" s="3">
-        <v>131200</v>
+        <v>-113100</v>
       </c>
       <c r="F27" s="3">
-        <v>80200</v>
+        <v>133600</v>
       </c>
       <c r="G27" s="3">
-        <v>42600</v>
+        <v>81600</v>
       </c>
       <c r="H27" s="3">
-        <v>-77900</v>
+        <v>43400</v>
       </c>
       <c r="I27" s="3">
-        <v>151700</v>
+        <v>-79300</v>
       </c>
       <c r="J27" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K27" s="3">
         <v>141400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-57200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>130100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>33100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>29600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>73000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>161600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71500</v>
+        <v>-26800</v>
       </c>
       <c r="E32" s="3">
-        <v>49100</v>
+        <v>-72800</v>
       </c>
       <c r="F32" s="3">
-        <v>64500</v>
+        <v>50000</v>
       </c>
       <c r="G32" s="3">
-        <v>1300</v>
+        <v>65600</v>
       </c>
       <c r="H32" s="3">
-        <v>43100</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="3">
-        <v>77900</v>
+        <v>43900</v>
       </c>
       <c r="J32" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K32" s="3">
         <v>73400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>82700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>42200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>77600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-98500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-111100</v>
+        <v>-148900</v>
       </c>
       <c r="E33" s="3">
-        <v>131200</v>
+        <v>-113100</v>
       </c>
       <c r="F33" s="3">
-        <v>80200</v>
+        <v>133600</v>
       </c>
       <c r="G33" s="3">
-        <v>42600</v>
+        <v>81600</v>
       </c>
       <c r="H33" s="3">
-        <v>-77900</v>
+        <v>43400</v>
       </c>
       <c r="I33" s="3">
-        <v>151700</v>
+        <v>-79300</v>
       </c>
       <c r="J33" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K33" s="3">
         <v>141400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-57200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>130100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>73000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>161600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-111100</v>
+        <v>-148900</v>
       </c>
       <c r="E35" s="3">
-        <v>131200</v>
+        <v>-113100</v>
       </c>
       <c r="F35" s="3">
-        <v>80200</v>
+        <v>133600</v>
       </c>
       <c r="G35" s="3">
-        <v>42600</v>
+        <v>81600</v>
       </c>
       <c r="H35" s="3">
-        <v>-77900</v>
+        <v>43400</v>
       </c>
       <c r="I35" s="3">
-        <v>151700</v>
+        <v>-79300</v>
       </c>
       <c r="J35" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K35" s="3">
         <v>141400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-57200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>130100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>73000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>161600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1620700</v>
+        <v>1472100</v>
       </c>
       <c r="E41" s="3">
-        <v>1001700</v>
+        <v>1649900</v>
       </c>
       <c r="F41" s="3">
-        <v>702400</v>
+        <v>1019700</v>
       </c>
       <c r="G41" s="3">
-        <v>394000</v>
+        <v>715100</v>
       </c>
       <c r="H41" s="3">
-        <v>419400</v>
+        <v>401100</v>
       </c>
       <c r="I41" s="3">
-        <v>701500</v>
+        <v>427000</v>
       </c>
       <c r="J41" s="3">
+        <v>714100</v>
+      </c>
+      <c r="K41" s="3">
         <v>473500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>533400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>527700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>638500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>455700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>410800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>436300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>491300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>474100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4029400</v>
+        <v>4147600</v>
       </c>
       <c r="E43" s="3">
-        <v>4435300</v>
+        <v>4102000</v>
       </c>
       <c r="F43" s="3">
-        <v>5136900</v>
+        <v>4515100</v>
       </c>
       <c r="G43" s="3">
-        <v>4878900</v>
+        <v>5229400</v>
       </c>
       <c r="H43" s="3">
-        <v>4380300</v>
+        <v>4966800</v>
       </c>
       <c r="I43" s="3">
-        <v>4001400</v>
+        <v>4459200</v>
       </c>
       <c r="J43" s="3">
+        <v>4073400</v>
+      </c>
+      <c r="K43" s="3">
         <v>5283800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4529800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4362500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4229500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4971000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4402000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4006900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3920900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4383800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6215100</v>
+        <v>6336400</v>
       </c>
       <c r="E44" s="3">
-        <v>5962800</v>
+        <v>6327000</v>
       </c>
       <c r="F44" s="3">
-        <v>6294600</v>
+        <v>6070200</v>
       </c>
       <c r="G44" s="3">
-        <v>5916500</v>
+        <v>6408000</v>
       </c>
       <c r="H44" s="3">
-        <v>5964400</v>
+        <v>6023000</v>
       </c>
       <c r="I44" s="3">
-        <v>5596200</v>
+        <v>6071800</v>
       </c>
       <c r="J44" s="3">
+        <v>5697000</v>
+      </c>
+      <c r="K44" s="3">
         <v>6032500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5635200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5097500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4562800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5051200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4687700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4559700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4300700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4782900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>585000</v>
+        <v>546300</v>
       </c>
       <c r="E45" s="3">
-        <v>483100</v>
+        <v>595500</v>
       </c>
       <c r="F45" s="3">
-        <v>626100</v>
+        <v>491800</v>
       </c>
       <c r="G45" s="3">
-        <v>577100</v>
+        <v>637400</v>
       </c>
       <c r="H45" s="3">
-        <v>610200</v>
+        <v>587500</v>
       </c>
       <c r="I45" s="3">
-        <v>428000</v>
+        <v>621200</v>
       </c>
       <c r="J45" s="3">
+        <v>435700</v>
+      </c>
+      <c r="K45" s="3">
         <v>816100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>761300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>773600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>655800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1006500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1066100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1114300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>847500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>969300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12450200</v>
+        <v>12502500</v>
       </c>
       <c r="E46" s="3">
-        <v>11882900</v>
+        <v>12674400</v>
       </c>
       <c r="F46" s="3">
-        <v>12760000</v>
+        <v>12096900</v>
       </c>
       <c r="G46" s="3">
-        <v>11766500</v>
+        <v>12989800</v>
       </c>
       <c r="H46" s="3">
-        <v>11374300</v>
+        <v>11978400</v>
       </c>
       <c r="I46" s="3">
-        <v>10727000</v>
+        <v>11579200</v>
       </c>
       <c r="J46" s="3">
+        <v>10920200</v>
+      </c>
+      <c r="K46" s="3">
         <v>12605900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11459600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10761400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10086600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11484400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10566600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10117200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9560400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10610100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4454400</v>
+        <v>4479500</v>
       </c>
       <c r="E48" s="3">
-        <v>4555500</v>
+        <v>4534700</v>
       </c>
       <c r="F48" s="3">
-        <v>4576300</v>
+        <v>4637500</v>
       </c>
       <c r="G48" s="3">
-        <v>4586700</v>
+        <v>4658700</v>
       </c>
       <c r="H48" s="3">
-        <v>4593400</v>
+        <v>4669300</v>
       </c>
       <c r="I48" s="3">
-        <v>4584700</v>
+        <v>4676100</v>
       </c>
       <c r="J48" s="3">
+        <v>4667300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4563000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4490400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4389800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4337400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4329700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4294800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4198900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4096900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3997600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>207600</v>
+        <v>213800</v>
       </c>
       <c r="E49" s="3">
-        <v>201600</v>
+        <v>211300</v>
       </c>
       <c r="F49" s="3">
-        <v>179100</v>
+        <v>205300</v>
       </c>
       <c r="G49" s="3">
-        <v>176900</v>
+        <v>182400</v>
       </c>
       <c r="H49" s="3">
-        <v>168500</v>
+        <v>180100</v>
       </c>
       <c r="I49" s="3">
-        <v>158600</v>
+        <v>171500</v>
       </c>
       <c r="J49" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K49" s="3">
         <v>153300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>149800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>147200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>146200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>139900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>140700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>135000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>135600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>129900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1910400</v>
+        <v>1836700</v>
       </c>
       <c r="E52" s="3">
-        <v>1859400</v>
+        <v>1944800</v>
       </c>
       <c r="F52" s="3">
-        <v>1882400</v>
+        <v>1892900</v>
       </c>
       <c r="G52" s="3">
-        <v>1889200</v>
+        <v>1916300</v>
       </c>
       <c r="H52" s="3">
-        <v>1922000</v>
+        <v>1923200</v>
       </c>
       <c r="I52" s="3">
-        <v>1901900</v>
+        <v>1956600</v>
       </c>
       <c r="J52" s="3">
+        <v>1936100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1603200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1588900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1530100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1599800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1276700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1362600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1339200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1304700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1350000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19005300</v>
+        <v>19016900</v>
       </c>
       <c r="E54" s="3">
-        <v>18482100</v>
+        <v>19347600</v>
       </c>
       <c r="F54" s="3">
-        <v>19385400</v>
+        <v>18814900</v>
       </c>
       <c r="G54" s="3">
-        <v>18406000</v>
+        <v>19734500</v>
       </c>
       <c r="H54" s="3">
-        <v>18045000</v>
+        <v>18737400</v>
       </c>
       <c r="I54" s="3">
-        <v>17358800</v>
+        <v>18369900</v>
       </c>
       <c r="J54" s="3">
+        <v>17671400</v>
+      </c>
+      <c r="K54" s="3">
         <v>18892700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17656100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16797100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16136700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17206800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16230400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15657000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14966900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15952000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2901600</v>
+        <v>2920600</v>
       </c>
       <c r="E57" s="3">
-        <v>3508700</v>
+        <v>2953900</v>
       </c>
       <c r="F57" s="3">
-        <v>3194700</v>
+        <v>3571900</v>
       </c>
       <c r="G57" s="3">
-        <v>3022500</v>
+        <v>3252300</v>
       </c>
       <c r="H57" s="3">
-        <v>3189900</v>
+        <v>3076900</v>
       </c>
       <c r="I57" s="3">
-        <v>3495400</v>
+        <v>3247300</v>
       </c>
       <c r="J57" s="3">
+        <v>3558300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3258700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3116400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3052900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3283100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3120100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2995600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2794300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3033700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2805600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1809300</v>
+        <v>1746100</v>
       </c>
       <c r="E58" s="3">
-        <v>1772200</v>
+        <v>1841900</v>
       </c>
       <c r="F58" s="3">
-        <v>2675500</v>
+        <v>1804100</v>
       </c>
       <c r="G58" s="3">
-        <v>1768100</v>
+        <v>2723700</v>
       </c>
       <c r="H58" s="3">
-        <v>1326600</v>
+        <v>1799900</v>
       </c>
       <c r="I58" s="3">
-        <v>1041600</v>
+        <v>1350500</v>
       </c>
       <c r="J58" s="3">
+        <v>1060400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2197400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1264300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1106800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2153700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1639000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>976200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1162300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1079000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1467300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4126800</v>
+        <v>4496600</v>
       </c>
       <c r="E59" s="3">
-        <v>3665700</v>
+        <v>4201100</v>
       </c>
       <c r="F59" s="3">
-        <v>4403500</v>
+        <v>3731700</v>
       </c>
       <c r="G59" s="3">
-        <v>4520300</v>
+        <v>4482800</v>
       </c>
       <c r="H59" s="3">
-        <v>4523300</v>
+        <v>4601700</v>
       </c>
       <c r="I59" s="3">
-        <v>3621800</v>
+        <v>4604800</v>
       </c>
       <c r="J59" s="3">
+        <v>3687000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4536000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4683500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4229300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3591100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4206100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3979900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4074200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3368600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4169500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8837700</v>
+        <v>9163400</v>
       </c>
       <c r="E60" s="3">
-        <v>8946500</v>
+        <v>8996800</v>
       </c>
       <c r="F60" s="3">
-        <v>10273700</v>
+        <v>9107600</v>
       </c>
       <c r="G60" s="3">
-        <v>9310800</v>
+        <v>10458700</v>
       </c>
       <c r="H60" s="3">
-        <v>9039800</v>
+        <v>9478500</v>
       </c>
       <c r="I60" s="3">
-        <v>8158800</v>
+        <v>9202600</v>
       </c>
       <c r="J60" s="3">
+        <v>8305700</v>
+      </c>
+      <c r="K60" s="3">
         <v>9992100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9064200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8389000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7859400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8965300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7951700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8030800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7481300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8442400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3954000</v>
+        <v>3716700</v>
       </c>
       <c r="E61" s="3">
-        <v>3301500</v>
+        <v>4025200</v>
       </c>
       <c r="F61" s="3">
-        <v>3133500</v>
+        <v>3360900</v>
       </c>
       <c r="G61" s="3">
-        <v>3171500</v>
+        <v>3189900</v>
       </c>
       <c r="H61" s="3">
-        <v>3087700</v>
+        <v>3228600</v>
       </c>
       <c r="I61" s="3">
-        <v>3106500</v>
+        <v>3143300</v>
       </c>
       <c r="J61" s="3">
+        <v>3162500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2995400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2840900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2830800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2853800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2937100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3077200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2508500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2475100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2627400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1894200</v>
+        <v>1896500</v>
       </c>
       <c r="E62" s="3">
-        <v>1782500</v>
+        <v>1928400</v>
       </c>
       <c r="F62" s="3">
-        <v>1494100</v>
+        <v>1814600</v>
       </c>
       <c r="G62" s="3">
-        <v>1456900</v>
+        <v>1521000</v>
       </c>
       <c r="H62" s="3">
-        <v>1436200</v>
+        <v>1483100</v>
       </c>
       <c r="I62" s="3">
-        <v>1446500</v>
+        <v>1462100</v>
       </c>
       <c r="J62" s="3">
+        <v>1472600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1362100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1360700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1236500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1071800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1087100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1076900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1007200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1102900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14831200</v>
+        <v>14928000</v>
       </c>
       <c r="E66" s="3">
-        <v>14180900</v>
+        <v>15098300</v>
       </c>
       <c r="F66" s="3">
-        <v>15051900</v>
+        <v>14436300</v>
       </c>
       <c r="G66" s="3">
-        <v>14086800</v>
+        <v>15322900</v>
       </c>
       <c r="H66" s="3">
-        <v>13710700</v>
+        <v>14340500</v>
       </c>
       <c r="I66" s="3">
-        <v>12861700</v>
+        <v>13957600</v>
       </c>
       <c r="J66" s="3">
+        <v>13093300</v>
+      </c>
+      <c r="K66" s="3">
         <v>14506700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13411300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12591200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11923500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13128900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12237000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11710700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11088500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12292600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2972200</v>
+        <v>2876800</v>
       </c>
       <c r="E72" s="3">
-        <v>3083300</v>
+        <v>3025700</v>
       </c>
       <c r="F72" s="3">
-        <v>2952100</v>
+        <v>3138900</v>
       </c>
       <c r="G72" s="3">
-        <v>2927100</v>
+        <v>3005300</v>
       </c>
       <c r="H72" s="3">
-        <v>2884500</v>
+        <v>2979800</v>
       </c>
       <c r="I72" s="3">
-        <v>3064300</v>
+        <v>2936400</v>
       </c>
       <c r="J72" s="3">
+        <v>3119500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2912600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2781500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2777500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2784400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2654300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2621100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2598000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2549700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2476700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4174100</v>
+        <v>4089000</v>
       </c>
       <c r="E76" s="3">
-        <v>4301100</v>
+        <v>4249300</v>
       </c>
       <c r="F76" s="3">
-        <v>4333600</v>
+        <v>4378600</v>
       </c>
       <c r="G76" s="3">
-        <v>4319100</v>
+        <v>4411600</v>
       </c>
       <c r="H76" s="3">
-        <v>4334300</v>
+        <v>4396900</v>
       </c>
       <c r="I76" s="3">
-        <v>4497100</v>
+        <v>4412400</v>
       </c>
       <c r="J76" s="3">
+        <v>4578100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4386000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4244700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4205900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4213200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4078000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3993400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3946300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3878400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3659400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-111100</v>
+        <v>-148900</v>
       </c>
       <c r="E81" s="3">
-        <v>131200</v>
+        <v>-113100</v>
       </c>
       <c r="F81" s="3">
-        <v>80200</v>
+        <v>133600</v>
       </c>
       <c r="G81" s="3">
-        <v>42600</v>
+        <v>81600</v>
       </c>
       <c r="H81" s="3">
-        <v>-77900</v>
+        <v>43400</v>
       </c>
       <c r="I81" s="3">
-        <v>151700</v>
+        <v>-79300</v>
       </c>
       <c r="J81" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K81" s="3">
         <v>141400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-57200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>130100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>73000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>161600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>142000</v>
+        <v>145900</v>
       </c>
       <c r="E83" s="3">
-        <v>149600</v>
+        <v>144600</v>
       </c>
       <c r="F83" s="3">
-        <v>144400</v>
+        <v>152300</v>
       </c>
       <c r="G83" s="3">
-        <v>145200</v>
+        <v>147000</v>
       </c>
       <c r="H83" s="3">
-        <v>139200</v>
+        <v>147800</v>
       </c>
       <c r="I83" s="3">
-        <v>141200</v>
+        <v>141800</v>
       </c>
       <c r="J83" s="3">
+        <v>143800</v>
+      </c>
+      <c r="K83" s="3">
         <v>139000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>136000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>133600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>130900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>128500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>125300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>122800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>119500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>115100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3428100</v>
+        <v>3436500</v>
       </c>
       <c r="E8" s="3">
-        <v>2888800</v>
+        <v>3267600</v>
       </c>
       <c r="F8" s="3">
-        <v>4861600</v>
+        <v>2753500</v>
       </c>
       <c r="G8" s="3">
-        <v>3833200</v>
+        <v>4634000</v>
       </c>
       <c r="H8" s="3">
-        <v>3707400</v>
+        <v>3653700</v>
       </c>
       <c r="I8" s="3">
-        <v>3371000</v>
+        <v>3533800</v>
       </c>
       <c r="J8" s="3">
+        <v>3213100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4806500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3837100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3198800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3125000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4356100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3459100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3384500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3031400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4220200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3066800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2984900</v>
+        <v>2845500</v>
       </c>
       <c r="E9" s="3">
-        <v>2675000</v>
+        <v>2845100</v>
       </c>
       <c r="F9" s="3">
-        <v>4004700</v>
+        <v>2549800</v>
       </c>
       <c r="G9" s="3">
-        <v>3117300</v>
+        <v>3817200</v>
       </c>
       <c r="H9" s="3">
-        <v>3154800</v>
+        <v>2971300</v>
       </c>
       <c r="I9" s="3">
-        <v>2896700</v>
+        <v>3007100</v>
       </c>
       <c r="J9" s="3">
+        <v>2761100</v>
+      </c>
+      <c r="K9" s="3">
         <v>4003100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3097700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2730600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2618400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3755500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2755000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2851000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2568800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3558100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2505800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>443200</v>
+        <v>590900</v>
       </c>
       <c r="E10" s="3">
-        <v>213800</v>
+        <v>422500</v>
       </c>
       <c r="F10" s="3">
-        <v>856900</v>
+        <v>203800</v>
       </c>
       <c r="G10" s="3">
-        <v>716000</v>
+        <v>816800</v>
       </c>
       <c r="H10" s="3">
-        <v>552600</v>
+        <v>682400</v>
       </c>
       <c r="I10" s="3">
-        <v>474300</v>
+        <v>526800</v>
       </c>
       <c r="J10" s="3">
+        <v>452100</v>
+      </c>
+      <c r="K10" s="3">
         <v>803400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>739500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>468200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>506600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>704100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>533500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>462600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>662000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>561100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>104700</v>
+        <v>98100</v>
       </c>
       <c r="E12" s="3">
-        <v>78300</v>
+        <v>99800</v>
       </c>
       <c r="F12" s="3">
-        <v>156000</v>
+        <v>74600</v>
       </c>
       <c r="G12" s="3">
-        <v>121400</v>
+        <v>148700</v>
       </c>
       <c r="H12" s="3">
-        <v>121300</v>
+        <v>115700</v>
       </c>
       <c r="I12" s="3">
-        <v>106800</v>
+        <v>115600</v>
       </c>
       <c r="J12" s="3">
+        <v>101800</v>
+      </c>
+      <c r="K12" s="3">
         <v>147100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>115000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>101400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>93800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>129900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>94100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>101300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>85500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>113200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>90400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,25 +1064,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>37600</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>22900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>21800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1083,14 +1102,14 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>116000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3477500</v>
+        <v>3270500</v>
       </c>
       <c r="E17" s="3">
-        <v>3087300</v>
+        <v>3314600</v>
       </c>
       <c r="F17" s="3">
-        <v>4562900</v>
+        <v>2942800</v>
       </c>
       <c r="G17" s="3">
-        <v>3641800</v>
+        <v>4349300</v>
       </c>
       <c r="H17" s="3">
-        <v>3634500</v>
+        <v>3471200</v>
       </c>
       <c r="I17" s="3">
-        <v>3360500</v>
+        <v>3464300</v>
       </c>
       <c r="J17" s="3">
+        <v>3203200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4545400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3569100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3186200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3060400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4254200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3317200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3283200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2987000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4015400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2939200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49400</v>
+        <v>165900</v>
       </c>
       <c r="E18" s="3">
-        <v>-198600</v>
+        <v>-47100</v>
       </c>
       <c r="F18" s="3">
-        <v>298700</v>
+        <v>-189300</v>
       </c>
       <c r="G18" s="3">
-        <v>191500</v>
+        <v>284700</v>
       </c>
       <c r="H18" s="3">
-        <v>72900</v>
+        <v>182500</v>
       </c>
       <c r="I18" s="3">
-        <v>10500</v>
+        <v>69500</v>
       </c>
       <c r="J18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="3">
         <v>261100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>268000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>102000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>141900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>101300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>204800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>127600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26800</v>
+        <v>9600</v>
       </c>
       <c r="E20" s="3">
-        <v>72800</v>
+        <v>25600</v>
       </c>
       <c r="F20" s="3">
-        <v>-50000</v>
+        <v>69400</v>
       </c>
       <c r="G20" s="3">
-        <v>-65600</v>
+        <v>-47700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1400</v>
+        <v>-62600</v>
       </c>
       <c r="I20" s="3">
-        <v>-43900</v>
+        <v>-1300</v>
       </c>
       <c r="J20" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-79300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-73400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-77600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>98500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>123300</v>
+        <v>315100</v>
       </c>
       <c r="E21" s="3">
-        <v>18900</v>
+        <v>117500</v>
       </c>
       <c r="F21" s="3">
-        <v>401000</v>
+        <v>18000</v>
       </c>
       <c r="G21" s="3">
-        <v>272900</v>
+        <v>382200</v>
       </c>
       <c r="H21" s="3">
-        <v>219400</v>
+        <v>260100</v>
       </c>
       <c r="I21" s="3">
-        <v>108300</v>
+        <v>209100</v>
       </c>
       <c r="J21" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K21" s="3">
         <v>325600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>333600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>65900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>218200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>190700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>243500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>218900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>177900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>246600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>341100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K22" s="3">
         <v>8900</v>
       </c>
-      <c r="E22" s="3">
-        <v>9900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>9100</v>
       </c>
-      <c r="I22" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6100</v>
       </c>
       <c r="P22" s="3">
         <v>6100</v>
       </c>
       <c r="Q22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="R22" s="3">
         <v>6000</v>
       </c>
       <c r="S22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31400</v>
+        <v>166700</v>
       </c>
       <c r="E23" s="3">
-        <v>-135600</v>
+        <v>-30000</v>
       </c>
       <c r="F23" s="3">
-        <v>240700</v>
+        <v>-129300</v>
       </c>
       <c r="G23" s="3">
-        <v>116900</v>
+        <v>229500</v>
       </c>
       <c r="H23" s="3">
-        <v>62400</v>
+        <v>111400</v>
       </c>
       <c r="I23" s="3">
-        <v>-42200</v>
+        <v>59500</v>
       </c>
       <c r="J23" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K23" s="3">
         <v>172900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>185600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-77500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>108900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>87500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>49100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>121200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>219400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113600</v>
+        <v>37800</v>
       </c>
       <c r="E24" s="3">
-        <v>-22700</v>
+        <v>108300</v>
       </c>
       <c r="F24" s="3">
-        <v>102200</v>
+        <v>-21700</v>
       </c>
       <c r="G24" s="3">
-        <v>31700</v>
+        <v>97400</v>
       </c>
       <c r="H24" s="3">
-        <v>14800</v>
+        <v>30200</v>
       </c>
       <c r="I24" s="3">
-        <v>34400</v>
+        <v>14100</v>
       </c>
       <c r="J24" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-83100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>68700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-145000</v>
+        <v>128900</v>
       </c>
       <c r="E26" s="3">
-        <v>-112900</v>
+        <v>-138200</v>
       </c>
       <c r="F26" s="3">
-        <v>138600</v>
+        <v>-107600</v>
       </c>
       <c r="G26" s="3">
-        <v>85300</v>
+        <v>132100</v>
       </c>
       <c r="H26" s="3">
-        <v>47600</v>
+        <v>81300</v>
       </c>
       <c r="I26" s="3">
-        <v>-76600</v>
+        <v>45400</v>
       </c>
       <c r="J26" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="K26" s="3">
         <v>160400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>135900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>33300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>78000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>165300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-148900</v>
+        <v>121800</v>
       </c>
       <c r="E27" s="3">
-        <v>-113100</v>
+        <v>-141900</v>
       </c>
       <c r="F27" s="3">
-        <v>133600</v>
+        <v>-107800</v>
       </c>
       <c r="G27" s="3">
-        <v>81600</v>
+        <v>127300</v>
       </c>
       <c r="H27" s="3">
-        <v>43400</v>
+        <v>77800</v>
       </c>
       <c r="I27" s="3">
-        <v>-79300</v>
+        <v>41400</v>
       </c>
       <c r="J27" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="K27" s="3">
         <v>154400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>141400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-57200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>130100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>33100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>68500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>29600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>73000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>161600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26800</v>
+        <v>-9600</v>
       </c>
       <c r="E32" s="3">
-        <v>-72800</v>
+        <v>-25600</v>
       </c>
       <c r="F32" s="3">
-        <v>50000</v>
+        <v>-69400</v>
       </c>
       <c r="G32" s="3">
-        <v>65600</v>
+        <v>47700</v>
       </c>
       <c r="H32" s="3">
-        <v>1400</v>
+        <v>62600</v>
       </c>
       <c r="I32" s="3">
-        <v>43900</v>
+        <v>1300</v>
       </c>
       <c r="J32" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K32" s="3">
         <v>79300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>73400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>77600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-98500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-148900</v>
+        <v>121800</v>
       </c>
       <c r="E33" s="3">
-        <v>-113100</v>
+        <v>-141900</v>
       </c>
       <c r="F33" s="3">
-        <v>133600</v>
+        <v>-107800</v>
       </c>
       <c r="G33" s="3">
-        <v>81600</v>
+        <v>127300</v>
       </c>
       <c r="H33" s="3">
-        <v>43400</v>
+        <v>77800</v>
       </c>
       <c r="I33" s="3">
-        <v>-79300</v>
+        <v>41400</v>
       </c>
       <c r="J33" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="K33" s="3">
         <v>154400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>141400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-57200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>130100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>33100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>68500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>73000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>161600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-148900</v>
+        <v>121800</v>
       </c>
       <c r="E35" s="3">
-        <v>-113100</v>
+        <v>-141900</v>
       </c>
       <c r="F35" s="3">
-        <v>133600</v>
+        <v>-107800</v>
       </c>
       <c r="G35" s="3">
-        <v>81600</v>
+        <v>127300</v>
       </c>
       <c r="H35" s="3">
-        <v>43400</v>
+        <v>77800</v>
       </c>
       <c r="I35" s="3">
-        <v>-79300</v>
+        <v>41400</v>
       </c>
       <c r="J35" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="K35" s="3">
         <v>154400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>141400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-57200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>130100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>33100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>68500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>73000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>161600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1472100</v>
+        <v>1257900</v>
       </c>
       <c r="E41" s="3">
-        <v>1649900</v>
+        <v>1403200</v>
       </c>
       <c r="F41" s="3">
-        <v>1019700</v>
+        <v>1572600</v>
       </c>
       <c r="G41" s="3">
-        <v>715100</v>
+        <v>971900</v>
       </c>
       <c r="H41" s="3">
-        <v>401100</v>
+        <v>681600</v>
       </c>
       <c r="I41" s="3">
-        <v>427000</v>
+        <v>382300</v>
       </c>
       <c r="J41" s="3">
+        <v>407000</v>
+      </c>
+      <c r="K41" s="3">
         <v>714100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>473500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>533400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>527700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>638500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>455700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>410800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>436300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>491300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>474100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4147600</v>
+        <v>4341400</v>
       </c>
       <c r="E43" s="3">
-        <v>4102000</v>
+        <v>3953300</v>
       </c>
       <c r="F43" s="3">
-        <v>4515100</v>
+        <v>3909900</v>
       </c>
       <c r="G43" s="3">
-        <v>5229400</v>
+        <v>4303700</v>
       </c>
       <c r="H43" s="3">
-        <v>4966800</v>
+        <v>4984500</v>
       </c>
       <c r="I43" s="3">
-        <v>4459200</v>
+        <v>4734200</v>
       </c>
       <c r="J43" s="3">
+        <v>4250400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4073400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5283800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4529800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4362500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4229500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4971000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4402000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4006900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3920900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4383800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6336400</v>
+        <v>6267700</v>
       </c>
       <c r="E44" s="3">
-        <v>6327000</v>
+        <v>6039700</v>
       </c>
       <c r="F44" s="3">
-        <v>6070200</v>
+        <v>6030700</v>
       </c>
       <c r="G44" s="3">
-        <v>6408000</v>
+        <v>5786000</v>
       </c>
       <c r="H44" s="3">
-        <v>6023000</v>
+        <v>6107900</v>
       </c>
       <c r="I44" s="3">
-        <v>6071800</v>
+        <v>5741000</v>
       </c>
       <c r="J44" s="3">
+        <v>5787500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5697000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6032500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5635200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5097500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4562800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5051200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4687700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4559700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4300700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4782900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>546300</v>
+        <v>624400</v>
       </c>
       <c r="E45" s="3">
-        <v>595500</v>
+        <v>520700</v>
       </c>
       <c r="F45" s="3">
-        <v>491800</v>
+        <v>567600</v>
       </c>
       <c r="G45" s="3">
-        <v>637400</v>
+        <v>468800</v>
       </c>
       <c r="H45" s="3">
-        <v>587500</v>
+        <v>607500</v>
       </c>
       <c r="I45" s="3">
-        <v>621200</v>
+        <v>560000</v>
       </c>
       <c r="J45" s="3">
+        <v>592100</v>
+      </c>
+      <c r="K45" s="3">
         <v>435700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>816100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>761300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>773600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>655800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1006500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1066100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1114300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>847500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>969300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12502500</v>
+        <v>12491500</v>
       </c>
       <c r="E46" s="3">
-        <v>12674400</v>
+        <v>11917000</v>
       </c>
       <c r="F46" s="3">
-        <v>12096900</v>
+        <v>12080900</v>
       </c>
       <c r="G46" s="3">
-        <v>12989800</v>
+        <v>11530400</v>
       </c>
       <c r="H46" s="3">
-        <v>11978400</v>
+        <v>12381500</v>
       </c>
       <c r="I46" s="3">
-        <v>11579200</v>
+        <v>11417500</v>
       </c>
       <c r="J46" s="3">
+        <v>11037000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10920200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12605900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11459600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10761400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10086600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11484400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10566600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10117200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9560400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10610100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4479500</v>
+        <v>4243500</v>
       </c>
       <c r="E48" s="3">
-        <v>4534700</v>
+        <v>4269700</v>
       </c>
       <c r="F48" s="3">
-        <v>4637500</v>
+        <v>4322300</v>
       </c>
       <c r="G48" s="3">
-        <v>4658700</v>
+        <v>4420300</v>
       </c>
       <c r="H48" s="3">
-        <v>4669300</v>
+        <v>4440500</v>
       </c>
       <c r="I48" s="3">
-        <v>4676100</v>
+        <v>4450600</v>
       </c>
       <c r="J48" s="3">
+        <v>4457200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4667300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4563000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4490400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4389800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4337400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4329700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4294800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4198900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4096900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3997600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>213800</v>
+        <v>202400</v>
       </c>
       <c r="E49" s="3">
-        <v>211300</v>
+        <v>203800</v>
       </c>
       <c r="F49" s="3">
-        <v>205300</v>
+        <v>201400</v>
       </c>
       <c r="G49" s="3">
-        <v>182400</v>
+        <v>195600</v>
       </c>
       <c r="H49" s="3">
-        <v>180100</v>
+        <v>173800</v>
       </c>
       <c r="I49" s="3">
-        <v>171500</v>
+        <v>171600</v>
       </c>
       <c r="J49" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K49" s="3">
         <v>161400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>153300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>149800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>147200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>146200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>139900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>140700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>135000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>135600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>129900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1836700</v>
+        <v>1776700</v>
       </c>
       <c r="E52" s="3">
-        <v>1944800</v>
+        <v>1750700</v>
       </c>
       <c r="F52" s="3">
-        <v>1892900</v>
+        <v>1853700</v>
       </c>
       <c r="G52" s="3">
-        <v>1916300</v>
+        <v>1804300</v>
       </c>
       <c r="H52" s="3">
-        <v>1923200</v>
+        <v>1826500</v>
       </c>
       <c r="I52" s="3">
-        <v>1956600</v>
+        <v>1833200</v>
       </c>
       <c r="J52" s="3">
+        <v>1865000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1936100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1603200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1588900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1530100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1599800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1276700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1362600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1339200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1304700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1350000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19016900</v>
+        <v>18701500</v>
       </c>
       <c r="E54" s="3">
-        <v>19347600</v>
+        <v>18126400</v>
       </c>
       <c r="F54" s="3">
-        <v>18814900</v>
+        <v>18441600</v>
       </c>
       <c r="G54" s="3">
-        <v>19734500</v>
+        <v>17933900</v>
       </c>
       <c r="H54" s="3">
-        <v>18737400</v>
+        <v>18810400</v>
       </c>
       <c r="I54" s="3">
-        <v>18369900</v>
+        <v>17860000</v>
       </c>
       <c r="J54" s="3">
+        <v>17509700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17671400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18892700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17656100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16797100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16136700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17206800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16230400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15657000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14966900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15952000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2920600</v>
+        <v>3058900</v>
       </c>
       <c r="E57" s="3">
-        <v>2953900</v>
+        <v>2783900</v>
       </c>
       <c r="F57" s="3">
-        <v>3571900</v>
+        <v>2815500</v>
       </c>
       <c r="G57" s="3">
-        <v>3252300</v>
+        <v>3404600</v>
       </c>
       <c r="H57" s="3">
-        <v>3076900</v>
+        <v>3100000</v>
       </c>
       <c r="I57" s="3">
-        <v>3247300</v>
+        <v>2932800</v>
       </c>
       <c r="J57" s="3">
+        <v>3095300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3558300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3258700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3116400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3052900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3283100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3120100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2995600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2794300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3033700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2805600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1746100</v>
+        <v>1681800</v>
       </c>
       <c r="E58" s="3">
-        <v>1841900</v>
+        <v>1664400</v>
       </c>
       <c r="F58" s="3">
-        <v>1804100</v>
+        <v>1755600</v>
       </c>
       <c r="G58" s="3">
-        <v>2723700</v>
+        <v>1719600</v>
       </c>
       <c r="H58" s="3">
-        <v>1799900</v>
+        <v>2596100</v>
       </c>
       <c r="I58" s="3">
-        <v>1350500</v>
+        <v>1715600</v>
       </c>
       <c r="J58" s="3">
+        <v>1287200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1060400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2197400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1264300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1106800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2153700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1639000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>976200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1162300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1079000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1467300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4496600</v>
+        <v>4435100</v>
       </c>
       <c r="E59" s="3">
-        <v>4201100</v>
+        <v>4286100</v>
       </c>
       <c r="F59" s="3">
-        <v>3731700</v>
+        <v>4004400</v>
       </c>
       <c r="G59" s="3">
-        <v>4482800</v>
+        <v>3556900</v>
       </c>
       <c r="H59" s="3">
-        <v>4601700</v>
+        <v>4272900</v>
       </c>
       <c r="I59" s="3">
-        <v>4604800</v>
+        <v>4386200</v>
       </c>
       <c r="J59" s="3">
+        <v>4389200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3687000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4536000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4683500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4229300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3591100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4206100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3979900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4074200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3368600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4169500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9163400</v>
+        <v>9175800</v>
       </c>
       <c r="E60" s="3">
-        <v>8996800</v>
+        <v>8734300</v>
       </c>
       <c r="F60" s="3">
-        <v>9107600</v>
+        <v>8575500</v>
       </c>
       <c r="G60" s="3">
-        <v>10458700</v>
+        <v>8681200</v>
       </c>
       <c r="H60" s="3">
-        <v>9478500</v>
+        <v>9969000</v>
       </c>
       <c r="I60" s="3">
-        <v>9202600</v>
+        <v>9034600</v>
       </c>
       <c r="J60" s="3">
+        <v>8771700</v>
+      </c>
+      <c r="K60" s="3">
         <v>8305700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9992100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9064200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8389000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7859400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8965300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7951700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8030800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7481300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8442400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3716700</v>
+        <v>3538100</v>
       </c>
       <c r="E61" s="3">
-        <v>4025200</v>
+        <v>3542700</v>
       </c>
       <c r="F61" s="3">
-        <v>3360900</v>
+        <v>3836700</v>
       </c>
       <c r="G61" s="3">
-        <v>3189900</v>
+        <v>3203500</v>
       </c>
       <c r="H61" s="3">
-        <v>3228600</v>
+        <v>3040600</v>
       </c>
       <c r="I61" s="3">
-        <v>3143300</v>
+        <v>3077400</v>
       </c>
       <c r="J61" s="3">
+        <v>2996100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3162500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2995400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2840900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2830800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2853800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2937100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3077200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2508500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2475100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2627400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1896500</v>
+        <v>1804800</v>
       </c>
       <c r="E62" s="3">
-        <v>1928400</v>
+        <v>1807700</v>
       </c>
       <c r="F62" s="3">
-        <v>1814600</v>
+        <v>1838100</v>
       </c>
       <c r="G62" s="3">
-        <v>1521000</v>
+        <v>1729600</v>
       </c>
       <c r="H62" s="3">
-        <v>1483100</v>
+        <v>1449800</v>
       </c>
       <c r="I62" s="3">
-        <v>1462100</v>
+        <v>1413700</v>
       </c>
       <c r="J62" s="3">
+        <v>1393600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1472600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1362100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1360700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1236500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1071800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1087100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1076900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1043000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1007200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1102900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14928000</v>
+        <v>14670800</v>
       </c>
       <c r="E66" s="3">
-        <v>15098300</v>
+        <v>14228900</v>
       </c>
       <c r="F66" s="3">
-        <v>14436300</v>
+        <v>14391300</v>
       </c>
       <c r="G66" s="3">
-        <v>15322900</v>
+        <v>13760300</v>
       </c>
       <c r="H66" s="3">
-        <v>14340500</v>
+        <v>14605400</v>
       </c>
       <c r="I66" s="3">
-        <v>13957600</v>
+        <v>13669000</v>
       </c>
       <c r="J66" s="3">
+        <v>13304000</v>
+      </c>
+      <c r="K66" s="3">
         <v>13093300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14506700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13411300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12591200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11923500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13128900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12237000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11710700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11088500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12292600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2876800</v>
+        <v>2856900</v>
       </c>
       <c r="E72" s="3">
-        <v>3025700</v>
+        <v>2742100</v>
       </c>
       <c r="F72" s="3">
-        <v>3138900</v>
+        <v>2884100</v>
       </c>
       <c r="G72" s="3">
-        <v>3005300</v>
+        <v>2991900</v>
       </c>
       <c r="H72" s="3">
-        <v>2979800</v>
+        <v>2864600</v>
       </c>
       <c r="I72" s="3">
-        <v>2936400</v>
+        <v>2840300</v>
       </c>
       <c r="J72" s="3">
+        <v>2798900</v>
+      </c>
+      <c r="K72" s="3">
         <v>3119500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2912600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2781500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2777500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2784400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2654300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2621100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2598000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2549700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2476700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4089000</v>
+        <v>4030700</v>
       </c>
       <c r="E76" s="3">
-        <v>4249300</v>
+        <v>3897500</v>
       </c>
       <c r="F76" s="3">
-        <v>4378600</v>
+        <v>4050300</v>
       </c>
       <c r="G76" s="3">
-        <v>4411600</v>
+        <v>4173600</v>
       </c>
       <c r="H76" s="3">
-        <v>4396900</v>
+        <v>4205000</v>
       </c>
       <c r="I76" s="3">
-        <v>4412400</v>
+        <v>4191000</v>
       </c>
       <c r="J76" s="3">
+        <v>4205800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4578100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4386000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4244700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4205900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4213200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4078000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3993400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3946300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3878400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3659400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-148900</v>
+        <v>121800</v>
       </c>
       <c r="E81" s="3">
-        <v>-113100</v>
+        <v>-141900</v>
       </c>
       <c r="F81" s="3">
-        <v>133600</v>
+        <v>-107800</v>
       </c>
       <c r="G81" s="3">
-        <v>81600</v>
+        <v>127300</v>
       </c>
       <c r="H81" s="3">
-        <v>43400</v>
+        <v>77800</v>
       </c>
       <c r="I81" s="3">
-        <v>-79300</v>
+        <v>41400</v>
       </c>
       <c r="J81" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="K81" s="3">
         <v>154400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>141400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-57200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>130100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>33100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>68500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>73000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>161600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>145900</v>
+        <v>139600</v>
       </c>
       <c r="E83" s="3">
-        <v>144600</v>
+        <v>139000</v>
       </c>
       <c r="F83" s="3">
-        <v>152300</v>
+        <v>137800</v>
       </c>
       <c r="G83" s="3">
-        <v>147000</v>
+        <v>145200</v>
       </c>
       <c r="H83" s="3">
-        <v>147800</v>
+        <v>140100</v>
       </c>
       <c r="I83" s="3">
-        <v>141800</v>
+        <v>140900</v>
       </c>
       <c r="J83" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K83" s="3">
         <v>143800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>136000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>133600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>130900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>128500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>125300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>122800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>119500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>115100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3436500</v>
+        <v>4190700</v>
       </c>
       <c r="E8" s="3">
-        <v>3267600</v>
+        <v>3447700</v>
       </c>
       <c r="F8" s="3">
-        <v>2753500</v>
+        <v>3278300</v>
       </c>
       <c r="G8" s="3">
-        <v>4634000</v>
+        <v>2762500</v>
       </c>
       <c r="H8" s="3">
-        <v>3653700</v>
+        <v>4649100</v>
       </c>
       <c r="I8" s="3">
-        <v>3533800</v>
+        <v>3665700</v>
       </c>
       <c r="J8" s="3">
+        <v>3545400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3213100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4806500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3837100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3198800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3125000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4356100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3459100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3384500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3031400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4220200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3066800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2845500</v>
+        <v>3655000</v>
       </c>
       <c r="E9" s="3">
-        <v>2845100</v>
+        <v>2854800</v>
       </c>
       <c r="F9" s="3">
-        <v>2549800</v>
+        <v>2854400</v>
       </c>
       <c r="G9" s="3">
-        <v>3817200</v>
+        <v>2558100</v>
       </c>
       <c r="H9" s="3">
-        <v>2971300</v>
+        <v>3829700</v>
       </c>
       <c r="I9" s="3">
-        <v>3007100</v>
+        <v>2981000</v>
       </c>
       <c r="J9" s="3">
+        <v>3016900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2761100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4003100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3097700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2730600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2618400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3755500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2755000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2851000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2568800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3558100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2505800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>590900</v>
+        <v>535600</v>
       </c>
       <c r="E10" s="3">
-        <v>422500</v>
+        <v>592900</v>
       </c>
       <c r="F10" s="3">
-        <v>203800</v>
+        <v>423900</v>
       </c>
       <c r="G10" s="3">
-        <v>816800</v>
+        <v>204400</v>
       </c>
       <c r="H10" s="3">
-        <v>682400</v>
+        <v>819400</v>
       </c>
       <c r="I10" s="3">
-        <v>526800</v>
+        <v>684700</v>
       </c>
       <c r="J10" s="3">
+        <v>528500</v>
+      </c>
+      <c r="K10" s="3">
         <v>452100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>803400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>739500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>468200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>506600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>704100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>533500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>462600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>662000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>561100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>98100</v>
+        <v>139700</v>
       </c>
       <c r="E12" s="3">
+        <v>98400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>74900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>149200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>116100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>116000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>101800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>147100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>115000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>101400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>93800</v>
+      </c>
+      <c r="P12" s="3">
+        <v>129900</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>94100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>101300</v>
+      </c>
+      <c r="S12" s="3">
+        <v>85500</v>
+      </c>
+      <c r="T12" s="3">
+        <v>113200</v>
+      </c>
+      <c r="U12" s="3">
+        <v>90400</v>
+      </c>
+      <c r="V12" s="3">
         <v>99800</v>
       </c>
-      <c r="F12" s="3">
-        <v>74600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>148700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>115700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>115600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>101800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>147100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>115000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>101400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>93800</v>
-      </c>
-      <c r="O12" s="3">
-        <v>129900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>94100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>101300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>85500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>113200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>90400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>99800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,28 +1084,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>35900</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>21800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>21900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1105,14 +1125,14 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>116000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3270500</v>
+        <v>4348300</v>
       </c>
       <c r="E17" s="3">
-        <v>3314600</v>
+        <v>3281200</v>
       </c>
       <c r="F17" s="3">
-        <v>2942800</v>
+        <v>3325500</v>
       </c>
       <c r="G17" s="3">
-        <v>4349300</v>
+        <v>2952400</v>
       </c>
       <c r="H17" s="3">
-        <v>3471200</v>
+        <v>4363500</v>
       </c>
       <c r="I17" s="3">
-        <v>3464300</v>
+        <v>3482600</v>
       </c>
       <c r="J17" s="3">
+        <v>3475600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3203200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4545400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3569100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3186200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3060400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4254200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3317200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3283200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2987000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4015400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2939200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>165900</v>
+        <v>-157700</v>
       </c>
       <c r="E18" s="3">
-        <v>-47100</v>
+        <v>166500</v>
       </c>
       <c r="F18" s="3">
-        <v>-189300</v>
+        <v>-47200</v>
       </c>
       <c r="G18" s="3">
-        <v>284700</v>
+        <v>-189900</v>
       </c>
       <c r="H18" s="3">
-        <v>182500</v>
+        <v>285600</v>
       </c>
       <c r="I18" s="3">
-        <v>69500</v>
+        <v>183100</v>
       </c>
       <c r="J18" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>261100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>268000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>102000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>141900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>101300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>44400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>204800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>127600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E20" s="3">
         <v>9600</v>
       </c>
-      <c r="E20" s="3">
-        <v>25600</v>
-      </c>
       <c r="F20" s="3">
-        <v>69400</v>
+        <v>25700</v>
       </c>
       <c r="G20" s="3">
-        <v>-47700</v>
+        <v>69600</v>
       </c>
       <c r="H20" s="3">
-        <v>-62600</v>
+        <v>-47800</v>
       </c>
       <c r="I20" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-79300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-73400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-82700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-77600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>98500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>315100</v>
+        <v>10700</v>
       </c>
       <c r="E21" s="3">
-        <v>117500</v>
+        <v>316100</v>
       </c>
       <c r="F21" s="3">
+        <v>117900</v>
+      </c>
+      <c r="G21" s="3">
         <v>18000</v>
       </c>
-      <c r="G21" s="3">
-        <v>382200</v>
-      </c>
       <c r="H21" s="3">
-        <v>260100</v>
+        <v>383500</v>
       </c>
       <c r="I21" s="3">
-        <v>209100</v>
+        <v>260900</v>
       </c>
       <c r="J21" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K21" s="3">
         <v>103200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>325600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>333600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>65900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>218200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>190700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>243500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>218900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>177900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>246600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>341100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8500</v>
       </c>
-      <c r="F22" s="3">
-        <v>9400</v>
-      </c>
       <c r="G22" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H22" s="3">
         <v>7600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>6100</v>
       </c>
       <c r="Q22" s="3">
         <v>6100</v>
       </c>
       <c r="R22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="S22" s="3">
         <v>6000</v>
       </c>
       <c r="T22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>166700</v>
+        <v>-142400</v>
       </c>
       <c r="E23" s="3">
-        <v>-30000</v>
+        <v>167200</v>
       </c>
       <c r="F23" s="3">
-        <v>-129300</v>
+        <v>-30100</v>
       </c>
       <c r="G23" s="3">
-        <v>229500</v>
+        <v>-129700</v>
       </c>
       <c r="H23" s="3">
-        <v>111400</v>
+        <v>230200</v>
       </c>
       <c r="I23" s="3">
-        <v>59500</v>
+        <v>111800</v>
       </c>
       <c r="J23" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-40200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>172900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>185600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-77500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>77700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>108900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>49100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>121200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>219400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37800</v>
+        <v>-99100</v>
       </c>
       <c r="E24" s="3">
-        <v>108300</v>
+        <v>37900</v>
       </c>
       <c r="F24" s="3">
+        <v>108600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-21700</v>
       </c>
-      <c r="G24" s="3">
-        <v>97400</v>
-      </c>
       <c r="H24" s="3">
-        <v>30200</v>
+        <v>97700</v>
       </c>
       <c r="I24" s="3">
-        <v>14100</v>
+        <v>30300</v>
       </c>
       <c r="J24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K24" s="3">
         <v>32800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-83100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>68700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>128900</v>
+        <v>-43300</v>
       </c>
       <c r="E26" s="3">
-        <v>-138200</v>
+        <v>129300</v>
       </c>
       <c r="F26" s="3">
-        <v>-107600</v>
+        <v>-138700</v>
       </c>
       <c r="G26" s="3">
-        <v>132100</v>
+        <v>-108000</v>
       </c>
       <c r="H26" s="3">
-        <v>81300</v>
+        <v>132500</v>
       </c>
       <c r="I26" s="3">
-        <v>45400</v>
+        <v>81500</v>
       </c>
       <c r="J26" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-73000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>160400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>149900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>135900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>33300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>78000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>165300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>121800</v>
+        <v>-49300</v>
       </c>
       <c r="E27" s="3">
-        <v>-141900</v>
+        <v>122200</v>
       </c>
       <c r="F27" s="3">
-        <v>-107800</v>
+        <v>-142400</v>
       </c>
       <c r="G27" s="3">
-        <v>127300</v>
+        <v>-108200</v>
       </c>
       <c r="H27" s="3">
-        <v>77800</v>
+        <v>127700</v>
       </c>
       <c r="I27" s="3">
-        <v>41400</v>
+        <v>78100</v>
       </c>
       <c r="J27" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-75600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>154400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>141400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-57200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>130100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>33100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>68500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>29600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>73000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>161600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-25600</v>
-      </c>
       <c r="F32" s="3">
-        <v>-69400</v>
+        <v>-25700</v>
       </c>
       <c r="G32" s="3">
-        <v>47700</v>
+        <v>-69600</v>
       </c>
       <c r="H32" s="3">
-        <v>62600</v>
+        <v>47800</v>
       </c>
       <c r="I32" s="3">
+        <v>62800</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>79300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>73400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>82700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>77600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-98500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>121800</v>
+        <v>-49300</v>
       </c>
       <c r="E33" s="3">
-        <v>-141900</v>
+        <v>122200</v>
       </c>
       <c r="F33" s="3">
-        <v>-107800</v>
+        <v>-142400</v>
       </c>
       <c r="G33" s="3">
-        <v>127300</v>
+        <v>-108200</v>
       </c>
       <c r="H33" s="3">
-        <v>77800</v>
+        <v>127700</v>
       </c>
       <c r="I33" s="3">
-        <v>41400</v>
+        <v>78100</v>
       </c>
       <c r="J33" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-75600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>154400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>141400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-57200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>130100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>33100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>68500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>73000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>161600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>121800</v>
+        <v>-49300</v>
       </c>
       <c r="E35" s="3">
-        <v>-141900</v>
+        <v>122200</v>
       </c>
       <c r="F35" s="3">
-        <v>-107800</v>
+        <v>-142400</v>
       </c>
       <c r="G35" s="3">
-        <v>127300</v>
+        <v>-108200</v>
       </c>
       <c r="H35" s="3">
-        <v>77800</v>
+        <v>127700</v>
       </c>
       <c r="I35" s="3">
-        <v>41400</v>
+        <v>78100</v>
       </c>
       <c r="J35" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-75600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>154400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>141400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-57200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>130100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>33100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>68500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>73000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>161600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1257900</v>
+        <v>1164400</v>
       </c>
       <c r="E41" s="3">
-        <v>1403200</v>
+        <v>1262000</v>
       </c>
       <c r="F41" s="3">
-        <v>1572600</v>
+        <v>1407800</v>
       </c>
       <c r="G41" s="3">
-        <v>971900</v>
+        <v>1577800</v>
       </c>
       <c r="H41" s="3">
-        <v>681600</v>
+        <v>975100</v>
       </c>
       <c r="I41" s="3">
-        <v>382300</v>
+        <v>683800</v>
       </c>
       <c r="J41" s="3">
+        <v>383600</v>
+      </c>
+      <c r="K41" s="3">
         <v>407000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>714100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>473500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>533400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>527700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>638500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>455700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>410800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>436300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>491300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>474100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,249 +2608,264 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4341400</v>
+        <v>4198400</v>
       </c>
       <c r="E43" s="3">
-        <v>3953300</v>
+        <v>4355600</v>
       </c>
       <c r="F43" s="3">
-        <v>3909900</v>
+        <v>3966300</v>
       </c>
       <c r="G43" s="3">
-        <v>4303700</v>
+        <v>3922700</v>
       </c>
       <c r="H43" s="3">
-        <v>4984500</v>
+        <v>4317800</v>
       </c>
       <c r="I43" s="3">
-        <v>4734200</v>
+        <v>5000900</v>
       </c>
       <c r="J43" s="3">
+        <v>4749700</v>
+      </c>
+      <c r="K43" s="3">
         <v>4250400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4073400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5283800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4529800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4362500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4229500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4971000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4402000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4006900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3920900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4383800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6267700</v>
+        <v>6052000</v>
       </c>
       <c r="E44" s="3">
-        <v>6039700</v>
+        <v>6288300</v>
       </c>
       <c r="F44" s="3">
-        <v>6030700</v>
+        <v>6059500</v>
       </c>
       <c r="G44" s="3">
-        <v>5786000</v>
+        <v>6050500</v>
       </c>
       <c r="H44" s="3">
-        <v>6107900</v>
+        <v>5804900</v>
       </c>
       <c r="I44" s="3">
-        <v>5741000</v>
+        <v>6127900</v>
       </c>
       <c r="J44" s="3">
+        <v>5759800</v>
+      </c>
+      <c r="K44" s="3">
         <v>5787500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5697000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6032500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5635200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5097500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4562800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5051200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4687700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4559700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4300700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4782900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>624400</v>
+        <v>398100</v>
       </c>
       <c r="E45" s="3">
-        <v>520700</v>
+        <v>626500</v>
       </c>
       <c r="F45" s="3">
-        <v>567600</v>
+        <v>522500</v>
       </c>
       <c r="G45" s="3">
-        <v>468800</v>
+        <v>569500</v>
       </c>
       <c r="H45" s="3">
-        <v>607500</v>
+        <v>470300</v>
       </c>
       <c r="I45" s="3">
-        <v>560000</v>
+        <v>609500</v>
       </c>
       <c r="J45" s="3">
+        <v>561800</v>
+      </c>
+      <c r="K45" s="3">
         <v>592100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>435700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>816100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>761300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>773600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>655800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1006500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1066100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1114300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>847500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>969300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12491500</v>
+        <v>11812900</v>
       </c>
       <c r="E46" s="3">
-        <v>11917000</v>
+        <v>12532400</v>
       </c>
       <c r="F46" s="3">
-        <v>12080900</v>
+        <v>11956100</v>
       </c>
       <c r="G46" s="3">
-        <v>11530400</v>
+        <v>12120400</v>
       </c>
       <c r="H46" s="3">
-        <v>12381500</v>
+        <v>11568200</v>
       </c>
       <c r="I46" s="3">
-        <v>11417500</v>
+        <v>12422100</v>
       </c>
       <c r="J46" s="3">
+        <v>11454800</v>
+      </c>
+      <c r="K46" s="3">
         <v>11037000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10920200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12605900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11459600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10761400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10086600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11484400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10566600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10117200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9560400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10610100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>104000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4243500</v>
+        <v>4147100</v>
       </c>
       <c r="E48" s="3">
-        <v>4269700</v>
+        <v>4257400</v>
       </c>
       <c r="F48" s="3">
-        <v>4322300</v>
+        <v>4283700</v>
       </c>
       <c r="G48" s="3">
-        <v>4420300</v>
+        <v>4336500</v>
       </c>
       <c r="H48" s="3">
-        <v>4440500</v>
+        <v>4434800</v>
       </c>
       <c r="I48" s="3">
-        <v>4450600</v>
+        <v>4455100</v>
       </c>
       <c r="J48" s="3">
+        <v>4465200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4457200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4667300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4563000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4490400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4389800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4337400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4329700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4294800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4198900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4096900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3997600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>202400</v>
+        <v>206100</v>
       </c>
       <c r="E49" s="3">
-        <v>203800</v>
+        <v>203000</v>
       </c>
       <c r="F49" s="3">
-        <v>201400</v>
+        <v>204500</v>
       </c>
       <c r="G49" s="3">
-        <v>195600</v>
+        <v>202100</v>
       </c>
       <c r="H49" s="3">
-        <v>173800</v>
+        <v>196300</v>
       </c>
       <c r="I49" s="3">
-        <v>171600</v>
+        <v>174400</v>
       </c>
       <c r="J49" s="3">
+        <v>172200</v>
+      </c>
+      <c r="K49" s="3">
         <v>163500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>161400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>153300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>149800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>147200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>146200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>139900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>140700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>135000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>135600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>129900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1776700</v>
+        <v>1772400</v>
       </c>
       <c r="E52" s="3">
-        <v>1750700</v>
+        <v>1782600</v>
       </c>
       <c r="F52" s="3">
-        <v>1853700</v>
+        <v>1756400</v>
       </c>
       <c r="G52" s="3">
-        <v>1804300</v>
+        <v>1859800</v>
       </c>
       <c r="H52" s="3">
-        <v>1826500</v>
+        <v>1810200</v>
       </c>
       <c r="I52" s="3">
-        <v>1833200</v>
+        <v>1832500</v>
       </c>
       <c r="J52" s="3">
+        <v>1839200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1865000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1936100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1603200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1588900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1530100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1599800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1276700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1362600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1339200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1304700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1350000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18701500</v>
+        <v>18042500</v>
       </c>
       <c r="E54" s="3">
-        <v>18126400</v>
+        <v>18762700</v>
       </c>
       <c r="F54" s="3">
-        <v>18441600</v>
+        <v>18185800</v>
       </c>
       <c r="G54" s="3">
-        <v>17933900</v>
+        <v>18502000</v>
       </c>
       <c r="H54" s="3">
-        <v>18810400</v>
+        <v>17992600</v>
       </c>
       <c r="I54" s="3">
-        <v>17860000</v>
+        <v>18872000</v>
       </c>
       <c r="J54" s="3">
+        <v>17918500</v>
+      </c>
+      <c r="K54" s="3">
         <v>17509700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17671400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18892700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17656100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16797100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16136700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17206800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16230400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15657000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14966900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15952000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3058900</v>
+        <v>3263800</v>
       </c>
       <c r="E57" s="3">
-        <v>2783900</v>
+        <v>3068900</v>
       </c>
       <c r="F57" s="3">
-        <v>2815500</v>
+        <v>2793000</v>
       </c>
       <c r="G57" s="3">
-        <v>3404600</v>
+        <v>2824800</v>
       </c>
       <c r="H57" s="3">
-        <v>3100000</v>
+        <v>3415800</v>
       </c>
       <c r="I57" s="3">
-        <v>2932800</v>
+        <v>3110100</v>
       </c>
       <c r="J57" s="3">
+        <v>2942400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3095300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3558300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3258700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3116400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3052900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3283100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3120100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2995600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2794300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3033700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2805600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1681800</v>
+        <v>1586600</v>
       </c>
       <c r="E58" s="3">
-        <v>1664400</v>
+        <v>1687300</v>
       </c>
       <c r="F58" s="3">
-        <v>1755600</v>
+        <v>1669800</v>
       </c>
       <c r="G58" s="3">
-        <v>1719600</v>
+        <v>1761400</v>
       </c>
       <c r="H58" s="3">
-        <v>2596100</v>
+        <v>1725200</v>
       </c>
       <c r="I58" s="3">
-        <v>1715600</v>
+        <v>2604600</v>
       </c>
       <c r="J58" s="3">
+        <v>1721200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1287200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1060400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2197400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1264300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1106800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2153700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1639000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>976200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1162300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1079000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1467300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4435100</v>
+        <v>3582000</v>
       </c>
       <c r="E59" s="3">
-        <v>4286100</v>
+        <v>4449600</v>
       </c>
       <c r="F59" s="3">
-        <v>4004400</v>
+        <v>4300100</v>
       </c>
       <c r="G59" s="3">
-        <v>3556900</v>
+        <v>4017500</v>
       </c>
       <c r="H59" s="3">
-        <v>4272900</v>
+        <v>3568600</v>
       </c>
       <c r="I59" s="3">
-        <v>4386200</v>
+        <v>4286900</v>
       </c>
       <c r="J59" s="3">
+        <v>4400600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4389200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3687000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4536000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4683500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4229300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3591100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4206100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3979900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4074200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3368600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4169500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9175800</v>
+        <v>8432300</v>
       </c>
       <c r="E60" s="3">
-        <v>8734300</v>
+        <v>9205900</v>
       </c>
       <c r="F60" s="3">
-        <v>8575500</v>
+        <v>8762900</v>
       </c>
       <c r="G60" s="3">
-        <v>8681200</v>
+        <v>8603600</v>
       </c>
       <c r="H60" s="3">
-        <v>9969000</v>
+        <v>8709600</v>
       </c>
       <c r="I60" s="3">
-        <v>9034600</v>
+        <v>10001600</v>
       </c>
       <c r="J60" s="3">
+        <v>9064200</v>
+      </c>
+      <c r="K60" s="3">
         <v>8771700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8305700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9992100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9064200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8389000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7859400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8965300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7951700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8030800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7481300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8442400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3538100</v>
+        <v>3664100</v>
       </c>
       <c r="E61" s="3">
-        <v>3542700</v>
+        <v>3549700</v>
       </c>
       <c r="F61" s="3">
-        <v>3836700</v>
+        <v>3554300</v>
       </c>
       <c r="G61" s="3">
-        <v>3203500</v>
+        <v>3849300</v>
       </c>
       <c r="H61" s="3">
-        <v>3040600</v>
+        <v>3214000</v>
       </c>
       <c r="I61" s="3">
-        <v>3077400</v>
+        <v>3050500</v>
       </c>
       <c r="J61" s="3">
+        <v>3087500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2996100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3162500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2995400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2840900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2830800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2853800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2937100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3077200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2508500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2475100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2627400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1804800</v>
+        <v>1509300</v>
       </c>
       <c r="E62" s="3">
-        <v>1807700</v>
+        <v>1810700</v>
       </c>
       <c r="F62" s="3">
-        <v>1838100</v>
+        <v>1813600</v>
       </c>
       <c r="G62" s="3">
-        <v>1729600</v>
+        <v>1844100</v>
       </c>
       <c r="H62" s="3">
-        <v>1449800</v>
+        <v>1735300</v>
       </c>
       <c r="I62" s="3">
-        <v>1413700</v>
+        <v>1454500</v>
       </c>
       <c r="J62" s="3">
+        <v>1418300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1393600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1472600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1362100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1360700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1236500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1071800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1087100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1076900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1043000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1007200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1102900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14670800</v>
+        <v>13766100</v>
       </c>
       <c r="E66" s="3">
-        <v>14228900</v>
+        <v>14718800</v>
       </c>
       <c r="F66" s="3">
-        <v>14391300</v>
+        <v>14275500</v>
       </c>
       <c r="G66" s="3">
-        <v>13760300</v>
+        <v>14438400</v>
       </c>
       <c r="H66" s="3">
-        <v>14605400</v>
+        <v>13805400</v>
       </c>
       <c r="I66" s="3">
-        <v>13669000</v>
+        <v>14653200</v>
       </c>
       <c r="J66" s="3">
+        <v>13713800</v>
+      </c>
+      <c r="K66" s="3">
         <v>13304000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13093300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14506700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13411300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12591200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11923500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13128900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12237000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11710700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11088500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12292600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2856900</v>
+        <v>2817400</v>
       </c>
       <c r="E72" s="3">
-        <v>2742100</v>
+        <v>2866300</v>
       </c>
       <c r="F72" s="3">
-        <v>2884100</v>
+        <v>2751100</v>
       </c>
       <c r="G72" s="3">
-        <v>2991900</v>
+        <v>2893500</v>
       </c>
       <c r="H72" s="3">
-        <v>2864600</v>
+        <v>3001700</v>
       </c>
       <c r="I72" s="3">
-        <v>2840300</v>
+        <v>2874000</v>
       </c>
       <c r="J72" s="3">
+        <v>2849600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2798900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3119500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2912600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2781500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2777500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2784400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2654300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2621100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2598000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2549700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2476700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4030700</v>
+        <v>4276400</v>
       </c>
       <c r="E76" s="3">
-        <v>3897500</v>
+        <v>4043900</v>
       </c>
       <c r="F76" s="3">
-        <v>4050300</v>
+        <v>3910300</v>
       </c>
       <c r="G76" s="3">
-        <v>4173600</v>
+        <v>4063500</v>
       </c>
       <c r="H76" s="3">
-        <v>4205000</v>
+        <v>4187200</v>
       </c>
       <c r="I76" s="3">
-        <v>4191000</v>
+        <v>4218800</v>
       </c>
       <c r="J76" s="3">
+        <v>4204800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4205800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4578100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4386000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4244700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4205900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4213200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4078000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3993400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3946300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3878400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3659400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>121800</v>
+        <v>-49300</v>
       </c>
       <c r="E81" s="3">
-        <v>-141900</v>
+        <v>122200</v>
       </c>
       <c r="F81" s="3">
-        <v>-107800</v>
+        <v>-142400</v>
       </c>
       <c r="G81" s="3">
-        <v>127300</v>
+        <v>-108200</v>
       </c>
       <c r="H81" s="3">
-        <v>77800</v>
+        <v>127700</v>
       </c>
       <c r="I81" s="3">
-        <v>41400</v>
+        <v>78100</v>
       </c>
       <c r="J81" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-75600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>154400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>141400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-57200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>130100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>33100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>68500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>73000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>161600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>139600</v>
+        <v>145200</v>
       </c>
       <c r="E83" s="3">
+        <v>140100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>139500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>138300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>145700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>140600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>135100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>143800</v>
+      </c>
+      <c r="M83" s="3">
         <v>139000</v>
       </c>
-      <c r="F83" s="3">
-        <v>137800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>145200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>140100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>140900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>135100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>143800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>139000</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>136000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>133600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>130900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>128500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>125300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>122800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>119500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>115100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4190700</v>
+        <v>3239800</v>
       </c>
       <c r="E8" s="3">
-        <v>3447700</v>
+        <v>4154200</v>
       </c>
       <c r="F8" s="3">
-        <v>3278300</v>
+        <v>3417700</v>
       </c>
       <c r="G8" s="3">
-        <v>2762500</v>
+        <v>3249700</v>
       </c>
       <c r="H8" s="3">
-        <v>4649100</v>
+        <v>2738500</v>
       </c>
       <c r="I8" s="3">
-        <v>3665700</v>
+        <v>4608700</v>
       </c>
       <c r="J8" s="3">
+        <v>3633800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3545400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3213100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4806500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3837100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3198800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3125000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4356100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3459100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3384500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3031400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4220200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3066800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3655000</v>
+        <v>2674700</v>
       </c>
       <c r="E9" s="3">
-        <v>2854800</v>
+        <v>3623200</v>
       </c>
       <c r="F9" s="3">
-        <v>2854400</v>
+        <v>2830000</v>
       </c>
       <c r="G9" s="3">
-        <v>2558100</v>
+        <v>2829600</v>
       </c>
       <c r="H9" s="3">
-        <v>3829700</v>
+        <v>2535800</v>
       </c>
       <c r="I9" s="3">
-        <v>2981000</v>
+        <v>3796400</v>
       </c>
       <c r="J9" s="3">
+        <v>2955100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3016900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2761100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4003100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3097700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2730600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2618400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3755500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2755000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2851000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2568800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3558100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2505800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>535600</v>
+        <v>565100</v>
       </c>
       <c r="E10" s="3">
-        <v>592900</v>
+        <v>531000</v>
       </c>
       <c r="F10" s="3">
-        <v>423900</v>
+        <v>587700</v>
       </c>
       <c r="G10" s="3">
-        <v>204400</v>
+        <v>420200</v>
       </c>
       <c r="H10" s="3">
-        <v>819400</v>
+        <v>202700</v>
       </c>
       <c r="I10" s="3">
-        <v>684700</v>
+        <v>812300</v>
       </c>
       <c r="J10" s="3">
+        <v>678700</v>
+      </c>
+      <c r="K10" s="3">
         <v>528500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>452100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>803400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>739500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>468200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>506600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>704100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>533500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>462600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>662000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>561100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>139700</v>
+        <v>80900</v>
       </c>
       <c r="E12" s="3">
-        <v>98400</v>
+        <v>138500</v>
       </c>
       <c r="F12" s="3">
-        <v>100100</v>
+        <v>97600</v>
       </c>
       <c r="G12" s="3">
-        <v>74900</v>
+        <v>99300</v>
       </c>
       <c r="H12" s="3">
-        <v>149200</v>
+        <v>74200</v>
       </c>
       <c r="I12" s="3">
-        <v>116100</v>
+        <v>147900</v>
       </c>
       <c r="J12" s="3">
+        <v>115100</v>
+      </c>
+      <c r="K12" s="3">
         <v>116000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>101800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>147100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>115000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>101400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>93800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>129900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>94100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>101300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>85500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>113200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>90400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,31 +1104,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>143200</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
+        <v>142000</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>36000</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>35700</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>21900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1128,14 +1148,14 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>116000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4348300</v>
+        <v>3102300</v>
       </c>
       <c r="E17" s="3">
-        <v>3281200</v>
+        <v>4310500</v>
       </c>
       <c r="F17" s="3">
-        <v>3325500</v>
+        <v>3252700</v>
       </c>
       <c r="G17" s="3">
-        <v>2952400</v>
+        <v>3296600</v>
       </c>
       <c r="H17" s="3">
-        <v>4363500</v>
+        <v>2926700</v>
       </c>
       <c r="I17" s="3">
-        <v>3482600</v>
+        <v>4325500</v>
       </c>
       <c r="J17" s="3">
+        <v>3452300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3475600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3203200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4545400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3569100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3186200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3060400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4254200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3317200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3283200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2987000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4015400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2939200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-157700</v>
+        <v>137500</v>
       </c>
       <c r="E18" s="3">
-        <v>166500</v>
+        <v>-156300</v>
       </c>
       <c r="F18" s="3">
-        <v>-47200</v>
+        <v>165000</v>
       </c>
       <c r="G18" s="3">
-        <v>-189900</v>
+        <v>-46800</v>
       </c>
       <c r="H18" s="3">
-        <v>285600</v>
+        <v>-188200</v>
       </c>
       <c r="I18" s="3">
-        <v>183100</v>
+        <v>283100</v>
       </c>
       <c r="J18" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K18" s="3">
         <v>69800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>261100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>268000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>102000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>141900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>101300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>44400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>204800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>127600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23300</v>
+        <v>4400</v>
       </c>
       <c r="E20" s="3">
-        <v>9600</v>
+        <v>23000</v>
       </c>
       <c r="F20" s="3">
-        <v>25700</v>
+        <v>9500</v>
       </c>
       <c r="G20" s="3">
-        <v>69600</v>
+        <v>25400</v>
       </c>
       <c r="H20" s="3">
-        <v>-47800</v>
+        <v>69000</v>
       </c>
       <c r="I20" s="3">
-        <v>-62800</v>
+        <v>-47400</v>
       </c>
       <c r="J20" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-79300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-73400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-82700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-77600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>98500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10700</v>
+        <v>277400</v>
       </c>
       <c r="E21" s="3">
-        <v>316100</v>
+        <v>10600</v>
       </c>
       <c r="F21" s="3">
-        <v>117900</v>
+        <v>313400</v>
       </c>
       <c r="G21" s="3">
-        <v>18000</v>
+        <v>116900</v>
       </c>
       <c r="H21" s="3">
-        <v>383500</v>
+        <v>17900</v>
       </c>
       <c r="I21" s="3">
-        <v>260900</v>
+        <v>380100</v>
       </c>
       <c r="J21" s="3">
+        <v>258700</v>
+      </c>
+      <c r="K21" s="3">
         <v>209800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>103200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>325600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>333600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>65900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>218200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>190700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>243500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>218900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>177900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>246600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>341100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="E22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F22" s="3">
         <v>8800</v>
       </c>
-      <c r="F22" s="3">
-        <v>8500</v>
-      </c>
       <c r="G22" s="3">
-        <v>9500</v>
+        <v>8400</v>
       </c>
       <c r="H22" s="3">
-        <v>7600</v>
+        <v>9400</v>
       </c>
       <c r="I22" s="3">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="J22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>6100</v>
       </c>
       <c r="R22" s="3">
         <v>6100</v>
       </c>
       <c r="S22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="T22" s="3">
         <v>6000</v>
       </c>
       <c r="U22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V22" s="3">
         <v>6700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-142400</v>
+        <v>133800</v>
       </c>
       <c r="E23" s="3">
-        <v>167200</v>
+        <v>-141200</v>
       </c>
       <c r="F23" s="3">
-        <v>-30100</v>
+        <v>165800</v>
       </c>
       <c r="G23" s="3">
-        <v>-129700</v>
+        <v>-29800</v>
       </c>
       <c r="H23" s="3">
-        <v>230200</v>
+        <v>-128600</v>
       </c>
       <c r="I23" s="3">
-        <v>111800</v>
+        <v>228200</v>
       </c>
       <c r="J23" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K23" s="3">
         <v>59700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>172900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>185600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-77500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>77700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>108900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>87500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>49100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>121200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>219400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-99100</v>
+        <v>39500</v>
       </c>
       <c r="E24" s="3">
-        <v>37900</v>
+        <v>-98200</v>
       </c>
       <c r="F24" s="3">
-        <v>108600</v>
+        <v>37600</v>
       </c>
       <c r="G24" s="3">
-        <v>-21700</v>
+        <v>107700</v>
       </c>
       <c r="H24" s="3">
-        <v>97700</v>
+        <v>-21600</v>
       </c>
       <c r="I24" s="3">
-        <v>30300</v>
+        <v>96800</v>
       </c>
       <c r="J24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K24" s="3">
         <v>14200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-83100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>68700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>43200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>54100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43300</v>
+        <v>94300</v>
       </c>
       <c r="E26" s="3">
-        <v>129300</v>
+        <v>-43000</v>
       </c>
       <c r="F26" s="3">
-        <v>-138700</v>
+        <v>128200</v>
       </c>
       <c r="G26" s="3">
-        <v>-108000</v>
+        <v>-137500</v>
       </c>
       <c r="H26" s="3">
-        <v>132500</v>
+        <v>-107000</v>
       </c>
       <c r="I26" s="3">
-        <v>81500</v>
+        <v>131400</v>
       </c>
       <c r="J26" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K26" s="3">
         <v>45500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-73000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>160400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>149900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-52500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>135900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>33300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>78000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>165300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-49300</v>
+        <v>89900</v>
       </c>
       <c r="E27" s="3">
-        <v>122200</v>
+        <v>-48900</v>
       </c>
       <c r="F27" s="3">
-        <v>-142400</v>
+        <v>121100</v>
       </c>
       <c r="G27" s="3">
-        <v>-108200</v>
+        <v>-141200</v>
       </c>
       <c r="H27" s="3">
-        <v>127700</v>
+        <v>-107200</v>
       </c>
       <c r="I27" s="3">
-        <v>78100</v>
+        <v>126600</v>
       </c>
       <c r="J27" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K27" s="3">
         <v>41500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-75600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>154400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>141400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-57200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>130100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>33100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>29600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>73000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>161600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23300</v>
+        <v>-4400</v>
       </c>
       <c r="E32" s="3">
-        <v>-9600</v>
+        <v>-23000</v>
       </c>
       <c r="F32" s="3">
-        <v>-25700</v>
+        <v>-9500</v>
       </c>
       <c r="G32" s="3">
-        <v>-69600</v>
+        <v>-25400</v>
       </c>
       <c r="H32" s="3">
-        <v>47800</v>
+        <v>-69000</v>
       </c>
       <c r="I32" s="3">
-        <v>62800</v>
+        <v>47400</v>
       </c>
       <c r="J32" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>79300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>73400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>82700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>77600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-98500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-49300</v>
+        <v>89900</v>
       </c>
       <c r="E33" s="3">
-        <v>122200</v>
+        <v>-48900</v>
       </c>
       <c r="F33" s="3">
-        <v>-142400</v>
+        <v>121100</v>
       </c>
       <c r="G33" s="3">
-        <v>-108200</v>
+        <v>-141200</v>
       </c>
       <c r="H33" s="3">
-        <v>127700</v>
+        <v>-107200</v>
       </c>
       <c r="I33" s="3">
-        <v>78100</v>
+        <v>126600</v>
       </c>
       <c r="J33" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K33" s="3">
         <v>41500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-75600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>154400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>141400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-57200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>130100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>33100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>73000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>161600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-49300</v>
+        <v>89900</v>
       </c>
       <c r="E35" s="3">
-        <v>122200</v>
+        <v>-48900</v>
       </c>
       <c r="F35" s="3">
-        <v>-142400</v>
+        <v>121100</v>
       </c>
       <c r="G35" s="3">
-        <v>-108200</v>
+        <v>-141200</v>
       </c>
       <c r="H35" s="3">
-        <v>127700</v>
+        <v>-107200</v>
       </c>
       <c r="I35" s="3">
-        <v>78100</v>
+        <v>126600</v>
       </c>
       <c r="J35" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K35" s="3">
         <v>41500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-75600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>154400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>141400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-57200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>130100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>33100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>73000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>161600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1164400</v>
+        <v>1111900</v>
       </c>
       <c r="E41" s="3">
-        <v>1262000</v>
+        <v>1154300</v>
       </c>
       <c r="F41" s="3">
-        <v>1407800</v>
+        <v>1251000</v>
       </c>
       <c r="G41" s="3">
-        <v>1577800</v>
+        <v>1395500</v>
       </c>
       <c r="H41" s="3">
-        <v>975100</v>
+        <v>1564100</v>
       </c>
       <c r="I41" s="3">
-        <v>683800</v>
+        <v>966600</v>
       </c>
       <c r="J41" s="3">
+        <v>677900</v>
+      </c>
+      <c r="K41" s="3">
         <v>383600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>407000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>714100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>473500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>533400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>527700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>638500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>455700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>410800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>436300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>491300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>474100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,261 +2701,276 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4198400</v>
+        <v>3702100</v>
       </c>
       <c r="E43" s="3">
-        <v>4355600</v>
+        <v>4161900</v>
       </c>
       <c r="F43" s="3">
-        <v>3966300</v>
+        <v>4317700</v>
       </c>
       <c r="G43" s="3">
-        <v>3922700</v>
+        <v>3931800</v>
       </c>
       <c r="H43" s="3">
-        <v>4317800</v>
+        <v>3888500</v>
       </c>
       <c r="I43" s="3">
-        <v>5000900</v>
+        <v>4280200</v>
       </c>
       <c r="J43" s="3">
+        <v>4957300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4749700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4250400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4073400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5283800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4529800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4362500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4229500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4971000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4402000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4006900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3920900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4383800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6052000</v>
+        <v>5659300</v>
       </c>
       <c r="E44" s="3">
-        <v>6288300</v>
+        <v>5999300</v>
       </c>
       <c r="F44" s="3">
-        <v>6059500</v>
+        <v>6233500</v>
       </c>
       <c r="G44" s="3">
-        <v>6050500</v>
+        <v>6006800</v>
       </c>
       <c r="H44" s="3">
-        <v>5804900</v>
+        <v>5997800</v>
       </c>
       <c r="I44" s="3">
-        <v>6127900</v>
+        <v>5754400</v>
       </c>
       <c r="J44" s="3">
+        <v>6074600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5759800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5787500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5697000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6032500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5635200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5097500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4562800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5051200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4687700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4559700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4300700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4782900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>398100</v>
+        <v>707800</v>
       </c>
       <c r="E45" s="3">
-        <v>626500</v>
+        <v>394600</v>
       </c>
       <c r="F45" s="3">
-        <v>522500</v>
+        <v>621000</v>
       </c>
       <c r="G45" s="3">
-        <v>569500</v>
+        <v>517900</v>
       </c>
       <c r="H45" s="3">
-        <v>470300</v>
+        <v>564500</v>
       </c>
       <c r="I45" s="3">
-        <v>609500</v>
+        <v>466200</v>
       </c>
       <c r="J45" s="3">
+        <v>604200</v>
+      </c>
+      <c r="K45" s="3">
         <v>561800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>592100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>435700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>816100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>761300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>773600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>655800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1006500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1066100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1114300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>847500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>969300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11812900</v>
+        <v>11181000</v>
       </c>
       <c r="E46" s="3">
-        <v>12532400</v>
+        <v>11710100</v>
       </c>
       <c r="F46" s="3">
-        <v>11956100</v>
+        <v>12423300</v>
       </c>
       <c r="G46" s="3">
-        <v>12120400</v>
+        <v>11852000</v>
       </c>
       <c r="H46" s="3">
-        <v>11568200</v>
+        <v>12014900</v>
       </c>
       <c r="I46" s="3">
-        <v>12422100</v>
+        <v>11467500</v>
       </c>
       <c r="J46" s="3">
+        <v>12314000</v>
+      </c>
+      <c r="K46" s="3">
         <v>11454800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11037000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10920200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12605900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11459600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10761400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10086600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11484400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10566600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10117200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9560400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10610100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>104000</v>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4147100</v>
+        <v>4070900</v>
       </c>
       <c r="E48" s="3">
-        <v>4257400</v>
+        <v>4111000</v>
       </c>
       <c r="F48" s="3">
-        <v>4283700</v>
+        <v>4220300</v>
       </c>
       <c r="G48" s="3">
-        <v>4336500</v>
+        <v>4246400</v>
       </c>
       <c r="H48" s="3">
-        <v>4434800</v>
+        <v>4298700</v>
       </c>
       <c r="I48" s="3">
-        <v>4455100</v>
+        <v>4396200</v>
       </c>
       <c r="J48" s="3">
+        <v>4416300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4465200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4457200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4667300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4563000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4490400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4389800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4337400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4329700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4294800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4198900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4096900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3997600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>206100</v>
+        <v>201300</v>
       </c>
       <c r="E49" s="3">
-        <v>203000</v>
+        <v>204300</v>
       </c>
       <c r="F49" s="3">
-        <v>204500</v>
+        <v>201300</v>
       </c>
       <c r="G49" s="3">
-        <v>202100</v>
+        <v>202700</v>
       </c>
       <c r="H49" s="3">
-        <v>196300</v>
+        <v>200300</v>
       </c>
       <c r="I49" s="3">
-        <v>174400</v>
+        <v>194600</v>
       </c>
       <c r="J49" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K49" s="3">
         <v>172200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>163500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>161400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>153300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>149800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>147200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>146200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>139900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>140700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>135000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>135600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>129900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1772400</v>
+        <v>2359100</v>
       </c>
       <c r="E52" s="3">
-        <v>1782600</v>
+        <v>1872900</v>
       </c>
       <c r="F52" s="3">
-        <v>1756400</v>
+        <v>1767000</v>
       </c>
       <c r="G52" s="3">
-        <v>1859800</v>
+        <v>1741100</v>
       </c>
       <c r="H52" s="3">
-        <v>1810200</v>
+        <v>1843600</v>
       </c>
       <c r="I52" s="3">
-        <v>1832500</v>
+        <v>1794400</v>
       </c>
       <c r="J52" s="3">
+        <v>1816600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1839200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1865000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1936100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1603200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1588900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1530100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1599800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1276700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1362600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1339200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1304700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1350000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18042500</v>
+        <v>17799700</v>
       </c>
       <c r="E54" s="3">
-        <v>18762700</v>
+        <v>17885400</v>
       </c>
       <c r="F54" s="3">
-        <v>18185800</v>
+        <v>18599400</v>
       </c>
       <c r="G54" s="3">
-        <v>18502000</v>
+        <v>18027500</v>
       </c>
       <c r="H54" s="3">
-        <v>17992600</v>
+        <v>18340900</v>
       </c>
       <c r="I54" s="3">
-        <v>18872000</v>
+        <v>17836000</v>
       </c>
       <c r="J54" s="3">
+        <v>18707700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17918500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17509700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17671400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18892700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17656100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16797100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16136700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17206800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16230400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15657000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14966900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15952000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3263800</v>
+        <v>2867900</v>
       </c>
       <c r="E57" s="3">
-        <v>3068900</v>
+        <v>3235400</v>
       </c>
       <c r="F57" s="3">
-        <v>2793000</v>
+        <v>3042200</v>
       </c>
       <c r="G57" s="3">
-        <v>2824800</v>
+        <v>2768700</v>
       </c>
       <c r="H57" s="3">
-        <v>3415800</v>
+        <v>2800200</v>
       </c>
       <c r="I57" s="3">
-        <v>3110100</v>
+        <v>3386100</v>
       </c>
       <c r="J57" s="3">
+        <v>3083100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2942400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3095300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3558300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3258700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3116400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3052900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3283100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3120100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2995600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2794300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3033700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2805600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1586600</v>
+        <v>1259700</v>
       </c>
       <c r="E58" s="3">
-        <v>1687300</v>
+        <v>1572800</v>
       </c>
       <c r="F58" s="3">
-        <v>1669800</v>
+        <v>1672600</v>
       </c>
       <c r="G58" s="3">
-        <v>1761400</v>
+        <v>1655300</v>
       </c>
       <c r="H58" s="3">
-        <v>1725200</v>
+        <v>1746100</v>
       </c>
       <c r="I58" s="3">
-        <v>2604600</v>
+        <v>1710200</v>
       </c>
       <c r="J58" s="3">
+        <v>2582000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1721200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1287200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1060400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2197400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1264300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1106800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2153700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1639000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>976200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1162300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1079000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1467300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3582000</v>
+        <v>4423500</v>
       </c>
       <c r="E59" s="3">
-        <v>4449600</v>
+        <v>3550800</v>
       </c>
       <c r="F59" s="3">
-        <v>4300100</v>
+        <v>4410900</v>
       </c>
       <c r="G59" s="3">
-        <v>4017500</v>
+        <v>4262700</v>
       </c>
       <c r="H59" s="3">
-        <v>3568600</v>
+        <v>3982500</v>
       </c>
       <c r="I59" s="3">
-        <v>4286900</v>
+        <v>3537500</v>
       </c>
       <c r="J59" s="3">
+        <v>4249500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4400600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4389200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3687000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4536000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4683500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4229300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3591100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4206100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3979900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4074200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3368600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4169500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8432300</v>
+        <v>8551200</v>
       </c>
       <c r="E60" s="3">
-        <v>9205900</v>
+        <v>8358900</v>
       </c>
       <c r="F60" s="3">
-        <v>8762900</v>
+        <v>9125800</v>
       </c>
       <c r="G60" s="3">
-        <v>8603600</v>
+        <v>8686600</v>
       </c>
       <c r="H60" s="3">
-        <v>8709600</v>
+        <v>8528700</v>
       </c>
       <c r="I60" s="3">
-        <v>10001600</v>
+        <v>8633800</v>
       </c>
       <c r="J60" s="3">
+        <v>9914600</v>
+      </c>
+      <c r="K60" s="3">
         <v>9064200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8771700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8305700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9992100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9064200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8389000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7859400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8965300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7951700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8030800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7481300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8442400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3664100</v>
+        <v>3509300</v>
       </c>
       <c r="E61" s="3">
-        <v>3549700</v>
+        <v>3632200</v>
       </c>
       <c r="F61" s="3">
-        <v>3554300</v>
+        <v>3518800</v>
       </c>
       <c r="G61" s="3">
-        <v>3849300</v>
+        <v>3523400</v>
       </c>
       <c r="H61" s="3">
-        <v>3214000</v>
+        <v>3815800</v>
       </c>
       <c r="I61" s="3">
-        <v>3050500</v>
+        <v>3186100</v>
       </c>
       <c r="J61" s="3">
+        <v>3024000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3087500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2996100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3162500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2995400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2840900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2830800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2853800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2937100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3077200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2508500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2475100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2627400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1509300</v>
+        <v>1583400</v>
       </c>
       <c r="E62" s="3">
-        <v>1810700</v>
+        <v>1496200</v>
       </c>
       <c r="F62" s="3">
-        <v>1813600</v>
+        <v>1794900</v>
       </c>
       <c r="G62" s="3">
-        <v>1844100</v>
+        <v>1797900</v>
       </c>
       <c r="H62" s="3">
-        <v>1735300</v>
+        <v>1828000</v>
       </c>
       <c r="I62" s="3">
-        <v>1454500</v>
+        <v>1720200</v>
       </c>
       <c r="J62" s="3">
+        <v>1441800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1418300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1393600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1472600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1362100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1360700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1236500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1071800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1087100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1076900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1043000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1007200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1102900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13766100</v>
+        <v>13805600</v>
       </c>
       <c r="E66" s="3">
-        <v>14718800</v>
+        <v>13646300</v>
       </c>
       <c r="F66" s="3">
-        <v>14275500</v>
+        <v>14590700</v>
       </c>
       <c r="G66" s="3">
-        <v>14438400</v>
+        <v>14151300</v>
       </c>
       <c r="H66" s="3">
-        <v>13805400</v>
+        <v>14312700</v>
       </c>
       <c r="I66" s="3">
-        <v>14653200</v>
+        <v>13685200</v>
       </c>
       <c r="J66" s="3">
+        <v>14525700</v>
+      </c>
+      <c r="K66" s="3">
         <v>13713800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13304000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13093300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14506700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13411300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12591200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11923500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13128900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12237000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11710700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11088500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12292600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2817400</v>
+        <v>2521700</v>
       </c>
       <c r="E72" s="3">
-        <v>2866300</v>
+        <v>2792900</v>
       </c>
       <c r="F72" s="3">
-        <v>2751100</v>
+        <v>2841300</v>
       </c>
       <c r="G72" s="3">
-        <v>2893500</v>
+        <v>2727200</v>
       </c>
       <c r="H72" s="3">
-        <v>3001700</v>
+        <v>2868300</v>
       </c>
       <c r="I72" s="3">
-        <v>2874000</v>
+        <v>2975600</v>
       </c>
       <c r="J72" s="3">
+        <v>2848900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2849600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2798900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3119500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2912600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2781500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2777500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2784400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2654300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2621100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2598000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2549700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2476700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4276400</v>
+        <v>3994100</v>
       </c>
       <c r="E76" s="3">
-        <v>4043900</v>
+        <v>4239200</v>
       </c>
       <c r="F76" s="3">
-        <v>3910300</v>
+        <v>4008700</v>
       </c>
       <c r="G76" s="3">
-        <v>4063500</v>
+        <v>3876200</v>
       </c>
       <c r="H76" s="3">
-        <v>4187200</v>
+        <v>4028200</v>
       </c>
       <c r="I76" s="3">
-        <v>4218800</v>
+        <v>4150800</v>
       </c>
       <c r="J76" s="3">
+        <v>4182100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4204800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4205800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4578100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4386000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4244700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4205900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4213200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4078000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3993400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3946300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3878400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3659400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-49300</v>
+        <v>89900</v>
       </c>
       <c r="E81" s="3">
-        <v>122200</v>
+        <v>-48900</v>
       </c>
       <c r="F81" s="3">
-        <v>-142400</v>
+        <v>121100</v>
       </c>
       <c r="G81" s="3">
-        <v>-108200</v>
+        <v>-141200</v>
       </c>
       <c r="H81" s="3">
-        <v>127700</v>
+        <v>-107200</v>
       </c>
       <c r="I81" s="3">
-        <v>78100</v>
+        <v>126600</v>
       </c>
       <c r="J81" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K81" s="3">
         <v>41500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-75600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>154400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>141400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-57200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>130100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>33100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>73000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>161600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>145200</v>
+        <v>135500</v>
       </c>
       <c r="E83" s="3">
-        <v>140100</v>
+        <v>143900</v>
       </c>
       <c r="F83" s="3">
-        <v>139500</v>
+        <v>138800</v>
       </c>
       <c r="G83" s="3">
         <v>138300</v>
       </c>
       <c r="H83" s="3">
-        <v>145700</v>
+        <v>137100</v>
       </c>
       <c r="I83" s="3">
-        <v>140600</v>
+        <v>144400</v>
       </c>
       <c r="J83" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K83" s="3">
         <v>141400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>135100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>143800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>136000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>133600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>130900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>128500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>125300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>122800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>119500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>115100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3239800</v>
+        <v>2867200</v>
       </c>
       <c r="E8" s="3">
-        <v>4154200</v>
+        <v>3133100</v>
       </c>
       <c r="F8" s="3">
-        <v>3417700</v>
+        <v>4017400</v>
       </c>
       <c r="G8" s="3">
-        <v>3249700</v>
+        <v>3305200</v>
       </c>
       <c r="H8" s="3">
-        <v>2738500</v>
+        <v>3142700</v>
       </c>
       <c r="I8" s="3">
-        <v>4608700</v>
+        <v>2648300</v>
       </c>
       <c r="J8" s="3">
+        <v>4456900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3633800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3545400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3213100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4806500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3837100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3198800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3125000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4356100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3459100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3384500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3031400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4220200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3066800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2674700</v>
+        <v>2387300</v>
       </c>
       <c r="E9" s="3">
-        <v>3623200</v>
+        <v>2586700</v>
       </c>
       <c r="F9" s="3">
-        <v>2830000</v>
+        <v>3503900</v>
       </c>
       <c r="G9" s="3">
-        <v>2829600</v>
+        <v>2736800</v>
       </c>
       <c r="H9" s="3">
-        <v>2535800</v>
+        <v>2736400</v>
       </c>
       <c r="I9" s="3">
-        <v>3796400</v>
+        <v>2452300</v>
       </c>
       <c r="J9" s="3">
+        <v>3671300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2955100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3016900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2761100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4003100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3097700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2730600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2618400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3755500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2755000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2851000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2568800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3558100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2505800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>565100</v>
+        <v>479900</v>
       </c>
       <c r="E10" s="3">
-        <v>531000</v>
+        <v>546500</v>
       </c>
       <c r="F10" s="3">
-        <v>587700</v>
+        <v>513500</v>
       </c>
       <c r="G10" s="3">
-        <v>420200</v>
+        <v>568400</v>
       </c>
       <c r="H10" s="3">
-        <v>202700</v>
+        <v>406300</v>
       </c>
       <c r="I10" s="3">
-        <v>812300</v>
+        <v>196000</v>
       </c>
       <c r="J10" s="3">
+        <v>785600</v>
+      </c>
+      <c r="K10" s="3">
         <v>678700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>528500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>452100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>803400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>739500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>468200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>506600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>704100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>533500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>462600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>662000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>561100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>80900</v>
+        <v>96400</v>
       </c>
       <c r="E12" s="3">
-        <v>138500</v>
+        <v>78300</v>
       </c>
       <c r="F12" s="3">
-        <v>97600</v>
+        <v>133900</v>
       </c>
       <c r="G12" s="3">
-        <v>99300</v>
+        <v>94400</v>
       </c>
       <c r="H12" s="3">
-        <v>74200</v>
+        <v>96000</v>
       </c>
       <c r="I12" s="3">
-        <v>147900</v>
+        <v>71800</v>
       </c>
       <c r="J12" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K12" s="3">
         <v>115100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>116000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>101800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>147100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>115000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>101400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>93800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>129900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>94100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>101300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>85500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>113200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>90400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,34 +1124,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
-        <v>142000</v>
-      </c>
       <c r="F14" s="3">
+        <v>137300</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>35700</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>34500</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>21700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1151,14 +1171,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>116000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3102300</v>
+        <v>2822400</v>
       </c>
       <c r="E17" s="3">
-        <v>4310500</v>
+        <v>3000200</v>
       </c>
       <c r="F17" s="3">
-        <v>3252700</v>
+        <v>4168500</v>
       </c>
       <c r="G17" s="3">
-        <v>3296600</v>
+        <v>3145500</v>
       </c>
       <c r="H17" s="3">
-        <v>2926700</v>
+        <v>3188000</v>
       </c>
       <c r="I17" s="3">
-        <v>4325500</v>
+        <v>2830300</v>
       </c>
       <c r="J17" s="3">
+        <v>4183100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3452300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3475600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3203200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4545400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3569100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3186200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3060400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4254200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3317200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3283200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2987000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4015400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2939200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>137500</v>
+        <v>44900</v>
       </c>
       <c r="E18" s="3">
-        <v>-156300</v>
+        <v>132900</v>
       </c>
       <c r="F18" s="3">
-        <v>165000</v>
+        <v>-151200</v>
       </c>
       <c r="G18" s="3">
-        <v>-46800</v>
+        <v>159600</v>
       </c>
       <c r="H18" s="3">
-        <v>-188200</v>
+        <v>-45300</v>
       </c>
       <c r="I18" s="3">
-        <v>283100</v>
+        <v>-182000</v>
       </c>
       <c r="J18" s="3">
+        <v>273800</v>
+      </c>
+      <c r="K18" s="3">
         <v>181500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>261100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>268000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>102000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>141900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>101300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>44400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>204800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>127600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4400</v>
+        <v>-56800</v>
       </c>
       <c r="E20" s="3">
-        <v>23000</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
-        <v>9500</v>
+        <v>22300</v>
       </c>
       <c r="G20" s="3">
-        <v>25400</v>
+        <v>9200</v>
       </c>
       <c r="H20" s="3">
-        <v>69000</v>
+        <v>24600</v>
       </c>
       <c r="I20" s="3">
-        <v>-47400</v>
+        <v>66800</v>
       </c>
       <c r="J20" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-62200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-79300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-73400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-82700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-77600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>98500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>277400</v>
+        <v>122200</v>
       </c>
       <c r="E21" s="3">
-        <v>10600</v>
+        <v>268200</v>
       </c>
       <c r="F21" s="3">
-        <v>313400</v>
+        <v>10300</v>
       </c>
       <c r="G21" s="3">
-        <v>116900</v>
+        <v>303100</v>
       </c>
       <c r="H21" s="3">
-        <v>17900</v>
+        <v>113000</v>
       </c>
       <c r="I21" s="3">
-        <v>380100</v>
+        <v>17300</v>
       </c>
       <c r="J21" s="3">
+        <v>367600</v>
+      </c>
+      <c r="K21" s="3">
         <v>258700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>209800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>103200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>325600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>333600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>65900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>218200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>190700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>243500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>218900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>177900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>246600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>341100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H22" s="3">
         <v>8100</v>
       </c>
-      <c r="E22" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K22" s="3">
         <v>8400</v>
       </c>
-      <c r="H22" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>6100</v>
       </c>
       <c r="S22" s="3">
         <v>6100</v>
       </c>
       <c r="T22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="U22" s="3">
         <v>6000</v>
       </c>
       <c r="V22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W22" s="3">
         <v>6700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>133800</v>
+        <v>-19300</v>
       </c>
       <c r="E23" s="3">
-        <v>-141200</v>
+        <v>129400</v>
       </c>
       <c r="F23" s="3">
-        <v>165800</v>
+        <v>-136500</v>
       </c>
       <c r="G23" s="3">
-        <v>-29800</v>
+        <v>160300</v>
       </c>
       <c r="H23" s="3">
-        <v>-128600</v>
+        <v>-28800</v>
       </c>
       <c r="I23" s="3">
-        <v>228200</v>
+        <v>-124300</v>
       </c>
       <c r="J23" s="3">
+        <v>220700</v>
+      </c>
+      <c r="K23" s="3">
         <v>110800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>59700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>172900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>185600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-77500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>77700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>108900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>87500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>121200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>219400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39500</v>
+        <v>22900</v>
       </c>
       <c r="E24" s="3">
-        <v>-98200</v>
+        <v>38200</v>
       </c>
       <c r="F24" s="3">
-        <v>37600</v>
+        <v>-95000</v>
       </c>
       <c r="G24" s="3">
-        <v>107700</v>
+        <v>36400</v>
       </c>
       <c r="H24" s="3">
-        <v>-21600</v>
+        <v>104100</v>
       </c>
       <c r="I24" s="3">
-        <v>96800</v>
+        <v>-20800</v>
       </c>
       <c r="J24" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>51200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-83100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>68700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>43200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>54100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>94300</v>
+        <v>-42200</v>
       </c>
       <c r="E26" s="3">
-        <v>-43000</v>
+        <v>91200</v>
       </c>
       <c r="F26" s="3">
-        <v>128200</v>
+        <v>-41600</v>
       </c>
       <c r="G26" s="3">
-        <v>-137500</v>
+        <v>124000</v>
       </c>
       <c r="H26" s="3">
-        <v>-107000</v>
+        <v>-133000</v>
       </c>
       <c r="I26" s="3">
-        <v>131400</v>
+        <v>-103500</v>
       </c>
       <c r="J26" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K26" s="3">
         <v>80800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-73000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>160400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>149900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-52500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>135900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>74000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>33300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>78000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>165300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>89900</v>
+        <v>-47200</v>
       </c>
       <c r="E27" s="3">
-        <v>-48900</v>
+        <v>86900</v>
       </c>
       <c r="F27" s="3">
-        <v>121100</v>
+        <v>-47200</v>
       </c>
       <c r="G27" s="3">
-        <v>-141200</v>
+        <v>117200</v>
       </c>
       <c r="H27" s="3">
-        <v>-107200</v>
+        <v>-136500</v>
       </c>
       <c r="I27" s="3">
-        <v>126600</v>
+        <v>-103700</v>
       </c>
       <c r="J27" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K27" s="3">
         <v>77400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-75600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>154400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>141400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-57200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>130100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>33100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>68500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>29600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>73000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>161600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4400</v>
+        <v>56800</v>
       </c>
       <c r="E32" s="3">
-        <v>-23000</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
-        <v>-9500</v>
+        <v>-22300</v>
       </c>
       <c r="G32" s="3">
-        <v>-25400</v>
+        <v>-9200</v>
       </c>
       <c r="H32" s="3">
-        <v>-69000</v>
+        <v>-24600</v>
       </c>
       <c r="I32" s="3">
-        <v>47400</v>
+        <v>-66800</v>
       </c>
       <c r="J32" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K32" s="3">
         <v>62200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>79300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>73400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>82700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>77600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-98500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>89900</v>
+        <v>-47200</v>
       </c>
       <c r="E33" s="3">
-        <v>-48900</v>
+        <v>86900</v>
       </c>
       <c r="F33" s="3">
-        <v>121100</v>
+        <v>-47200</v>
       </c>
       <c r="G33" s="3">
-        <v>-141200</v>
+        <v>117200</v>
       </c>
       <c r="H33" s="3">
-        <v>-107200</v>
+        <v>-136500</v>
       </c>
       <c r="I33" s="3">
-        <v>126600</v>
+        <v>-103700</v>
       </c>
       <c r="J33" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K33" s="3">
         <v>77400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-75600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>141400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-57200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>130100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>33100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>68500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>73000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>161600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>89900</v>
+        <v>-47200</v>
       </c>
       <c r="E35" s="3">
-        <v>-48900</v>
+        <v>86900</v>
       </c>
       <c r="F35" s="3">
-        <v>121100</v>
+        <v>-47200</v>
       </c>
       <c r="G35" s="3">
-        <v>-141200</v>
+        <v>117200</v>
       </c>
       <c r="H35" s="3">
-        <v>-107200</v>
+        <v>-136500</v>
       </c>
       <c r="I35" s="3">
-        <v>126600</v>
+        <v>-103700</v>
       </c>
       <c r="J35" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K35" s="3">
         <v>77400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-75600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>141400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-57200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>130100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>33100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>68500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>73000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>161600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1111900</v>
+        <v>533800</v>
       </c>
       <c r="E41" s="3">
-        <v>1154300</v>
+        <v>1075300</v>
       </c>
       <c r="F41" s="3">
-        <v>1251000</v>
+        <v>1116200</v>
       </c>
       <c r="G41" s="3">
-        <v>1395500</v>
+        <v>1209800</v>
       </c>
       <c r="H41" s="3">
-        <v>1564100</v>
+        <v>1349600</v>
       </c>
       <c r="I41" s="3">
-        <v>966600</v>
+        <v>1512600</v>
       </c>
       <c r="J41" s="3">
+        <v>934800</v>
+      </c>
+      <c r="K41" s="3">
         <v>677900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>383600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>407000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>714100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>473500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>533400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>527700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>638500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>455700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>410800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>436300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>491300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>474100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3702100</v>
+        <v>3544300</v>
       </c>
       <c r="E43" s="3">
-        <v>4161900</v>
+        <v>3580100</v>
       </c>
       <c r="F43" s="3">
-        <v>4317700</v>
+        <v>4024800</v>
       </c>
       <c r="G43" s="3">
-        <v>3931800</v>
+        <v>4175500</v>
       </c>
       <c r="H43" s="3">
-        <v>3888500</v>
+        <v>3802300</v>
       </c>
       <c r="I43" s="3">
-        <v>4280200</v>
+        <v>3760500</v>
       </c>
       <c r="J43" s="3">
+        <v>4139300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4957300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4749700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4250400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4073400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5283800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4529800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4362500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4229500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4971000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4402000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4006900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3920900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4383800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5659300</v>
+        <v>5771200</v>
       </c>
       <c r="E44" s="3">
-        <v>5999300</v>
+        <v>5472900</v>
       </c>
       <c r="F44" s="3">
-        <v>6233500</v>
+        <v>5801800</v>
       </c>
       <c r="G44" s="3">
-        <v>6006800</v>
+        <v>6028200</v>
       </c>
       <c r="H44" s="3">
-        <v>5997800</v>
+        <v>5809000</v>
       </c>
       <c r="I44" s="3">
-        <v>5754400</v>
+        <v>5800300</v>
       </c>
       <c r="J44" s="3">
+        <v>5564900</v>
+      </c>
+      <c r="K44" s="3">
         <v>6074600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5759800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5787500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5697000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6032500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5635200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5097500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4562800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5051200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4687700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4559700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4300700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4782900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>707800</v>
+        <v>906500</v>
       </c>
       <c r="E45" s="3">
-        <v>394600</v>
+        <v>684500</v>
       </c>
       <c r="F45" s="3">
-        <v>621000</v>
+        <v>381600</v>
       </c>
       <c r="G45" s="3">
-        <v>517900</v>
+        <v>600600</v>
       </c>
       <c r="H45" s="3">
-        <v>564500</v>
+        <v>500800</v>
       </c>
       <c r="I45" s="3">
-        <v>466200</v>
+        <v>545900</v>
       </c>
       <c r="J45" s="3">
+        <v>450900</v>
+      </c>
+      <c r="K45" s="3">
         <v>604200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>561800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>592100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>435700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>816100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>761300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>773600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>655800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1006500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1066100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1114300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>847500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>969300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11181000</v>
+        <v>10755700</v>
       </c>
       <c r="E46" s="3">
-        <v>11710100</v>
+        <v>10812800</v>
       </c>
       <c r="F46" s="3">
-        <v>12423300</v>
+        <v>11324400</v>
       </c>
       <c r="G46" s="3">
-        <v>11852000</v>
+        <v>12014200</v>
       </c>
       <c r="H46" s="3">
-        <v>12014900</v>
+        <v>11461700</v>
       </c>
       <c r="I46" s="3">
-        <v>11467500</v>
+        <v>11619300</v>
       </c>
       <c r="J46" s="3">
+        <v>11089900</v>
+      </c>
+      <c r="K46" s="3">
         <v>12314000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11454800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11037000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10920200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12605900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11459600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10761400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10086600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11484400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10566600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10117200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9560400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10610100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4070900</v>
+        <v>3921200</v>
       </c>
       <c r="E48" s="3">
-        <v>4111000</v>
+        <v>3936900</v>
       </c>
       <c r="F48" s="3">
-        <v>4220300</v>
+        <v>3975600</v>
       </c>
       <c r="G48" s="3">
-        <v>4246400</v>
+        <v>4081400</v>
       </c>
       <c r="H48" s="3">
-        <v>4298700</v>
+        <v>4106600</v>
       </c>
       <c r="I48" s="3">
-        <v>4396200</v>
+        <v>4157200</v>
       </c>
       <c r="J48" s="3">
+        <v>4251400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4416300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4465200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4457200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4667300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4563000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4490400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4389800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4337400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4329700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4294800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4198900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4096900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3997600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>201300</v>
+        <v>194800</v>
       </c>
       <c r="E49" s="3">
-        <v>204300</v>
+        <v>194700</v>
       </c>
       <c r="F49" s="3">
-        <v>201300</v>
+        <v>197600</v>
       </c>
       <c r="G49" s="3">
-        <v>202700</v>
+        <v>194600</v>
       </c>
       <c r="H49" s="3">
-        <v>200300</v>
+        <v>196000</v>
       </c>
       <c r="I49" s="3">
-        <v>194600</v>
+        <v>193700</v>
       </c>
       <c r="J49" s="3">
+        <v>188200</v>
+      </c>
+      <c r="K49" s="3">
         <v>172900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>172200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>163500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>161400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>153300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>149800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>147200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>146200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>139900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>140700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>135000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>135600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>129900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2359100</v>
+        <v>2231500</v>
       </c>
       <c r="E52" s="3">
-        <v>1872900</v>
+        <v>2281400</v>
       </c>
       <c r="F52" s="3">
-        <v>1767000</v>
+        <v>1811200</v>
       </c>
       <c r="G52" s="3">
-        <v>1741100</v>
+        <v>1708800</v>
       </c>
       <c r="H52" s="3">
-        <v>1843600</v>
+        <v>1683800</v>
       </c>
       <c r="I52" s="3">
-        <v>1794400</v>
+        <v>1782900</v>
       </c>
       <c r="J52" s="3">
+        <v>1735300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1816600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1839200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1865000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1936100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1603200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1588900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1530100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1599800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1276700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1362600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1339200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1304700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1350000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17799700</v>
+        <v>17091100</v>
       </c>
       <c r="E54" s="3">
-        <v>17885400</v>
+        <v>17213600</v>
       </c>
       <c r="F54" s="3">
-        <v>18599400</v>
+        <v>17296500</v>
       </c>
       <c r="G54" s="3">
-        <v>18027500</v>
+        <v>17986900</v>
       </c>
       <c r="H54" s="3">
-        <v>18340900</v>
+        <v>17433800</v>
       </c>
       <c r="I54" s="3">
-        <v>17836000</v>
+        <v>17736900</v>
       </c>
       <c r="J54" s="3">
+        <v>17248600</v>
+      </c>
+      <c r="K54" s="3">
         <v>18707700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17918500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17509700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17671400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18892700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17656100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16797100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16136700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17206800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16230400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15657000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14966900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15952000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2867900</v>
+        <v>2656100</v>
       </c>
       <c r="E57" s="3">
-        <v>3235400</v>
+        <v>2773500</v>
       </c>
       <c r="F57" s="3">
-        <v>3042200</v>
+        <v>3128800</v>
       </c>
       <c r="G57" s="3">
-        <v>2768700</v>
+        <v>2942000</v>
       </c>
       <c r="H57" s="3">
-        <v>2800200</v>
+        <v>2677500</v>
       </c>
       <c r="I57" s="3">
-        <v>3386100</v>
+        <v>2708000</v>
       </c>
       <c r="J57" s="3">
+        <v>3274500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3083100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2942400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3095300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3558300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3258700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3116400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3052900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3283100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3120100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2995600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2794300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3033700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2805600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1259700</v>
+        <v>1563400</v>
       </c>
       <c r="E58" s="3">
-        <v>1572800</v>
+        <v>1218200</v>
       </c>
       <c r="F58" s="3">
-        <v>1672600</v>
+        <v>1521000</v>
       </c>
       <c r="G58" s="3">
-        <v>1655300</v>
+        <v>1617600</v>
       </c>
       <c r="H58" s="3">
-        <v>1746100</v>
+        <v>1600800</v>
       </c>
       <c r="I58" s="3">
-        <v>1710200</v>
+        <v>1688600</v>
       </c>
       <c r="J58" s="3">
+        <v>1653900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2582000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1721200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1287200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1060400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2197400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1264300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1106800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2153700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1639000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>976200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1162300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1079000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1467300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4423500</v>
+        <v>4039900</v>
       </c>
       <c r="E59" s="3">
-        <v>3550800</v>
+        <v>4277800</v>
       </c>
       <c r="F59" s="3">
-        <v>4410900</v>
+        <v>3433900</v>
       </c>
       <c r="G59" s="3">
-        <v>4262700</v>
+        <v>4265600</v>
       </c>
       <c r="H59" s="3">
-        <v>3982500</v>
+        <v>4122300</v>
       </c>
       <c r="I59" s="3">
-        <v>3537500</v>
+        <v>3851400</v>
       </c>
       <c r="J59" s="3">
+        <v>3421000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4249500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4389200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3687000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4536000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4683500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4229300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3591100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4206100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3979900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4074200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3368600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4169500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8551200</v>
+        <v>8259400</v>
       </c>
       <c r="E60" s="3">
-        <v>8358900</v>
+        <v>8269600</v>
       </c>
       <c r="F60" s="3">
-        <v>9125800</v>
+        <v>8083700</v>
       </c>
       <c r="G60" s="3">
-        <v>8686600</v>
+        <v>8825200</v>
       </c>
       <c r="H60" s="3">
-        <v>8528700</v>
+        <v>8400500</v>
       </c>
       <c r="I60" s="3">
-        <v>8633800</v>
+        <v>8247900</v>
       </c>
       <c r="J60" s="3">
+        <v>8349500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9914600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9064200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8771700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8305700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9992100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9064200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8389000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7859400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8965300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7951700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8030800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7481300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8442400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3509300</v>
+        <v>3306000</v>
       </c>
       <c r="E61" s="3">
-        <v>3632200</v>
+        <v>3393700</v>
       </c>
       <c r="F61" s="3">
-        <v>3518800</v>
+        <v>3512600</v>
       </c>
       <c r="G61" s="3">
-        <v>3523400</v>
+        <v>3402900</v>
       </c>
       <c r="H61" s="3">
-        <v>3815800</v>
+        <v>3407300</v>
       </c>
       <c r="I61" s="3">
-        <v>3186100</v>
+        <v>3690100</v>
       </c>
       <c r="J61" s="3">
+        <v>3081100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3024000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3087500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2996100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3162500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2995400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2840900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2830800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2853800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2937100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3077200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2508500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2475100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2627400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1583400</v>
+        <v>1542200</v>
       </c>
       <c r="E62" s="3">
-        <v>1496200</v>
+        <v>1531200</v>
       </c>
       <c r="F62" s="3">
-        <v>1794900</v>
+        <v>1446900</v>
       </c>
       <c r="G62" s="3">
-        <v>1797900</v>
+        <v>1735800</v>
       </c>
       <c r="H62" s="3">
-        <v>1828000</v>
+        <v>1738700</v>
       </c>
       <c r="I62" s="3">
-        <v>1720200</v>
+        <v>1767800</v>
       </c>
       <c r="J62" s="3">
+        <v>1663500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1441800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1418300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1393600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1472600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1362100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1360700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1236500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1071800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1087100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1076900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1043000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1007200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1102900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13805600</v>
+        <v>13267800</v>
       </c>
       <c r="E66" s="3">
-        <v>13646300</v>
+        <v>13351000</v>
       </c>
       <c r="F66" s="3">
-        <v>14590700</v>
+        <v>13196900</v>
       </c>
       <c r="G66" s="3">
-        <v>14151300</v>
+        <v>14110200</v>
       </c>
       <c r="H66" s="3">
-        <v>14312700</v>
+        <v>13685300</v>
       </c>
       <c r="I66" s="3">
-        <v>13685200</v>
+        <v>13841400</v>
       </c>
       <c r="J66" s="3">
+        <v>13234500</v>
+      </c>
+      <c r="K66" s="3">
         <v>14525700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13713800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13304000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13093300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14506700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13411300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12591200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11923500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13128900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12237000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11710700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11088500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12292600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2521700</v>
+        <v>2391500</v>
       </c>
       <c r="E72" s="3">
-        <v>2792900</v>
+        <v>2438700</v>
       </c>
       <c r="F72" s="3">
-        <v>2841300</v>
+        <v>2700900</v>
       </c>
       <c r="G72" s="3">
-        <v>2727200</v>
+        <v>2747700</v>
       </c>
       <c r="H72" s="3">
-        <v>2868300</v>
+        <v>2637400</v>
       </c>
       <c r="I72" s="3">
-        <v>2975600</v>
+        <v>2773900</v>
       </c>
       <c r="J72" s="3">
+        <v>2877600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2848900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2849600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2798900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3119500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2912600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2781500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2777500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2784400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2654300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2621100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2598000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2549700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2476700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3994100</v>
+        <v>3823300</v>
       </c>
       <c r="E76" s="3">
-        <v>4239200</v>
+        <v>3862600</v>
       </c>
       <c r="F76" s="3">
-        <v>4008700</v>
+        <v>4099600</v>
       </c>
       <c r="G76" s="3">
-        <v>3876200</v>
+        <v>3876700</v>
       </c>
       <c r="H76" s="3">
-        <v>4028200</v>
+        <v>3748600</v>
       </c>
       <c r="I76" s="3">
-        <v>4150800</v>
+        <v>3895500</v>
       </c>
       <c r="J76" s="3">
+        <v>4014100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4182100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4204800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4205800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4578100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4386000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4244700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4205900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4213200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4078000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3993400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3946300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3878400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3659400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>89900</v>
+        <v>-47200</v>
       </c>
       <c r="E81" s="3">
-        <v>-48900</v>
+        <v>86900</v>
       </c>
       <c r="F81" s="3">
-        <v>121100</v>
+        <v>-47200</v>
       </c>
       <c r="G81" s="3">
-        <v>-141200</v>
+        <v>117200</v>
       </c>
       <c r="H81" s="3">
-        <v>-107200</v>
+        <v>-136500</v>
       </c>
       <c r="I81" s="3">
-        <v>126600</v>
+        <v>-103700</v>
       </c>
       <c r="J81" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K81" s="3">
         <v>77400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-75600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>141400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-57200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>130100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>33100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>68500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>73000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>161600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>135500</v>
+        <v>134100</v>
       </c>
       <c r="E83" s="3">
-        <v>143900</v>
+        <v>131100</v>
       </c>
       <c r="F83" s="3">
-        <v>138800</v>
+        <v>139200</v>
       </c>
       <c r="G83" s="3">
-        <v>138300</v>
+        <v>134300</v>
       </c>
       <c r="H83" s="3">
-        <v>137100</v>
+        <v>133700</v>
       </c>
       <c r="I83" s="3">
-        <v>144400</v>
+        <v>132600</v>
       </c>
       <c r="J83" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K83" s="3">
         <v>139400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>141400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>135100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>143800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>136000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>133600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>130900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>128500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>125300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>122800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>119500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>115100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2867200</v>
+        <v>3050700</v>
       </c>
       <c r="E8" s="3">
-        <v>3133100</v>
+        <v>2776100</v>
       </c>
       <c r="F8" s="3">
-        <v>4017400</v>
+        <v>3033500</v>
       </c>
       <c r="G8" s="3">
-        <v>3305200</v>
+        <v>3889700</v>
       </c>
       <c r="H8" s="3">
-        <v>3142700</v>
+        <v>3200100</v>
       </c>
       <c r="I8" s="3">
-        <v>2648300</v>
+        <v>3042800</v>
       </c>
       <c r="J8" s="3">
+        <v>2564100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4456900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3633800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3545400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3213100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4806500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3837100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3198800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3125000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4356100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3459100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3384500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3031400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4220200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3066800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2387300</v>
+        <v>2448900</v>
       </c>
       <c r="E9" s="3">
-        <v>2586700</v>
+        <v>2311400</v>
       </c>
       <c r="F9" s="3">
-        <v>3503900</v>
+        <v>2504400</v>
       </c>
       <c r="G9" s="3">
-        <v>2736800</v>
+        <v>3392500</v>
       </c>
       <c r="H9" s="3">
-        <v>2736400</v>
+        <v>2649800</v>
       </c>
       <c r="I9" s="3">
-        <v>2452300</v>
+        <v>2649400</v>
       </c>
       <c r="J9" s="3">
+        <v>2374400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3671300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2955100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3016900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2761100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4003100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3097700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2730600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2618400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3755500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2755000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2851000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2568800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3558100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2505800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>479900</v>
+        <v>601800</v>
       </c>
       <c r="E10" s="3">
-        <v>546500</v>
+        <v>464700</v>
       </c>
       <c r="F10" s="3">
-        <v>513500</v>
+        <v>529100</v>
       </c>
       <c r="G10" s="3">
-        <v>568400</v>
+        <v>497200</v>
       </c>
       <c r="H10" s="3">
-        <v>406300</v>
+        <v>550300</v>
       </c>
       <c r="I10" s="3">
-        <v>196000</v>
+        <v>393400</v>
       </c>
       <c r="J10" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K10" s="3">
         <v>785600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>678700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>528500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>452100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>803400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>739500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>468200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>506600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>704100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>533500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>462600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>662000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>561100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>96400</v>
+        <v>101900</v>
       </c>
       <c r="E12" s="3">
-        <v>78300</v>
+        <v>93300</v>
       </c>
       <c r="F12" s="3">
-        <v>133900</v>
+        <v>75800</v>
       </c>
       <c r="G12" s="3">
-        <v>94400</v>
+        <v>129600</v>
       </c>
       <c r="H12" s="3">
-        <v>96000</v>
+        <v>91400</v>
       </c>
       <c r="I12" s="3">
-        <v>71800</v>
+        <v>92900</v>
       </c>
       <c r="J12" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K12" s="3">
         <v>143000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>115100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>116000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>101800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>147100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>115000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>101400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>93800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>129900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>94100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>101300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>85500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>113200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>90400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,37 +1143,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
-        <v>700</v>
-      </c>
       <c r="F14" s="3">
-        <v>137300</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
+        <v>133000</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>34500</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>21700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1174,14 +1193,14 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>116000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2822400</v>
+        <v>2892600</v>
       </c>
       <c r="E17" s="3">
-        <v>3000200</v>
+        <v>2732700</v>
       </c>
       <c r="F17" s="3">
-        <v>4168500</v>
+        <v>2904800</v>
       </c>
       <c r="G17" s="3">
-        <v>3145500</v>
+        <v>4036000</v>
       </c>
       <c r="H17" s="3">
-        <v>3188000</v>
+        <v>3045600</v>
       </c>
       <c r="I17" s="3">
-        <v>2830300</v>
+        <v>3086700</v>
       </c>
       <c r="J17" s="3">
+        <v>2740400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4183100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3452300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3475600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3203200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4545400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3569100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3186200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3060400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4254200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3317200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3283200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2987000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4015400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2939200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44900</v>
+        <v>158200</v>
       </c>
       <c r="E18" s="3">
-        <v>132900</v>
+        <v>43400</v>
       </c>
       <c r="F18" s="3">
-        <v>-151200</v>
+        <v>128700</v>
       </c>
       <c r="G18" s="3">
-        <v>159600</v>
+        <v>-146300</v>
       </c>
       <c r="H18" s="3">
-        <v>-45300</v>
+        <v>154500</v>
       </c>
       <c r="I18" s="3">
-        <v>-182000</v>
+        <v>-43800</v>
       </c>
       <c r="J18" s="3">
+        <v>-176200</v>
+      </c>
+      <c r="K18" s="3">
         <v>273800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>181500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>261100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>268000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>102000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>141900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>101300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>44400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>204800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>127600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-56800</v>
+        <v>-64500</v>
       </c>
       <c r="E20" s="3">
-        <v>4200</v>
+        <v>-55000</v>
       </c>
       <c r="F20" s="3">
-        <v>22300</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
-        <v>9200</v>
+        <v>21600</v>
       </c>
       <c r="H20" s="3">
-        <v>24600</v>
+        <v>8900</v>
       </c>
       <c r="I20" s="3">
-        <v>66800</v>
+        <v>23800</v>
       </c>
       <c r="J20" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-45800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-62200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-79300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-73400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-82700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-77600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>98500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>122200</v>
+        <v>224100</v>
       </c>
       <c r="E21" s="3">
-        <v>268200</v>
+        <v>118300</v>
       </c>
       <c r="F21" s="3">
-        <v>10300</v>
+        <v>259700</v>
       </c>
       <c r="G21" s="3">
-        <v>303100</v>
+        <v>10000</v>
       </c>
       <c r="H21" s="3">
-        <v>113000</v>
+        <v>293400</v>
       </c>
       <c r="I21" s="3">
-        <v>17300</v>
+        <v>109400</v>
       </c>
       <c r="J21" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K21" s="3">
         <v>367600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>258700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>209800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>103200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>325600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>333600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>65900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>218200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>190700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>243500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>218900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>177900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>246600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>341100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="E22" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8500</v>
-      </c>
       <c r="H22" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P22" s="3">
         <v>9100</v>
       </c>
-      <c r="J22" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>8300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>6100</v>
       </c>
       <c r="T22" s="3">
         <v>6100</v>
       </c>
       <c r="U22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="V22" s="3">
         <v>6000</v>
       </c>
       <c r="W22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X22" s="3">
         <v>6700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19300</v>
+        <v>86500</v>
       </c>
       <c r="E23" s="3">
-        <v>129400</v>
+        <v>-18700</v>
       </c>
       <c r="F23" s="3">
-        <v>-136500</v>
+        <v>125200</v>
       </c>
       <c r="G23" s="3">
-        <v>160300</v>
+        <v>-132200</v>
       </c>
       <c r="H23" s="3">
-        <v>-28800</v>
+        <v>155200</v>
       </c>
       <c r="I23" s="3">
-        <v>-124300</v>
+        <v>-27900</v>
       </c>
       <c r="J23" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="K23" s="3">
         <v>220700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>110800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>59700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>172900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>185600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-77500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>77700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>108900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>87500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>121200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>219400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22900</v>
+        <v>56800</v>
       </c>
       <c r="E24" s="3">
-        <v>38200</v>
+        <v>22200</v>
       </c>
       <c r="F24" s="3">
-        <v>-95000</v>
+        <v>37000</v>
       </c>
       <c r="G24" s="3">
-        <v>36400</v>
+        <v>-92000</v>
       </c>
       <c r="H24" s="3">
-        <v>104100</v>
+        <v>35200</v>
       </c>
       <c r="I24" s="3">
-        <v>-20800</v>
+        <v>100800</v>
       </c>
       <c r="J24" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K24" s="3">
         <v>93700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>51200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-83100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>68700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>43200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>54100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42200</v>
+        <v>29800</v>
       </c>
       <c r="E26" s="3">
-        <v>91200</v>
+        <v>-40900</v>
       </c>
       <c r="F26" s="3">
-        <v>-41600</v>
+        <v>88300</v>
       </c>
       <c r="G26" s="3">
-        <v>124000</v>
+        <v>-40200</v>
       </c>
       <c r="H26" s="3">
-        <v>-133000</v>
+        <v>120000</v>
       </c>
       <c r="I26" s="3">
-        <v>-103500</v>
+        <v>-128700</v>
       </c>
       <c r="J26" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="K26" s="3">
         <v>127000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-73000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>160400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>149900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-52500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>135900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>74000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>33300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>78000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>165300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-47200</v>
+        <v>23700</v>
       </c>
       <c r="E27" s="3">
-        <v>86900</v>
+        <v>-45700</v>
       </c>
       <c r="F27" s="3">
-        <v>-47200</v>
+        <v>84200</v>
       </c>
       <c r="G27" s="3">
-        <v>117200</v>
+        <v>-45700</v>
       </c>
       <c r="H27" s="3">
-        <v>-136500</v>
+        <v>113400</v>
       </c>
       <c r="I27" s="3">
-        <v>-103700</v>
+        <v>-132200</v>
       </c>
       <c r="J27" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K27" s="3">
         <v>122500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-75600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>154400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>141400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>130100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>33100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>68500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>29600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>73000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>161600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>56800</v>
+        <v>64500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4200</v>
+        <v>55000</v>
       </c>
       <c r="F32" s="3">
-        <v>-22300</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
-        <v>-9200</v>
+        <v>-21600</v>
       </c>
       <c r="H32" s="3">
-        <v>-24600</v>
+        <v>-8900</v>
       </c>
       <c r="I32" s="3">
-        <v>-66800</v>
+        <v>-23800</v>
       </c>
       <c r="J32" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="K32" s="3">
         <v>45800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>62200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>79300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>73400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>82700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>77600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-98500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-47200</v>
+        <v>23700</v>
       </c>
       <c r="E33" s="3">
-        <v>86900</v>
+        <v>-45700</v>
       </c>
       <c r="F33" s="3">
-        <v>-47200</v>
+        <v>84200</v>
       </c>
       <c r="G33" s="3">
-        <v>117200</v>
+        <v>-45700</v>
       </c>
       <c r="H33" s="3">
-        <v>-136500</v>
+        <v>113400</v>
       </c>
       <c r="I33" s="3">
-        <v>-103700</v>
+        <v>-132200</v>
       </c>
       <c r="J33" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K33" s="3">
         <v>122500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>77400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-75600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>154400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>141400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>130100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>33100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>68500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>73000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>161600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-47200</v>
+        <v>23700</v>
       </c>
       <c r="E35" s="3">
-        <v>86900</v>
+        <v>-45700</v>
       </c>
       <c r="F35" s="3">
-        <v>-47200</v>
+        <v>84200</v>
       </c>
       <c r="G35" s="3">
-        <v>117200</v>
+        <v>-45700</v>
       </c>
       <c r="H35" s="3">
-        <v>-136500</v>
+        <v>113400</v>
       </c>
       <c r="I35" s="3">
-        <v>-103700</v>
+        <v>-132200</v>
       </c>
       <c r="J35" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K35" s="3">
         <v>122500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>77400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-75600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>154400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>141400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>130100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>33100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>68500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>73000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>161600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>533800</v>
+        <v>641900</v>
       </c>
       <c r="E41" s="3">
-        <v>1075300</v>
+        <v>516800</v>
       </c>
       <c r="F41" s="3">
-        <v>1116200</v>
+        <v>1041100</v>
       </c>
       <c r="G41" s="3">
-        <v>1209800</v>
+        <v>1080800</v>
       </c>
       <c r="H41" s="3">
-        <v>1349600</v>
+        <v>1171400</v>
       </c>
       <c r="I41" s="3">
-        <v>1512600</v>
+        <v>1306700</v>
       </c>
       <c r="J41" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="K41" s="3">
         <v>934800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>677900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>383600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>407000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>714100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>473500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>533400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>527700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>638500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>455700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>410800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>436300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>491300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>474100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2886,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3544300</v>
+        <v>3785300</v>
       </c>
       <c r="E43" s="3">
-        <v>3580100</v>
+        <v>3431700</v>
       </c>
       <c r="F43" s="3">
-        <v>4024800</v>
+        <v>3466400</v>
       </c>
       <c r="G43" s="3">
-        <v>4175500</v>
+        <v>3896900</v>
       </c>
       <c r="H43" s="3">
-        <v>3802300</v>
+        <v>4042800</v>
       </c>
       <c r="I43" s="3">
-        <v>3760500</v>
+        <v>3681400</v>
       </c>
       <c r="J43" s="3">
+        <v>3641000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4139300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4957300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4749700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4250400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4073400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5283800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4529800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4362500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4229500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4971000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4402000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4006900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3920900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4383800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5771200</v>
+        <v>5942800</v>
       </c>
       <c r="E44" s="3">
-        <v>5472900</v>
+        <v>5587800</v>
       </c>
       <c r="F44" s="3">
-        <v>5801800</v>
+        <v>5299000</v>
       </c>
       <c r="G44" s="3">
-        <v>6028200</v>
+        <v>5617400</v>
       </c>
       <c r="H44" s="3">
-        <v>5809000</v>
+        <v>5836700</v>
       </c>
       <c r="I44" s="3">
-        <v>5800300</v>
+        <v>5624300</v>
       </c>
       <c r="J44" s="3">
+        <v>5615900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5564900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6074600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5759800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5787500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5697000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6032500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5635200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5097500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4562800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5051200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4687700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4559700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4300700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4782900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>906500</v>
+        <v>1012500</v>
       </c>
       <c r="E45" s="3">
-        <v>684500</v>
+        <v>877700</v>
       </c>
       <c r="F45" s="3">
-        <v>381600</v>
+        <v>662700</v>
       </c>
       <c r="G45" s="3">
-        <v>600600</v>
+        <v>369500</v>
       </c>
       <c r="H45" s="3">
-        <v>500800</v>
+        <v>581500</v>
       </c>
       <c r="I45" s="3">
-        <v>545900</v>
+        <v>484900</v>
       </c>
       <c r="J45" s="3">
+        <v>528600</v>
+      </c>
+      <c r="K45" s="3">
         <v>450900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>604200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>561800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>592100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>435700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>816100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>761300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>773600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>655800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1006500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1066100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1114300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>847500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>969300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10755700</v>
+        <v>11382400</v>
       </c>
       <c r="E46" s="3">
-        <v>10812800</v>
+        <v>10413900</v>
       </c>
       <c r="F46" s="3">
-        <v>11324400</v>
+        <v>10469200</v>
       </c>
       <c r="G46" s="3">
-        <v>12014200</v>
+        <v>10964500</v>
       </c>
       <c r="H46" s="3">
-        <v>11461700</v>
+        <v>11632300</v>
       </c>
       <c r="I46" s="3">
-        <v>11619300</v>
+        <v>11097400</v>
       </c>
       <c r="J46" s="3">
+        <v>11250000</v>
+      </c>
+      <c r="K46" s="3">
         <v>11089900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12314000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11454800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11037000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10920200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12605900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11459600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10761400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10086600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11484400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10566600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10117200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9560400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10610100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3241,153 @@
       <c r="X47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3921200</v>
+        <v>3770800</v>
       </c>
       <c r="E48" s="3">
-        <v>3936900</v>
+        <v>3796600</v>
       </c>
       <c r="F48" s="3">
-        <v>3975600</v>
+        <v>3811800</v>
       </c>
       <c r="G48" s="3">
-        <v>4081400</v>
+        <v>3849200</v>
       </c>
       <c r="H48" s="3">
-        <v>4106600</v>
+        <v>3951600</v>
       </c>
       <c r="I48" s="3">
-        <v>4157200</v>
+        <v>3976100</v>
       </c>
       <c r="J48" s="3">
+        <v>4025000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4251400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4416300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4465200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4457200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4667300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4563000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4490400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4389800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4337400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4329700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4294800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4198900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4096900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3997600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>194800</v>
+        <v>188500</v>
       </c>
       <c r="E49" s="3">
-        <v>194700</v>
+        <v>188600</v>
       </c>
       <c r="F49" s="3">
-        <v>197600</v>
+        <v>188500</v>
       </c>
       <c r="G49" s="3">
-        <v>194600</v>
+        <v>191300</v>
       </c>
       <c r="H49" s="3">
-        <v>196000</v>
+        <v>188400</v>
       </c>
       <c r="I49" s="3">
-        <v>193700</v>
+        <v>189800</v>
       </c>
       <c r="J49" s="3">
+        <v>187600</v>
+      </c>
+      <c r="K49" s="3">
         <v>188200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>172900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>172200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>163500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>161400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>153300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>149800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>147200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>146200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>139900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>140700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>135000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>135600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>129900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2231500</v>
+        <v>2119200</v>
       </c>
       <c r="E52" s="3">
-        <v>2281400</v>
+        <v>2160500</v>
       </c>
       <c r="F52" s="3">
-        <v>1811200</v>
+        <v>2208900</v>
       </c>
       <c r="G52" s="3">
-        <v>1708800</v>
+        <v>1753600</v>
       </c>
       <c r="H52" s="3">
-        <v>1683800</v>
+        <v>1654500</v>
       </c>
       <c r="I52" s="3">
-        <v>1782900</v>
+        <v>1630300</v>
       </c>
       <c r="J52" s="3">
+        <v>1726200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1735300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1816600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1839200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1865000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1936100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1603200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1588900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1530100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1599800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1276700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1362600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1339200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1304700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1350000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17091100</v>
+        <v>17449700</v>
       </c>
       <c r="E54" s="3">
-        <v>17213600</v>
+        <v>16547900</v>
       </c>
       <c r="F54" s="3">
-        <v>17296500</v>
+        <v>16666500</v>
       </c>
       <c r="G54" s="3">
-        <v>17986900</v>
+        <v>16746700</v>
       </c>
       <c r="H54" s="3">
-        <v>17433800</v>
+        <v>17415200</v>
       </c>
       <c r="I54" s="3">
-        <v>17736900</v>
+        <v>16879700</v>
       </c>
       <c r="J54" s="3">
+        <v>17173200</v>
+      </c>
+      <c r="K54" s="3">
         <v>17248600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18707700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17918500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17509700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17671400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18892700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17656100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16797100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16136700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17206800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16230400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15657000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14966900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15952000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2656100</v>
+        <v>2699900</v>
       </c>
       <c r="E57" s="3">
-        <v>2773500</v>
+        <v>2571600</v>
       </c>
       <c r="F57" s="3">
-        <v>3128800</v>
+        <v>2685400</v>
       </c>
       <c r="G57" s="3">
-        <v>2942000</v>
+        <v>3029400</v>
       </c>
       <c r="H57" s="3">
-        <v>2677500</v>
+        <v>2848500</v>
       </c>
       <c r="I57" s="3">
-        <v>2708000</v>
+        <v>2592400</v>
       </c>
       <c r="J57" s="3">
+        <v>2621900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3274500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3083100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2942400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3095300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3558300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3258700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3116400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3052900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3283100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3120100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2995600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2794300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3033700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2805600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1563400</v>
+        <v>1519000</v>
       </c>
       <c r="E58" s="3">
-        <v>1218200</v>
+        <v>1513700</v>
       </c>
       <c r="F58" s="3">
-        <v>1521000</v>
+        <v>1179500</v>
       </c>
       <c r="G58" s="3">
-        <v>1617600</v>
+        <v>1472600</v>
       </c>
       <c r="H58" s="3">
-        <v>1600800</v>
+        <v>1566200</v>
       </c>
       <c r="I58" s="3">
-        <v>1688600</v>
+        <v>1549900</v>
       </c>
       <c r="J58" s="3">
+        <v>1634900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1653900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2582000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1721200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1287200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1060400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2197400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1264300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1106800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2153700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1639000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>976200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1162300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1079000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1467300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4039900</v>
+        <v>4666400</v>
       </c>
       <c r="E59" s="3">
-        <v>4277800</v>
+        <v>3911500</v>
       </c>
       <c r="F59" s="3">
-        <v>3433900</v>
+        <v>4141900</v>
       </c>
       <c r="G59" s="3">
-        <v>4265600</v>
+        <v>3324800</v>
       </c>
       <c r="H59" s="3">
-        <v>4122300</v>
+        <v>4130100</v>
       </c>
       <c r="I59" s="3">
-        <v>3851400</v>
+        <v>3991300</v>
       </c>
       <c r="J59" s="3">
+        <v>3728900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3421000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4249500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4389200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3687000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4536000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4683500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4229300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3591100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4206100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3979900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4074200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3368600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4169500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8259400</v>
+        <v>8885300</v>
       </c>
       <c r="E60" s="3">
-        <v>8269600</v>
+        <v>7996900</v>
       </c>
       <c r="F60" s="3">
-        <v>8083700</v>
+        <v>8006800</v>
       </c>
       <c r="G60" s="3">
-        <v>8825200</v>
+        <v>7826700</v>
       </c>
       <c r="H60" s="3">
-        <v>8400500</v>
+        <v>8544700</v>
       </c>
       <c r="I60" s="3">
-        <v>8247900</v>
+        <v>8133600</v>
       </c>
       <c r="J60" s="3">
+        <v>7985700</v>
+      </c>
+      <c r="K60" s="3">
         <v>8349500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9914600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9064200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8771700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8305700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9992100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9064200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8389000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7859400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8965300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7951700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8030800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7481300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8442400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3306000</v>
+        <v>3171000</v>
       </c>
       <c r="E61" s="3">
-        <v>3393700</v>
+        <v>3200900</v>
       </c>
       <c r="F61" s="3">
-        <v>3512600</v>
+        <v>3285900</v>
       </c>
       <c r="G61" s="3">
-        <v>3402900</v>
+        <v>3401000</v>
       </c>
       <c r="H61" s="3">
-        <v>3407300</v>
+        <v>3294800</v>
       </c>
       <c r="I61" s="3">
-        <v>3690100</v>
+        <v>3299000</v>
       </c>
       <c r="J61" s="3">
+        <v>3572900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3081100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3024000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3087500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2996100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3162500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2995400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2840900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2830800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2853800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2937100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3077200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2508500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2475100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2627400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1542200</v>
+        <v>1490800</v>
       </c>
       <c r="E62" s="3">
-        <v>1531200</v>
+        <v>1493200</v>
       </c>
       <c r="F62" s="3">
-        <v>1446900</v>
+        <v>1482600</v>
       </c>
       <c r="G62" s="3">
-        <v>1735800</v>
+        <v>1400900</v>
       </c>
       <c r="H62" s="3">
-        <v>1738700</v>
+        <v>1680600</v>
       </c>
       <c r="I62" s="3">
-        <v>1767800</v>
+        <v>1683400</v>
       </c>
       <c r="J62" s="3">
+        <v>1711600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1663500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1441800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1418300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1393600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1472600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1362100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1360700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1236500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1071800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1087100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1076900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1043000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1007200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1102900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13267800</v>
+        <v>13707900</v>
       </c>
       <c r="E66" s="3">
-        <v>13351000</v>
+        <v>12846100</v>
       </c>
       <c r="F66" s="3">
-        <v>13196900</v>
+        <v>12926600</v>
       </c>
       <c r="G66" s="3">
-        <v>14110200</v>
+        <v>12777500</v>
       </c>
       <c r="H66" s="3">
-        <v>13685300</v>
+        <v>13661800</v>
       </c>
       <c r="I66" s="3">
-        <v>13841400</v>
+        <v>13250300</v>
       </c>
       <c r="J66" s="3">
+        <v>13401500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13234500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14525700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13713800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13304000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13093300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14506700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13411300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12591200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11923500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13128900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12237000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11710700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11088500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12292600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2391500</v>
+        <v>2310600</v>
       </c>
       <c r="E72" s="3">
-        <v>2438700</v>
+        <v>2315500</v>
       </c>
       <c r="F72" s="3">
-        <v>2700900</v>
+        <v>2361200</v>
       </c>
       <c r="G72" s="3">
-        <v>2747700</v>
+        <v>2615100</v>
       </c>
       <c r="H72" s="3">
-        <v>2637400</v>
+        <v>2660400</v>
       </c>
       <c r="I72" s="3">
-        <v>2773900</v>
+        <v>2553500</v>
       </c>
       <c r="J72" s="3">
+        <v>2685700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2877600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2848900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2849600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2798900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3119500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2912600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2781500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2777500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2784400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2654300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2621100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2598000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2549700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2476700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3823300</v>
+        <v>3741900</v>
       </c>
       <c r="E76" s="3">
-        <v>3862600</v>
+        <v>3701800</v>
       </c>
       <c r="F76" s="3">
-        <v>4099600</v>
+        <v>3739800</v>
       </c>
       <c r="G76" s="3">
-        <v>3876700</v>
+        <v>3969300</v>
       </c>
       <c r="H76" s="3">
-        <v>3748600</v>
+        <v>3753500</v>
       </c>
       <c r="I76" s="3">
-        <v>3895500</v>
+        <v>3629400</v>
       </c>
       <c r="J76" s="3">
+        <v>3771700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4014100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4182100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4204800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4205800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4578100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4386000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4244700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4205900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4213200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4078000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3993400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3946300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3878400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3659400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-47200</v>
+        <v>23700</v>
       </c>
       <c r="E81" s="3">
-        <v>86900</v>
+        <v>-45700</v>
       </c>
       <c r="F81" s="3">
-        <v>-47200</v>
+        <v>84200</v>
       </c>
       <c r="G81" s="3">
-        <v>117200</v>
+        <v>-45700</v>
       </c>
       <c r="H81" s="3">
-        <v>-136500</v>
+        <v>113400</v>
       </c>
       <c r="I81" s="3">
-        <v>-103700</v>
+        <v>-132200</v>
       </c>
       <c r="J81" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K81" s="3">
         <v>122500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>77400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-75600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>154400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>141400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>130100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>33100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>68500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>73000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>161600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>134100</v>
+        <v>130500</v>
       </c>
       <c r="E83" s="3">
-        <v>131100</v>
+        <v>129900</v>
       </c>
       <c r="F83" s="3">
-        <v>139200</v>
+        <v>126900</v>
       </c>
       <c r="G83" s="3">
-        <v>134300</v>
+        <v>134700</v>
       </c>
       <c r="H83" s="3">
-        <v>133700</v>
+        <v>130000</v>
       </c>
       <c r="I83" s="3">
-        <v>132600</v>
+        <v>129500</v>
       </c>
       <c r="J83" s="3">
+        <v>128300</v>
+      </c>
+      <c r="K83" s="3">
         <v>139600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>141400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>135100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>143800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>136000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>133600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>130900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>128500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>125300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>122800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>119500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>115100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3050700</v>
+        <v>3600100</v>
       </c>
       <c r="E8" s="3">
-        <v>2776100</v>
+        <v>2786100</v>
       </c>
       <c r="F8" s="3">
-        <v>3033500</v>
+        <v>2535300</v>
       </c>
       <c r="G8" s="3">
-        <v>3889700</v>
+        <v>2770400</v>
       </c>
       <c r="H8" s="3">
-        <v>3200100</v>
+        <v>3552300</v>
       </c>
       <c r="I8" s="3">
-        <v>3042800</v>
+        <v>2922500</v>
       </c>
       <c r="J8" s="3">
+        <v>2778900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2564100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4456900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3633800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3545400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3213100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4806500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3837100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3198800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3125000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4356100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3459100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3384500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3031400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4220200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3066800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2448900</v>
+        <v>3058500</v>
       </c>
       <c r="E9" s="3">
-        <v>2311400</v>
+        <v>2236500</v>
       </c>
       <c r="F9" s="3">
-        <v>2504400</v>
+        <v>2110900</v>
       </c>
       <c r="G9" s="3">
-        <v>3392500</v>
+        <v>2287200</v>
       </c>
       <c r="H9" s="3">
-        <v>2649800</v>
+        <v>3098200</v>
       </c>
       <c r="I9" s="3">
-        <v>2649400</v>
+        <v>2419900</v>
       </c>
       <c r="J9" s="3">
+        <v>2419600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2374400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3671300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2955100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3016900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2761100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4003100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3097700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2730600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2618400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3755500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2755000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2851000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2568800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3558100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2505800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>601800</v>
+        <v>541600</v>
       </c>
       <c r="E10" s="3">
-        <v>464700</v>
+        <v>549600</v>
       </c>
       <c r="F10" s="3">
-        <v>529100</v>
+        <v>424300</v>
       </c>
       <c r="G10" s="3">
-        <v>497200</v>
+        <v>483200</v>
       </c>
       <c r="H10" s="3">
-        <v>550300</v>
+        <v>454000</v>
       </c>
       <c r="I10" s="3">
-        <v>393400</v>
+        <v>502500</v>
       </c>
       <c r="J10" s="3">
+        <v>359300</v>
+      </c>
+      <c r="K10" s="3">
         <v>189700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>785600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>678700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>528500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>452100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>803400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>739500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>468200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>506600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>704100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>533500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>462600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>662000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>561100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>101900</v>
+        <v>119400</v>
       </c>
       <c r="E12" s="3">
-        <v>93300</v>
+        <v>93000</v>
       </c>
       <c r="F12" s="3">
-        <v>75800</v>
+        <v>85200</v>
       </c>
       <c r="G12" s="3">
-        <v>129600</v>
+        <v>69200</v>
       </c>
       <c r="H12" s="3">
-        <v>91400</v>
+        <v>118400</v>
       </c>
       <c r="I12" s="3">
-        <v>92900</v>
+        <v>83400</v>
       </c>
       <c r="J12" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K12" s="3">
         <v>69500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>143000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>115100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>116000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>101800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>147100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>115000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>101400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>93800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>129900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>94100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>101300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>85500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>113200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>90400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,40 +1163,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>1300</v>
-      </c>
       <c r="F14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>133000</v>
-      </c>
       <c r="H14" s="3">
-        <v>300</v>
+        <v>121400</v>
       </c>
       <c r="I14" s="3">
-        <v>33400</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>21700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1196,14 +1216,14 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>116000</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2892600</v>
+        <v>3558000</v>
       </c>
       <c r="E17" s="3">
-        <v>2732700</v>
+        <v>2641600</v>
       </c>
       <c r="F17" s="3">
-        <v>2904800</v>
+        <v>2495600</v>
       </c>
       <c r="G17" s="3">
-        <v>4036000</v>
+        <v>2652800</v>
       </c>
       <c r="H17" s="3">
-        <v>3045600</v>
+        <v>3685900</v>
       </c>
       <c r="I17" s="3">
-        <v>3086700</v>
+        <v>2781400</v>
       </c>
       <c r="J17" s="3">
+        <v>2818900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2740400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4183100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3452300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3475600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3203200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4545400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3569100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3186200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3060400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4254200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3317200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3283200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2987000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4015400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2939200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>158200</v>
+        <v>42200</v>
       </c>
       <c r="E18" s="3">
-        <v>43400</v>
+        <v>144400</v>
       </c>
       <c r="F18" s="3">
-        <v>128700</v>
+        <v>39700</v>
       </c>
       <c r="G18" s="3">
-        <v>-146300</v>
+        <v>117600</v>
       </c>
       <c r="H18" s="3">
-        <v>154500</v>
+        <v>-133700</v>
       </c>
       <c r="I18" s="3">
-        <v>-43800</v>
+        <v>141100</v>
       </c>
       <c r="J18" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-176200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>273800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>181500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>69800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>261100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>268000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>64600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>102000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>141900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>101300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>44400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>204800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>127600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-64500</v>
+        <v>28400</v>
       </c>
       <c r="E20" s="3">
-        <v>-55000</v>
+        <v>-58900</v>
       </c>
       <c r="F20" s="3">
-        <v>4100</v>
+        <v>-50200</v>
       </c>
       <c r="G20" s="3">
-        <v>21600</v>
+        <v>3700</v>
       </c>
       <c r="H20" s="3">
-        <v>8900</v>
+        <v>19700</v>
       </c>
       <c r="I20" s="3">
-        <v>23800</v>
+        <v>8100</v>
       </c>
       <c r="J20" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K20" s="3">
         <v>64600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-62200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-79300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-73400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-82700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-26800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>10800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-77600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>98500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>224100</v>
+        <v>190900</v>
       </c>
       <c r="E21" s="3">
-        <v>118300</v>
+        <v>204700</v>
       </c>
       <c r="F21" s="3">
-        <v>259700</v>
+        <v>108100</v>
       </c>
       <c r="G21" s="3">
-        <v>10000</v>
+        <v>237200</v>
       </c>
       <c r="H21" s="3">
-        <v>293400</v>
+        <v>9100</v>
       </c>
       <c r="I21" s="3">
-        <v>109400</v>
+        <v>268000</v>
       </c>
       <c r="J21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K21" s="3">
         <v>16700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>367600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>258700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>209800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>103200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>325600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>333600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>65900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>218200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>190700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>243500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>218900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>177900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>246600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>341100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="S22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="T22" s="3">
         <v>7100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>8300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>7400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>7100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>6100</v>
       </c>
       <c r="U22" s="3">
         <v>6100</v>
       </c>
       <c r="V22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="W22" s="3">
         <v>6000</v>
       </c>
       <c r="X22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>6700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>86500</v>
+        <v>64000</v>
       </c>
       <c r="E23" s="3">
-        <v>-18700</v>
+        <v>79000</v>
       </c>
       <c r="F23" s="3">
-        <v>125200</v>
+        <v>-17000</v>
       </c>
       <c r="G23" s="3">
-        <v>-132200</v>
+        <v>114400</v>
       </c>
       <c r="H23" s="3">
-        <v>155200</v>
+        <v>-120700</v>
       </c>
       <c r="I23" s="3">
-        <v>-27900</v>
+        <v>141700</v>
       </c>
       <c r="J23" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-120400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>220700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>110800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>172900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>185600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-77500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>108900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>87500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>49100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>121200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>219400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56800</v>
+        <v>-52400</v>
       </c>
       <c r="E24" s="3">
-        <v>22200</v>
+        <v>51900</v>
       </c>
       <c r="F24" s="3">
-        <v>37000</v>
+        <v>20300</v>
       </c>
       <c r="G24" s="3">
-        <v>-92000</v>
+        <v>33700</v>
       </c>
       <c r="H24" s="3">
-        <v>35200</v>
+        <v>-84000</v>
       </c>
       <c r="I24" s="3">
-        <v>100800</v>
+        <v>32100</v>
       </c>
       <c r="J24" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-20200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>51200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-83100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>68700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>43200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>54100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29800</v>
+        <v>116300</v>
       </c>
       <c r="E26" s="3">
-        <v>-40900</v>
+        <v>27200</v>
       </c>
       <c r="F26" s="3">
-        <v>88300</v>
+        <v>-37300</v>
       </c>
       <c r="G26" s="3">
-        <v>-40200</v>
+        <v>80600</v>
       </c>
       <c r="H26" s="3">
-        <v>120000</v>
+        <v>-36700</v>
       </c>
       <c r="I26" s="3">
-        <v>-128700</v>
+        <v>109600</v>
       </c>
       <c r="J26" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>127000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-73000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>160400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>149900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-52500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>135900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>74000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>33300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>78000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>165300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23700</v>
+        <v>113000</v>
       </c>
       <c r="E27" s="3">
-        <v>-45700</v>
+        <v>21700</v>
       </c>
       <c r="F27" s="3">
-        <v>84200</v>
+        <v>-41700</v>
       </c>
       <c r="G27" s="3">
-        <v>-45700</v>
+        <v>76900</v>
       </c>
       <c r="H27" s="3">
-        <v>113400</v>
+        <v>-41800</v>
       </c>
       <c r="I27" s="3">
-        <v>-132200</v>
+        <v>103600</v>
       </c>
       <c r="J27" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>122500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>77400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-75600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>154400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>141400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-57200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>130100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>33100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>68500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>29600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>73000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>161600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>64500</v>
+        <v>-28400</v>
       </c>
       <c r="E32" s="3">
-        <v>55000</v>
+        <v>58900</v>
       </c>
       <c r="F32" s="3">
-        <v>-4100</v>
+        <v>50200</v>
       </c>
       <c r="G32" s="3">
-        <v>-21600</v>
+        <v>-3700</v>
       </c>
       <c r="H32" s="3">
-        <v>-8900</v>
+        <v>-19700</v>
       </c>
       <c r="I32" s="3">
-        <v>-23800</v>
+        <v>-8100</v>
       </c>
       <c r="J32" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-64600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>62200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>79300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>73400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>82700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>26800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-10800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>77600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-98500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23700</v>
+        <v>113000</v>
       </c>
       <c r="E33" s="3">
-        <v>-45700</v>
+        <v>21700</v>
       </c>
       <c r="F33" s="3">
-        <v>84200</v>
+        <v>-41700</v>
       </c>
       <c r="G33" s="3">
-        <v>-45700</v>
+        <v>76900</v>
       </c>
       <c r="H33" s="3">
-        <v>113400</v>
+        <v>-41800</v>
       </c>
       <c r="I33" s="3">
-        <v>-132200</v>
+        <v>103600</v>
       </c>
       <c r="J33" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>122500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-75600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>154400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>141400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-57200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>130100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>33100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>68500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>73000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>161600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23700</v>
+        <v>113000</v>
       </c>
       <c r="E35" s="3">
-        <v>-45700</v>
+        <v>21700</v>
       </c>
       <c r="F35" s="3">
-        <v>84200</v>
+        <v>-41700</v>
       </c>
       <c r="G35" s="3">
-        <v>-45700</v>
+        <v>76900</v>
       </c>
       <c r="H35" s="3">
-        <v>113400</v>
+        <v>-41800</v>
       </c>
       <c r="I35" s="3">
-        <v>-132200</v>
+        <v>103600</v>
       </c>
       <c r="J35" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>122500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-75600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>154400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>141400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-57200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>130100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>33100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>68500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>73000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>161600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>641900</v>
+        <v>891700</v>
       </c>
       <c r="E41" s="3">
-        <v>516800</v>
+        <v>586200</v>
       </c>
       <c r="F41" s="3">
-        <v>1041100</v>
+        <v>472000</v>
       </c>
       <c r="G41" s="3">
-        <v>1080800</v>
+        <v>950800</v>
       </c>
       <c r="H41" s="3">
-        <v>1171400</v>
+        <v>987000</v>
       </c>
       <c r="I41" s="3">
-        <v>1306700</v>
+        <v>1069800</v>
       </c>
       <c r="J41" s="3">
+        <v>1193300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1464500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>934800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>677900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>383600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>407000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>714100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>473500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>533400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>527700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>638500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>455700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>410800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>436300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>491300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>474100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,297 +2979,312 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3785300</v>
+        <v>3230600</v>
       </c>
       <c r="E43" s="3">
-        <v>3431700</v>
+        <v>3456900</v>
       </c>
       <c r="F43" s="3">
-        <v>3466400</v>
+        <v>3133900</v>
       </c>
       <c r="G43" s="3">
-        <v>3896900</v>
+        <v>3165600</v>
       </c>
       <c r="H43" s="3">
-        <v>4042800</v>
+        <v>3558800</v>
       </c>
       <c r="I43" s="3">
-        <v>3681400</v>
+        <v>3692100</v>
       </c>
       <c r="J43" s="3">
+        <v>3362100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3641000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4139300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4957300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4749700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4250400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4073400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5283800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4529800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4362500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4229500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4971000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4402000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4006900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3920900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4383800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5942800</v>
+        <v>5131100</v>
       </c>
       <c r="E44" s="3">
-        <v>5587800</v>
+        <v>5427200</v>
       </c>
       <c r="F44" s="3">
-        <v>5299000</v>
+        <v>5103000</v>
       </c>
       <c r="G44" s="3">
-        <v>5617400</v>
+        <v>4839300</v>
       </c>
       <c r="H44" s="3">
-        <v>5836700</v>
+        <v>5130000</v>
       </c>
       <c r="I44" s="3">
-        <v>5624300</v>
+        <v>5330300</v>
       </c>
       <c r="J44" s="3">
+        <v>5136400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5615900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5564900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6074600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5759800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5787500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5697000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6032500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5635200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5097500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4562800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5051200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4687700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4559700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4300700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4782900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1012500</v>
+        <v>856200</v>
       </c>
       <c r="E45" s="3">
-        <v>877700</v>
+        <v>924600</v>
       </c>
       <c r="F45" s="3">
-        <v>662700</v>
+        <v>801500</v>
       </c>
       <c r="G45" s="3">
-        <v>369500</v>
+        <v>605300</v>
       </c>
       <c r="H45" s="3">
-        <v>581500</v>
+        <v>337400</v>
       </c>
       <c r="I45" s="3">
-        <v>484900</v>
+        <v>531000</v>
       </c>
       <c r="J45" s="3">
+        <v>442900</v>
+      </c>
+      <c r="K45" s="3">
         <v>528600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>450900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>604200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>561800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>592100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>435700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>816100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>761300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>773600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>655800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1006500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1066100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1114300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>847500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>969300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11382400</v>
+        <v>10109700</v>
       </c>
       <c r="E46" s="3">
-        <v>10413900</v>
+        <v>10394900</v>
       </c>
       <c r="F46" s="3">
-        <v>10469200</v>
+        <v>9510500</v>
       </c>
       <c r="G46" s="3">
-        <v>10964500</v>
+        <v>9561000</v>
       </c>
       <c r="H46" s="3">
-        <v>11632300</v>
+        <v>10013300</v>
       </c>
       <c r="I46" s="3">
-        <v>11097400</v>
+        <v>10623200</v>
       </c>
       <c r="J46" s="3">
+        <v>10134700</v>
+      </c>
+      <c r="K46" s="3">
         <v>11250000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11089900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12314000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11454800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11037000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10920200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12605900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11459600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10761400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10086600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11484400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10566600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10117200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9560400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10610100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>102600</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -3244,150 +3349,159 @@
       <c r="Y47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3770800</v>
+        <v>3460800</v>
       </c>
       <c r="E48" s="3">
-        <v>3796600</v>
+        <v>3443600</v>
       </c>
       <c r="F48" s="3">
-        <v>3811800</v>
+        <v>3467200</v>
       </c>
       <c r="G48" s="3">
-        <v>3849200</v>
+        <v>3481100</v>
       </c>
       <c r="H48" s="3">
-        <v>3951600</v>
+        <v>3515300</v>
       </c>
       <c r="I48" s="3">
-        <v>3976100</v>
+        <v>3608800</v>
       </c>
       <c r="J48" s="3">
+        <v>3631100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4025000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4251400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4416300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4465200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4457200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4667300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4563000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4490400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4389800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4337400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4329700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4294800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4198900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4096900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3997600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>188500</v>
+        <v>182400</v>
       </c>
       <c r="E49" s="3">
-        <v>188600</v>
+        <v>172100</v>
       </c>
       <c r="F49" s="3">
-        <v>188500</v>
+        <v>172300</v>
       </c>
       <c r="G49" s="3">
-        <v>191300</v>
+        <v>172200</v>
       </c>
       <c r="H49" s="3">
-        <v>188400</v>
+        <v>174700</v>
       </c>
       <c r="I49" s="3">
-        <v>189800</v>
+        <v>172100</v>
       </c>
       <c r="J49" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K49" s="3">
         <v>187600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>188200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>172900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>172200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>163500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>161400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>153300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>149800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>147200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>146200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>139900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>140700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>135000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>135600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>129900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2119200</v>
+        <v>1901700</v>
       </c>
       <c r="E52" s="3">
-        <v>2160500</v>
+        <v>1935400</v>
       </c>
       <c r="F52" s="3">
-        <v>2208900</v>
+        <v>1973100</v>
       </c>
       <c r="G52" s="3">
-        <v>1753600</v>
+        <v>2017300</v>
       </c>
       <c r="H52" s="3">
-        <v>1654500</v>
+        <v>1601500</v>
       </c>
       <c r="I52" s="3">
-        <v>1630300</v>
+        <v>1511000</v>
       </c>
       <c r="J52" s="3">
+        <v>1488900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1726200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1735300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1816600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1839200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1865000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1936100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1603200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1588900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1530100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1599800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1276700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1362600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1339200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1304700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1350000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17449700</v>
+        <v>15757200</v>
       </c>
       <c r="E54" s="3">
-        <v>16547900</v>
+        <v>15935900</v>
       </c>
       <c r="F54" s="3">
-        <v>16666500</v>
+        <v>15112300</v>
       </c>
       <c r="G54" s="3">
-        <v>16746700</v>
+        <v>15220600</v>
       </c>
       <c r="H54" s="3">
-        <v>17415200</v>
+        <v>15293900</v>
       </c>
       <c r="I54" s="3">
-        <v>16879700</v>
+        <v>15904400</v>
       </c>
       <c r="J54" s="3">
+        <v>15415400</v>
+      </c>
+      <c r="K54" s="3">
         <v>17173200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17248600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18707700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17918500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17509700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17671400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18892700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17656100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16797100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16136700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17206800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16230400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15657000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14966900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15952000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2699900</v>
+        <v>2682200</v>
       </c>
       <c r="E57" s="3">
-        <v>2571600</v>
+        <v>2465700</v>
       </c>
       <c r="F57" s="3">
-        <v>2685400</v>
+        <v>2348500</v>
       </c>
       <c r="G57" s="3">
-        <v>3029400</v>
+        <v>2452400</v>
       </c>
       <c r="H57" s="3">
-        <v>2848500</v>
+        <v>2766600</v>
       </c>
       <c r="I57" s="3">
-        <v>2592400</v>
+        <v>2601400</v>
       </c>
       <c r="J57" s="3">
+        <v>2367500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2621900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3274500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3083100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2942400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3095300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3558300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3258700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3116400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3052900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3283100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3120100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2995600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2794300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3033700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2805600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1519000</v>
+        <v>913600</v>
       </c>
       <c r="E58" s="3">
-        <v>1513700</v>
+        <v>1387200</v>
       </c>
       <c r="F58" s="3">
-        <v>1179500</v>
+        <v>1382400</v>
       </c>
       <c r="G58" s="3">
-        <v>1472600</v>
+        <v>1077200</v>
       </c>
       <c r="H58" s="3">
-        <v>1566200</v>
+        <v>1344900</v>
       </c>
       <c r="I58" s="3">
-        <v>1549900</v>
+        <v>1430300</v>
       </c>
       <c r="J58" s="3">
+        <v>1415400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1634900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1653900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2582000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1721200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1287200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1060400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2197400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1264300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1106800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2153700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1639000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>976200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1162300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1079000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1467300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4666400</v>
+        <v>4095500</v>
       </c>
       <c r="E59" s="3">
-        <v>3911500</v>
+        <v>4261600</v>
       </c>
       <c r="F59" s="3">
-        <v>4141900</v>
+        <v>3572200</v>
       </c>
       <c r="G59" s="3">
-        <v>3324800</v>
+        <v>3782600</v>
       </c>
       <c r="H59" s="3">
-        <v>4130100</v>
+        <v>3036300</v>
       </c>
       <c r="I59" s="3">
-        <v>3991300</v>
+        <v>3771800</v>
       </c>
       <c r="J59" s="3">
+        <v>3645000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3728900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3421000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4249500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4389200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3687000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4536000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4683500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4229300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3591100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4206100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3979900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4074200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3368600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4169500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8885300</v>
+        <v>7691300</v>
       </c>
       <c r="E60" s="3">
-        <v>7996900</v>
+        <v>8114500</v>
       </c>
       <c r="F60" s="3">
-        <v>8006800</v>
+        <v>7303100</v>
       </c>
       <c r="G60" s="3">
-        <v>7826700</v>
+        <v>7312100</v>
       </c>
       <c r="H60" s="3">
-        <v>8544700</v>
+        <v>7147800</v>
       </c>
       <c r="I60" s="3">
-        <v>8133600</v>
+        <v>7803500</v>
       </c>
       <c r="J60" s="3">
+        <v>7428000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7985700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8349500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9914600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9064200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8771700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8305700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9992100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9064200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8389000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7859400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8965300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7951700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8030800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7481300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8442400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3171000</v>
+        <v>2992900</v>
       </c>
       <c r="E61" s="3">
-        <v>3200900</v>
+        <v>2895900</v>
       </c>
       <c r="F61" s="3">
-        <v>3285900</v>
+        <v>2923200</v>
       </c>
       <c r="G61" s="3">
-        <v>3401000</v>
+        <v>3000800</v>
       </c>
       <c r="H61" s="3">
-        <v>3294800</v>
+        <v>3105900</v>
       </c>
       <c r="I61" s="3">
-        <v>3299000</v>
+        <v>3008900</v>
       </c>
       <c r="J61" s="3">
+        <v>3012800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3572900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3081100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3024000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3087500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2996100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3162500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2995400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2840900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2830800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2853800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2937100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3077200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2508500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2475100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2627400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1490800</v>
+        <v>1189500</v>
       </c>
       <c r="E62" s="3">
-        <v>1493200</v>
+        <v>1361400</v>
       </c>
       <c r="F62" s="3">
-        <v>1482600</v>
+        <v>1363600</v>
       </c>
       <c r="G62" s="3">
-        <v>1400900</v>
+        <v>1353900</v>
       </c>
       <c r="H62" s="3">
-        <v>1680600</v>
+        <v>1279400</v>
       </c>
       <c r="I62" s="3">
-        <v>1683400</v>
+        <v>1534800</v>
       </c>
       <c r="J62" s="3">
+        <v>1537400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1711600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1663500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1441800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1418300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1393600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1472600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1362100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1360700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1236500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1071800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1087100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1076900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1043000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1007200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1102900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13707900</v>
+        <v>12024400</v>
       </c>
       <c r="E66" s="3">
-        <v>12846100</v>
+        <v>12518700</v>
       </c>
       <c r="F66" s="3">
-        <v>12926600</v>
+        <v>11731700</v>
       </c>
       <c r="G66" s="3">
-        <v>12777500</v>
+        <v>11805200</v>
       </c>
       <c r="H66" s="3">
-        <v>13661800</v>
+        <v>11669000</v>
       </c>
       <c r="I66" s="3">
-        <v>13250300</v>
+        <v>12476600</v>
       </c>
       <c r="J66" s="3">
+        <v>12100800</v>
+      </c>
+      <c r="K66" s="3">
         <v>13401500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13234500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14525700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13713800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13304000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13093300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14506700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13411300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12591200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11923500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13128900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12237000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11710700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11088500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12292600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2310600</v>
+        <v>2223100</v>
       </c>
       <c r="E72" s="3">
-        <v>2315500</v>
+        <v>2110100</v>
       </c>
       <c r="F72" s="3">
-        <v>2361200</v>
+        <v>2114600</v>
       </c>
       <c r="G72" s="3">
-        <v>2615100</v>
+        <v>2156300</v>
       </c>
       <c r="H72" s="3">
-        <v>2660400</v>
+        <v>2388200</v>
       </c>
       <c r="I72" s="3">
-        <v>2553500</v>
+        <v>2429600</v>
       </c>
       <c r="J72" s="3">
+        <v>2332000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2685700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2877600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2848900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2849600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2798900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3119500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2912600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2781500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2777500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2784400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2654300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2621100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2598000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2549700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2476700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3741900</v>
+        <v>3732800</v>
       </c>
       <c r="E76" s="3">
-        <v>3701800</v>
+        <v>3417300</v>
       </c>
       <c r="F76" s="3">
-        <v>3739800</v>
+        <v>3380600</v>
       </c>
       <c r="G76" s="3">
-        <v>3969300</v>
+        <v>3415400</v>
       </c>
       <c r="H76" s="3">
-        <v>3753500</v>
+        <v>3624900</v>
       </c>
       <c r="I76" s="3">
-        <v>3629400</v>
+        <v>3427800</v>
       </c>
       <c r="J76" s="3">
+        <v>3314600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3771700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4014100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4182100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4204800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4205800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4578100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4386000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4244700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4205900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4213200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4078000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3993400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3946300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3878400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3659400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23700</v>
+        <v>113000</v>
       </c>
       <c r="E81" s="3">
-        <v>-45700</v>
+        <v>21700</v>
       </c>
       <c r="F81" s="3">
-        <v>84200</v>
+        <v>-41700</v>
       </c>
       <c r="G81" s="3">
-        <v>-45700</v>
+        <v>76900</v>
       </c>
       <c r="H81" s="3">
-        <v>113400</v>
+        <v>-41800</v>
       </c>
       <c r="I81" s="3">
-        <v>-132200</v>
+        <v>103600</v>
       </c>
       <c r="J81" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>122500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-75600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>154400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>141400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-57200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>130100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>33100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>68500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>73000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>161600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>130500</v>
+        <v>120400</v>
       </c>
       <c r="E83" s="3">
-        <v>129900</v>
+        <v>119200</v>
       </c>
       <c r="F83" s="3">
-        <v>126900</v>
+        <v>118600</v>
       </c>
       <c r="G83" s="3">
-        <v>134700</v>
+        <v>115900</v>
       </c>
       <c r="H83" s="3">
-        <v>130000</v>
+        <v>123000</v>
       </c>
       <c r="I83" s="3">
-        <v>129500</v>
+        <v>118700</v>
       </c>
       <c r="J83" s="3">
+        <v>118200</v>
+      </c>
+      <c r="K83" s="3">
         <v>128300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>141400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>135100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>143800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>136000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>133600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>130900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>128500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>125300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>122800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>119500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>115100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3600100</v>
+        <v>2568000</v>
       </c>
       <c r="E8" s="3">
-        <v>2786100</v>
+        <v>3387500</v>
       </c>
       <c r="F8" s="3">
-        <v>2535300</v>
+        <v>2621600</v>
       </c>
       <c r="G8" s="3">
-        <v>2770400</v>
+        <v>2385600</v>
       </c>
       <c r="H8" s="3">
-        <v>3552300</v>
+        <v>2606800</v>
       </c>
       <c r="I8" s="3">
-        <v>2922500</v>
+        <v>3342500</v>
       </c>
       <c r="J8" s="3">
+        <v>2749900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2778900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2564100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4456900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3633800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3545400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3213100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4806500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3837100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3198800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3125000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4356100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3459100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3384500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3031400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4220200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3066800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3058500</v>
+        <v>2147500</v>
       </c>
       <c r="E9" s="3">
-        <v>2236500</v>
+        <v>2877900</v>
       </c>
       <c r="F9" s="3">
-        <v>2110900</v>
+        <v>2104400</v>
       </c>
       <c r="G9" s="3">
-        <v>2287200</v>
+        <v>1986300</v>
       </c>
       <c r="H9" s="3">
-        <v>3098200</v>
+        <v>2152100</v>
       </c>
       <c r="I9" s="3">
-        <v>2419900</v>
+        <v>2915300</v>
       </c>
       <c r="J9" s="3">
+        <v>2277000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2419600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2374400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3671300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2955100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3016900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2761100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4003100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3097700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2730600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2618400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3755500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2755000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2851000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2568800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3558100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2505800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>541600</v>
+        <v>420500</v>
       </c>
       <c r="E10" s="3">
-        <v>549600</v>
+        <v>509600</v>
       </c>
       <c r="F10" s="3">
-        <v>424300</v>
+        <v>517100</v>
       </c>
       <c r="G10" s="3">
-        <v>483200</v>
+        <v>399300</v>
       </c>
       <c r="H10" s="3">
-        <v>454000</v>
+        <v>454700</v>
       </c>
       <c r="I10" s="3">
-        <v>502500</v>
+        <v>427200</v>
       </c>
       <c r="J10" s="3">
+        <v>472900</v>
+      </c>
+      <c r="K10" s="3">
         <v>359300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>189700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>785600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>678700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>528500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>452100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>803400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>739500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>468200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>506600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>704100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>533500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>462600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>662000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>561100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>119400</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>93000</v>
+        <v>112400</v>
       </c>
       <c r="F12" s="3">
-        <v>85200</v>
+        <v>87500</v>
       </c>
       <c r="G12" s="3">
-        <v>69200</v>
+        <v>80200</v>
       </c>
       <c r="H12" s="3">
-        <v>118400</v>
+        <v>65100</v>
       </c>
       <c r="I12" s="3">
-        <v>83400</v>
+        <v>111400</v>
       </c>
       <c r="J12" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K12" s="3">
         <v>84900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>69500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>143000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>115100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>116000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>101800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>147100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>115000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>101400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>93800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>129900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>94100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>101300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>85500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>113200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>90400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,44 +1183,47 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>10700</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>121400</v>
-      </c>
       <c r="I14" s="3">
+        <v>114300</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>30500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>21700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1219,15 +1239,15 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>116000</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>3558000</v>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>2641600</v>
+        <v>3347900</v>
       </c>
       <c r="F17" s="3">
-        <v>2495600</v>
+        <v>2485700</v>
       </c>
       <c r="G17" s="3">
-        <v>2652800</v>
+        <v>2348200</v>
       </c>
       <c r="H17" s="3">
-        <v>3685900</v>
+        <v>2496200</v>
       </c>
       <c r="I17" s="3">
-        <v>2781400</v>
+        <v>3468300</v>
       </c>
       <c r="J17" s="3">
+        <v>2617100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2818900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2740400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4183100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3452300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3475600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3203200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4545400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3569100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3186200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3060400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4254200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3317200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3283200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2987000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4015400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2939200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>42200</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>144400</v>
+        <v>39700</v>
       </c>
       <c r="F18" s="3">
-        <v>39700</v>
+        <v>135900</v>
       </c>
       <c r="G18" s="3">
-        <v>117600</v>
+        <v>37300</v>
       </c>
       <c r="H18" s="3">
-        <v>-133700</v>
+        <v>110600</v>
       </c>
       <c r="I18" s="3">
-        <v>141100</v>
+        <v>-125800</v>
       </c>
       <c r="J18" s="3">
+        <v>132800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-40000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-176200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>273800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>181500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>69800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>261100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>268000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>64600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>102000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>141900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>101300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>44400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>204800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>127600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>28400</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>-58900</v>
+        <v>26700</v>
       </c>
       <c r="F20" s="3">
-        <v>-50200</v>
+        <v>-55400</v>
       </c>
       <c r="G20" s="3">
-        <v>3700</v>
+        <v>-47200</v>
       </c>
       <c r="H20" s="3">
-        <v>19700</v>
+        <v>3500</v>
       </c>
       <c r="I20" s="3">
-        <v>8100</v>
+        <v>18500</v>
       </c>
       <c r="J20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K20" s="3">
         <v>21700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>64600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-62200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-79300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-73400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-82700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-42200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-26800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>10800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-77600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>98500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>190900</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>204700</v>
+        <v>179600</v>
       </c>
       <c r="F21" s="3">
-        <v>108100</v>
+        <v>192600</v>
       </c>
       <c r="G21" s="3">
-        <v>237200</v>
+        <v>101700</v>
       </c>
       <c r="H21" s="3">
-        <v>9100</v>
+        <v>223200</v>
       </c>
       <c r="I21" s="3">
-        <v>268000</v>
+        <v>8600</v>
       </c>
       <c r="J21" s="3">
+        <v>252100</v>
+      </c>
+      <c r="K21" s="3">
         <v>100000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>367600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>258700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>209800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>103200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>325600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>333600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>65900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>218200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>190700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>243500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>218900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>177900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>246600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>341100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>6600</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H22" s="3">
         <v>6500</v>
       </c>
-      <c r="F22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8700</v>
+      </c>
+      <c r="P22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="R22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T22" s="3">
         <v>6800</v>
       </c>
-      <c r="I22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>7300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>8400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>8300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>8900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>7400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>6100</v>
       </c>
       <c r="V22" s="3">
         <v>6100</v>
       </c>
       <c r="W22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="X22" s="3">
         <v>6000</v>
       </c>
       <c r="Y22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>6700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>64000</v>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="3">
-        <v>79000</v>
+        <v>60200</v>
       </c>
       <c r="F23" s="3">
-        <v>-17000</v>
+        <v>74400</v>
       </c>
       <c r="G23" s="3">
-        <v>114400</v>
+        <v>-16000</v>
       </c>
       <c r="H23" s="3">
-        <v>-120700</v>
+        <v>107600</v>
       </c>
       <c r="I23" s="3">
-        <v>141700</v>
+        <v>-113600</v>
       </c>
       <c r="J23" s="3">
+        <v>133400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-25500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-120400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>220700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>110800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>59700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>172900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>185600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-77500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>108900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>87500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>49100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>121200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>219400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-52400</v>
+        <v>35300</v>
       </c>
       <c r="E24" s="3">
-        <v>51900</v>
+        <v>-49300</v>
       </c>
       <c r="F24" s="3">
-        <v>20300</v>
+        <v>48800</v>
       </c>
       <c r="G24" s="3">
-        <v>33700</v>
+        <v>19100</v>
       </c>
       <c r="H24" s="3">
-        <v>-84000</v>
+        <v>31800</v>
       </c>
       <c r="I24" s="3">
-        <v>32100</v>
+        <v>-79000</v>
       </c>
       <c r="J24" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K24" s="3">
         <v>92100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-25000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>51200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-83100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>68700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>43200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>54100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>116300</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>27200</v>
+        <v>109500</v>
       </c>
       <c r="F26" s="3">
-        <v>-37300</v>
+        <v>25600</v>
       </c>
       <c r="G26" s="3">
-        <v>80600</v>
+        <v>-35100</v>
       </c>
       <c r="H26" s="3">
-        <v>-36700</v>
+        <v>75900</v>
       </c>
       <c r="I26" s="3">
-        <v>109600</v>
+        <v>-34600</v>
       </c>
       <c r="J26" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-117600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>127000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-73000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>160400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>149900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-52500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>135900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>74000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>33300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>78000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>165300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>113000</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>21700</v>
+        <v>106300</v>
       </c>
       <c r="F27" s="3">
-        <v>-41700</v>
+        <v>20400</v>
       </c>
       <c r="G27" s="3">
-        <v>76900</v>
+        <v>-39300</v>
       </c>
       <c r="H27" s="3">
-        <v>-41800</v>
+        <v>72300</v>
       </c>
       <c r="I27" s="3">
-        <v>103600</v>
+        <v>-39300</v>
       </c>
       <c r="J27" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-120700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>122500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>77400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-75600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>154400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>141400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-57200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>130100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>33100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>68500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>29600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>73000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>161600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-28400</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>58900</v>
+        <v>-26700</v>
       </c>
       <c r="F32" s="3">
-        <v>50200</v>
+        <v>55400</v>
       </c>
       <c r="G32" s="3">
-        <v>-3700</v>
+        <v>47200</v>
       </c>
       <c r="H32" s="3">
-        <v>-19700</v>
+        <v>-3500</v>
       </c>
       <c r="I32" s="3">
-        <v>-8100</v>
+        <v>-18500</v>
       </c>
       <c r="J32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-64600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>62200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>79300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>73400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>82700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>42200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>26800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-10800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>77600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-98500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>113000</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>21700</v>
+        <v>106300</v>
       </c>
       <c r="F33" s="3">
-        <v>-41700</v>
+        <v>20400</v>
       </c>
       <c r="G33" s="3">
-        <v>76900</v>
+        <v>-39300</v>
       </c>
       <c r="H33" s="3">
-        <v>-41800</v>
+        <v>72300</v>
       </c>
       <c r="I33" s="3">
-        <v>103600</v>
+        <v>-39300</v>
       </c>
       <c r="J33" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-120700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>122500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-75600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>154400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>141400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-57200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>130100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>33100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>29600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>73000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>161600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>113000</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>21700</v>
+        <v>106300</v>
       </c>
       <c r="F35" s="3">
-        <v>-41700</v>
+        <v>20400</v>
       </c>
       <c r="G35" s="3">
-        <v>76900</v>
+        <v>-39300</v>
       </c>
       <c r="H35" s="3">
-        <v>-41800</v>
+        <v>72300</v>
       </c>
       <c r="I35" s="3">
-        <v>103600</v>
+        <v>-39300</v>
       </c>
       <c r="J35" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-120700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>122500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-75600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>154400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>141400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-57200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>130100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>33100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>29600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>73000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>161600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,105 +2920,109 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>891700</v>
+        <v>575400</v>
       </c>
       <c r="E41" s="3">
-        <v>586200</v>
+        <v>839100</v>
       </c>
       <c r="F41" s="3">
-        <v>472000</v>
+        <v>551600</v>
       </c>
       <c r="G41" s="3">
-        <v>950800</v>
+        <v>444100</v>
       </c>
       <c r="H41" s="3">
-        <v>987000</v>
+        <v>894600</v>
       </c>
       <c r="I41" s="3">
-        <v>1069800</v>
+        <v>928700</v>
       </c>
       <c r="J41" s="3">
+        <v>1006600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1193300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1464500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>934800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>677900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>383600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>407000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>714100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>473500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>533400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>527700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>638500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>455700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>410800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>436300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>491300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>474100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>92200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2982,309 +3072,324 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3230600</v>
+        <v>2992500</v>
       </c>
       <c r="E43" s="3">
-        <v>3456900</v>
+        <v>3039900</v>
       </c>
       <c r="F43" s="3">
-        <v>3133900</v>
+        <v>3252700</v>
       </c>
       <c r="G43" s="3">
-        <v>3165600</v>
+        <v>2948900</v>
       </c>
       <c r="H43" s="3">
-        <v>3558800</v>
+        <v>2978700</v>
       </c>
       <c r="I43" s="3">
-        <v>3692100</v>
+        <v>3348700</v>
       </c>
       <c r="J43" s="3">
+        <v>3474100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3362100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3641000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4139300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4957300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4749700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4250400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4073400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5283800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4529800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4362500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4229500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4971000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4402000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4006900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3920900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4383800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5131100</v>
+        <v>4845300</v>
       </c>
       <c r="E44" s="3">
-        <v>5427200</v>
+        <v>4828100</v>
       </c>
       <c r="F44" s="3">
-        <v>5103000</v>
+        <v>5106700</v>
       </c>
       <c r="G44" s="3">
-        <v>4839300</v>
+        <v>4801700</v>
       </c>
       <c r="H44" s="3">
-        <v>5130000</v>
+        <v>4553500</v>
       </c>
       <c r="I44" s="3">
-        <v>5330300</v>
+        <v>4827100</v>
       </c>
       <c r="J44" s="3">
+        <v>5015600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5136400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5615900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5564900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6074600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5759800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5787500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5697000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6032500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5635200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5097500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4562800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5051200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4687700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4559700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4300700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4782900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>856200</v>
+        <v>1624800</v>
       </c>
       <c r="E45" s="3">
-        <v>924600</v>
+        <v>805700</v>
       </c>
       <c r="F45" s="3">
-        <v>801500</v>
+        <v>870000</v>
       </c>
       <c r="G45" s="3">
-        <v>605300</v>
+        <v>754200</v>
       </c>
       <c r="H45" s="3">
-        <v>337400</v>
+        <v>569500</v>
       </c>
       <c r="I45" s="3">
-        <v>531000</v>
+        <v>317500</v>
       </c>
       <c r="J45" s="3">
+        <v>499700</v>
+      </c>
+      <c r="K45" s="3">
         <v>442900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>528600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>450900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>604200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>561800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>592100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>435700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>816100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>761300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>773600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>655800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1006500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1066100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1114300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>847500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>969300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10109700</v>
+        <v>10130100</v>
       </c>
       <c r="E46" s="3">
-        <v>10394900</v>
+        <v>9512700</v>
       </c>
       <c r="F46" s="3">
-        <v>9510500</v>
+        <v>9781100</v>
       </c>
       <c r="G46" s="3">
-        <v>9561000</v>
+        <v>8948900</v>
       </c>
       <c r="H46" s="3">
-        <v>10013300</v>
+        <v>8996400</v>
       </c>
       <c r="I46" s="3">
-        <v>10623200</v>
+        <v>9422000</v>
       </c>
       <c r="J46" s="3">
+        <v>9995900</v>
+      </c>
+      <c r="K46" s="3">
         <v>10134700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11250000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11089900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12314000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11454800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11037000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10920200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12605900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11459600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10761400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10086600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11484400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10566600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10117200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9560400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10610100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>102600</v>
+        <v>1087000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3460800</v>
+        <v>3715200</v>
       </c>
       <c r="E48" s="3">
-        <v>3443600</v>
+        <v>3256400</v>
       </c>
       <c r="F48" s="3">
-        <v>3467200</v>
+        <v>3240300</v>
       </c>
       <c r="G48" s="3">
-        <v>3481100</v>
+        <v>3262500</v>
       </c>
       <c r="H48" s="3">
-        <v>3515300</v>
+        <v>3275500</v>
       </c>
       <c r="I48" s="3">
-        <v>3608800</v>
+        <v>3307700</v>
       </c>
       <c r="J48" s="3">
+        <v>3395700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3631100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4025000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4251400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4416300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4465200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4457200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4667300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4563000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4490400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4389800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4337400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4329700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4294800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4198900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4096900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3997600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>182400</v>
+        <v>451500</v>
       </c>
       <c r="E49" s="3">
-        <v>172100</v>
+        <v>171600</v>
       </c>
       <c r="F49" s="3">
-        <v>172300</v>
+        <v>162000</v>
       </c>
       <c r="G49" s="3">
+        <v>162100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>162000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>164400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>173300</v>
+      </c>
+      <c r="L49" s="3">
+        <v>187600</v>
+      </c>
+      <c r="M49" s="3">
+        <v>188200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>172900</v>
+      </c>
+      <c r="O49" s="3">
         <v>172200</v>
       </c>
-      <c r="H49" s="3">
-        <v>174700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>172100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>173300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>187600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>188200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>172900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>172200</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>163500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>161400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>153300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>149800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>147200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>146200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>139900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>140700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>135000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>135600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>129900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1901700</v>
+        <v>1085700</v>
       </c>
       <c r="E52" s="3">
-        <v>1935400</v>
+        <v>1896000</v>
       </c>
       <c r="F52" s="3">
-        <v>1973100</v>
+        <v>1821100</v>
       </c>
       <c r="G52" s="3">
-        <v>2017300</v>
+        <v>1856600</v>
       </c>
       <c r="H52" s="3">
-        <v>1601500</v>
+        <v>1898200</v>
       </c>
       <c r="I52" s="3">
-        <v>1511000</v>
+        <v>1506900</v>
       </c>
       <c r="J52" s="3">
+        <v>1421800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1488900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1726200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1735300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1816600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1839200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1865000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1936100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1603200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1588900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1530100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1599800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1276700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1362600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1339200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1304700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1350000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15757200</v>
+        <v>16469500</v>
       </c>
       <c r="E54" s="3">
-        <v>15935900</v>
+        <v>14826700</v>
       </c>
       <c r="F54" s="3">
-        <v>15112300</v>
+        <v>14994900</v>
       </c>
       <c r="G54" s="3">
-        <v>15220600</v>
+        <v>14220000</v>
       </c>
       <c r="H54" s="3">
-        <v>15293900</v>
+        <v>14321800</v>
       </c>
       <c r="I54" s="3">
-        <v>15904400</v>
+        <v>14390800</v>
       </c>
       <c r="J54" s="3">
+        <v>14965300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15415400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17173200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17248600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18707700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17918500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17509700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17671400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18892700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17656100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16797100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16136700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17206800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16230400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15657000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14966900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15952000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2682200</v>
+        <v>2771400</v>
       </c>
       <c r="E57" s="3">
-        <v>2465700</v>
+        <v>2523800</v>
       </c>
       <c r="F57" s="3">
-        <v>2348500</v>
+        <v>2320100</v>
       </c>
       <c r="G57" s="3">
-        <v>2452400</v>
+        <v>2209900</v>
       </c>
       <c r="H57" s="3">
-        <v>2766600</v>
+        <v>2307600</v>
       </c>
       <c r="I57" s="3">
-        <v>2601400</v>
+        <v>2603200</v>
       </c>
       <c r="J57" s="3">
+        <v>2447800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2367500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2621900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3274500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3083100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2942400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3095300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3558300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3258700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3116400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3052900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3283100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3120100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2995600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2794300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3033700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2805600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>913600</v>
+        <v>2378700</v>
       </c>
       <c r="E58" s="3">
-        <v>1387200</v>
+        <v>859700</v>
       </c>
       <c r="F58" s="3">
-        <v>1382400</v>
+        <v>1305300</v>
       </c>
       <c r="G58" s="3">
-        <v>1077200</v>
+        <v>1300800</v>
       </c>
       <c r="H58" s="3">
-        <v>1344900</v>
+        <v>1013600</v>
       </c>
       <c r="I58" s="3">
-        <v>1430300</v>
+        <v>1265500</v>
       </c>
       <c r="J58" s="3">
+        <v>1345800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1415400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1634900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1653900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2582000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1721200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1287200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1060400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2197400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1264300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1106800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2153700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1639000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>976200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1162300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1079000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1467300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4095500</v>
+        <v>3308900</v>
       </c>
       <c r="E59" s="3">
-        <v>4261600</v>
+        <v>3853600</v>
       </c>
       <c r="F59" s="3">
-        <v>3572200</v>
+        <v>4009900</v>
       </c>
       <c r="G59" s="3">
-        <v>3782600</v>
+        <v>3361200</v>
       </c>
       <c r="H59" s="3">
-        <v>3036300</v>
+        <v>3559200</v>
       </c>
       <c r="I59" s="3">
-        <v>3771800</v>
+        <v>2857000</v>
       </c>
       <c r="J59" s="3">
+        <v>3549100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3645000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3728900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3421000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4249500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4400600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4389200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3687000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4536000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4683500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4229300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3591100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4206100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3979900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4074200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3368600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4169500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7691300</v>
+        <v>8459100</v>
       </c>
       <c r="E60" s="3">
-        <v>8114500</v>
+        <v>7237100</v>
       </c>
       <c r="F60" s="3">
-        <v>7303100</v>
+        <v>7635300</v>
       </c>
       <c r="G60" s="3">
-        <v>7312100</v>
+        <v>6871900</v>
       </c>
       <c r="H60" s="3">
-        <v>7147800</v>
+        <v>6880400</v>
       </c>
       <c r="I60" s="3">
-        <v>7803500</v>
+        <v>6725700</v>
       </c>
       <c r="J60" s="3">
+        <v>7342700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7428000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7985700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8349500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9914600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9064200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8771700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8305700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9992100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9064200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8389000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7859400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8965300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7951700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8030800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7481300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8442400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2992900</v>
+        <v>3150000</v>
       </c>
       <c r="E61" s="3">
-        <v>2895900</v>
+        <v>2816200</v>
       </c>
       <c r="F61" s="3">
-        <v>2923200</v>
+        <v>2724900</v>
       </c>
       <c r="G61" s="3">
-        <v>3000800</v>
+        <v>2750600</v>
       </c>
       <c r="H61" s="3">
-        <v>3105900</v>
+        <v>2823600</v>
       </c>
       <c r="I61" s="3">
-        <v>3008900</v>
+        <v>2922500</v>
       </c>
       <c r="J61" s="3">
+        <v>2831300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3012800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3572900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3081100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3024000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3087500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2996100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3162500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2995400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2840900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2830800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2853800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2937100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3077200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2508500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2475100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2627400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1189500</v>
+        <v>918200</v>
       </c>
       <c r="E62" s="3">
-        <v>1361400</v>
+        <v>1119300</v>
       </c>
       <c r="F62" s="3">
-        <v>1363600</v>
+        <v>1281000</v>
       </c>
       <c r="G62" s="3">
-        <v>1353900</v>
+        <v>1283100</v>
       </c>
       <c r="H62" s="3">
-        <v>1279400</v>
+        <v>1274000</v>
       </c>
       <c r="I62" s="3">
-        <v>1534800</v>
+        <v>1203900</v>
       </c>
       <c r="J62" s="3">
+        <v>1444200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1537400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1711600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1663500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1441800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1418300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1393600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1472600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1362100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1360700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1236500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1071800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1087100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1076900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1043000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1007200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1102900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12024400</v>
+        <v>12659400</v>
       </c>
       <c r="E66" s="3">
-        <v>12518700</v>
+        <v>11314400</v>
       </c>
       <c r="F66" s="3">
-        <v>11731700</v>
+        <v>11779400</v>
       </c>
       <c r="G66" s="3">
-        <v>11805200</v>
+        <v>11039000</v>
       </c>
       <c r="H66" s="3">
-        <v>11669000</v>
+        <v>11108100</v>
       </c>
       <c r="I66" s="3">
-        <v>12476600</v>
+        <v>10979900</v>
       </c>
       <c r="J66" s="3">
+        <v>11739800</v>
+      </c>
+      <c r="K66" s="3">
         <v>12100800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13401500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13234500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14525700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13713800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13304000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13093300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14506700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13411300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12591200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11923500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13128900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12237000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11710700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11088500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12292600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2223100</v>
+        <v>2369600</v>
       </c>
       <c r="E72" s="3">
-        <v>2110100</v>
+        <v>2091800</v>
       </c>
       <c r="F72" s="3">
-        <v>2114600</v>
+        <v>1985500</v>
       </c>
       <c r="G72" s="3">
-        <v>2156300</v>
+        <v>1989800</v>
       </c>
       <c r="H72" s="3">
-        <v>2388200</v>
+        <v>2029000</v>
       </c>
       <c r="I72" s="3">
-        <v>2429600</v>
+        <v>2247200</v>
       </c>
       <c r="J72" s="3">
+        <v>2286100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2332000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2685700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2877600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2848900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2849600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2798900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3119500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2912600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2781500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2777500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2784400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2654300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2621100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2598000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2549700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2476700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3732800</v>
+        <v>3810100</v>
       </c>
       <c r="E76" s="3">
-        <v>3417300</v>
+        <v>3512400</v>
       </c>
       <c r="F76" s="3">
-        <v>3380600</v>
+        <v>3215500</v>
       </c>
       <c r="G76" s="3">
-        <v>3415400</v>
+        <v>3181000</v>
       </c>
       <c r="H76" s="3">
-        <v>3624900</v>
+        <v>3213700</v>
       </c>
       <c r="I76" s="3">
-        <v>3427800</v>
+        <v>3410900</v>
       </c>
       <c r="J76" s="3">
+        <v>3225400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3314600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3771700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4014100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4182100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4204800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4205800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4578100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4386000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4244700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4205900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4213200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4078000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3993400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3946300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3878400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3659400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>113000</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>21700</v>
+        <v>106300</v>
       </c>
       <c r="F81" s="3">
-        <v>-41700</v>
+        <v>20400</v>
       </c>
       <c r="G81" s="3">
-        <v>76900</v>
+        <v>-39300</v>
       </c>
       <c r="H81" s="3">
-        <v>-41800</v>
+        <v>72300</v>
       </c>
       <c r="I81" s="3">
-        <v>103600</v>
+        <v>-39300</v>
       </c>
       <c r="J81" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-120700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>122500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-75600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>154400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>141400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-57200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>130100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>33100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>29600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>73000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>161600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>120400</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="3">
-        <v>119200</v>
+        <v>113200</v>
       </c>
       <c r="F83" s="3">
-        <v>118600</v>
+        <v>112100</v>
       </c>
       <c r="G83" s="3">
-        <v>115900</v>
+        <v>111600</v>
       </c>
       <c r="H83" s="3">
-        <v>123000</v>
+        <v>109100</v>
       </c>
       <c r="I83" s="3">
-        <v>118700</v>
+        <v>115800</v>
       </c>
       <c r="J83" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K83" s="3">
         <v>118200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>128300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>139600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>141400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>135100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>143800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>136000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>133600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>130900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>128500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>125300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>122800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>119500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>115100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,31 +6273,34 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-454400</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,31 +6381,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-97600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,31 +6610,34 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-176200</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,13 +6718,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-22600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,31 +7024,34 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>460100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6855,31 +7101,34 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-49500</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6929,31 +7178,34 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-220000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2568000</v>
+        <v>2902700</v>
       </c>
       <c r="E8" s="3">
-        <v>3387500</v>
+        <v>2483900</v>
       </c>
       <c r="F8" s="3">
-        <v>2621600</v>
+        <v>3276600</v>
       </c>
       <c r="G8" s="3">
-        <v>2385600</v>
+        <v>2535700</v>
       </c>
       <c r="H8" s="3">
-        <v>2606800</v>
+        <v>2307600</v>
       </c>
       <c r="I8" s="3">
-        <v>3342500</v>
+        <v>2521000</v>
       </c>
       <c r="J8" s="3">
+        <v>3233100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2749900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2778900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2564100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4456900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3633800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3545400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3213100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4806500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3837100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3198800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3125000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4356100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3459100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3384500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3031400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4220200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3066800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2147500</v>
+        <v>2316200</v>
       </c>
       <c r="E9" s="3">
-        <v>2877900</v>
+        <v>2077200</v>
       </c>
       <c r="F9" s="3">
-        <v>2104400</v>
+        <v>2783700</v>
       </c>
       <c r="G9" s="3">
-        <v>1986300</v>
+        <v>2035500</v>
       </c>
       <c r="H9" s="3">
-        <v>2152100</v>
+        <v>1927800</v>
       </c>
       <c r="I9" s="3">
-        <v>2915300</v>
+        <v>2064600</v>
       </c>
       <c r="J9" s="3">
+        <v>2819800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2277000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2419600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2374400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3671300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2955100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3016900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2761100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4003100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3097700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2730600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2618400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3755500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2755000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2851000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2568800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3558100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2505800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>420500</v>
+        <v>586500</v>
       </c>
       <c r="E10" s="3">
-        <v>509600</v>
+        <v>406800</v>
       </c>
       <c r="F10" s="3">
-        <v>517100</v>
+        <v>492900</v>
       </c>
       <c r="G10" s="3">
-        <v>399300</v>
+        <v>500200</v>
       </c>
       <c r="H10" s="3">
-        <v>454700</v>
+        <v>379800</v>
       </c>
       <c r="I10" s="3">
-        <v>427200</v>
+        <v>456400</v>
       </c>
       <c r="J10" s="3">
+        <v>413200</v>
+      </c>
+      <c r="K10" s="3">
         <v>472900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>359300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>189700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>785600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>678700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>528500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>452100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>803400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>739500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>468200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>506600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>704100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>533500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>462600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>662000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>561100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
-        <v>112400</v>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>87500</v>
+        <v>108700</v>
       </c>
       <c r="G12" s="3">
-        <v>80200</v>
+        <v>84700</v>
       </c>
       <c r="H12" s="3">
-        <v>65100</v>
+        <v>77600</v>
       </c>
       <c r="I12" s="3">
-        <v>111400</v>
+        <v>63000</v>
       </c>
       <c r="J12" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K12" s="3">
         <v>78500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>84900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>69500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>143000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>115100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>116000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>101800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>147100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>115000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>101400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>93800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>129900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>94100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>101300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>85500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>113200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>90400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,46 +1203,49 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>10000</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
-        <v>1100</v>
-      </c>
       <c r="H14" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>114300</v>
+        <v>500</v>
       </c>
       <c r="J14" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>30500</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>21700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1242,14 +1262,14 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>116000</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>2716600</v>
       </c>
       <c r="E17" s="3">
-        <v>3347900</v>
+        <v>2451400</v>
       </c>
       <c r="F17" s="3">
-        <v>2485700</v>
+        <v>3238200</v>
       </c>
       <c r="G17" s="3">
-        <v>2348200</v>
+        <v>2404300</v>
       </c>
       <c r="H17" s="3">
-        <v>2496200</v>
+        <v>2314000</v>
       </c>
       <c r="I17" s="3">
-        <v>3468300</v>
+        <v>2389500</v>
       </c>
       <c r="J17" s="3">
+        <v>3354700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2617100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2818900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2740400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4183100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3452300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3475600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3203200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4545400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3569100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3186200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3060400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4254200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3317200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3283200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2987000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4015400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2939200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>186000</v>
       </c>
       <c r="E18" s="3">
-        <v>39700</v>
+        <v>32600</v>
       </c>
       <c r="F18" s="3">
-        <v>135900</v>
+        <v>38400</v>
       </c>
       <c r="G18" s="3">
-        <v>37300</v>
+        <v>131500</v>
       </c>
       <c r="H18" s="3">
-        <v>110600</v>
+        <v>-6500</v>
       </c>
       <c r="I18" s="3">
-        <v>-125800</v>
+        <v>131500</v>
       </c>
       <c r="J18" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="K18" s="3">
         <v>132800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-176200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>273800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>181500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>69800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>261100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>268000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>64600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>102000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>141900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>101300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>44400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>204800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>127600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>-6400</v>
       </c>
       <c r="E20" s="3">
-        <v>26700</v>
+        <v>42600</v>
       </c>
       <c r="F20" s="3">
-        <v>-55400</v>
+        <v>25800</v>
       </c>
       <c r="G20" s="3">
-        <v>-47200</v>
+        <v>-53600</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>-3800</v>
       </c>
       <c r="I20" s="3">
-        <v>18500</v>
+        <v>-4300</v>
       </c>
       <c r="J20" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>64600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-45800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-62200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-79300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-73400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-82700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-42200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-26800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>10800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-77600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>98500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>311400</v>
       </c>
       <c r="E21" s="3">
-        <v>179600</v>
+        <v>209900</v>
       </c>
       <c r="F21" s="3">
-        <v>192600</v>
+        <v>173700</v>
       </c>
       <c r="G21" s="3">
-        <v>101700</v>
+        <v>130200</v>
       </c>
       <c r="H21" s="3">
-        <v>223200</v>
+        <v>126800</v>
       </c>
       <c r="I21" s="3">
-        <v>8600</v>
+        <v>259700</v>
       </c>
       <c r="J21" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K21" s="3">
         <v>252100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>367600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>258700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>209800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>103200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>325600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>333600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>65900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>218200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>190700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>243500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>218900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>177900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>246600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>341100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>6100</v>
       </c>
       <c r="W22" s="3">
         <v>6100</v>
       </c>
       <c r="X22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="Y22" s="3">
         <v>6000</v>
       </c>
       <c r="Z22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>6700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>179700</v>
       </c>
       <c r="E23" s="3">
-        <v>60200</v>
+        <v>75200</v>
       </c>
       <c r="F23" s="3">
-        <v>74400</v>
+        <v>58200</v>
       </c>
       <c r="G23" s="3">
-        <v>-16000</v>
+        <v>71900</v>
       </c>
       <c r="H23" s="3">
-        <v>107600</v>
+        <v>-16200</v>
       </c>
       <c r="I23" s="3">
-        <v>-113600</v>
+        <v>121000</v>
       </c>
       <c r="J23" s="3">
+        <v>-109900</v>
+      </c>
+      <c r="K23" s="3">
         <v>133400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-120400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>220700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>110800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>59700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>172900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>185600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-77500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>108900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>87500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>49100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>121200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>219400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35300</v>
+        <v>47500</v>
       </c>
       <c r="E24" s="3">
-        <v>-49300</v>
+        <v>34100</v>
       </c>
       <c r="F24" s="3">
-        <v>48800</v>
+        <v>-47700</v>
       </c>
       <c r="G24" s="3">
-        <v>19100</v>
+        <v>47200</v>
       </c>
       <c r="H24" s="3">
-        <v>31800</v>
+        <v>9700</v>
       </c>
       <c r="I24" s="3">
-        <v>-79000</v>
+        <v>36600</v>
       </c>
       <c r="J24" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="K24" s="3">
         <v>30200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>92100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>93700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-25000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>51200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-83100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>68700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>43200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>54100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>132200</v>
       </c>
       <c r="E26" s="3">
-        <v>109500</v>
+        <v>41100</v>
       </c>
       <c r="F26" s="3">
-        <v>25600</v>
+        <v>105900</v>
       </c>
       <c r="G26" s="3">
-        <v>-35100</v>
+        <v>24700</v>
       </c>
       <c r="H26" s="3">
-        <v>75900</v>
+        <v>-26000</v>
       </c>
       <c r="I26" s="3">
-        <v>-34600</v>
+        <v>84400</v>
       </c>
       <c r="J26" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K26" s="3">
         <v>103100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-117600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>127000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>160400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>149900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-52500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>135900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>74000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>33300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>78000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>165300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>129800</v>
       </c>
       <c r="E27" s="3">
-        <v>106300</v>
+        <v>38700</v>
       </c>
       <c r="F27" s="3">
-        <v>20400</v>
+        <v>102800</v>
       </c>
       <c r="G27" s="3">
-        <v>-39300</v>
+        <v>19700</v>
       </c>
       <c r="H27" s="3">
-        <v>72300</v>
+        <v>-34100</v>
       </c>
       <c r="I27" s="3">
-        <v>-39300</v>
+        <v>77800</v>
       </c>
       <c r="J27" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K27" s="3">
         <v>97500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-120700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>122500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>77400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-75600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>154400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>141400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-57200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>130100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>33100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>68500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>29600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>73000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>161600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-26700</v>
+        <v>-42600</v>
       </c>
       <c r="F32" s="3">
-        <v>55400</v>
+        <v>-25800</v>
       </c>
       <c r="G32" s="3">
-        <v>47200</v>
+        <v>53600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>3800</v>
       </c>
       <c r="I32" s="3">
-        <v>-18500</v>
+        <v>4300</v>
       </c>
       <c r="J32" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-64600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>45800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>62200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>79300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>73400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>82700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>42200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>26800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>77600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-98500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>129800</v>
       </c>
       <c r="E33" s="3">
-        <v>106300</v>
+        <v>38700</v>
       </c>
       <c r="F33" s="3">
-        <v>20400</v>
+        <v>102800</v>
       </c>
       <c r="G33" s="3">
-        <v>-39300</v>
+        <v>19700</v>
       </c>
       <c r="H33" s="3">
-        <v>72300</v>
+        <v>-34100</v>
       </c>
       <c r="I33" s="3">
-        <v>-39300</v>
+        <v>77800</v>
       </c>
       <c r="J33" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K33" s="3">
         <v>97500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-120700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>77400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-75600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>154400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>141400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-57200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>130100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>33100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>68500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>29600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>73000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>161600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>129800</v>
       </c>
       <c r="E35" s="3">
-        <v>106300</v>
+        <v>38700</v>
       </c>
       <c r="F35" s="3">
-        <v>20400</v>
+        <v>102800</v>
       </c>
       <c r="G35" s="3">
-        <v>-39300</v>
+        <v>19700</v>
       </c>
       <c r="H35" s="3">
-        <v>72300</v>
+        <v>-34100</v>
       </c>
       <c r="I35" s="3">
-        <v>-39300</v>
+        <v>77800</v>
       </c>
       <c r="J35" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K35" s="3">
         <v>97500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-120700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>77400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-75600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>154400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>141400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-57200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>130100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>33100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>68500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>29600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>73000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>161600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,96 +3007,100 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>575400</v>
+        <v>588800</v>
       </c>
       <c r="E41" s="3">
-        <v>839100</v>
+        <v>556500</v>
       </c>
       <c r="F41" s="3">
-        <v>551600</v>
+        <v>1580900</v>
       </c>
       <c r="G41" s="3">
-        <v>444100</v>
+        <v>533500</v>
       </c>
       <c r="H41" s="3">
-        <v>894600</v>
+        <v>429600</v>
       </c>
       <c r="I41" s="3">
-        <v>928700</v>
+        <v>865300</v>
       </c>
       <c r="J41" s="3">
+        <v>898300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1006600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1193300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1464500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>934800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>677900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>383600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>407000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>714100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>473500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>533400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>527700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>638500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>455700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>410800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>436300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>491300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>474100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92200</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
+        <v>61900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>75200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -3024,8 +3114,8 @@
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3075,327 +3165,342 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2992500</v>
+        <v>3968800</v>
       </c>
       <c r="E43" s="3">
-        <v>3039900</v>
+        <v>3722500</v>
       </c>
       <c r="F43" s="3">
-        <v>3252700</v>
+        <v>6637200</v>
       </c>
       <c r="G43" s="3">
-        <v>2948900</v>
+        <v>3146200</v>
       </c>
       <c r="H43" s="3">
-        <v>2978700</v>
+        <v>2852300</v>
       </c>
       <c r="I43" s="3">
-        <v>3348700</v>
+        <v>2881200</v>
       </c>
       <c r="J43" s="3">
+        <v>3239000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3474100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3362100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3641000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4139300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4957300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4749700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4250400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4073400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5283800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4529800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4362500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4229500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4971000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4402000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4006900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3920900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4383800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4845300</v>
+        <v>4980100</v>
       </c>
       <c r="E44" s="3">
-        <v>4828100</v>
+        <v>4686600</v>
       </c>
       <c r="F44" s="3">
-        <v>5106700</v>
+        <v>9033800</v>
       </c>
       <c r="G44" s="3">
-        <v>4801700</v>
+        <v>4939500</v>
       </c>
       <c r="H44" s="3">
-        <v>4553500</v>
+        <v>4644500</v>
       </c>
       <c r="I44" s="3">
-        <v>4827100</v>
+        <v>4404400</v>
       </c>
       <c r="J44" s="3">
+        <v>4669100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5015600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5136400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5615900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5564900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6074600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5759800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5787500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5697000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6032500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5635200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5097500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4562800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5051200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4687700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4559700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4300700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4782900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1624800</v>
+        <v>750900</v>
       </c>
       <c r="E45" s="3">
-        <v>805700</v>
+        <v>743600</v>
       </c>
       <c r="F45" s="3">
-        <v>870000</v>
+        <v>1234400</v>
       </c>
       <c r="G45" s="3">
-        <v>754200</v>
+        <v>841600</v>
       </c>
       <c r="H45" s="3">
-        <v>569500</v>
+        <v>729500</v>
       </c>
       <c r="I45" s="3">
-        <v>317500</v>
+        <v>550900</v>
       </c>
       <c r="J45" s="3">
+        <v>307100</v>
+      </c>
+      <c r="K45" s="3">
         <v>499700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>442900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>528600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>450900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>604200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>561800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>592100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>435700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>816100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>761300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>773600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>655800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1006500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1066100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1114300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>847500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>969300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10130100</v>
+        <v>10350500</v>
       </c>
       <c r="E46" s="3">
-        <v>9512700</v>
+        <v>9798400</v>
       </c>
       <c r="F46" s="3">
-        <v>9781100</v>
+        <v>9360200</v>
       </c>
       <c r="G46" s="3">
-        <v>8948900</v>
+        <v>9460900</v>
       </c>
       <c r="H46" s="3">
-        <v>8996400</v>
+        <v>8655900</v>
       </c>
       <c r="I46" s="3">
-        <v>9422000</v>
+        <v>8701800</v>
       </c>
       <c r="J46" s="3">
+        <v>9113500</v>
+      </c>
+      <c r="K46" s="3">
         <v>9995900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10134700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11250000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11089900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12314000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11454800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11037000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10920200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12605900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11459600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10761400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10086600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11484400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10566600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10117200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9560400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10610100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1087000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
+        <v>1064800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1051400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>991400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3715200</v>
+        <v>3618700</v>
       </c>
       <c r="E48" s="3">
-        <v>3256400</v>
+        <v>3593600</v>
       </c>
       <c r="F48" s="3">
-        <v>3240300</v>
+        <v>6715400</v>
       </c>
       <c r="G48" s="3">
-        <v>3262500</v>
+        <v>3134200</v>
       </c>
       <c r="H48" s="3">
-        <v>3275500</v>
+        <v>3155700</v>
       </c>
       <c r="I48" s="3">
-        <v>3307700</v>
+        <v>3168300</v>
       </c>
       <c r="J48" s="3">
+        <v>3199400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3395700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3631100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4025000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4251400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4416300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4465200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4457200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4667300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4563000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4490400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4389800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4337400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4329700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4294800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4198900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4096900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3997600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>451500</v>
+        <v>439500</v>
       </c>
       <c r="E49" s="3">
-        <v>171600</v>
+        <v>436800</v>
       </c>
       <c r="F49" s="3">
-        <v>162000</v>
+        <v>439200</v>
       </c>
       <c r="G49" s="3">
-        <v>162100</v>
+        <v>156700</v>
       </c>
       <c r="H49" s="3">
-        <v>162000</v>
+        <v>156800</v>
       </c>
       <c r="I49" s="3">
-        <v>164400</v>
+        <v>156700</v>
       </c>
       <c r="J49" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K49" s="3">
         <v>161900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>173300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>187600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>188200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>172900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>172200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>163500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>161400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>153300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>149800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>147200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>146200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>139900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>140700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>135000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>135600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>129900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1085700</v>
+        <v>1059200</v>
       </c>
       <c r="E52" s="3">
-        <v>1896000</v>
+        <v>1050100</v>
       </c>
       <c r="F52" s="3">
-        <v>1821100</v>
+        <v>2886000</v>
       </c>
       <c r="G52" s="3">
-        <v>1856600</v>
+        <v>1761500</v>
       </c>
       <c r="H52" s="3">
-        <v>1898200</v>
+        <v>1795800</v>
       </c>
       <c r="I52" s="3">
-        <v>1506900</v>
+        <v>1836000</v>
       </c>
       <c r="J52" s="3">
+        <v>1457600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1421800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1488900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1726200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1735300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1816600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1839200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1865000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1936100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1603200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1588900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1530100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1599800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1276700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1362600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1339200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1304700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1350000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16469500</v>
+        <v>16532700</v>
       </c>
       <c r="E54" s="3">
-        <v>14826700</v>
+        <v>15930300</v>
       </c>
       <c r="F54" s="3">
-        <v>14994900</v>
+        <v>15418100</v>
       </c>
       <c r="G54" s="3">
-        <v>14220000</v>
+        <v>14503900</v>
       </c>
       <c r="H54" s="3">
-        <v>14321800</v>
+        <v>13754400</v>
       </c>
       <c r="I54" s="3">
-        <v>14390800</v>
+        <v>13852900</v>
       </c>
       <c r="J54" s="3">
+        <v>13919600</v>
+      </c>
+      <c r="K54" s="3">
         <v>14965300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15415400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17173200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17248600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18707700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17918500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17509700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17671400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18892700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17656100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16797100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16136700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17206800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16230400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15657000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14966900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>15952000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2771400</v>
+        <v>2821000</v>
       </c>
       <c r="E57" s="3">
-        <v>2523800</v>
+        <v>2680700</v>
       </c>
       <c r="F57" s="3">
-        <v>2320100</v>
+        <v>5276400</v>
       </c>
       <c r="G57" s="3">
-        <v>2209900</v>
+        <v>2244200</v>
       </c>
       <c r="H57" s="3">
-        <v>2307600</v>
+        <v>2137500</v>
       </c>
       <c r="I57" s="3">
-        <v>2603200</v>
+        <v>2232000</v>
       </c>
       <c r="J57" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2447800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2367500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2621900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3274500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3083100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2942400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3095300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3558300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3258700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3116400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3052900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3283100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3120100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2995600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2794300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3033700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2805600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2378700</v>
+        <v>2575100</v>
       </c>
       <c r="E58" s="3">
-        <v>859700</v>
+        <v>2300800</v>
       </c>
       <c r="F58" s="3">
-        <v>1305300</v>
+        <v>2311700</v>
       </c>
       <c r="G58" s="3">
-        <v>1300800</v>
+        <v>1262600</v>
       </c>
       <c r="H58" s="3">
-        <v>1013600</v>
+        <v>1258200</v>
       </c>
       <c r="I58" s="3">
-        <v>1265500</v>
+        <v>980400</v>
       </c>
       <c r="J58" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1345800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1415400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1634900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1653900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2582000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1721200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1287200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1060400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2197400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1264300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1106800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2153700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1639000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>976200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1162300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1079000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1467300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3308900</v>
+        <v>3206300</v>
       </c>
       <c r="E59" s="3">
-        <v>3853600</v>
+        <v>3200600</v>
       </c>
       <c r="F59" s="3">
-        <v>4009900</v>
+        <v>5048800</v>
       </c>
       <c r="G59" s="3">
-        <v>3361200</v>
+        <v>3878600</v>
       </c>
       <c r="H59" s="3">
-        <v>3559200</v>
+        <v>3251200</v>
       </c>
       <c r="I59" s="3">
-        <v>2857000</v>
+        <v>3442700</v>
       </c>
       <c r="J59" s="3">
+        <v>2763500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3549100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3645000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3728900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3421000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4249500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4400600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4389200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3687000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4536000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4683500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4229300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3591100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4206100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3979900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4074200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3368600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4169500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8459100</v>
+        <v>8602400</v>
       </c>
       <c r="E60" s="3">
-        <v>7237100</v>
+        <v>8182100</v>
       </c>
       <c r="F60" s="3">
-        <v>7635300</v>
+        <v>7513400</v>
       </c>
       <c r="G60" s="3">
-        <v>6871900</v>
+        <v>7385300</v>
       </c>
       <c r="H60" s="3">
-        <v>6880400</v>
+        <v>6646900</v>
       </c>
       <c r="I60" s="3">
-        <v>6725700</v>
+        <v>6655100</v>
       </c>
       <c r="J60" s="3">
+        <v>6505500</v>
+      </c>
+      <c r="K60" s="3">
         <v>7342700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7428000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7985700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8349500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9914600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9064200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8771700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8305700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9992100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9064200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8389000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7859400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8965300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7951700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8030800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7481300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8442400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3150000</v>
+        <v>3067900</v>
       </c>
       <c r="E61" s="3">
-        <v>2816200</v>
+        <v>3046800</v>
       </c>
       <c r="F61" s="3">
-        <v>2724900</v>
+        <v>3247700</v>
       </c>
       <c r="G61" s="3">
-        <v>2750600</v>
+        <v>2635700</v>
       </c>
       <c r="H61" s="3">
-        <v>2823600</v>
+        <v>2660600</v>
       </c>
       <c r="I61" s="3">
-        <v>2922500</v>
+        <v>2731200</v>
       </c>
       <c r="J61" s="3">
+        <v>2826800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2831300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3012800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3572900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3081100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3024000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3087500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2996100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3162500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2995400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2840900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2830800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2853800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2937100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3077200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2508500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2475100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2627400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>918200</v>
+        <v>899500</v>
       </c>
       <c r="E62" s="3">
-        <v>1119300</v>
+        <v>888200</v>
       </c>
       <c r="F62" s="3">
-        <v>1281000</v>
+        <v>1249600</v>
       </c>
       <c r="G62" s="3">
-        <v>1283100</v>
+        <v>1239100</v>
       </c>
       <c r="H62" s="3">
-        <v>1274000</v>
+        <v>1241100</v>
       </c>
       <c r="I62" s="3">
-        <v>1203900</v>
+        <v>1232300</v>
       </c>
       <c r="J62" s="3">
+        <v>1164400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1444200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1537400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1711600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1663500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1441800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1418300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1393600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1472600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1362100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1360700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1236500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1071800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1087100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1076900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1043000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1007200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1102900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12659400</v>
+        <v>12701000</v>
       </c>
       <c r="E66" s="3">
-        <v>11314400</v>
+        <v>12244900</v>
       </c>
       <c r="F66" s="3">
-        <v>11779400</v>
+        <v>11834200</v>
       </c>
       <c r="G66" s="3">
-        <v>11039000</v>
+        <v>11393800</v>
       </c>
       <c r="H66" s="3">
-        <v>11108100</v>
+        <v>10677500</v>
       </c>
       <c r="I66" s="3">
-        <v>10979900</v>
+        <v>10744400</v>
       </c>
       <c r="J66" s="3">
+        <v>10620400</v>
+      </c>
+      <c r="K66" s="3">
         <v>11739800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12100800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13401500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13234500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14525700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13713800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13304000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13093300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14506700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13411300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12591200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11923500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13128900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12237000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11710700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11088500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12292600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2369600</v>
+        <v>2423000</v>
       </c>
       <c r="E72" s="3">
-        <v>2091800</v>
+        <v>2292000</v>
       </c>
       <c r="F72" s="3">
-        <v>1985500</v>
+        <v>2273600</v>
       </c>
       <c r="G72" s="3">
-        <v>1989800</v>
+        <v>1920500</v>
       </c>
       <c r="H72" s="3">
-        <v>2029000</v>
+        <v>1924600</v>
       </c>
       <c r="I72" s="3">
-        <v>2247200</v>
+        <v>1962600</v>
       </c>
       <c r="J72" s="3">
+        <v>2173600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2286100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2332000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2685700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2877600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2848900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2849600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2798900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3119500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2912600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2781500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2777500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2784400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2654300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2621100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2598000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2549700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2476700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3810100</v>
+        <v>3831700</v>
       </c>
       <c r="E76" s="3">
-        <v>3512400</v>
+        <v>3685400</v>
       </c>
       <c r="F76" s="3">
-        <v>3215500</v>
+        <v>3583900</v>
       </c>
       <c r="G76" s="3">
-        <v>3181000</v>
+        <v>3110200</v>
       </c>
       <c r="H76" s="3">
-        <v>3213700</v>
+        <v>3076900</v>
       </c>
       <c r="I76" s="3">
-        <v>3410900</v>
+        <v>3108500</v>
       </c>
       <c r="J76" s="3">
+        <v>3299200</v>
+      </c>
+      <c r="K76" s="3">
         <v>3225400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3314600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3771700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4014100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4182100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4204800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4205800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4578100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4386000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4244700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4205900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4213200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4078000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3993400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3946300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3878400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3659400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>129800</v>
       </c>
       <c r="E81" s="3">
-        <v>106300</v>
+        <v>38700</v>
       </c>
       <c r="F81" s="3">
-        <v>20400</v>
+        <v>102800</v>
       </c>
       <c r="G81" s="3">
-        <v>-39300</v>
+        <v>19700</v>
       </c>
       <c r="H81" s="3">
-        <v>72300</v>
+        <v>-34100</v>
       </c>
       <c r="I81" s="3">
-        <v>-39300</v>
+        <v>77800</v>
       </c>
       <c r="J81" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K81" s="3">
         <v>97500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-120700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>77400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-75600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>154400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>141400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-57200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>130100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>33100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>68500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>29600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>73000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>161600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>131700</v>
       </c>
       <c r="E83" s="3">
-        <v>113200</v>
+        <v>134700</v>
       </c>
       <c r="F83" s="3">
-        <v>112100</v>
+        <v>109500</v>
       </c>
       <c r="G83" s="3">
-        <v>111600</v>
+        <v>52400</v>
       </c>
       <c r="H83" s="3">
-        <v>109100</v>
+        <v>137100</v>
       </c>
       <c r="I83" s="3">
-        <v>115800</v>
+        <v>132500</v>
       </c>
       <c r="J83" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K83" s="3">
         <v>111700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>118200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>128300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>139600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>141400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>135100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>143800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>139000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>136000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>133600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>130900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>128500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>125300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>122800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>119500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>115100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,16 +6490,19 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-454400</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
+        <v>-57000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-439500</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
@@ -6293,17 +6510,17 @@
       <c r="G89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
+      <c r="H89" s="3">
+        <v>-387100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-209700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,16 +6602,17 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-97600</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+        <v>-75700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-94400</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -6399,17 +6620,17 @@
       <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-99400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,16 +6840,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-176200</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
+        <v>-80900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-170400</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
@@ -6630,17 +6860,17 @@
       <c r="G94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
+      <c r="H94" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-96300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,16 +6952,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22600</v>
+        <v>-1900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-21900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6740,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,16 +7270,19 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>460100</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
+        <v>201700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>445000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
@@ -7044,17 +7290,17 @@
       <c r="G100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
+      <c r="H100" s="3">
+        <v>126000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>267300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -7104,16 +7350,19 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
+        <v>-31500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-47900</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>10</v>
@@ -7121,17 +7370,17 @@
       <c r="G101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
+      <c r="H101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7181,16 +7430,19 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-220000</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
+        <v>32200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-212800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>10</v>
@@ -7198,17 +7450,17 @@
       <c r="G102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
+      <c r="H102" s="3">
+        <v>-441700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-36200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2902700</v>
+        <v>3208900</v>
       </c>
       <c r="E8" s="3">
-        <v>2483900</v>
+        <v>3009100</v>
       </c>
       <c r="F8" s="3">
-        <v>3276600</v>
+        <v>2575000</v>
       </c>
       <c r="G8" s="3">
-        <v>2535700</v>
+        <v>3396800</v>
       </c>
       <c r="H8" s="3">
-        <v>2307600</v>
+        <v>2628700</v>
       </c>
       <c r="I8" s="3">
-        <v>2521000</v>
+        <v>2392200</v>
       </c>
       <c r="J8" s="3">
+        <v>2613400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3233100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2749900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2778900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2564100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4456900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3633800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3545400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3213100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4806500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3837100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3198800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3125000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4356100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3459100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3384500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3031400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4220200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3066800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2316200</v>
+        <v>2424400</v>
       </c>
       <c r="E9" s="3">
-        <v>2077200</v>
+        <v>2401100</v>
       </c>
       <c r="F9" s="3">
-        <v>2783700</v>
+        <v>2153300</v>
       </c>
       <c r="G9" s="3">
-        <v>2035500</v>
+        <v>2885800</v>
       </c>
       <c r="H9" s="3">
-        <v>1927800</v>
+        <v>2103000</v>
       </c>
       <c r="I9" s="3">
-        <v>2064600</v>
+        <v>1998500</v>
       </c>
       <c r="J9" s="3">
+        <v>2140300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2819800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2277000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2419600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2374400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3671300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2955100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3016900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2761100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4003100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3097700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2730600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2618400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3755500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2755000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2851000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2568800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3558100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2505800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>586500</v>
+        <v>784500</v>
       </c>
       <c r="E10" s="3">
-        <v>406800</v>
+        <v>608000</v>
       </c>
       <c r="F10" s="3">
-        <v>492900</v>
+        <v>421700</v>
       </c>
       <c r="G10" s="3">
-        <v>500200</v>
+        <v>511000</v>
       </c>
       <c r="H10" s="3">
-        <v>379800</v>
+        <v>525700</v>
       </c>
       <c r="I10" s="3">
-        <v>456400</v>
+        <v>393700</v>
       </c>
       <c r="J10" s="3">
+        <v>473100</v>
+      </c>
+      <c r="K10" s="3">
         <v>413200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>472900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>359300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>189700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>785600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>678700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>528500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>452100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>803400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>739500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>468200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>506600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>704100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>533500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>462600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>662000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>561100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,77 +1070,80 @@
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
-        <v>108700</v>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>84700</v>
+        <v>112700</v>
       </c>
       <c r="H12" s="3">
-        <v>77600</v>
+        <v>87800</v>
       </c>
       <c r="I12" s="3">
-        <v>63000</v>
+        <v>80400</v>
       </c>
       <c r="J12" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K12" s="3">
         <v>107800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>84900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>69500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>143000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>115100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>116000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>101800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>147100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>115000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>101400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>93800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>129900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>94100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>101300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>85500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>113200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>90400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,38 +1236,38 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>9700</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
-        <v>1000</v>
-      </c>
       <c r="I14" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="J14" s="3">
+        <v>600</v>
+      </c>
+      <c r="K14" s="3">
         <v>110500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>30500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>21700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1265,14 +1284,14 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>116000</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2716600</v>
+        <v>2841000</v>
       </c>
       <c r="E17" s="3">
-        <v>2451400</v>
+        <v>2816300</v>
       </c>
       <c r="F17" s="3">
-        <v>3238200</v>
+        <v>2541300</v>
       </c>
       <c r="G17" s="3">
-        <v>2404300</v>
+        <v>3357000</v>
       </c>
       <c r="H17" s="3">
-        <v>2314000</v>
+        <v>2547100</v>
       </c>
       <c r="I17" s="3">
-        <v>2389500</v>
+        <v>2398900</v>
       </c>
       <c r="J17" s="3">
+        <v>2477100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3354700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2617100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2818900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2740400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4183100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3452300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3475600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3203200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4545400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3569100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3186200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3060400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4254200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3317200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3283200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2987000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4015400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2939200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>186000</v>
+        <v>367900</v>
       </c>
       <c r="E18" s="3">
-        <v>32600</v>
+        <v>192800</v>
       </c>
       <c r="F18" s="3">
-        <v>38400</v>
+        <v>33800</v>
       </c>
       <c r="G18" s="3">
-        <v>131500</v>
+        <v>39800</v>
       </c>
       <c r="H18" s="3">
-        <v>-6500</v>
+        <v>81600</v>
       </c>
       <c r="I18" s="3">
-        <v>131500</v>
+        <v>-6700</v>
       </c>
       <c r="J18" s="3">
+        <v>136300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-121600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>132800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-176200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>273800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>181500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>69800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>261100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>268000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>64600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>102000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>141900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>101300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>44400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>204800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>127600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-102000</v>
       </c>
       <c r="E20" s="3">
-        <v>42600</v>
+        <v>-6600</v>
       </c>
       <c r="F20" s="3">
-        <v>25800</v>
+        <v>44200</v>
       </c>
       <c r="G20" s="3">
-        <v>-53600</v>
+        <v>26800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3800</v>
+        <v>-2000</v>
       </c>
       <c r="I20" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="J20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>17900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>64600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-45800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-62200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-79300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-73400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-82700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-42200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-26800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>10800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-77600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>98500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>311400</v>
+        <v>401200</v>
       </c>
       <c r="E21" s="3">
-        <v>209900</v>
+        <v>322800</v>
       </c>
       <c r="F21" s="3">
-        <v>173700</v>
+        <v>217600</v>
       </c>
       <c r="G21" s="3">
-        <v>130200</v>
+        <v>95200</v>
       </c>
       <c r="H21" s="3">
-        <v>126800</v>
+        <v>218800</v>
       </c>
       <c r="I21" s="3">
-        <v>259700</v>
+        <v>131400</v>
       </c>
       <c r="J21" s="3">
+        <v>269200</v>
+      </c>
+      <c r="K21" s="3">
         <v>8300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>252100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>367600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>258700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>209800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>325600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>333600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>65900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>218200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>190700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>243500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>218900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>177900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>246600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>341100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1754,237 +1793,246 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>6000</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="H22" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I22" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="J22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K22" s="3">
         <v>6200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>6100</v>
       </c>
       <c r="X22" s="3">
         <v>6100</v>
       </c>
       <c r="Y22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="Z22" s="3">
         <v>6000</v>
       </c>
       <c r="AA22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>6700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>179700</v>
+        <v>265900</v>
       </c>
       <c r="E23" s="3">
-        <v>75200</v>
+        <v>186300</v>
       </c>
       <c r="F23" s="3">
-        <v>58200</v>
+        <v>77900</v>
       </c>
       <c r="G23" s="3">
-        <v>71900</v>
+        <v>60400</v>
       </c>
       <c r="H23" s="3">
-        <v>-16200</v>
+        <v>73500</v>
       </c>
       <c r="I23" s="3">
-        <v>121000</v>
+        <v>-16800</v>
       </c>
       <c r="J23" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-109900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>133400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-120400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>220700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>110800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-40200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>172900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>185600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-77500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>77700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>52700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>108900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>87500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>49100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>121200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>219400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47500</v>
+        <v>50600</v>
       </c>
       <c r="E24" s="3">
-        <v>34100</v>
+        <v>49300</v>
       </c>
       <c r="F24" s="3">
-        <v>-47700</v>
+        <v>35400</v>
       </c>
       <c r="G24" s="3">
-        <v>47200</v>
+        <v>-49400</v>
       </c>
       <c r="H24" s="3">
-        <v>9700</v>
+        <v>38700</v>
       </c>
       <c r="I24" s="3">
-        <v>36600</v>
+        <v>10100</v>
       </c>
       <c r="J24" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-76400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>92100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-20200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>93700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-25000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>51200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-83100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>68700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>43200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>54100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>132200</v>
+        <v>215300</v>
       </c>
       <c r="E26" s="3">
-        <v>41100</v>
+        <v>137000</v>
       </c>
       <c r="F26" s="3">
-        <v>105900</v>
+        <v>42600</v>
       </c>
       <c r="G26" s="3">
-        <v>24700</v>
+        <v>109800</v>
       </c>
       <c r="H26" s="3">
-        <v>-26000</v>
+        <v>34800</v>
       </c>
       <c r="I26" s="3">
-        <v>84400</v>
+        <v>-26900</v>
       </c>
       <c r="J26" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-33400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>103100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-117600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>127000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-73000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>160400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>149900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-52500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>135900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>74000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>33300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>78000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>165300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>129800</v>
+        <v>211300</v>
       </c>
       <c r="E27" s="3">
-        <v>38700</v>
+        <v>134500</v>
       </c>
       <c r="F27" s="3">
-        <v>102800</v>
+        <v>40100</v>
       </c>
       <c r="G27" s="3">
-        <v>19700</v>
+        <v>106600</v>
       </c>
       <c r="H27" s="3">
-        <v>-34100</v>
+        <v>24400</v>
       </c>
       <c r="I27" s="3">
-        <v>77800</v>
+        <v>-35300</v>
       </c>
       <c r="J27" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-38000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>97500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-120700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>122500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>77400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-75600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>154400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>141400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-57200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>130100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>33100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>68500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>29600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>73000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>161600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>102000</v>
       </c>
       <c r="E32" s="3">
-        <v>-42600</v>
+        <v>6600</v>
       </c>
       <c r="F32" s="3">
-        <v>-25800</v>
+        <v>-44200</v>
       </c>
       <c r="G32" s="3">
-        <v>53600</v>
+        <v>-26800</v>
       </c>
       <c r="H32" s="3">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-17900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-64600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>45800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>62200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>79300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>73400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>82700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>42200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>26800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-10800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>77600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-98500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>129800</v>
+        <v>211300</v>
       </c>
       <c r="E33" s="3">
-        <v>38700</v>
+        <v>134500</v>
       </c>
       <c r="F33" s="3">
-        <v>102800</v>
+        <v>40100</v>
       </c>
       <c r="G33" s="3">
-        <v>19700</v>
+        <v>106600</v>
       </c>
       <c r="H33" s="3">
-        <v>-34100</v>
+        <v>24400</v>
       </c>
       <c r="I33" s="3">
-        <v>77800</v>
+        <v>-35300</v>
       </c>
       <c r="J33" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-38000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>97500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-120700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>122500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>77400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-75600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>154400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>141400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-57200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>130100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>33100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>68500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>29600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>73000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>161600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>129800</v>
+        <v>211300</v>
       </c>
       <c r="E35" s="3">
-        <v>38700</v>
+        <v>134500</v>
       </c>
       <c r="F35" s="3">
-        <v>102800</v>
+        <v>40100</v>
       </c>
       <c r="G35" s="3">
-        <v>19700</v>
+        <v>106600</v>
       </c>
       <c r="H35" s="3">
-        <v>-34100</v>
+        <v>24400</v>
       </c>
       <c r="I35" s="3">
-        <v>77800</v>
+        <v>-35300</v>
       </c>
       <c r="J35" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-38000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>97500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-120700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>122500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>77400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-75600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>154400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>141400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-57200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>130100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>33100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>68500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>29600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>73000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>161600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,102 +3093,106 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>588800</v>
+        <v>646800</v>
       </c>
       <c r="E41" s="3">
-        <v>556500</v>
+        <v>610400</v>
       </c>
       <c r="F41" s="3">
-        <v>1580900</v>
+        <v>576900</v>
       </c>
       <c r="G41" s="3">
-        <v>533500</v>
+        <v>1638900</v>
       </c>
       <c r="H41" s="3">
-        <v>429600</v>
+        <v>553100</v>
       </c>
       <c r="I41" s="3">
-        <v>865300</v>
+        <v>445300</v>
       </c>
       <c r="J41" s="3">
+        <v>897100</v>
+      </c>
+      <c r="K41" s="3">
         <v>898300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1006600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1193300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1464500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>934800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>677900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>383600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>407000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>714100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>473500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>533400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>527700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>638500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>455700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>410800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>436300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>491300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>474100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61900</v>
+        <v>107200</v>
       </c>
       <c r="E42" s="3">
-        <v>89200</v>
+        <v>64200</v>
       </c>
       <c r="F42" s="3">
-        <v>75200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
+        <v>92400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>78000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -3117,8 +3206,8 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3168,342 +3257,357 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3968800</v>
+        <v>4562000</v>
       </c>
       <c r="E43" s="3">
-        <v>3722500</v>
+        <v>4114300</v>
       </c>
       <c r="F43" s="3">
-        <v>6637200</v>
+        <v>3859000</v>
       </c>
       <c r="G43" s="3">
-        <v>3146200</v>
+        <v>6880600</v>
       </c>
       <c r="H43" s="3">
-        <v>2852300</v>
+        <v>3261600</v>
       </c>
       <c r="I43" s="3">
-        <v>2881200</v>
+        <v>2956900</v>
       </c>
       <c r="J43" s="3">
+        <v>2986800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3239000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3474100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3362100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3641000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4139300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4957300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4749700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4250400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4073400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5283800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4529800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4362500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4229500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4971000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4402000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4006900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3920900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4383800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4980100</v>
+        <v>5361700</v>
       </c>
       <c r="E44" s="3">
-        <v>4686600</v>
+        <v>5162700</v>
       </c>
       <c r="F44" s="3">
-        <v>9033800</v>
+        <v>4858500</v>
       </c>
       <c r="G44" s="3">
-        <v>4939500</v>
+        <v>9365100</v>
       </c>
       <c r="H44" s="3">
-        <v>4644500</v>
+        <v>5120700</v>
       </c>
       <c r="I44" s="3">
-        <v>4404400</v>
+        <v>4814800</v>
       </c>
       <c r="J44" s="3">
+        <v>4566000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4669100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5015600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5136400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5615900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5564900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6074600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5759800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5787500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5697000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6032500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5635200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5097500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4562800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5051200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4687700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4559700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4300700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4782900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>750900</v>
+        <v>862600</v>
       </c>
       <c r="E45" s="3">
-        <v>743600</v>
+        <v>778500</v>
       </c>
       <c r="F45" s="3">
-        <v>1234400</v>
+        <v>770900</v>
       </c>
       <c r="G45" s="3">
-        <v>841600</v>
+        <v>1279600</v>
       </c>
       <c r="H45" s="3">
-        <v>729500</v>
+        <v>872400</v>
       </c>
       <c r="I45" s="3">
-        <v>550900</v>
+        <v>756200</v>
       </c>
       <c r="J45" s="3">
+        <v>571100</v>
+      </c>
+      <c r="K45" s="3">
         <v>307100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>499700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>442900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>528600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>450900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>604200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>561800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>592100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>435700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>816100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>761300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>773600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>655800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1006500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1066100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1114300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>847500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>969300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10350500</v>
+        <v>11540200</v>
       </c>
       <c r="E46" s="3">
-        <v>9798400</v>
+        <v>10730000</v>
       </c>
       <c r="F46" s="3">
-        <v>9360200</v>
+        <v>10157800</v>
       </c>
       <c r="G46" s="3">
-        <v>9460900</v>
+        <v>9703500</v>
       </c>
       <c r="H46" s="3">
-        <v>8655900</v>
+        <v>9807800</v>
       </c>
       <c r="I46" s="3">
-        <v>8701800</v>
+        <v>8973300</v>
       </c>
       <c r="J46" s="3">
+        <v>9020900</v>
+      </c>
+      <c r="K46" s="3">
         <v>9113500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9995900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10134700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11250000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11089900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12314000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11454800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11037000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10920200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12605900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11459600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10761400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10086600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11484400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10566600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10117200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9560400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10610100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1064800</v>
+        <v>1098800</v>
       </c>
       <c r="E47" s="3">
-        <v>1051400</v>
+        <v>1103800</v>
       </c>
       <c r="F47" s="3">
-        <v>991400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
+        <v>1089900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1027700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -3568,168 +3672,177 @@
       <c r="AB47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3618700</v>
+        <v>3732300</v>
       </c>
       <c r="E48" s="3">
-        <v>3593600</v>
+        <v>3751400</v>
       </c>
       <c r="F48" s="3">
-        <v>6715400</v>
+        <v>3725400</v>
       </c>
       <c r="G48" s="3">
-        <v>3134200</v>
+        <v>6961600</v>
       </c>
       <c r="H48" s="3">
-        <v>3155700</v>
+        <v>3249100</v>
       </c>
       <c r="I48" s="3">
-        <v>3168300</v>
+        <v>3271400</v>
       </c>
       <c r="J48" s="3">
+        <v>3284500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3199400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3395700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3631100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4025000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4251400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4416300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4465200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4457200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4667300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4563000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4490400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4389800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4337400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4329700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4294800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4198900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4096900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3997600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>439500</v>
+        <v>457900</v>
       </c>
       <c r="E49" s="3">
-        <v>436800</v>
+        <v>455600</v>
       </c>
       <c r="F49" s="3">
-        <v>439200</v>
+        <v>452800</v>
       </c>
       <c r="G49" s="3">
-        <v>156700</v>
+        <v>455300</v>
       </c>
       <c r="H49" s="3">
-        <v>156800</v>
+        <v>162400</v>
       </c>
       <c r="I49" s="3">
-        <v>156700</v>
+        <v>162500</v>
       </c>
       <c r="J49" s="3">
+        <v>162400</v>
+      </c>
+      <c r="K49" s="3">
         <v>159000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>161900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>173300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>187600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>188200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>172900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>172200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>163500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>161400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>153300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>149800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>147200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>146200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>139900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>140700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>135000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>135600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>129900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1059200</v>
+        <v>1078800</v>
       </c>
       <c r="E52" s="3">
-        <v>1050100</v>
+        <v>1098100</v>
       </c>
       <c r="F52" s="3">
-        <v>2886000</v>
+        <v>1088600</v>
       </c>
       <c r="G52" s="3">
-        <v>1761500</v>
+        <v>2991900</v>
       </c>
       <c r="H52" s="3">
-        <v>1795800</v>
+        <v>1826100</v>
       </c>
       <c r="I52" s="3">
-        <v>1836000</v>
+        <v>1861700</v>
       </c>
       <c r="J52" s="3">
+        <v>1903300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1457600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1421800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1488900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1726200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1735300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1816600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1839200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1865000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1936100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1603200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1588900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1530100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1599800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1276700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1362600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1339200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1304700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1350000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16532700</v>
+        <v>17907900</v>
       </c>
       <c r="E54" s="3">
-        <v>15930300</v>
+        <v>17138900</v>
       </c>
       <c r="F54" s="3">
-        <v>15418100</v>
+        <v>16514500</v>
       </c>
       <c r="G54" s="3">
-        <v>14503900</v>
+        <v>15983500</v>
       </c>
       <c r="H54" s="3">
-        <v>13754400</v>
+        <v>15035800</v>
       </c>
       <c r="I54" s="3">
-        <v>13852900</v>
+        <v>14258800</v>
       </c>
       <c r="J54" s="3">
+        <v>14360900</v>
+      </c>
+      <c r="K54" s="3">
         <v>13919600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14965300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15415400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17173200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17248600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18707700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17918500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17509700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17671400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18892700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17656100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16797100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16136700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17206800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16230400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15657000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14966900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>15952000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2821000</v>
+        <v>3183500</v>
       </c>
       <c r="E57" s="3">
-        <v>2680700</v>
+        <v>2924500</v>
       </c>
       <c r="F57" s="3">
-        <v>5276400</v>
+        <v>2779000</v>
       </c>
       <c r="G57" s="3">
-        <v>2244200</v>
+        <v>5469900</v>
       </c>
       <c r="H57" s="3">
-        <v>2137500</v>
+        <v>2326500</v>
       </c>
       <c r="I57" s="3">
-        <v>2232000</v>
+        <v>2215900</v>
       </c>
       <c r="J57" s="3">
+        <v>2313900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2518000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2447800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2367500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2621900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3274500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3083100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2942400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3095300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3558300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3258700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3116400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3052900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3283100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3120100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2995600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2794300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3033700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2805600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2575100</v>
+        <v>3033800</v>
       </c>
       <c r="E58" s="3">
-        <v>2300800</v>
+        <v>2669600</v>
       </c>
       <c r="F58" s="3">
-        <v>2311700</v>
+        <v>2385200</v>
       </c>
       <c r="G58" s="3">
-        <v>1262600</v>
+        <v>2396500</v>
       </c>
       <c r="H58" s="3">
-        <v>1258200</v>
+        <v>1308900</v>
       </c>
       <c r="I58" s="3">
-        <v>980400</v>
+        <v>1304300</v>
       </c>
       <c r="J58" s="3">
+        <v>1016400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1224000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1345800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1415400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1634900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1653900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2582000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1721200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1287200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1060400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2197400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1264300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1106800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2153700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1639000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>976200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1162300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1079000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1467300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3206300</v>
+        <v>3353300</v>
       </c>
       <c r="E59" s="3">
-        <v>3200600</v>
+        <v>3323900</v>
       </c>
       <c r="F59" s="3">
-        <v>5048800</v>
+        <v>3318000</v>
       </c>
       <c r="G59" s="3">
-        <v>3878600</v>
+        <v>5233900</v>
       </c>
       <c r="H59" s="3">
-        <v>3251200</v>
+        <v>4020900</v>
       </c>
       <c r="I59" s="3">
-        <v>3442700</v>
+        <v>3370400</v>
       </c>
       <c r="J59" s="3">
+        <v>3568900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2763500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3549100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3645000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3728900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3421000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4249500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4389200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3687000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4536000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4683500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4229300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3591100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4206100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3979900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4074200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3368600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4169500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8602400</v>
+        <v>9570600</v>
       </c>
       <c r="E60" s="3">
-        <v>8182100</v>
+        <v>8917900</v>
       </c>
       <c r="F60" s="3">
-        <v>7513400</v>
+        <v>8482100</v>
       </c>
       <c r="G60" s="3">
-        <v>7385300</v>
+        <v>7789000</v>
       </c>
       <c r="H60" s="3">
-        <v>6646900</v>
+        <v>7656200</v>
       </c>
       <c r="I60" s="3">
-        <v>6655100</v>
+        <v>6890600</v>
       </c>
       <c r="J60" s="3">
+        <v>6899100</v>
+      </c>
+      <c r="K60" s="3">
         <v>6505500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7342700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7428000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7985700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8349500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9914600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9064200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8771700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8305700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9992100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9064200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8389000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7859400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8965300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7951700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8030800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7481300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8442400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3067900</v>
+        <v>3162000</v>
       </c>
       <c r="E61" s="3">
-        <v>3046800</v>
+        <v>3180400</v>
       </c>
       <c r="F61" s="3">
-        <v>3247700</v>
+        <v>3158600</v>
       </c>
       <c r="G61" s="3">
-        <v>2635700</v>
+        <v>3366800</v>
       </c>
       <c r="H61" s="3">
-        <v>2660600</v>
+        <v>2732400</v>
       </c>
       <c r="I61" s="3">
-        <v>2731200</v>
+        <v>2758100</v>
       </c>
       <c r="J61" s="3">
+        <v>2831300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2826800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2831300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3012800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3572900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3081100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3024000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3087500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2996100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3162500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2995400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2840900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2830800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2853800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2937100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3077200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2508500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2475100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2627400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>899500</v>
+        <v>932200</v>
       </c>
       <c r="E62" s="3">
-        <v>888200</v>
+        <v>932500</v>
       </c>
       <c r="F62" s="3">
-        <v>1249600</v>
+        <v>920800</v>
       </c>
       <c r="G62" s="3">
-        <v>1239100</v>
+        <v>1295400</v>
       </c>
       <c r="H62" s="3">
-        <v>1241100</v>
+        <v>1284500</v>
       </c>
       <c r="I62" s="3">
-        <v>1232300</v>
+        <v>1286600</v>
       </c>
       <c r="J62" s="3">
+        <v>1277500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1164400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1444200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1537400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1711600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1663500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1441800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1418300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1393600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1472600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1362100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1360700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1236500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1071800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1087100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1076900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1043000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1007200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1102900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12701000</v>
+        <v>13799900</v>
       </c>
       <c r="E66" s="3">
-        <v>12244900</v>
+        <v>13166700</v>
       </c>
       <c r="F66" s="3">
-        <v>11834200</v>
+        <v>12693900</v>
       </c>
       <c r="G66" s="3">
-        <v>11393800</v>
+        <v>12268200</v>
       </c>
       <c r="H66" s="3">
-        <v>10677500</v>
+        <v>11811600</v>
       </c>
       <c r="I66" s="3">
-        <v>10744400</v>
+        <v>11069100</v>
       </c>
       <c r="J66" s="3">
+        <v>11138400</v>
+      </c>
+      <c r="K66" s="3">
         <v>10620400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11739800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12100800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13401500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13234500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14525700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13713800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13304000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13093300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14506700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13411300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12591200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11923500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13128900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12237000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11710700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11088500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12292600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2423000</v>
+        <v>2685000</v>
       </c>
       <c r="E72" s="3">
-        <v>2292000</v>
+        <v>2511800</v>
       </c>
       <c r="F72" s="3">
-        <v>2273600</v>
+        <v>2376000</v>
       </c>
       <c r="G72" s="3">
-        <v>1920500</v>
+        <v>2356900</v>
       </c>
       <c r="H72" s="3">
-        <v>1924600</v>
+        <v>1990900</v>
       </c>
       <c r="I72" s="3">
-        <v>1962600</v>
+        <v>1995200</v>
       </c>
       <c r="J72" s="3">
+        <v>2034500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2173600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2286100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2332000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2685700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2877600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2848900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2849600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2798900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3119500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2912600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2781500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2777500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2784400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2654300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2621100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2598000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2549700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2476700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3831700</v>
+        <v>4107900</v>
       </c>
       <c r="E76" s="3">
-        <v>3685400</v>
+        <v>3972200</v>
       </c>
       <c r="F76" s="3">
-        <v>3583900</v>
+        <v>3820500</v>
       </c>
       <c r="G76" s="3">
-        <v>3110200</v>
+        <v>3715300</v>
       </c>
       <c r="H76" s="3">
-        <v>3076900</v>
+        <v>3224200</v>
       </c>
       <c r="I76" s="3">
-        <v>3108500</v>
+        <v>3189700</v>
       </c>
       <c r="J76" s="3">
+        <v>3222500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3299200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3225400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3314600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3771700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4014100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4182100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4204800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4205800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4578100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4386000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4244700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4205900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4213200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4078000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3993400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3946300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3878400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3659400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>129800</v>
+        <v>211300</v>
       </c>
       <c r="E81" s="3">
-        <v>38700</v>
+        <v>134500</v>
       </c>
       <c r="F81" s="3">
-        <v>102800</v>
+        <v>40100</v>
       </c>
       <c r="G81" s="3">
-        <v>19700</v>
+        <v>106600</v>
       </c>
       <c r="H81" s="3">
-        <v>-34100</v>
+        <v>24400</v>
       </c>
       <c r="I81" s="3">
-        <v>77800</v>
+        <v>-35300</v>
       </c>
       <c r="J81" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-38000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>97500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-120700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>122500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>77400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-75600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>154400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>141400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-57200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>130100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>33100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>68500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>29600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>73000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>161600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131700</v>
+        <v>135300</v>
       </c>
       <c r="E83" s="3">
-        <v>134700</v>
+        <v>136500</v>
       </c>
       <c r="F83" s="3">
-        <v>109500</v>
+        <v>139700</v>
       </c>
       <c r="G83" s="3">
-        <v>52400</v>
+        <v>28600</v>
       </c>
       <c r="H83" s="3">
-        <v>137100</v>
+        <v>139200</v>
       </c>
       <c r="I83" s="3">
-        <v>132500</v>
+        <v>142100</v>
       </c>
       <c r="J83" s="3">
+        <v>137300</v>
+      </c>
+      <c r="K83" s="3">
         <v>112000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>111700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>118200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>141400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>135100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>143800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>139000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>136000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>133600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>130900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>128500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>125300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>122800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>119500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>115100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,37 +6706,40 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-57000</v>
+        <v>-316700</v>
       </c>
       <c r="E89" s="3">
-        <v>-439500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
+        <v>-59100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-455700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2058500</v>
       </c>
       <c r="H89" s="3">
-        <v>-387100</v>
+        <v>-378300</v>
       </c>
       <c r="I89" s="3">
-        <v>-209700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
+        <v>-401300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-217400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,37 +6822,38 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75700</v>
+        <v>-108500</v>
       </c>
       <c r="E91" s="3">
-        <v>-94400</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+        <v>-78500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-147000</v>
       </c>
       <c r="H91" s="3">
-        <v>-107800</v>
+        <v>-96800</v>
       </c>
       <c r="I91" s="3">
-        <v>-99400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+        <v>-111800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-103000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,37 +7069,40 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80900</v>
+        <v>-131000</v>
       </c>
       <c r="E94" s="3">
-        <v>-170400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
+        <v>-83900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-176700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-44700</v>
       </c>
       <c r="H94" s="3">
-        <v>-103600</v>
+        <v>-134300</v>
       </c>
       <c r="I94" s="3">
-        <v>-96300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>-107400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-99800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,32 +7185,33 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1900</v>
       </c>
-      <c r="E96" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-22800</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,37 +7515,40 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>201700</v>
+        <v>443600</v>
       </c>
       <c r="E100" s="3">
-        <v>445000</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
+        <v>209100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>461400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1705900</v>
       </c>
       <c r="H100" s="3">
-        <v>126000</v>
+        <v>546000</v>
       </c>
       <c r="I100" s="3">
-        <v>267300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>130700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>277100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7353,37 +7598,40 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-31500</v>
+        <v>40500</v>
       </c>
       <c r="E101" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
+        <v>-32700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-14900</v>
       </c>
       <c r="H101" s="3">
-        <v>-1300</v>
+        <v>-9900</v>
       </c>
       <c r="I101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+        <v>-1400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7433,37 +7681,40 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32200</v>
+        <v>36400</v>
       </c>
       <c r="E102" s="3">
-        <v>-212800</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
+        <v>33400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-220600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>292900</v>
       </c>
       <c r="H102" s="3">
-        <v>-441700</v>
+        <v>102100</v>
       </c>
       <c r="I102" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
+        <v>-457900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-37500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3208900</v>
+        <v>3816100</v>
       </c>
       <c r="E8" s="3">
-        <v>3009100</v>
+        <v>3147800</v>
       </c>
       <c r="F8" s="3">
-        <v>2575000</v>
+        <v>2951800</v>
       </c>
       <c r="G8" s="3">
-        <v>3396800</v>
+        <v>2526000</v>
       </c>
       <c r="H8" s="3">
-        <v>2628700</v>
+        <v>3332400</v>
       </c>
       <c r="I8" s="3">
-        <v>2392200</v>
+        <v>2578600</v>
       </c>
       <c r="J8" s="3">
+        <v>2346600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2613400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3233100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2749900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2778900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2564100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4456900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3633800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3545400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3213100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4806500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3837100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3198800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3125000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4356100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3459100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3384500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3031400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4220200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3066800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2424400</v>
+        <v>3188900</v>
       </c>
       <c r="E9" s="3">
-        <v>2401100</v>
+        <v>2378200</v>
       </c>
       <c r="F9" s="3">
-        <v>2153300</v>
+        <v>2355400</v>
       </c>
       <c r="G9" s="3">
-        <v>2885800</v>
+        <v>2112300</v>
       </c>
       <c r="H9" s="3">
-        <v>2103000</v>
+        <v>2872400</v>
       </c>
       <c r="I9" s="3">
-        <v>1998500</v>
+        <v>2062900</v>
       </c>
       <c r="J9" s="3">
+        <v>1960400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2140300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2819800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2277000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2419600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2374400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3671300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2955100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3016900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2761100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4003100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3097700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2730600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2618400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3755500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2755000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2851000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2568800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3558100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2505800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>784500</v>
+        <v>627200</v>
       </c>
       <c r="E10" s="3">
-        <v>608000</v>
+        <v>769600</v>
       </c>
       <c r="F10" s="3">
-        <v>421700</v>
+        <v>596400</v>
       </c>
       <c r="G10" s="3">
-        <v>511000</v>
+        <v>413700</v>
       </c>
       <c r="H10" s="3">
-        <v>525700</v>
+        <v>460000</v>
       </c>
       <c r="I10" s="3">
-        <v>393700</v>
+        <v>515700</v>
       </c>
       <c r="J10" s="3">
+        <v>386200</v>
+      </c>
+      <c r="K10" s="3">
         <v>473100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>413200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>472900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>359300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>189700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>785600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>678700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>528500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>452100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>803400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>739500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>468200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>506600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>704100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>533500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>462600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>662000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>561100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,77 +1083,80 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>112700</v>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H12" s="3">
-        <v>87800</v>
+        <v>110500</v>
       </c>
       <c r="I12" s="3">
-        <v>80400</v>
+        <v>86100</v>
       </c>
       <c r="J12" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K12" s="3">
         <v>65300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>107800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>84900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>69500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>143000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>115100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>116000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>101800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>147100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>115000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>101400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>93800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>129900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>94100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>101300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>85500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>113200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>90400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1238,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,38 +1255,38 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>10100</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>110500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>30500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>21700</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1287,14 +1303,14 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>116000</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1308,8 +1324,11 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2841000</v>
+        <v>3784300</v>
       </c>
       <c r="E17" s="3">
-        <v>2816300</v>
+        <v>2786900</v>
       </c>
       <c r="F17" s="3">
-        <v>2541300</v>
+        <v>2762600</v>
       </c>
       <c r="G17" s="3">
-        <v>3357000</v>
+        <v>2492900</v>
       </c>
       <c r="H17" s="3">
-        <v>2547100</v>
+        <v>3320700</v>
       </c>
       <c r="I17" s="3">
-        <v>2398900</v>
+        <v>2498600</v>
       </c>
       <c r="J17" s="3">
+        <v>2353200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2477100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3354700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2617100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2818900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2740400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4183100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3452300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3475600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3203200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4545400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3569100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3186200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3060400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4254200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3317200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3283200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2987000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4015400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2939200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>367900</v>
+        <v>31800</v>
       </c>
       <c r="E18" s="3">
-        <v>192800</v>
+        <v>360900</v>
       </c>
       <c r="F18" s="3">
-        <v>33800</v>
+        <v>189200</v>
       </c>
       <c r="G18" s="3">
-        <v>39800</v>
+        <v>33100</v>
       </c>
       <c r="H18" s="3">
-        <v>81600</v>
+        <v>11700</v>
       </c>
       <c r="I18" s="3">
-        <v>-6700</v>
+        <v>80100</v>
       </c>
       <c r="J18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K18" s="3">
         <v>136300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-121600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>132800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-176200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>273800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>181500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>69800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>261100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>268000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>64600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>102000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>141900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>101300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>44400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>204800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>127600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1645,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-102000</v>
+        <v>-23400</v>
       </c>
       <c r="E20" s="3">
-        <v>-6600</v>
+        <v>-100000</v>
       </c>
       <c r="F20" s="3">
-        <v>44200</v>
+        <v>-6500</v>
       </c>
       <c r="G20" s="3">
-        <v>26800</v>
+        <v>43300</v>
       </c>
       <c r="H20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
-        <v>-4000</v>
-      </c>
       <c r="J20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>64600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-45800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-79300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-73400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-82700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-42200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-26800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>10800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-77600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>98500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>401200</v>
+        <v>162600</v>
       </c>
       <c r="E21" s="3">
-        <v>322800</v>
+        <v>393500</v>
       </c>
       <c r="F21" s="3">
-        <v>217600</v>
+        <v>316600</v>
       </c>
       <c r="G21" s="3">
-        <v>95200</v>
+        <v>213500</v>
       </c>
       <c r="H21" s="3">
-        <v>218800</v>
+        <v>171500</v>
       </c>
       <c r="I21" s="3">
-        <v>131400</v>
+        <v>214700</v>
       </c>
       <c r="J21" s="3">
+        <v>128900</v>
+      </c>
+      <c r="K21" s="3">
         <v>269200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>252100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>367600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>258700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>209800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>103200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>325600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>333600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>65900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>218200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>190700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>243500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>218900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>177900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>246600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>341100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1796,243 +1832,252 @@
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>6200</v>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>6100</v>
       </c>
       <c r="I22" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>6100</v>
       </c>
       <c r="Y22" s="3">
         <v>6100</v>
       </c>
       <c r="Z22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="AA22" s="3">
         <v>6000</v>
       </c>
       <c r="AB22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>6700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>265900</v>
+        <v>8400</v>
       </c>
       <c r="E23" s="3">
-        <v>186300</v>
+        <v>260900</v>
       </c>
       <c r="F23" s="3">
-        <v>77900</v>
+        <v>182700</v>
       </c>
       <c r="G23" s="3">
-        <v>60400</v>
+        <v>76500</v>
       </c>
       <c r="H23" s="3">
-        <v>73500</v>
+        <v>20900</v>
       </c>
       <c r="I23" s="3">
-        <v>-16800</v>
+        <v>72100</v>
       </c>
       <c r="J23" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K23" s="3">
         <v>125400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-109900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>133400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-120400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>220700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>110800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-40200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>172900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>185600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-77500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>77700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>52700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>108900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>87500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>49100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>121200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>219400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50600</v>
+        <v>-17600</v>
       </c>
       <c r="E24" s="3">
-        <v>49300</v>
+        <v>49600</v>
       </c>
       <c r="F24" s="3">
-        <v>35400</v>
+        <v>48300</v>
       </c>
       <c r="G24" s="3">
-        <v>-49400</v>
+        <v>34700</v>
       </c>
       <c r="H24" s="3">
-        <v>38700</v>
+        <v>7500</v>
       </c>
       <c r="I24" s="3">
-        <v>10100</v>
+        <v>37900</v>
       </c>
       <c r="J24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K24" s="3">
         <v>37900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-76400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>92100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-20200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>93700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-25000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>51200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-83100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>68700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>43200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>54100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215300</v>
+        <v>26000</v>
       </c>
       <c r="E26" s="3">
-        <v>137000</v>
+        <v>211200</v>
       </c>
       <c r="F26" s="3">
-        <v>42600</v>
+        <v>134400</v>
       </c>
       <c r="G26" s="3">
-        <v>109800</v>
+        <v>41800</v>
       </c>
       <c r="H26" s="3">
-        <v>34800</v>
+        <v>13400</v>
       </c>
       <c r="I26" s="3">
-        <v>-26900</v>
+        <v>34200</v>
       </c>
       <c r="J26" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="K26" s="3">
         <v>87500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>103100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-117600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>127000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-73000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>160400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>149900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-52500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>26500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>135900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>40200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>74000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>33300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>78000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>165300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>211300</v>
+        <v>18500</v>
       </c>
       <c r="E27" s="3">
-        <v>134500</v>
+        <v>207300</v>
       </c>
       <c r="F27" s="3">
-        <v>40100</v>
+        <v>132000</v>
       </c>
       <c r="G27" s="3">
-        <v>106600</v>
+        <v>39300</v>
       </c>
       <c r="H27" s="3">
-        <v>24400</v>
+        <v>6900</v>
       </c>
       <c r="I27" s="3">
-        <v>-35300</v>
+        <v>23900</v>
       </c>
       <c r="J27" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K27" s="3">
         <v>80700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>97500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-120700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>122500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>77400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-75600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>154400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>141400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-57200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>130100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>33100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>68500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>29600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>73000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>161600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>102000</v>
+        <v>23400</v>
       </c>
       <c r="E32" s="3">
-        <v>6600</v>
+        <v>100000</v>
       </c>
       <c r="F32" s="3">
-        <v>-44200</v>
+        <v>6500</v>
       </c>
       <c r="G32" s="3">
-        <v>-26800</v>
+        <v>-43300</v>
       </c>
       <c r="H32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
-        <v>4000</v>
-      </c>
       <c r="J32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-64600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>45800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>62200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>79300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>73400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>82700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>42200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>26800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>77600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-98500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>211300</v>
+        <v>18500</v>
       </c>
       <c r="E33" s="3">
-        <v>134500</v>
+        <v>207300</v>
       </c>
       <c r="F33" s="3">
-        <v>40100</v>
+        <v>132000</v>
       </c>
       <c r="G33" s="3">
-        <v>106600</v>
+        <v>39300</v>
       </c>
       <c r="H33" s="3">
-        <v>24400</v>
+        <v>6900</v>
       </c>
       <c r="I33" s="3">
-        <v>-35300</v>
+        <v>23900</v>
       </c>
       <c r="J33" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K33" s="3">
         <v>80700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>97500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-120700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>122500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-75600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>154400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>141400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-57200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>130100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>33100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>68500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>29600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>73000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>161600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>211300</v>
+        <v>18500</v>
       </c>
       <c r="E35" s="3">
-        <v>134500</v>
+        <v>207300</v>
       </c>
       <c r="F35" s="3">
-        <v>40100</v>
+        <v>132000</v>
       </c>
       <c r="G35" s="3">
-        <v>106600</v>
+        <v>39300</v>
       </c>
       <c r="H35" s="3">
-        <v>24400</v>
+        <v>6900</v>
       </c>
       <c r="I35" s="3">
-        <v>-35300</v>
+        <v>23900</v>
       </c>
       <c r="J35" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K35" s="3">
         <v>80700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>97500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-120700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>122500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-75600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>154400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>141400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-57200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>130100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>33100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>68500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>29600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>73000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>161600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,108 +3176,112 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>646800</v>
+        <v>998000</v>
       </c>
       <c r="E41" s="3">
-        <v>610400</v>
+        <v>634500</v>
       </c>
       <c r="F41" s="3">
-        <v>576900</v>
+        <v>598700</v>
       </c>
       <c r="G41" s="3">
-        <v>1638900</v>
+        <v>565900</v>
       </c>
       <c r="H41" s="3">
-        <v>553100</v>
+        <v>1607700</v>
       </c>
       <c r="I41" s="3">
-        <v>445300</v>
+        <v>542600</v>
       </c>
       <c r="J41" s="3">
+        <v>436900</v>
+      </c>
+      <c r="K41" s="3">
         <v>897100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>898300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1006600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1193300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1464500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>934800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>677900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>383600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>407000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>714100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>473500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>533400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>527700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>638500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>455700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>410800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>436300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>491300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>474100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>107200</v>
+        <v>77400</v>
       </c>
       <c r="E42" s="3">
-        <v>64200</v>
+        <v>105100</v>
       </c>
       <c r="F42" s="3">
-        <v>92400</v>
+        <v>63000</v>
       </c>
       <c r="G42" s="3">
-        <v>78000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
+        <v>90700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>76500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -3209,8 +3295,8 @@
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3260,357 +3346,372 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4562000</v>
+        <v>4566200</v>
       </c>
       <c r="E43" s="3">
-        <v>4114300</v>
+        <v>4475100</v>
       </c>
       <c r="F43" s="3">
-        <v>3859000</v>
+        <v>4035900</v>
       </c>
       <c r="G43" s="3">
-        <v>6880600</v>
+        <v>3785500</v>
       </c>
       <c r="H43" s="3">
-        <v>3261600</v>
+        <v>6749600</v>
       </c>
       <c r="I43" s="3">
-        <v>2956900</v>
+        <v>3199500</v>
       </c>
       <c r="J43" s="3">
+        <v>2900600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2986800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3239000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3474100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3362100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3641000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4139300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4957300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4749700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4250400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4073400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5283800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4529800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4362500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4229500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4971000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4402000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4006900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3920900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4383800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5361700</v>
+        <v>4978000</v>
       </c>
       <c r="E44" s="3">
-        <v>5162700</v>
+        <v>5259500</v>
       </c>
       <c r="F44" s="3">
-        <v>4858500</v>
+        <v>5064400</v>
       </c>
       <c r="G44" s="3">
-        <v>9365100</v>
+        <v>4766000</v>
       </c>
       <c r="H44" s="3">
-        <v>5120700</v>
+        <v>9186700</v>
       </c>
       <c r="I44" s="3">
-        <v>4814800</v>
+        <v>5023100</v>
       </c>
       <c r="J44" s="3">
+        <v>4723100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4566000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4669100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5015600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5136400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5615900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5564900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6074600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5759800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5787500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5697000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6032500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5635200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5097500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4562800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5051200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4687700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4559700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4300700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4782900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>862600</v>
+        <v>723800</v>
       </c>
       <c r="E45" s="3">
-        <v>778500</v>
+        <v>846100</v>
       </c>
       <c r="F45" s="3">
-        <v>770900</v>
+        <v>763600</v>
       </c>
       <c r="G45" s="3">
-        <v>1279600</v>
+        <v>756200</v>
       </c>
       <c r="H45" s="3">
-        <v>872400</v>
+        <v>1255300</v>
       </c>
       <c r="I45" s="3">
-        <v>756200</v>
+        <v>855800</v>
       </c>
       <c r="J45" s="3">
+        <v>741800</v>
+      </c>
+      <c r="K45" s="3">
         <v>571100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>307100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>499700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>442900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>528600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>450900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>604200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>561800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>592100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>435700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>816100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>761300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>773600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>655800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1006500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1066100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1114300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>847500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>969300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11540200</v>
+        <v>11343400</v>
       </c>
       <c r="E46" s="3">
-        <v>10730000</v>
+        <v>11320400</v>
       </c>
       <c r="F46" s="3">
-        <v>10157800</v>
+        <v>10525600</v>
       </c>
       <c r="G46" s="3">
-        <v>9703500</v>
+        <v>9964300</v>
       </c>
       <c r="H46" s="3">
-        <v>9807800</v>
+        <v>9518700</v>
       </c>
       <c r="I46" s="3">
-        <v>8973300</v>
+        <v>9621000</v>
       </c>
       <c r="J46" s="3">
+        <v>8802400</v>
+      </c>
+      <c r="K46" s="3">
         <v>9020900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9113500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9995900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10134700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11250000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11089900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12314000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11454800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11037000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10920200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12605900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11459600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10761400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10086600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11484400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10566600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10117200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9560400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>10610100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1098800</v>
+        <v>1064700</v>
       </c>
       <c r="E47" s="3">
-        <v>1103800</v>
+        <v>1077900</v>
       </c>
       <c r="F47" s="3">
-        <v>1089900</v>
+        <v>1082800</v>
       </c>
       <c r="G47" s="3">
-        <v>1027700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
+        <v>1069200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1008100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -3675,174 +3776,183 @@
       <c r="AC47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3732300</v>
+        <v>3745100</v>
       </c>
       <c r="E48" s="3">
-        <v>3751400</v>
+        <v>3661200</v>
       </c>
       <c r="F48" s="3">
-        <v>3725400</v>
+        <v>3679900</v>
       </c>
       <c r="G48" s="3">
-        <v>6961600</v>
+        <v>3654400</v>
       </c>
       <c r="H48" s="3">
-        <v>3249100</v>
+        <v>6829000</v>
       </c>
       <c r="I48" s="3">
-        <v>3271400</v>
+        <v>3187300</v>
       </c>
       <c r="J48" s="3">
+        <v>3209100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3284500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3199400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3395700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3631100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4025000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4251400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4416300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4465200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4457200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4667300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4563000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4490400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4389800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4337400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4329700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4294800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4198900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4096900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3997600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>457900</v>
+        <v>477600</v>
       </c>
       <c r="E49" s="3">
-        <v>455600</v>
+        <v>449100</v>
       </c>
       <c r="F49" s="3">
-        <v>452800</v>
+        <v>446900</v>
       </c>
       <c r="G49" s="3">
-        <v>455300</v>
+        <v>444200</v>
       </c>
       <c r="H49" s="3">
+        <v>446600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>159300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>159400</v>
+      </c>
+      <c r="K49" s="3">
         <v>162400</v>
       </c>
-      <c r="I49" s="3">
-        <v>162500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>162400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>159000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>161900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>173300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>187600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>188200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>172900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>172200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>163500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>161400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>153300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>149800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>147200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>146200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>139900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>140700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>135000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>135600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>129900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1078800</v>
+        <v>1104100</v>
       </c>
       <c r="E52" s="3">
-        <v>1098100</v>
+        <v>1058200</v>
       </c>
       <c r="F52" s="3">
-        <v>1088600</v>
+        <v>1077200</v>
       </c>
       <c r="G52" s="3">
-        <v>2991900</v>
+        <v>1067900</v>
       </c>
       <c r="H52" s="3">
-        <v>1826100</v>
+        <v>2934900</v>
       </c>
       <c r="I52" s="3">
-        <v>1861700</v>
+        <v>1791300</v>
       </c>
       <c r="J52" s="3">
+        <v>1826200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1903300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1457600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1421800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1488900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1726200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1735300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1816600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1839200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1865000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1936100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1603200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1588900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1530100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1599800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1276700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1362600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1339200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1304700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1350000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17907900</v>
+        <v>17734900</v>
       </c>
       <c r="E54" s="3">
-        <v>17138900</v>
+        <v>17566800</v>
       </c>
       <c r="F54" s="3">
-        <v>16514500</v>
+        <v>16812500</v>
       </c>
       <c r="G54" s="3">
-        <v>15983500</v>
+        <v>16199900</v>
       </c>
       <c r="H54" s="3">
-        <v>15035800</v>
+        <v>15679100</v>
       </c>
       <c r="I54" s="3">
-        <v>14258800</v>
+        <v>14749400</v>
       </c>
       <c r="J54" s="3">
+        <v>13987200</v>
+      </c>
+      <c r="K54" s="3">
         <v>14360900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13919600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14965300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15415400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17173200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17248600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18707700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17918500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17509700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17671400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18892700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17656100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16797100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16136700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17206800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16230400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>15657000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14966900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>15952000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3183500</v>
+        <v>3260700</v>
       </c>
       <c r="E57" s="3">
-        <v>2924500</v>
+        <v>3122900</v>
       </c>
       <c r="F57" s="3">
-        <v>2779000</v>
+        <v>2868800</v>
       </c>
       <c r="G57" s="3">
-        <v>5469900</v>
+        <v>2726100</v>
       </c>
       <c r="H57" s="3">
-        <v>2326500</v>
+        <v>5365700</v>
       </c>
       <c r="I57" s="3">
-        <v>2215900</v>
+        <v>2282100</v>
       </c>
       <c r="J57" s="3">
+        <v>2173700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2313900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2518000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2447800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2367500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2621900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3274500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3083100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2942400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3095300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3558300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3258700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3116400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3052900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3283100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3120100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2995600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2794300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3033700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2805600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3033800</v>
+        <v>2452700</v>
       </c>
       <c r="E58" s="3">
-        <v>2669600</v>
+        <v>2976000</v>
       </c>
       <c r="F58" s="3">
-        <v>2385200</v>
+        <v>2618700</v>
       </c>
       <c r="G58" s="3">
-        <v>2396500</v>
+        <v>2339700</v>
       </c>
       <c r="H58" s="3">
-        <v>1308900</v>
+        <v>2350900</v>
       </c>
       <c r="I58" s="3">
-        <v>1304300</v>
+        <v>1283900</v>
       </c>
       <c r="J58" s="3">
+        <v>1279500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1016400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1224000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1345800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1415400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1634900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1653900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2582000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1721200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1287200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1060400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2197400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1264300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1106800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2153700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1639000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>976200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1162300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1079000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1467300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3353300</v>
+        <v>3722100</v>
       </c>
       <c r="E59" s="3">
-        <v>3323900</v>
+        <v>3289400</v>
       </c>
       <c r="F59" s="3">
-        <v>3318000</v>
+        <v>3260500</v>
       </c>
       <c r="G59" s="3">
-        <v>5233900</v>
+        <v>3254800</v>
       </c>
       <c r="H59" s="3">
-        <v>4020900</v>
+        <v>5134200</v>
       </c>
       <c r="I59" s="3">
-        <v>3370400</v>
+        <v>3944300</v>
       </c>
       <c r="J59" s="3">
+        <v>3306200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3568900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2763500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3549100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3645000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3728900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3421000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4249500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4389200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3687000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4536000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4683500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4229300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3591100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4206100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3979900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4074200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3368600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4169500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9570600</v>
+        <v>9435400</v>
       </c>
       <c r="E60" s="3">
-        <v>8917900</v>
+        <v>9388300</v>
       </c>
       <c r="F60" s="3">
-        <v>8482100</v>
+        <v>8748000</v>
       </c>
       <c r="G60" s="3">
-        <v>7789000</v>
+        <v>8320600</v>
       </c>
       <c r="H60" s="3">
-        <v>7656200</v>
+        <v>7640600</v>
       </c>
       <c r="I60" s="3">
-        <v>6890600</v>
+        <v>7510300</v>
       </c>
       <c r="J60" s="3">
+        <v>6759400</v>
+      </c>
+      <c r="K60" s="3">
         <v>6899100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6505500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7342700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7428000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7985700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8349500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9914600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9064200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8771700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8305700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9992100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9064200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8389000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7859400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8965300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7951700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8030800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7481300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8442400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3162000</v>
+        <v>3209000</v>
       </c>
       <c r="E61" s="3">
-        <v>3180400</v>
+        <v>3101700</v>
       </c>
       <c r="F61" s="3">
-        <v>3158600</v>
+        <v>3119800</v>
       </c>
       <c r="G61" s="3">
-        <v>3366800</v>
+        <v>3098400</v>
       </c>
       <c r="H61" s="3">
-        <v>2732400</v>
+        <v>3302700</v>
       </c>
       <c r="I61" s="3">
-        <v>2758100</v>
+        <v>2680300</v>
       </c>
       <c r="J61" s="3">
+        <v>2705600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2831300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2826800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2831300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3012800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3572900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3081100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3024000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3087500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2996100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3162500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2995400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2840900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2830800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2853800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2937100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3077200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2508500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2475100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2627400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>932200</v>
+        <v>772300</v>
       </c>
       <c r="E62" s="3">
-        <v>932500</v>
+        <v>914400</v>
       </c>
       <c r="F62" s="3">
-        <v>920800</v>
+        <v>914700</v>
       </c>
       <c r="G62" s="3">
-        <v>1295400</v>
+        <v>903200</v>
       </c>
       <c r="H62" s="3">
-        <v>1284500</v>
+        <v>1270800</v>
       </c>
       <c r="I62" s="3">
-        <v>1286600</v>
+        <v>1260100</v>
       </c>
       <c r="J62" s="3">
+        <v>1262100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1277500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1164400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1444200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1537400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1711600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1663500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1441800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1418300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1393600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1472600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1362100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1360700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1236500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1071800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1087100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1076900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1043000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1007200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1102900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13799900</v>
+        <v>13565800</v>
       </c>
       <c r="E66" s="3">
-        <v>13166700</v>
+        <v>13537100</v>
       </c>
       <c r="F66" s="3">
-        <v>12693900</v>
+        <v>12915900</v>
       </c>
       <c r="G66" s="3">
-        <v>12268200</v>
+        <v>12452200</v>
       </c>
       <c r="H66" s="3">
-        <v>11811600</v>
+        <v>12034500</v>
       </c>
       <c r="I66" s="3">
-        <v>11069100</v>
+        <v>11586600</v>
       </c>
       <c r="J66" s="3">
+        <v>10858200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11138400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10620400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11739800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12100800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13401500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13234500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14525700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13713800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13304000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13093300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14506700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13411300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12591200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11923500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13128900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12237000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11710700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11088500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12292600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2685000</v>
+        <v>2756400</v>
       </c>
       <c r="E72" s="3">
-        <v>2511800</v>
+        <v>2633800</v>
       </c>
       <c r="F72" s="3">
-        <v>2376000</v>
+        <v>2464000</v>
       </c>
       <c r="G72" s="3">
-        <v>2356900</v>
+        <v>2330800</v>
       </c>
       <c r="H72" s="3">
-        <v>1990900</v>
+        <v>2312000</v>
       </c>
       <c r="I72" s="3">
-        <v>1995200</v>
+        <v>1953000</v>
       </c>
       <c r="J72" s="3">
+        <v>1957200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2034500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2173600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2286100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2332000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2685700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2877600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2848900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2849600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2798900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3119500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2912600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2781500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2777500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2784400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2654300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2621100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2598000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2549700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2476700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4107900</v>
+        <v>4169100</v>
       </c>
       <c r="E76" s="3">
-        <v>3972200</v>
+        <v>4029700</v>
       </c>
       <c r="F76" s="3">
-        <v>3820500</v>
+        <v>3896500</v>
       </c>
       <c r="G76" s="3">
-        <v>3715300</v>
+        <v>3747800</v>
       </c>
       <c r="H76" s="3">
-        <v>3224200</v>
+        <v>3644500</v>
       </c>
       <c r="I76" s="3">
-        <v>3189700</v>
+        <v>3162800</v>
       </c>
       <c r="J76" s="3">
+        <v>3128900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3222500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3299200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3225400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3314600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3771700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4014100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4182100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4204800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4205800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4578100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4386000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4244700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4205900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4213200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4078000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3993400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3946300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3878400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3659400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>211300</v>
+        <v>18500</v>
       </c>
       <c r="E81" s="3">
-        <v>134500</v>
+        <v>207300</v>
       </c>
       <c r="F81" s="3">
-        <v>40100</v>
+        <v>132000</v>
       </c>
       <c r="G81" s="3">
-        <v>106600</v>
+        <v>39300</v>
       </c>
       <c r="H81" s="3">
-        <v>24400</v>
+        <v>6900</v>
       </c>
       <c r="I81" s="3">
-        <v>-35300</v>
+        <v>23900</v>
       </c>
       <c r="J81" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K81" s="3">
         <v>80700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>97500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-120700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>122500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-75600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>154400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>141400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-57200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>130100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>33100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>68500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>29600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>73000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>161600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>135300</v>
+        <v>154300</v>
       </c>
       <c r="E83" s="3">
-        <v>136500</v>
+        <v>132700</v>
       </c>
       <c r="F83" s="3">
-        <v>139700</v>
+        <v>133900</v>
       </c>
       <c r="G83" s="3">
-        <v>28600</v>
+        <v>137000</v>
       </c>
       <c r="H83" s="3">
-        <v>139200</v>
+        <v>144500</v>
       </c>
       <c r="I83" s="3">
-        <v>142100</v>
+        <v>136600</v>
       </c>
       <c r="J83" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K83" s="3">
         <v>137300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>111700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>118200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>128300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>141400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>135100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>143800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>139000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>136000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>133600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>130900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>128500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>125300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>122800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>119500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>115100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,40 +6919,43 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-316700</v>
+        <v>985900</v>
       </c>
       <c r="E89" s="3">
-        <v>-59100</v>
+        <v>-310700</v>
       </c>
       <c r="F89" s="3">
-        <v>-455700</v>
+        <v>-57900</v>
       </c>
       <c r="G89" s="3">
-        <v>2058500</v>
+        <v>-447000</v>
       </c>
       <c r="H89" s="3">
-        <v>-378300</v>
+        <v>2109100</v>
       </c>
       <c r="I89" s="3">
-        <v>-401300</v>
+        <v>-371100</v>
       </c>
       <c r="J89" s="3">
+        <v>-393600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-217400</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6792,8 +7005,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,40 +7039,41 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-108500</v>
+        <v>-31195000</v>
       </c>
       <c r="E91" s="3">
-        <v>-78500</v>
+        <v>-14756000</v>
       </c>
       <c r="F91" s="3">
-        <v>-97900</v>
+        <v>-10678000</v>
       </c>
       <c r="G91" s="3">
-        <v>-147000</v>
+        <v>-13315000</v>
       </c>
       <c r="H91" s="3">
-        <v>-96800</v>
+        <v>-25250000</v>
       </c>
       <c r="I91" s="3">
-        <v>-111800</v>
+        <v>-13164000</v>
       </c>
       <c r="J91" s="3">
+        <v>-15209000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-103000</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6906,8 +7123,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,40 +7295,43 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-131000</v>
+        <v>-174400</v>
       </c>
       <c r="E94" s="3">
-        <v>-83900</v>
+        <v>-128500</v>
       </c>
       <c r="F94" s="3">
-        <v>-176700</v>
+        <v>-82300</v>
       </c>
       <c r="G94" s="3">
-        <v>-44700</v>
+        <v>-173300</v>
       </c>
       <c r="H94" s="3">
-        <v>-134300</v>
+        <v>-43900</v>
       </c>
       <c r="I94" s="3">
-        <v>-107400</v>
+        <v>-131700</v>
       </c>
       <c r="J94" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-99800</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7155,8 +7381,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,35 +7415,36 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-34000</v>
+        <v>-2900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2000</v>
+        <v>-33400</v>
       </c>
       <c r="F96" s="3">
-        <v>-22700</v>
+        <v>-1900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1900</v>
+        <v>-22200</v>
       </c>
       <c r="H96" s="3">
-        <v>-22800</v>
+        <v>-1800</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-22400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7269,8 +7499,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,40 +7757,43 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>443600</v>
+        <v>-477700</v>
       </c>
       <c r="E100" s="3">
-        <v>209100</v>
+        <v>435100</v>
       </c>
       <c r="F100" s="3">
-        <v>461400</v>
+        <v>205100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1705900</v>
+        <v>452600</v>
       </c>
       <c r="H100" s="3">
-        <v>546000</v>
+        <v>-1673500</v>
       </c>
       <c r="I100" s="3">
-        <v>130700</v>
+        <v>535600</v>
       </c>
       <c r="J100" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K100" s="3">
         <v>277100</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7601,40 +7843,43 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40500</v>
+        <v>29800</v>
       </c>
       <c r="E101" s="3">
-        <v>-32700</v>
+        <v>39700</v>
       </c>
       <c r="F101" s="3">
-        <v>-49600</v>
+        <v>-32000</v>
       </c>
       <c r="G101" s="3">
-        <v>-14900</v>
+        <v>-48700</v>
       </c>
       <c r="H101" s="3">
-        <v>-9900</v>
+        <v>-14600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1400</v>
+        <v>-9700</v>
       </c>
       <c r="J101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>2600</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7684,40 +7929,43 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36400</v>
+        <v>363500</v>
       </c>
       <c r="E102" s="3">
-        <v>33400</v>
+        <v>35700</v>
       </c>
       <c r="F102" s="3">
-        <v>-220600</v>
+        <v>32800</v>
       </c>
       <c r="G102" s="3">
-        <v>292900</v>
+        <v>-216400</v>
       </c>
       <c r="H102" s="3">
-        <v>102100</v>
+        <v>287300</v>
       </c>
       <c r="I102" s="3">
-        <v>-457900</v>
+        <v>100100</v>
       </c>
       <c r="J102" s="3">
+        <v>-449100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-37500</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7765,6 +8013,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3816100</v>
+        <v>2784700</v>
       </c>
       <c r="E8" s="3">
-        <v>3147800</v>
+        <v>3636100</v>
       </c>
       <c r="F8" s="3">
-        <v>2951800</v>
+        <v>2999300</v>
       </c>
       <c r="G8" s="3">
-        <v>2526000</v>
+        <v>2812600</v>
       </c>
       <c r="H8" s="3">
-        <v>3332400</v>
+        <v>2406900</v>
       </c>
       <c r="I8" s="3">
-        <v>2578600</v>
+        <v>3175300</v>
       </c>
       <c r="J8" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2346600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2613400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3233100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2749900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2778900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2564100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4456900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3633800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3545400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3213100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4806500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3837100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3198800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3125000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4356100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3459100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3384500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3031400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4220200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3066800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3188900</v>
+        <v>2330600</v>
       </c>
       <c r="E9" s="3">
-        <v>2378200</v>
+        <v>3038500</v>
       </c>
       <c r="F9" s="3">
-        <v>2355400</v>
+        <v>2266000</v>
       </c>
       <c r="G9" s="3">
-        <v>2112300</v>
+        <v>2244300</v>
       </c>
       <c r="H9" s="3">
-        <v>2872400</v>
+        <v>2012700</v>
       </c>
       <c r="I9" s="3">
-        <v>2062900</v>
+        <v>2737000</v>
       </c>
       <c r="J9" s="3">
+        <v>1965700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1960400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2140300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2819800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2277000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2419600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2374400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3671300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2955100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3016900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2761100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4003100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3097700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2730600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2618400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3755500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2755000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2851000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2568800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3558100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2505800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>627200</v>
+        <v>454100</v>
       </c>
       <c r="E10" s="3">
-        <v>769600</v>
+        <v>597600</v>
       </c>
       <c r="F10" s="3">
-        <v>596400</v>
+        <v>733300</v>
       </c>
       <c r="G10" s="3">
-        <v>413700</v>
+        <v>568300</v>
       </c>
       <c r="H10" s="3">
-        <v>460000</v>
+        <v>394100</v>
       </c>
       <c r="I10" s="3">
-        <v>515700</v>
+        <v>438300</v>
       </c>
       <c r="J10" s="3">
+        <v>491400</v>
+      </c>
+      <c r="K10" s="3">
         <v>386200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>473100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>413200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>472900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>359300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>189700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>785600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>678700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>528500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>452100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>803400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>739500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>468200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>506600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>704100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>533500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>462600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>662000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>561100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,77 +1099,80 @@
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
-        <v>110500</v>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I12" s="3">
-        <v>86100</v>
+        <v>105300</v>
       </c>
       <c r="J12" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K12" s="3">
         <v>78900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>65300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>107800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>78500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>84900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>69500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>143000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>115100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>116000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>101800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>147100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>115000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>101400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>93800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>129900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>94100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>101300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>85500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>113200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>90400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,8 +1257,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,38 +1277,38 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>9900</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>110500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>30500</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>21700</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1306,14 +1325,14 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>116000</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
@@ -1327,8 +1346,11 @@
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3784300</v>
+        <v>2714200</v>
       </c>
       <c r="E17" s="3">
-        <v>2786900</v>
+        <v>3626000</v>
       </c>
       <c r="F17" s="3">
-        <v>2762600</v>
+        <v>2655500</v>
       </c>
       <c r="G17" s="3">
-        <v>2492900</v>
+        <v>2632300</v>
       </c>
       <c r="H17" s="3">
-        <v>3320700</v>
+        <v>2375300</v>
       </c>
       <c r="I17" s="3">
-        <v>2498600</v>
+        <v>3164100</v>
       </c>
       <c r="J17" s="3">
+        <v>2380700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2353200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2477100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3354700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2617100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2818900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2740400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4183100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3452300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3475600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3203200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4545400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3569100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3186200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3060400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4254200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3317200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3283200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2987000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4015400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2939200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31800</v>
+        <v>70400</v>
       </c>
       <c r="E18" s="3">
-        <v>360900</v>
+        <v>10100</v>
       </c>
       <c r="F18" s="3">
-        <v>189200</v>
+        <v>343900</v>
       </c>
       <c r="G18" s="3">
-        <v>33100</v>
+        <v>180200</v>
       </c>
       <c r="H18" s="3">
-        <v>11700</v>
+        <v>31600</v>
       </c>
       <c r="I18" s="3">
-        <v>80100</v>
+        <v>11100</v>
       </c>
       <c r="J18" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>136300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-121600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>132800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-40000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-176200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>273800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>181500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>69800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>261100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>268000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>64600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>102000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>141900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>101300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>44400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>204800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>127600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,180 +1678,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23400</v>
+        <v>32400</v>
       </c>
       <c r="E20" s="3">
-        <v>-100000</v>
+        <v>-22300</v>
       </c>
       <c r="F20" s="3">
-        <v>-6500</v>
+        <v>-95300</v>
       </c>
       <c r="G20" s="3">
-        <v>43300</v>
+        <v>-6200</v>
       </c>
       <c r="H20" s="3">
-        <v>15300</v>
+        <v>41300</v>
       </c>
       <c r="I20" s="3">
-        <v>-2000</v>
+        <v>14600</v>
       </c>
       <c r="J20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>64600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-62200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-41800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-79300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-73400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-82700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-42200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-26800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>10800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-77600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>98500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>162600</v>
+        <v>249800</v>
       </c>
       <c r="E21" s="3">
-        <v>393500</v>
+        <v>134800</v>
       </c>
       <c r="F21" s="3">
-        <v>316600</v>
+        <v>375000</v>
       </c>
       <c r="G21" s="3">
-        <v>213500</v>
+        <v>301700</v>
       </c>
       <c r="H21" s="3">
-        <v>171500</v>
+        <v>203400</v>
       </c>
       <c r="I21" s="3">
-        <v>214700</v>
+        <v>163400</v>
       </c>
       <c r="J21" s="3">
+        <v>204500</v>
+      </c>
+      <c r="K21" s="3">
         <v>128900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>269200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>252100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>367600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>258700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>209800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>103200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>325600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>333600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>65900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>218200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>190700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>243500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>218900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>177900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>246600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>341100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,249 +1874,258 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>6100</v>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7100</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>6100</v>
       </c>
       <c r="Z22" s="3">
         <v>6100</v>
       </c>
       <c r="AA22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="AB22" s="3">
         <v>6000</v>
       </c>
       <c r="AC22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>6700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8400</v>
+        <v>102800</v>
       </c>
       <c r="E23" s="3">
-        <v>260900</v>
+        <v>-12200</v>
       </c>
       <c r="F23" s="3">
-        <v>182700</v>
+        <v>248600</v>
       </c>
       <c r="G23" s="3">
-        <v>76500</v>
+        <v>174100</v>
       </c>
       <c r="H23" s="3">
-        <v>20900</v>
+        <v>72900</v>
       </c>
       <c r="I23" s="3">
-        <v>72100</v>
+        <v>19900</v>
       </c>
       <c r="J23" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-16500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>125400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-109900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>133400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-120400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>220700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>110800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-40200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>172900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>185600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-77500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>52700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>108900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>87500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>49100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>121200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>219400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17600</v>
+        <v>37900</v>
       </c>
       <c r="E24" s="3">
-        <v>49600</v>
+        <v>-23000</v>
       </c>
       <c r="F24" s="3">
-        <v>48300</v>
+        <v>47300</v>
       </c>
       <c r="G24" s="3">
-        <v>34700</v>
+        <v>46000</v>
       </c>
       <c r="H24" s="3">
-        <v>7500</v>
+        <v>33000</v>
       </c>
       <c r="I24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L24" s="3">
         <v>37900</v>
       </c>
-      <c r="J24" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>37900</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-76400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>92100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-20200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>93700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-25000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>51200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-83100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>68700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>43200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>54100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>26000</v>
+        <v>64900</v>
       </c>
       <c r="E26" s="3">
-        <v>211200</v>
+        <v>10700</v>
       </c>
       <c r="F26" s="3">
-        <v>134400</v>
+        <v>201200</v>
       </c>
       <c r="G26" s="3">
-        <v>41800</v>
+        <v>128000</v>
       </c>
       <c r="H26" s="3">
-        <v>13400</v>
+        <v>39800</v>
       </c>
       <c r="I26" s="3">
-        <v>34200</v>
+        <v>12800</v>
       </c>
       <c r="J26" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-26400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>103100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-117600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>127000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-73000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>160400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>149900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-52500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>26500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>135900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>40200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>74000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>33300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>78000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>165300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18500</v>
+        <v>62400</v>
       </c>
       <c r="E27" s="3">
-        <v>207300</v>
+        <v>3600</v>
       </c>
       <c r="F27" s="3">
-        <v>132000</v>
+        <v>197500</v>
       </c>
       <c r="G27" s="3">
-        <v>39300</v>
+        <v>125800</v>
       </c>
       <c r="H27" s="3">
-        <v>6900</v>
+        <v>37500</v>
       </c>
       <c r="I27" s="3">
-        <v>23900</v>
+        <v>6600</v>
       </c>
       <c r="J27" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-34700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>80700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>97500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-120700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>122500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>77400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-75600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>154400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>141400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-57200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>130100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>33100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>68500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>29600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>73000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>161600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23400</v>
+        <v>-32400</v>
       </c>
       <c r="E32" s="3">
-        <v>100000</v>
+        <v>22300</v>
       </c>
       <c r="F32" s="3">
-        <v>6500</v>
+        <v>95300</v>
       </c>
       <c r="G32" s="3">
-        <v>-43300</v>
+        <v>6200</v>
       </c>
       <c r="H32" s="3">
-        <v>-15300</v>
+        <v>-41300</v>
       </c>
       <c r="I32" s="3">
-        <v>2000</v>
+        <v>-14600</v>
       </c>
       <c r="J32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-64600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>45800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>62200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>41800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>79300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>73400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>82700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>42200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>26800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>77600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-98500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18500</v>
+        <v>62400</v>
       </c>
       <c r="E33" s="3">
-        <v>207300</v>
+        <v>3600</v>
       </c>
       <c r="F33" s="3">
-        <v>132000</v>
+        <v>197500</v>
       </c>
       <c r="G33" s="3">
-        <v>39300</v>
+        <v>125800</v>
       </c>
       <c r="H33" s="3">
-        <v>6900</v>
+        <v>37500</v>
       </c>
       <c r="I33" s="3">
-        <v>23900</v>
+        <v>6600</v>
       </c>
       <c r="J33" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-34700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>80700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>97500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-120700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>122500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-75600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>154400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>141400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-57200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>130100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>33100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>68500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>29600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>73000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>161600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18500</v>
+        <v>62400</v>
       </c>
       <c r="E35" s="3">
-        <v>207300</v>
+        <v>3600</v>
       </c>
       <c r="F35" s="3">
-        <v>132000</v>
+        <v>197500</v>
       </c>
       <c r="G35" s="3">
-        <v>39300</v>
+        <v>125800</v>
       </c>
       <c r="H35" s="3">
-        <v>6900</v>
+        <v>37500</v>
       </c>
       <c r="I35" s="3">
-        <v>23900</v>
+        <v>6600</v>
       </c>
       <c r="J35" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-34700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>80700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>97500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-120700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>122500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-75600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>154400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>141400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-57200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>130100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>33100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>68500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>29600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>73000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>161600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,114 +3262,118 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>998000</v>
+        <v>631200</v>
       </c>
       <c r="E41" s="3">
-        <v>634500</v>
+        <v>950900</v>
       </c>
       <c r="F41" s="3">
-        <v>598700</v>
+        <v>604500</v>
       </c>
       <c r="G41" s="3">
-        <v>565900</v>
+        <v>570500</v>
       </c>
       <c r="H41" s="3">
-        <v>1607700</v>
+        <v>539300</v>
       </c>
       <c r="I41" s="3">
-        <v>542600</v>
+        <v>1531900</v>
       </c>
       <c r="J41" s="3">
+        <v>517000</v>
+      </c>
+      <c r="K41" s="3">
         <v>436900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>897100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>898300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1006600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1193300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1464500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>934800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>677900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>383600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>407000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>714100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>473500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>533400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>527700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>638500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>455700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>410800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>436300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>491300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>474100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77400</v>
+        <v>63700</v>
       </c>
       <c r="E42" s="3">
-        <v>105100</v>
+        <v>73800</v>
       </c>
       <c r="F42" s="3">
-        <v>63000</v>
+        <v>100200</v>
       </c>
       <c r="G42" s="3">
-        <v>90700</v>
+        <v>60000</v>
       </c>
       <c r="H42" s="3">
-        <v>76500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
+        <v>86400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>72900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -3298,8 +3387,8 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3349,372 +3438,387 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4566200</v>
+        <v>4294200</v>
       </c>
       <c r="E43" s="3">
-        <v>4475100</v>
+        <v>4330600</v>
       </c>
       <c r="F43" s="3">
-        <v>4035900</v>
+        <v>4264000</v>
       </c>
       <c r="G43" s="3">
-        <v>3785500</v>
+        <v>3845600</v>
       </c>
       <c r="H43" s="3">
-        <v>6749600</v>
+        <v>3607000</v>
       </c>
       <c r="I43" s="3">
-        <v>3199500</v>
+        <v>6431300</v>
       </c>
       <c r="J43" s="3">
+        <v>3048600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2900600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2986800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3239000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3474100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3362100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3641000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4139300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4957300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4749700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4250400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4073400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5283800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4529800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4362500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4229500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4971000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4402000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4006900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3920900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4383800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4978000</v>
+        <v>4940800</v>
       </c>
       <c r="E44" s="3">
-        <v>5259500</v>
+        <v>4743300</v>
       </c>
       <c r="F44" s="3">
-        <v>5064400</v>
+        <v>5011500</v>
       </c>
       <c r="G44" s="3">
-        <v>4766000</v>
+        <v>4825500</v>
       </c>
       <c r="H44" s="3">
-        <v>9186700</v>
+        <v>4541200</v>
       </c>
       <c r="I44" s="3">
-        <v>5023100</v>
+        <v>8753500</v>
       </c>
       <c r="J44" s="3">
+        <v>4786300</v>
+      </c>
+      <c r="K44" s="3">
         <v>4723100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4566000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4669100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5015600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5136400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5615900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5564900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6074600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5759800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5787500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5697000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6032500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5635200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5097500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4562800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5051200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4687700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4559700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4300700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4782900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>723800</v>
+        <v>839400</v>
       </c>
       <c r="E45" s="3">
-        <v>846100</v>
+        <v>689700</v>
       </c>
       <c r="F45" s="3">
-        <v>763600</v>
+        <v>806200</v>
       </c>
       <c r="G45" s="3">
-        <v>756200</v>
+        <v>727600</v>
       </c>
       <c r="H45" s="3">
-        <v>1255300</v>
+        <v>720600</v>
       </c>
       <c r="I45" s="3">
-        <v>855800</v>
+        <v>1196100</v>
       </c>
       <c r="J45" s="3">
+        <v>815400</v>
+      </c>
+      <c r="K45" s="3">
         <v>741800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>571100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>307100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>499700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>442900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>528600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>450900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>604200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>561800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>592100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>435700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>816100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>761300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>773600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>655800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1006500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1066100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1114300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>847500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>969300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11343400</v>
+        <v>10769300</v>
       </c>
       <c r="E46" s="3">
-        <v>11320400</v>
+        <v>10788300</v>
       </c>
       <c r="F46" s="3">
-        <v>10525600</v>
+        <v>10786500</v>
       </c>
       <c r="G46" s="3">
-        <v>9964300</v>
+        <v>10029300</v>
       </c>
       <c r="H46" s="3">
-        <v>9518700</v>
+        <v>9494400</v>
       </c>
       <c r="I46" s="3">
-        <v>9621000</v>
+        <v>9069800</v>
       </c>
       <c r="J46" s="3">
+        <v>9167300</v>
+      </c>
+      <c r="K46" s="3">
         <v>8802400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9020900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9113500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9995900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10134700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11250000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11089900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12314000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11454800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11037000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10920200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12605900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11459600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10761400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10086600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11484400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10566600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10117200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9560400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>10610100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1064700</v>
+        <v>1115700</v>
       </c>
       <c r="E47" s="3">
-        <v>1077900</v>
+        <v>1014500</v>
       </c>
       <c r="F47" s="3">
-        <v>1082800</v>
+        <v>1027000</v>
       </c>
       <c r="G47" s="3">
-        <v>1069200</v>
+        <v>1031700</v>
       </c>
       <c r="H47" s="3">
-        <v>1008100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
+        <v>1018800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>960600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -3779,180 +3883,189 @@
       <c r="AD47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3745100</v>
+        <v>3634800</v>
       </c>
       <c r="E48" s="3">
-        <v>3661200</v>
+        <v>3568500</v>
       </c>
       <c r="F48" s="3">
-        <v>3679900</v>
+        <v>3488500</v>
       </c>
       <c r="G48" s="3">
-        <v>3654400</v>
+        <v>3506400</v>
       </c>
       <c r="H48" s="3">
-        <v>6829000</v>
+        <v>3482100</v>
       </c>
       <c r="I48" s="3">
-        <v>3187300</v>
+        <v>6507000</v>
       </c>
       <c r="J48" s="3">
+        <v>3037000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3209100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3284500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3199400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3395700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3631100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4025000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4251400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4416300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4465200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4457200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4667300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4563000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4490400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4389800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4337400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4329700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4294800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4198900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4096900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3997600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>477600</v>
+        <v>471800</v>
       </c>
       <c r="E49" s="3">
-        <v>449100</v>
+        <v>455100</v>
       </c>
       <c r="F49" s="3">
-        <v>446900</v>
+        <v>428000</v>
       </c>
       <c r="G49" s="3">
-        <v>444200</v>
+        <v>425800</v>
       </c>
       <c r="H49" s="3">
-        <v>446600</v>
+        <v>423200</v>
       </c>
       <c r="I49" s="3">
-        <v>159300</v>
+        <v>425500</v>
       </c>
       <c r="J49" s="3">
+        <v>151800</v>
+      </c>
+      <c r="K49" s="3">
         <v>159400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>162400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>159000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>161900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>173300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>187600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>188200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>172900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>172200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>163500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>161400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>153300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>149800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>147200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>146200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>139900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>140700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>135000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>135600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>129900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1104100</v>
+        <v>1051200</v>
       </c>
       <c r="E52" s="3">
         <v>1058200</v>
       </c>
       <c r="F52" s="3">
-        <v>1077200</v>
+        <v>1008300</v>
       </c>
       <c r="G52" s="3">
-        <v>1067900</v>
+        <v>1026400</v>
       </c>
       <c r="H52" s="3">
-        <v>2934900</v>
+        <v>1017600</v>
       </c>
       <c r="I52" s="3">
-        <v>1791300</v>
+        <v>2796500</v>
       </c>
       <c r="J52" s="3">
+        <v>1706800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1826200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1903300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1457600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1421800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1488900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1726200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1735300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1816600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1839200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1865000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1936100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1603200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1588900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1530100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1599800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1276700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1362600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1339200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1304700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1350000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17734900</v>
+        <v>17042900</v>
       </c>
       <c r="E54" s="3">
-        <v>17566800</v>
+        <v>16884600</v>
       </c>
       <c r="F54" s="3">
-        <v>16812500</v>
+        <v>16738400</v>
       </c>
       <c r="G54" s="3">
-        <v>16199900</v>
+        <v>16019700</v>
       </c>
       <c r="H54" s="3">
-        <v>15679100</v>
+        <v>15436000</v>
       </c>
       <c r="I54" s="3">
-        <v>14749400</v>
+        <v>14939700</v>
       </c>
       <c r="J54" s="3">
+        <v>14053900</v>
+      </c>
+      <c r="K54" s="3">
         <v>13987200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14360900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13919600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14965300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15415400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17173200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17248600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18707700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17918500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17509700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17671400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18892700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17656100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16797100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16136700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17206800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>16230400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>15657000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14966900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>15952000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3260700</v>
+        <v>3001000</v>
       </c>
       <c r="E57" s="3">
-        <v>3122900</v>
+        <v>3107000</v>
       </c>
       <c r="F57" s="3">
-        <v>2868800</v>
+        <v>2975600</v>
       </c>
       <c r="G57" s="3">
-        <v>2726100</v>
+        <v>2733500</v>
       </c>
       <c r="H57" s="3">
-        <v>5365700</v>
+        <v>2597500</v>
       </c>
       <c r="I57" s="3">
-        <v>2282100</v>
+        <v>5112700</v>
       </c>
       <c r="J57" s="3">
+        <v>2174500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2173700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2313900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2518000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2447800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2367500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2621900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3274500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3083100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2942400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3095300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3558300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3258700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3116400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3052900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3283100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3120100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2995600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2794300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3033700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2805600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2452700</v>
+        <v>2815200</v>
       </c>
       <c r="E58" s="3">
-        <v>2976000</v>
+        <v>2213900</v>
       </c>
       <c r="F58" s="3">
-        <v>2618700</v>
+        <v>2835600</v>
       </c>
       <c r="G58" s="3">
-        <v>2339700</v>
+        <v>2495200</v>
       </c>
       <c r="H58" s="3">
-        <v>2350900</v>
+        <v>2229400</v>
       </c>
       <c r="I58" s="3">
-        <v>1283900</v>
+        <v>3495000</v>
       </c>
       <c r="J58" s="3">
+        <v>1223400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1279500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1016400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1224000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1345800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1415400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1634900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1653900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2582000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1721200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1287200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1060400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2197400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1264300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1106800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2153700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1639000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>976200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1162300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1079000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1467300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3722100</v>
+        <v>3434200</v>
       </c>
       <c r="E59" s="3">
-        <v>3289400</v>
+        <v>3669700</v>
       </c>
       <c r="F59" s="3">
-        <v>3260500</v>
+        <v>3134300</v>
       </c>
       <c r="G59" s="3">
-        <v>3254800</v>
+        <v>3106800</v>
       </c>
       <c r="H59" s="3">
-        <v>5134200</v>
+        <v>3101300</v>
       </c>
       <c r="I59" s="3">
-        <v>3944300</v>
+        <v>5071400</v>
       </c>
       <c r="J59" s="3">
+        <v>3758300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3306200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3568900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2763500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3549100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3645000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3728900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3421000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4249500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4389200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3687000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4536000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4683500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4229300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3591100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4206100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3979900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4074200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3368600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4169500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9435400</v>
+        <v>9250300</v>
       </c>
       <c r="E60" s="3">
-        <v>9388300</v>
+        <v>8990500</v>
       </c>
       <c r="F60" s="3">
-        <v>8748000</v>
+        <v>8945600</v>
       </c>
       <c r="G60" s="3">
-        <v>8320600</v>
+        <v>8335500</v>
       </c>
       <c r="H60" s="3">
-        <v>7640600</v>
+        <v>7928200</v>
       </c>
       <c r="I60" s="3">
-        <v>7510300</v>
+        <v>7280300</v>
       </c>
       <c r="J60" s="3">
+        <v>7156200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6759400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6899100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6505500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7342700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7428000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7985700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8349500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9914600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9064200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8771700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8305700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9992100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9064200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8389000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7859400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8965300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7951700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8030800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7481300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8442400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3209000</v>
+        <v>2869500</v>
       </c>
       <c r="E61" s="3">
-        <v>3101700</v>
+        <v>3007400</v>
       </c>
       <c r="F61" s="3">
-        <v>3119800</v>
+        <v>2955500</v>
       </c>
       <c r="G61" s="3">
-        <v>3098400</v>
+        <v>2972700</v>
       </c>
       <c r="H61" s="3">
-        <v>3302700</v>
+        <v>2952300</v>
       </c>
       <c r="I61" s="3">
-        <v>2680300</v>
+        <v>3081800</v>
       </c>
       <c r="J61" s="3">
+        <v>2553900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2705600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2831300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2826800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2831300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3012800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3572900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3081100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3024000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3087500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2996100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3162500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2995400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2840900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2830800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2853800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2937100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3077200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2508500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2475100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2627400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>772300</v>
+        <v>765000</v>
       </c>
       <c r="E62" s="3">
-        <v>914400</v>
+        <v>786100</v>
       </c>
       <c r="F62" s="3">
-        <v>914700</v>
+        <v>871300</v>
       </c>
       <c r="G62" s="3">
-        <v>903200</v>
+        <v>871600</v>
       </c>
       <c r="H62" s="3">
-        <v>1270800</v>
+        <v>860600</v>
       </c>
       <c r="I62" s="3">
-        <v>1260100</v>
+        <v>1276000</v>
       </c>
       <c r="J62" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1262100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1277500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1164400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1444200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1537400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1711600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1663500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1441800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1418300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1393600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1472600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1362100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1360700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1236500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1071800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1087100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1076900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1043000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1007200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1102900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13565800</v>
+        <v>13025500</v>
       </c>
       <c r="E66" s="3">
-        <v>13537100</v>
+        <v>12926100</v>
       </c>
       <c r="F66" s="3">
-        <v>12915900</v>
+        <v>12898700</v>
       </c>
       <c r="G66" s="3">
-        <v>12452200</v>
+        <v>12306900</v>
       </c>
       <c r="H66" s="3">
-        <v>12034500</v>
+        <v>11865000</v>
       </c>
       <c r="I66" s="3">
-        <v>11586600</v>
+        <v>11467000</v>
       </c>
       <c r="J66" s="3">
+        <v>11040200</v>
+      </c>
+      <c r="K66" s="3">
         <v>10858200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11138400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10620400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11739800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12100800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13401500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13234500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14525700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13713800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13304000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13093300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14506700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13411300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12591200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11923500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13128900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12237000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11710700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11088500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12292600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2756400</v>
+        <v>2605900</v>
       </c>
       <c r="E72" s="3">
-        <v>2633800</v>
+        <v>2612400</v>
       </c>
       <c r="F72" s="3">
-        <v>2464000</v>
+        <v>2509600</v>
       </c>
       <c r="G72" s="3">
-        <v>2330800</v>
+        <v>2347800</v>
       </c>
       <c r="H72" s="3">
-        <v>2312000</v>
+        <v>2220900</v>
       </c>
       <c r="I72" s="3">
-        <v>1953000</v>
+        <v>2203000</v>
       </c>
       <c r="J72" s="3">
+        <v>1860900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1957200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2034500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2173600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2286100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2332000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2685700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2877600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2848900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2849600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2798900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3119500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2912600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2781500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2777500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2784400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2654300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2621100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2598000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2549700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2476700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4169100</v>
+        <v>4017400</v>
       </c>
       <c r="E76" s="3">
-        <v>4029700</v>
+        <v>3958500</v>
       </c>
       <c r="F76" s="3">
-        <v>3896500</v>
+        <v>3839700</v>
       </c>
       <c r="G76" s="3">
-        <v>3747800</v>
+        <v>3712800</v>
       </c>
       <c r="H76" s="3">
-        <v>3644500</v>
+        <v>3571000</v>
       </c>
       <c r="I76" s="3">
-        <v>3162800</v>
+        <v>3472700</v>
       </c>
       <c r="J76" s="3">
+        <v>3013700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3128900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3222500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3299200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3225400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3314600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3771700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4014100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4182100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4204800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4205800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4578100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4386000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4244700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4205900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4213200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4078000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3993400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3946300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3878400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3659400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18500</v>
+        <v>62400</v>
       </c>
       <c r="E81" s="3">
-        <v>207300</v>
+        <v>3600</v>
       </c>
       <c r="F81" s="3">
-        <v>132000</v>
+        <v>197500</v>
       </c>
       <c r="G81" s="3">
-        <v>39300</v>
+        <v>125800</v>
       </c>
       <c r="H81" s="3">
-        <v>6900</v>
+        <v>37500</v>
       </c>
       <c r="I81" s="3">
-        <v>23900</v>
+        <v>6600</v>
       </c>
       <c r="J81" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-34700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>80700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>97500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-120700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>122500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-75600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>154400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>141400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-57200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>130100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>33100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>68500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>29600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>73000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>161600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>154300</v>
+        <v>147000</v>
       </c>
       <c r="E83" s="3">
-        <v>132700</v>
+        <v>147000</v>
       </c>
       <c r="F83" s="3">
-        <v>133900</v>
+        <v>126400</v>
       </c>
       <c r="G83" s="3">
-        <v>137000</v>
+        <v>127600</v>
       </c>
       <c r="H83" s="3">
-        <v>144500</v>
+        <v>130600</v>
       </c>
       <c r="I83" s="3">
-        <v>136600</v>
+        <v>137600</v>
       </c>
       <c r="J83" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K83" s="3">
         <v>139400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>112000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>111700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>118200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>128300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>141400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>135100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>143800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>139000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>136000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>133600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>130900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>128500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>125300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>122800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>119500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>115100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,43 +7135,46 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>985900</v>
+        <v>-154100</v>
       </c>
       <c r="E89" s="3">
-        <v>-310700</v>
+        <v>939400</v>
       </c>
       <c r="F89" s="3">
-        <v>-57900</v>
+        <v>-296000</v>
       </c>
       <c r="G89" s="3">
-        <v>-447000</v>
+        <v>-55200</v>
       </c>
       <c r="H89" s="3">
-        <v>2109100</v>
+        <v>-425900</v>
       </c>
       <c r="I89" s="3">
-        <v>-371100</v>
+        <v>2009700</v>
       </c>
       <c r="J89" s="3">
+        <v>-353600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-393600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-217400</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -7008,8 +7224,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,43 +7259,44 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19019000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31195000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14756000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10678000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13315000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25250000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13164000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15209000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-103000</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -7126,8 +7346,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,43 +7524,46 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-174400</v>
+        <v>-151100</v>
       </c>
       <c r="E94" s="3">
-        <v>-128500</v>
+        <v>-166200</v>
       </c>
       <c r="F94" s="3">
-        <v>-82300</v>
+        <v>-122400</v>
       </c>
       <c r="G94" s="3">
-        <v>-173300</v>
+        <v>-78400</v>
       </c>
       <c r="H94" s="3">
-        <v>-43900</v>
+        <v>-165100</v>
       </c>
       <c r="I94" s="3">
-        <v>-131700</v>
+        <v>-41800</v>
       </c>
       <c r="J94" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-105300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99800</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -7384,8 +7613,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,38 +7648,39 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2900</v>
+        <v>-64100</v>
       </c>
       <c r="E96" s="3">
-        <v>-33400</v>
+        <v>-2800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1900</v>
+        <v>-31800</v>
       </c>
       <c r="G96" s="3">
-        <v>-22200</v>
+        <v>-1800</v>
       </c>
       <c r="H96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-22400</v>
-      </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-21300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7502,8 +7735,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,43 +8002,46 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-477700</v>
+        <v>13200</v>
       </c>
       <c r="E100" s="3">
-        <v>435100</v>
+        <v>-455200</v>
       </c>
       <c r="F100" s="3">
-        <v>205100</v>
+        <v>414600</v>
       </c>
       <c r="G100" s="3">
-        <v>452600</v>
+        <v>195400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1673500</v>
+        <v>431200</v>
       </c>
       <c r="I100" s="3">
-        <v>535600</v>
+        <v>-1594500</v>
       </c>
       <c r="J100" s="3">
+        <v>510300</v>
+      </c>
+      <c r="K100" s="3">
         <v>128200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>277100</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7846,43 +8091,46 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29800</v>
+        <v>-27800</v>
       </c>
       <c r="E101" s="3">
-        <v>39700</v>
+        <v>28400</v>
       </c>
       <c r="F101" s="3">
-        <v>-32000</v>
+        <v>37800</v>
       </c>
       <c r="G101" s="3">
-        <v>-48700</v>
+        <v>-30500</v>
       </c>
       <c r="H101" s="3">
-        <v>-14600</v>
+        <v>-46400</v>
       </c>
       <c r="I101" s="3">
-        <v>-9700</v>
+        <v>-13900</v>
       </c>
       <c r="J101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7932,43 +8180,46 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>363500</v>
+        <v>-319700</v>
       </c>
       <c r="E102" s="3">
-        <v>35700</v>
+        <v>346400</v>
       </c>
       <c r="F102" s="3">
-        <v>32800</v>
+        <v>34000</v>
       </c>
       <c r="G102" s="3">
-        <v>-216400</v>
+        <v>31200</v>
       </c>
       <c r="H102" s="3">
-        <v>287300</v>
+        <v>-206200</v>
       </c>
       <c r="I102" s="3">
-        <v>100100</v>
+        <v>273800</v>
       </c>
       <c r="J102" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-449100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37500</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -8016,6 +8267,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>KWHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2784700</v>
+        <v>2417000</v>
       </c>
       <c r="E8" s="3">
-        <v>3636100</v>
+        <v>2691500</v>
       </c>
       <c r="F8" s="3">
-        <v>2999300</v>
+        <v>3514400</v>
       </c>
       <c r="G8" s="3">
-        <v>2812600</v>
+        <v>2898900</v>
       </c>
       <c r="H8" s="3">
-        <v>2406900</v>
+        <v>2718400</v>
       </c>
       <c r="I8" s="3">
-        <v>3175300</v>
+        <v>2326300</v>
       </c>
       <c r="J8" s="3">
+        <v>3069000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2457000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2346600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2613400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3233100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2749900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2778900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2564100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4456900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3633800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3545400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3213100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4806500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3837100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3198800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3125000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4356100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3459100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3384500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3031400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4220200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3066800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3170500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2330600</v>
+        <v>2268700</v>
       </c>
       <c r="E9" s="3">
-        <v>3038500</v>
+        <v>2252600</v>
       </c>
       <c r="F9" s="3">
-        <v>2266000</v>
+        <v>2936800</v>
       </c>
       <c r="G9" s="3">
-        <v>2244300</v>
+        <v>2190200</v>
       </c>
       <c r="H9" s="3">
-        <v>2012700</v>
+        <v>2169200</v>
       </c>
       <c r="I9" s="3">
-        <v>2737000</v>
+        <v>1945300</v>
       </c>
       <c r="J9" s="3">
+        <v>2645300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1965700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1960400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2140300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2819800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2277000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2419600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2374400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3671300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2955100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3016900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2761100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4003100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3097700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2730600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2618400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3755500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2755000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2851000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2568800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3558100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2505800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2794600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>454100</v>
+        <v>148200</v>
       </c>
       <c r="E10" s="3">
-        <v>597600</v>
+        <v>438900</v>
       </c>
       <c r="F10" s="3">
-        <v>733300</v>
+        <v>577600</v>
       </c>
       <c r="G10" s="3">
-        <v>568300</v>
+        <v>708700</v>
       </c>
       <c r="H10" s="3">
-        <v>394100</v>
+        <v>549200</v>
       </c>
       <c r="I10" s="3">
-        <v>438300</v>
+        <v>381000</v>
       </c>
       <c r="J10" s="3">
+        <v>423600</v>
+      </c>
+      <c r="K10" s="3">
         <v>491400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>386200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>473100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>413200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>472900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>359300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>189700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>785600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>678700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>528500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>452100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>803400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>739500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>468200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>506600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>704100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>533500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>462600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>662000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>561100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,77 +1115,80 @@
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
-        <v>105300</v>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J12" s="3">
+        <v>101800</v>
+      </c>
+      <c r="K12" s="3">
         <v>82100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>107800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>78500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>84900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>69500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>143000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>115100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>116000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>101800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>147100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>115000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>101400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>93800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>129900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>94100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>101300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>85500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>113200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>90400</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>99800</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,8 +1276,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1280,38 +1299,38 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>9400</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>110500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30500</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>21700</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1328,14 +1347,14 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>116000</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1349,8 +1368,11 @@
       <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2714200</v>
+        <v>2703200</v>
       </c>
       <c r="E17" s="3">
-        <v>3626000</v>
+        <v>2623400</v>
       </c>
       <c r="F17" s="3">
-        <v>2655500</v>
+        <v>3504700</v>
       </c>
       <c r="G17" s="3">
-        <v>2632300</v>
+        <v>2566600</v>
       </c>
       <c r="H17" s="3">
-        <v>2375300</v>
+        <v>2544200</v>
       </c>
       <c r="I17" s="3">
-        <v>3164100</v>
+        <v>2295800</v>
       </c>
       <c r="J17" s="3">
+        <v>3058200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2380700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2353200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2477100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3354700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2617100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2818900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2740400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4183100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3452300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3475600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3203200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4545400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3569100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3186200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3060400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4254200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3317200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3283200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2987000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4015400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2939200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3236700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>70400</v>
+        <v>-286200</v>
       </c>
       <c r="E18" s="3">
-        <v>10100</v>
+        <v>68100</v>
       </c>
       <c r="F18" s="3">
-        <v>343900</v>
+        <v>9800</v>
       </c>
       <c r="G18" s="3">
-        <v>180200</v>
+        <v>332400</v>
       </c>
       <c r="H18" s="3">
-        <v>31600</v>
+        <v>174200</v>
       </c>
       <c r="I18" s="3">
-        <v>11100</v>
+        <v>30500</v>
       </c>
       <c r="J18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K18" s="3">
         <v>76300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>136300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-121600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>132800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-40000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-176200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>273800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>181500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>261100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>268000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>64600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>102000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>141900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>101300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>44400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>204800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>127600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,186 +1711,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32400</v>
+        <v>-42100</v>
       </c>
       <c r="E20" s="3">
-        <v>-22300</v>
+        <v>31300</v>
       </c>
       <c r="F20" s="3">
-        <v>-95300</v>
+        <v>-21600</v>
       </c>
       <c r="G20" s="3">
-        <v>-6200</v>
+        <v>-92100</v>
       </c>
       <c r="H20" s="3">
-        <v>41300</v>
+        <v>-5900</v>
       </c>
       <c r="I20" s="3">
-        <v>14600</v>
+        <v>39900</v>
       </c>
       <c r="J20" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>64600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-45800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-62200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-41800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-79300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-73400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-82700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>20000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-42200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-26800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>10800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-77600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>98500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>249800</v>
+        <v>-181300</v>
       </c>
       <c r="E21" s="3">
-        <v>134800</v>
+        <v>241400</v>
       </c>
       <c r="F21" s="3">
-        <v>375000</v>
+        <v>130300</v>
       </c>
       <c r="G21" s="3">
-        <v>301700</v>
+        <v>362400</v>
       </c>
       <c r="H21" s="3">
-        <v>203400</v>
+        <v>291600</v>
       </c>
       <c r="I21" s="3">
-        <v>163400</v>
+        <v>196600</v>
       </c>
       <c r="J21" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K21" s="3">
         <v>204500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>269200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>252100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>367600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>258700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>209800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>103200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>325600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>333600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>65900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>218200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>190700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>243500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>218900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>177900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>246600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>341100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1877,255 +1916,264 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>5800</v>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7100</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>6100</v>
       </c>
       <c r="AA22" s="3">
         <v>6100</v>
       </c>
       <c r="AB22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="AC22" s="3">
         <v>6000</v>
       </c>
       <c r="AD22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>6700</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>102800</v>
+        <v>-328300</v>
       </c>
       <c r="E23" s="3">
-        <v>-12200</v>
+        <v>99400</v>
       </c>
       <c r="F23" s="3">
-        <v>248600</v>
+        <v>-11800</v>
       </c>
       <c r="G23" s="3">
-        <v>174100</v>
+        <v>240200</v>
       </c>
       <c r="H23" s="3">
-        <v>72900</v>
+        <v>168300</v>
       </c>
       <c r="I23" s="3">
-        <v>19900</v>
+        <v>70400</v>
       </c>
       <c r="J23" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K23" s="3">
         <v>68700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>125400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-109900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>133400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-120400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>220700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>110800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-40200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>172900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>185600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-77500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>52700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>108900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>87500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>49100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>121200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>219400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-66200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>36100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M24" s="3">
         <v>37900</v>
       </c>
-      <c r="E24" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>47300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>46000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>33000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>36100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>9900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>37900</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-76400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>92100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>93700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-25000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>51200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-83100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>68700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>15800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>43200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>54100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-25500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>64900</v>
+        <v>-211500</v>
       </c>
       <c r="E26" s="3">
-        <v>10700</v>
+        <v>62700</v>
       </c>
       <c r="F26" s="3">
-        <v>201200</v>
+        <v>10400</v>
       </c>
       <c r="G26" s="3">
-        <v>128000</v>
+        <v>194500</v>
       </c>
       <c r="H26" s="3">
-        <v>39800</v>
+        <v>123800</v>
       </c>
       <c r="I26" s="3">
-        <v>12800</v>
+        <v>38500</v>
       </c>
       <c r="J26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K26" s="3">
         <v>32500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-117600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>127000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-73000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>160400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>149900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-52500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>26500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>135900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>40200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>74000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>33300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>78000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>165300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-40700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>62400</v>
+        <v>-215400</v>
       </c>
       <c r="E27" s="3">
-        <v>3600</v>
+        <v>60400</v>
       </c>
       <c r="F27" s="3">
-        <v>197500</v>
+        <v>3400</v>
       </c>
       <c r="G27" s="3">
-        <v>125800</v>
+        <v>190900</v>
       </c>
       <c r="H27" s="3">
-        <v>37500</v>
+        <v>121500</v>
       </c>
       <c r="I27" s="3">
-        <v>6600</v>
+        <v>36200</v>
       </c>
       <c r="J27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K27" s="3">
         <v>22800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>97500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-120700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>122500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>77400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-75600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>154400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>141400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-57200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>130100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>33100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>68500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>29600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>73000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>161600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32400</v>
+        <v>42100</v>
       </c>
       <c r="E32" s="3">
-        <v>22300</v>
+        <v>-31300</v>
       </c>
       <c r="F32" s="3">
-        <v>95300</v>
+        <v>21600</v>
       </c>
       <c r="G32" s="3">
-        <v>6200</v>
+        <v>92100</v>
       </c>
       <c r="H32" s="3">
-        <v>-41300</v>
+        <v>5900</v>
       </c>
       <c r="I32" s="3">
-        <v>-14600</v>
+        <v>-39900</v>
       </c>
       <c r="J32" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>45800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>62200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>41800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>79300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>73400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>82700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>42200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>26800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-10800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>77600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-98500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>62400</v>
+        <v>-215400</v>
       </c>
       <c r="E33" s="3">
-        <v>3600</v>
+        <v>60400</v>
       </c>
       <c r="F33" s="3">
-        <v>197500</v>
+        <v>3400</v>
       </c>
       <c r="G33" s="3">
-        <v>125800</v>
+        <v>190900</v>
       </c>
       <c r="H33" s="3">
-        <v>37500</v>
+        <v>121500</v>
       </c>
       <c r="I33" s="3">
-        <v>6600</v>
+        <v>36200</v>
       </c>
       <c r="J33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K33" s="3">
         <v>22800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>80700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>97500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-120700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>122500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>77400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>41500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-75600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>154400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>141400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-57200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>130100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>33100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>68500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>29600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>73000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>161600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>62400</v>
+        <v>-215400</v>
       </c>
       <c r="E35" s="3">
-        <v>3600</v>
+        <v>60400</v>
       </c>
       <c r="F35" s="3">
-        <v>197500</v>
+        <v>3400</v>
       </c>
       <c r="G35" s="3">
-        <v>125800</v>
+        <v>190900</v>
       </c>
       <c r="H35" s="3">
-        <v>37500</v>
+        <v>121500</v>
       </c>
       <c r="I35" s="3">
-        <v>6600</v>
+        <v>36200</v>
       </c>
       <c r="J35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K35" s="3">
         <v>22800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>80700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>97500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-120700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>122500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>77400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>41500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-75600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>154400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>141400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-57200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>130100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>33100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>68500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>29600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>73000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>161600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,120 +3348,124 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>631200</v>
+        <v>567100</v>
       </c>
       <c r="E41" s="3">
-        <v>950900</v>
+        <v>610100</v>
       </c>
       <c r="F41" s="3">
-        <v>604500</v>
+        <v>919100</v>
       </c>
       <c r="G41" s="3">
-        <v>570500</v>
+        <v>584300</v>
       </c>
       <c r="H41" s="3">
-        <v>539300</v>
+        <v>551400</v>
       </c>
       <c r="I41" s="3">
-        <v>1531900</v>
+        <v>521200</v>
       </c>
       <c r="J41" s="3">
+        <v>1480600</v>
+      </c>
+      <c r="K41" s="3">
         <v>517000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>436900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>897100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>898300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1006600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1193300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1464500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>934800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>677900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>383600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>407000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>714100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>473500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>533400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>527700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>638500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>455700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>410800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>436300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>491300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>474100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63700</v>
+        <v>71100</v>
       </c>
       <c r="E42" s="3">
-        <v>73800</v>
+        <v>61600</v>
       </c>
       <c r="F42" s="3">
-        <v>100200</v>
+        <v>71300</v>
       </c>
       <c r="G42" s="3">
-        <v>60000</v>
+        <v>96800</v>
       </c>
       <c r="H42" s="3">
-        <v>86400</v>
+        <v>58000</v>
       </c>
       <c r="I42" s="3">
-        <v>72900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
+        <v>83500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>70400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -3390,8 +3479,8 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3441,387 +3530,402 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4294200</v>
+        <v>4250300</v>
       </c>
       <c r="E43" s="3">
-        <v>4330600</v>
+        <v>4150400</v>
       </c>
       <c r="F43" s="3">
-        <v>4264000</v>
+        <v>4185700</v>
       </c>
       <c r="G43" s="3">
-        <v>3845600</v>
+        <v>4121300</v>
       </c>
       <c r="H43" s="3">
-        <v>3607000</v>
+        <v>3716900</v>
       </c>
       <c r="I43" s="3">
-        <v>6431300</v>
+        <v>3486200</v>
       </c>
       <c r="J43" s="3">
+        <v>6216000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3048600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2986800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3239000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3474100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3362100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3641000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4139300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4957300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4749700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4250400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4073400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5283800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4529800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4362500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4229500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4971000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4402000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4006900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3920900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4383800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3795500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4940800</v>
+        <v>5002200</v>
       </c>
       <c r="E44" s="3">
-        <v>4743300</v>
+        <v>4775400</v>
       </c>
       <c r="F44" s="3">
-        <v>5011500</v>
+        <v>4584500</v>
       </c>
       <c r="G44" s="3">
-        <v>4825500</v>
+        <v>4843700</v>
       </c>
       <c r="H44" s="3">
-        <v>4541200</v>
+        <v>4664000</v>
       </c>
       <c r="I44" s="3">
-        <v>8753500</v>
+        <v>4389200</v>
       </c>
       <c r="J44" s="3">
+        <v>8460400</v>
+      </c>
+      <c r="K44" s="3">
         <v>4786300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4723100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4566000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4669100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5015600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5136400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5615900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5564900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6074600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5759800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5787500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5697000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6032500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5635200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5097500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4562800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5051200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4687700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4559700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4300700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4782900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>4404100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>839400</v>
+        <v>758600</v>
       </c>
       <c r="E45" s="3">
-        <v>689700</v>
+        <v>811300</v>
       </c>
       <c r="F45" s="3">
-        <v>806200</v>
+        <v>666600</v>
       </c>
       <c r="G45" s="3">
-        <v>727600</v>
+        <v>779300</v>
       </c>
       <c r="H45" s="3">
-        <v>720600</v>
+        <v>703300</v>
       </c>
       <c r="I45" s="3">
-        <v>1196100</v>
+        <v>696400</v>
       </c>
       <c r="J45" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="K45" s="3">
         <v>815400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>741800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>571100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>307100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>499700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>442900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>528600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>450900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>604200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>561800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>592100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>435700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>816100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>761300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>773600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>655800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1006500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1066100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1114300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>847500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>969300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>854600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10769300</v>
+        <v>10649300</v>
       </c>
       <c r="E46" s="3">
-        <v>10788300</v>
+        <v>10408800</v>
       </c>
       <c r="F46" s="3">
-        <v>10786500</v>
+        <v>10427100</v>
       </c>
       <c r="G46" s="3">
-        <v>10029300</v>
+        <v>10425400</v>
       </c>
       <c r="H46" s="3">
-        <v>9494400</v>
+        <v>9693500</v>
       </c>
       <c r="I46" s="3">
-        <v>9069800</v>
+        <v>9176500</v>
       </c>
       <c r="J46" s="3">
+        <v>8766200</v>
+      </c>
+      <c r="K46" s="3">
         <v>9167300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8802400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9020900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9113500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9995900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10134700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11250000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11089900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12314000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11454800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11037000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10920200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12605900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11459600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10761400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10086600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11484400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10566600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>10117200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>9560400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>10610100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>9404300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1115700</v>
+        <v>1124100</v>
       </c>
       <c r="E47" s="3">
-        <v>1014500</v>
+        <v>1078400</v>
       </c>
       <c r="F47" s="3">
-        <v>1027000</v>
+        <v>980500</v>
       </c>
       <c r="G47" s="3">
-        <v>1031700</v>
+        <v>992600</v>
       </c>
       <c r="H47" s="3">
-        <v>1018800</v>
+        <v>997200</v>
       </c>
       <c r="I47" s="3">
-        <v>960600</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
+        <v>984700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>928400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -3886,186 +3990,195 @@
       <c r="AE47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3634800</v>
+        <v>3589700</v>
       </c>
       <c r="E48" s="3">
-        <v>3568500</v>
+        <v>3513100</v>
       </c>
       <c r="F48" s="3">
-        <v>3488500</v>
+        <v>3449000</v>
       </c>
       <c r="G48" s="3">
-        <v>3506400</v>
+        <v>3371700</v>
       </c>
       <c r="H48" s="3">
-        <v>3482100</v>
+        <v>3389000</v>
       </c>
       <c r="I48" s="3">
-        <v>6507000</v>
+        <v>3365500</v>
       </c>
       <c r="J48" s="3">
+        <v>6289100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3037000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3209100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3284500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3199400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3395700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3631100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4025000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4251400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4416300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4465200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4457200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4667300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4563000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4490400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4389800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4337400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4329700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4294800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4198900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4096900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3997600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3936200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>471800</v>
+        <v>452300</v>
       </c>
       <c r="E49" s="3">
-        <v>455100</v>
+        <v>456000</v>
       </c>
       <c r="F49" s="3">
-        <v>428000</v>
+        <v>439900</v>
       </c>
       <c r="G49" s="3">
-        <v>425800</v>
+        <v>413600</v>
       </c>
       <c r="H49" s="3">
-        <v>423200</v>
+        <v>411600</v>
       </c>
       <c r="I49" s="3">
-        <v>425500</v>
+        <v>409000</v>
       </c>
       <c r="J49" s="3">
+        <v>411300</v>
+      </c>
+      <c r="K49" s="3">
         <v>151800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>159400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>162400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>159000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>161900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>173300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>187600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>188200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>172900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>172200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>163500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>161400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>153300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>149800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>147200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>146200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>139900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>140700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>135000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>135600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>129900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>129700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1051200</v>
+        <v>1159600</v>
       </c>
       <c r="E52" s="3">
-        <v>1058200</v>
+        <v>1016000</v>
       </c>
       <c r="F52" s="3">
-        <v>1008300</v>
+        <v>1022800</v>
       </c>
       <c r="G52" s="3">
-        <v>1026400</v>
+        <v>974600</v>
       </c>
       <c r="H52" s="3">
-        <v>1017600</v>
+        <v>992000</v>
       </c>
       <c r="I52" s="3">
-        <v>2796500</v>
+        <v>983500</v>
       </c>
       <c r="J52" s="3">
+        <v>2702900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1706800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1826200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1903300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1457600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1421800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1488900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1726200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1735300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1816600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1839200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1865000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1936100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1603200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1588900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1530100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1599800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1276700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1362600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1339200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1304700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1350000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1345100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17042900</v>
+        <v>16975000</v>
       </c>
       <c r="E54" s="3">
-        <v>16884600</v>
+        <v>16472300</v>
       </c>
       <c r="F54" s="3">
-        <v>16738400</v>
+        <v>16319300</v>
       </c>
       <c r="G54" s="3">
-        <v>16019700</v>
+        <v>16178000</v>
       </c>
       <c r="H54" s="3">
-        <v>15436000</v>
+        <v>15483300</v>
       </c>
       <c r="I54" s="3">
-        <v>14939700</v>
+        <v>14919200</v>
       </c>
       <c r="J54" s="3">
+        <v>14439500</v>
+      </c>
+      <c r="K54" s="3">
         <v>14053900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13987200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14360900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13919600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14965300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15415400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17173200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17248600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18707700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17918500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17509700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17671400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18892700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17656100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16797100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16136700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17206800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>16230400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>15657000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14966900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>15952000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>14698300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3001000</v>
+        <v>3030600</v>
       </c>
       <c r="E57" s="3">
-        <v>3107000</v>
+        <v>2900500</v>
       </c>
       <c r="F57" s="3">
-        <v>2975600</v>
+        <v>3002900</v>
       </c>
       <c r="G57" s="3">
-        <v>2733500</v>
+        <v>2876000</v>
       </c>
       <c r="H57" s="3">
-        <v>2597500</v>
+        <v>2642000</v>
       </c>
       <c r="I57" s="3">
-        <v>5112700</v>
+        <v>2510600</v>
       </c>
       <c r="J57" s="3">
+        <v>4941500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2174500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2173700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2313900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2518000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2447800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2367500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2621900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3274500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3083100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2942400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3095300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3558300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3258700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3116400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3052900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3283100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3120100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2995600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2794300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3033700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2805600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2587400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2815200</v>
+        <v>3125600</v>
       </c>
       <c r="E58" s="3">
-        <v>2213900</v>
+        <v>2720900</v>
       </c>
       <c r="F58" s="3">
-        <v>2835600</v>
+        <v>2139700</v>
       </c>
       <c r="G58" s="3">
-        <v>2495200</v>
+        <v>2740700</v>
       </c>
       <c r="H58" s="3">
-        <v>2229400</v>
+        <v>2411700</v>
       </c>
       <c r="I58" s="3">
-        <v>3495000</v>
+        <v>2154800</v>
       </c>
       <c r="J58" s="3">
+        <v>3378000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1223400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1279500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1016400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1224000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1345800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1415400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1634900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1653900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2582000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1721200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1287200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1060400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2197400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1264300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1106800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2153700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1639000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>976200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1162300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1079000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1467300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>994200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3434200</v>
+        <v>3674900</v>
       </c>
       <c r="E59" s="3">
-        <v>3669700</v>
+        <v>3319200</v>
       </c>
       <c r="F59" s="3">
-        <v>3134300</v>
+        <v>3546800</v>
       </c>
       <c r="G59" s="3">
-        <v>3106800</v>
+        <v>3029400</v>
       </c>
       <c r="H59" s="3">
-        <v>3101300</v>
+        <v>3002800</v>
       </c>
       <c r="I59" s="3">
-        <v>5071400</v>
+        <v>2997500</v>
       </c>
       <c r="J59" s="3">
+        <v>4901600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3758300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3306200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3568900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2763500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3549100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3645000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3728900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3421000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4249500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4389200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3687000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4536000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4683500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4229300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3591100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4206100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3979900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4074200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3368600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4169500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>4018400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9250300</v>
+        <v>9831000</v>
       </c>
       <c r="E60" s="3">
-        <v>8990500</v>
+        <v>8940600</v>
       </c>
       <c r="F60" s="3">
-        <v>8945600</v>
+        <v>8689500</v>
       </c>
       <c r="G60" s="3">
-        <v>8335500</v>
+        <v>8646100</v>
       </c>
       <c r="H60" s="3">
-        <v>7928200</v>
+        <v>8056400</v>
       </c>
       <c r="I60" s="3">
-        <v>7280300</v>
+        <v>7662800</v>
       </c>
       <c r="J60" s="3">
+        <v>7036600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7156200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6759400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6899100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6505500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7342700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7428000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7985700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8349500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9914600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9064200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8771700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8305700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9992100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9064200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8389000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7859400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8965300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7951700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8030800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7481300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>8442400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>7599900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2869500</v>
+        <v>2535600</v>
       </c>
       <c r="E61" s="3">
-        <v>3007400</v>
+        <v>2773400</v>
       </c>
       <c r="F61" s="3">
-        <v>2955500</v>
+        <v>2906700</v>
       </c>
       <c r="G61" s="3">
-        <v>2972700</v>
+        <v>2856500</v>
       </c>
       <c r="H61" s="3">
-        <v>2952300</v>
+        <v>2873100</v>
       </c>
       <c r="I61" s="3">
-        <v>3081800</v>
+        <v>2853400</v>
       </c>
       <c r="J61" s="3">
+        <v>2978600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2553900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2705600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2831300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2826800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2831300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3012800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3572900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3081100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3024000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3087500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2996100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3162500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2995400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2840900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2830800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2853800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2937100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3077200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2508500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2475100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2627400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2454600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>765000</v>
+        <v>745600</v>
       </c>
       <c r="E62" s="3">
-        <v>786100</v>
+        <v>739400</v>
       </c>
       <c r="F62" s="3">
-        <v>871300</v>
+        <v>759800</v>
       </c>
       <c r="G62" s="3">
-        <v>871600</v>
+        <v>842200</v>
       </c>
       <c r="H62" s="3">
-        <v>860600</v>
+        <v>842400</v>
       </c>
       <c r="I62" s="3">
-        <v>1276000</v>
+        <v>831800</v>
       </c>
       <c r="J62" s="3">
+        <v>1233200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1200600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1262100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1277500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1164400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1444200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1537400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1711600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1663500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1441800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1418300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1393600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1472600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1362100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1360700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1236500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1071800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1087100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1076900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1043000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1007200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1102900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1080700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13025500</v>
+        <v>13244500</v>
       </c>
       <c r="E66" s="3">
-        <v>12926100</v>
+        <v>12589500</v>
       </c>
       <c r="F66" s="3">
-        <v>12898700</v>
+        <v>12493300</v>
       </c>
       <c r="G66" s="3">
-        <v>12306900</v>
+        <v>12466900</v>
       </c>
       <c r="H66" s="3">
-        <v>11865000</v>
+        <v>11894800</v>
       </c>
       <c r="I66" s="3">
-        <v>11467000</v>
+        <v>11467700</v>
       </c>
       <c r="J66" s="3">
+        <v>11083100</v>
+      </c>
+      <c r="K66" s="3">
         <v>11040200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10858200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11138400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10620400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11739800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12100800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13401500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13234500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14525700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13713800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13304000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13093300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14506700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13411300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12591200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11923500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13128900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12237000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11710700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11088500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>12292600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>11247600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2605900</v>
+        <v>2302900</v>
       </c>
       <c r="E72" s="3">
-        <v>2612400</v>
+        <v>2518700</v>
       </c>
       <c r="F72" s="3">
-        <v>2509600</v>
+        <v>2524900</v>
       </c>
       <c r="G72" s="3">
-        <v>2347800</v>
+        <v>2425600</v>
       </c>
       <c r="H72" s="3">
-        <v>2220900</v>
+        <v>2269200</v>
       </c>
       <c r="I72" s="3">
-        <v>2203000</v>
+        <v>2146500</v>
       </c>
       <c r="J72" s="3">
+        <v>2129300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1860900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1957200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2034500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2173600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2286100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2332000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2685700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2877600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2848900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2849600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2798900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3119500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2912600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2781500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2777500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2784400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2654300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2621100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2598000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2549700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2476700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>2315100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4017400</v>
+        <v>3730500</v>
       </c>
       <c r="E76" s="3">
-        <v>3958500</v>
+        <v>3882900</v>
       </c>
       <c r="F76" s="3">
-        <v>3839700</v>
+        <v>3826000</v>
       </c>
       <c r="G76" s="3">
-        <v>3712800</v>
+        <v>3711100</v>
       </c>
       <c r="H76" s="3">
-        <v>3571000</v>
+        <v>3588500</v>
       </c>
       <c r="I76" s="3">
-        <v>3472700</v>
+        <v>3451500</v>
       </c>
       <c r="J76" s="3">
+        <v>3356400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3013700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3128900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3222500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3299200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3225400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3314600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3771700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4014100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4182100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4204800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4205800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4578100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4386000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4244700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4205900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4213200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4078000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3993400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3946300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3878400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3659400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3450600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>62400</v>
+        <v>-215400</v>
       </c>
       <c r="E81" s="3">
-        <v>3600</v>
+        <v>60400</v>
       </c>
       <c r="F81" s="3">
-        <v>197500</v>
+        <v>3400</v>
       </c>
       <c r="G81" s="3">
-        <v>125800</v>
+        <v>190900</v>
       </c>
       <c r="H81" s="3">
-        <v>37500</v>
+        <v>121500</v>
       </c>
       <c r="I81" s="3">
-        <v>6600</v>
+        <v>36200</v>
       </c>
       <c r="J81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K81" s="3">
         <v>22800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>80700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>97500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-120700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>122500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>77400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>41500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-75600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>154400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>141400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-57200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>130100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>33100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>68500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>29600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>73000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>161600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-44700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,8 +6801,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6613,88 +6811,91 @@
         <v>147000</v>
       </c>
       <c r="E83" s="3">
-        <v>147000</v>
+        <v>142000</v>
       </c>
       <c r="F83" s="3">
-        <v>126400</v>
+        <v>142100</v>
       </c>
       <c r="G83" s="3">
-        <v>127600</v>
+        <v>122200</v>
       </c>
       <c r="H83" s="3">
-        <v>130600</v>
+        <v>123300</v>
       </c>
       <c r="I83" s="3">
-        <v>137600</v>
+        <v>126200</v>
       </c>
       <c r="J83" s="3">
+        <v>133000</v>
+      </c>
+      <c r="K83" s="3">
         <v>130100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>139400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>112000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>111700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>118200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>128300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>139400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>141400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>135100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>143800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>139000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>136000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>133600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>130900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>128500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>125300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>122800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>119500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>115100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>112200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,46 +7351,49 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-154100</v>
+        <v>46400</v>
       </c>
       <c r="E89" s="3">
-        <v>939400</v>
+        <v>-149000</v>
       </c>
       <c r="F89" s="3">
-        <v>-296000</v>
+        <v>907900</v>
       </c>
       <c r="G89" s="3">
-        <v>-55200</v>
+        <v>-286100</v>
       </c>
       <c r="H89" s="3">
-        <v>-425900</v>
+        <v>-53400</v>
       </c>
       <c r="I89" s="3">
-        <v>2009700</v>
+        <v>-411600</v>
       </c>
       <c r="J89" s="3">
+        <v>1942400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-353600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-393600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-217400</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -7227,8 +7443,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,46 +7479,47 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29437000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19019000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31195000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14756000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10678000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13315000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25250000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13164000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15209000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-103000</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7349,8 +7569,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,46 +7753,49 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-151100</v>
+        <v>-173300</v>
       </c>
       <c r="E94" s="3">
-        <v>-166200</v>
+        <v>-146000</v>
       </c>
       <c r="F94" s="3">
-        <v>-122400</v>
+        <v>-160600</v>
       </c>
       <c r="G94" s="3">
-        <v>-78400</v>
+        <v>-118300</v>
       </c>
       <c r="H94" s="3">
-        <v>-165100</v>
+        <v>-75800</v>
       </c>
       <c r="I94" s="3">
-        <v>-41800</v>
+        <v>-159600</v>
       </c>
       <c r="J94" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-125500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-105300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99800</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -7616,8 +7845,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,41 +7881,42 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-64100</v>
+        <v>-4700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2800</v>
+        <v>-61900</v>
       </c>
       <c r="F96" s="3">
-        <v>-31800</v>
+        <v>-2700</v>
       </c>
       <c r="G96" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1800</v>
       </c>
-      <c r="H96" s="3">
-        <v>-21200</v>
-      </c>
       <c r="I96" s="3">
-        <v>-1800</v>
+        <v>-20500</v>
       </c>
       <c r="J96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-21300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7738,8 +7971,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,46 +8247,49 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>13200</v>
+        <v>104100</v>
       </c>
       <c r="E100" s="3">
-        <v>-455200</v>
+        <v>12800</v>
       </c>
       <c r="F100" s="3">
-        <v>414600</v>
+        <v>-439900</v>
       </c>
       <c r="G100" s="3">
-        <v>195400</v>
+        <v>400700</v>
       </c>
       <c r="H100" s="3">
-        <v>431200</v>
+        <v>188900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1594500</v>
+        <v>416800</v>
       </c>
       <c r="J100" s="3">
+        <v>-1541200</v>
+      </c>
+      <c r="K100" s="3">
         <v>510300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>128200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>277100</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -8094,46 +8339,49 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-27800</v>
+        <v>-20100</v>
       </c>
       <c r="E101" s="3">
-        <v>28400</v>
+        <v>-26800</v>
       </c>
       <c r="F101" s="3">
-        <v>37800</v>
+        <v>27400</v>
       </c>
       <c r="G101" s="3">
-        <v>-30500</v>
+        <v>36600</v>
       </c>
       <c r="H101" s="3">
-        <v>-46400</v>
+        <v>-29500</v>
       </c>
       <c r="I101" s="3">
-        <v>-13900</v>
+        <v>-44800</v>
       </c>
       <c r="J101" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -8183,46 +8431,49 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-319700</v>
+        <v>-42900</v>
       </c>
       <c r="E102" s="3">
-        <v>346400</v>
+        <v>-309000</v>
       </c>
       <c r="F102" s="3">
-        <v>34000</v>
+        <v>334800</v>
       </c>
       <c r="G102" s="3">
-        <v>31200</v>
+        <v>32900</v>
       </c>
       <c r="H102" s="3">
-        <v>-206200</v>
+        <v>30200</v>
       </c>
       <c r="I102" s="3">
-        <v>273800</v>
+        <v>-199300</v>
       </c>
       <c r="J102" s="3">
+        <v>264600</v>
+      </c>
+      <c r="K102" s="3">
         <v>95400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-449100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37500</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -8270,6 +8521,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
